--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>16244429.0794966</v>
+        <v>16802497.28289281</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>16263399.33794365</v>
+        <v>16822118.96229002</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>16282624.71075154</v>
+        <v>16842004.21931186</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>16302108.51660559</v>
+        <v>16862156.47688169</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>16321854.10984402</v>
+        <v>16882579.19447462</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>16341864.88032806</v>
+        <v>16903275.86796818</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>16362144.25327795</v>
+        <v>16924250.02945688</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>16382695.68907323</v>
+        <v>16945505.24702916</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>16403522.68301614</v>
+        <v>16967045.12450536</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>16424628.76505661</v>
+        <v>16988873.30113512</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>16446017.49947773</v>
+        <v>17010993.45125302</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>16467692.48454032</v>
+        <v>17033409.28389111</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>16489657.35208539</v>
+        <v>17056124.54234697</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>16511915.76709352</v>
+        <v>17079143.00370627</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>16534471.4271999</v>
+        <v>17102468.47831855</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>16557328.06216423</v>
+        <v>17126104.80922535</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>16580489.43329451</v>
+        <v>17150055.87153969</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>16603959.33282395</v>
+        <v>17174325.57177605</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>16627741.58324053</v>
+        <v>17198917.84713038</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>16651840.03656842</v>
+        <v>17223836.66470933</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>16676258.57360122</v>
+        <v>17249086.02070859</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>16701001.10308646</v>
+        <v>17274669.93953986</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>16726071.56086173</v>
+        <v>17300592.47290663</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>16751473.90894225</v>
+        <v>17326857.69882882</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>16777212.13456041</v>
+        <v>17353469.72061677</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>16803290.24915781</v>
+        <v>17380432.66579488</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>16829712.28733064</v>
+        <v>17407750.68497615</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>16856482.3057293</v>
+        <v>17435427.95068832</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>16883604.38191366</v>
+        <v>17463468.65615327</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>16911082.61316551</v>
+        <v>17491877.01402102</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>16938921.11525993</v>
+        <v>17520657.25506043</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>16967124.02119788</v>
+        <v>17549813.62680889</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>16995695.47990219</v>
+        <v>17579350.39218335</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>17024639.65487999</v>
+        <v>17609271.82805567</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>17053960.72285438</v>
+        <v>17639582.22379563</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>17083662.872369</v>
+        <v>17670285.87978506</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>17113750.30236898</v>
+        <v>17701387.10590692</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>17144227.22076276</v>
+        <v>17732890.22001409</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>17175097.84296893</v>
+        <v>17764799.54638207</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>17206366.39045307</v>
+        <v>17797119.41415111</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>17238037.08925999</v>
+        <v>17829854.15576292</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>17270114.16854671</v>
+        <v>17863008.10539834</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>17302601.85912247</v>
+        <v>17896585.59742172</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>17335504.3920019</v>
+        <v>17930590.96483928</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>17368825.99697849</v>
+        <v>17965028.53777815</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>17402570.90122504</v>
+        <v>17999902.6419939</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>17436743.32792925</v>
+        <v>18035217.59741441</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>17471347.49497189</v>
+        <v>18070977.71672855</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>17506387.6136561</v>
+        <v>18107187.304028</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>17541867.8874964</v>
+        <v>18143850.65351195</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>17577792.51107658</v>
+        <v>18180972.04826359</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>17614165.6689856</v>
+        <v>18218555.75910858</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>17650991.53484121</v>
+        <v>18256606.04356538</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>17688274.27041164</v>
+        <v>18295127.14489828</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>17726018.02484496</v>
+        <v>18334123.29128354</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>17764226.93401714</v>
+        <v>18373598.6950999</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>17802905.1200094</v>
+        <v>18413557.55235478</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>17842056.69072572</v>
+        <v>18454004.04225743</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>17881685.73966162</v>
+        <v>18494942.32695095</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>17921796.34583563</v>
+        <v>18536376.55141498</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>17962392.57389466</v>
+        <v>18578310.84355088</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>18003478.47440465</v>
+        <v>18620749.31446138</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>18045058.08433814</v>
+        <v>18663696.05893706</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>18087135.42776995</v>
+        <v>18707155.15616113</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>18129714.51679263</v>
+        <v>18751130.67064501</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>18172799.35266258</v>
+        <v>18795626.6534062</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>18216393.92718835</v>
+        <v>18840647.14340015</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>18260502.22437159</v>
+        <v>18886196.16921775</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>18305128.22231181</v>
+        <v>18932277.75105957</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>18350275.89538471</v>
+        <v>18978895.90299745</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>18395949.21670457</v>
+        <v>19026054.63553439</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>18442152.1608799</v>
+        <v>19073757.95847245</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>18488888.7070715</v>
+        <v>19122009.88409811</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>18536162.84236175</v>
+        <v>19170814.43069449</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>18583978.56544262</v>
+        <v>19220175.6263884</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>18632339.89063008</v>
+        <v>19270097.51333999</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>18681250.85221134</v>
+        <v>19320584.15228215</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>18730715.50913086</v>
+        <v>19371639.6274154</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>18780737.95002018</v>
+        <v>19423268.05166408</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>18831322.29857548</v>
+        <v>19475473.57229781</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>18882472.71928664</v>
+        <v>19528260.37692164</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>18934193.42351945</v>
+        <v>19581632.69983764</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>18986488.67595282</v>
+        <v>19635594.82877883</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>19039362.80137061</v>
+        <v>19690151.11201587</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>19092820.19180775</v>
+        <v>19745305.96583557</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>19146865.31404811</v>
+        <v>19801063.88238867</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>19201502.71747085</v>
+        <v>19857429.43790404</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>19256737.04224134</v>
+        <v>19914407.30126414</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>19312573.0278401</v>
+        <v>19972002.24293566</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>19369015.52192332</v>
+        <v>20030219.14424828</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>19426069.48950652</v>
+        <v>20089063.00701262</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>19483740.02246135</v>
+        <v>20148538.96346711</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>19542032.34931516</v>
+        <v>20208652.28654236</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>19600951.84534065</v>
+        <v>20269408.40043032</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>19660504.04292191</v>
+        <v>20330812.89144335</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>19720694.64218219</v>
+        <v>20392871.51914791</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>19781529.52185677</v>
+        <v>20455590.22775566</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>19843014.75039377</v>
+        <v>20518975.1577533</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>19905156.59726359</v>
+        <v>20583032.65775148</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>19967961.54445709</v>
+        <v>20647769.29653155</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>20031436.29815137</v>
+        <v>20713191.87526778</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>20095587.80052022</v>
+        <v>20779307.43990134</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>20160423.24166607</v>
+        <v>20846123.29364129</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>20225950.07164853</v>
+        <v>20913647.00956653</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>20292176.01258391</v>
+        <v>20981886.44330181</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>20359109.07078912</v>
+        <v>21050849.74573978</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>20426757.54894248</v>
+        <v>21120545.37578008</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>20495130.05823317</v>
+        <v>21190982.11305603</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>20564235.53047042</v>
+        <v>21262169.07061811</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>20634083.23012282</v>
+        <v>21334115.70754353</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>20704682.76625779</v>
+        <v>21406831.84143995</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>20776044.10435071</v>
+        <v>21480327.66081146</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>20848177.57793272</v>
+        <v>21554613.7372545</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>20921093.90004671</v>
+        <v>21629701.03745104</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>20994804.17447993</v>
+        <v>21705600.93492641</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>21069319.90674267</v>
+        <v>21782325.22153912</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>21144653.01476166</v>
+        <v>21859886.11867031</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>21220815.83925812</v>
+        <v>21938296.2880806</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>21297821.15377995</v>
+        <v>22017568.84240257</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>21375682.1743585</v>
+        <v>22097717.35523769</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>21454412.5687609</v>
+        <v>22178755.87082716</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>21534026.46530977</v>
+        <v>22260698.91326717</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>21614538.46124301</v>
+        <v>22343561.49523932</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>21695963.63058701</v>
+        <v>22427359.12622915</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>21778317.53151887</v>
+        <v>22512107.8202058</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>21861616.21319266</v>
+        <v>22597824.10273789</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>21945876.22200846</v>
+        <v>22684525.01752185</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>22031114.60730191</v>
+        <v>22772228.13230062</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>22117348.92643589</v>
+        <v>22860951.54415224</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>22204597.24927596</v>
+        <v>22950713.88412974</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>22292878.16203394</v>
+        <v>23041534.32123538</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>22382210.77046578</v>
+        <v>23133432.5657151</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>22472614.70241121</v>
+        <v>23226428.87165952</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>22564110.10966606</v>
+        <v>23320544.03890237</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>22656717.66917869</v>
+        <v>23415799.41420671</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>22750458.5835654</v>
+        <v>23512216.89173434</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>22845354.58094179</v>
+        <v>23609818.91279408</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>22941427.91406824</v>
+        <v>23708628.46486827</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>23038701.35881208</v>
+        <v>23808669.07991886</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>23137198.2119295</v>
+        <v>23909964.83197704</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>23236942.28817347</v>
+        <v>24012540.33402302</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>23337957.91673682</v>
+        <v>24116420.73416482</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>23440269.93704119</v>
+        <v>24221631.71112806</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>23543903.69388562</v>
+        <v>24328199.46907065</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>23648885.03197049</v>
+        <v>24436150.73173933</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>23755240.28981575</v>
+        <v>24545512.7359871</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>23862996.29309342</v>
+        <v>24656313.22467373</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>23972180.34739809</v>
+        <v>24768580.43897285</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>24082820.23048041</v>
+        <v>24882343.11011293</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>24194944.18397098</v>
+        <v>24997630.45058032</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>24308580.90462469</v>
+        <v>25114472.14481613</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>24423759.53511678</v>
+        <v>25232898.33943953</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>24540509.65442456</v>
+        <v>25352939.63303326</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>24658861.2678301</v>
+        <v>25474627.06552853</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>24778844.7965813</v>
+        <v>25597992.10722809</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>24900491.06725026</v>
+        <v>25723066.64750882</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>25023831.30082918</v>
+        <v>25849882.98324578</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>25148897.10160587</v>
+        <v>25978473.80700182</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>25275720.44586181</v>
+        <v>26108872.19502825</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>25404333.67043713</v>
+        <v>26241111.59512227</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>25534769.46120758</v>
+        <v>26375225.81438944</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>25667060.84151961</v>
+        <v>26511249.00695896</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>25801241.16063069</v>
+        <v>26649215.66170116</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>25937344.08220154</v>
+        <v>26789160.58999665</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>26075403.57288861</v>
+        <v>26931118.91360734</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>26215453.89108467</v>
+        <v>27075126.05269987</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>26357529.57585556</v>
+        <v>27221217.71407156</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>26501665.43612101</v>
+        <v>27369429.87962953</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>26647896.54012806</v>
+        <v>27519798.79517319</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>26796258.20526359</v>
+        <v>27672360.95952994</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>26946785.98825423</v>
+        <v>27827153.11409348</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>27099515.67579897</v>
+        <v>27984212.2328131</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>27254483.27568097</v>
+        <v>28143575.51268243</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>27411725.00840296</v>
+        <v>28305280.36477403</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>27571277.29939003</v>
+        <v>28469364.40586586</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>27733176.77180254</v>
+        <v>28635865.45070445</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>27897460.24000058</v>
+        <v>28804821.50494783</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>28064164.70369961</v>
+        <v>28976270.75883034</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>28233327.34285635</v>
+        <v>29150251.58158944</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>28404985.51332138</v>
+        <v>29326802.5166933</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>28579176.7432943</v>
+        <v>29505962.27790626</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>28755938.73061454</v>
+        <v>29687769.74622718</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>28935309.34091993</v>
+        <v>29872263.96773362</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>29117326.60670296</v>
+        <v>30059484.15236382</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>29302028.72729279</v>
+        <v>30249469.67366504</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>29489454.06978888</v>
+        <v>30442260.06953606</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>29679641.17097081</v>
+        <v>30637895.04398851</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>29872628.74020587</v>
+        <v>30836414.4699503</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>30068455.66337501</v>
+        <v>31037858.39313217</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>30267161.00783496</v>
+        <v>31242267.03697569</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>30468784.02843241</v>
+        <v>31449680.80869958</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>30673364.17458481</v>
+        <v>31660140.30645904</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>30880941.09843926</v>
+        <v>31873686.32763012</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>31091554.66411984</v>
+        <v>32090359.87822941</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>31305244.95807159</v>
+        <v>32310202.1834779</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>31522052.30050732</v>
+        <v>32533254.69951463</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>31742017.25796151</v>
+        <v>32759559.12626492</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>31965180.65695435</v>
+        <v>32989157.42146535</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>32191583.59876652</v>
+        <v>33222091.81584669</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>32421267.47532414</v>
+        <v>33458404.82947296</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>32654273.98619166</v>
+        <v>33698139.28923476</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>32890645.15666895</v>
+        <v>33941338.34749182</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>33130423.35698173</v>
+        <v>34188045.5018537</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>33373651.32257498</v>
+        <v>34438304.61610815</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>33620372.17548631</v>
+        <v>34692159.94227218</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>33870629.44679546</v>
+        <v>34949656.14376221</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>34124467.10013983</v>
+        <v>35210838.31967183</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>34381929.5562856</v>
+        <v>35475752.0301457</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>34643061.71874246</v>
+        <v>35744443.32283704</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>34907909.00040977</v>
+        <v>36016958.7604351</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>35176517.35124113</v>
+        <v>36293345.44924895</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>35448933.28691366</v>
+        <v>36573651.06883214</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>35725203.91848785</v>
+        <v>36857923.90263391</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>36005376.98304409</v>
+        <v>37146212.86966077</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>36289500.87528038</v>
+        <v>37438567.55713284</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>36577624.6800569</v>
+        <v>37735038.25411879</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>36869798.2058725</v>
+        <v>38035675.98613317</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>37166072.01925709</v>
+        <v>38340532.55067988</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>37466497.48006628</v>
+        <v>38649660.55372524</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>37771126.77766225</v>
+        <v>38963113.44708531</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>38080012.96796619</v>
+        <v>39280945.56671007</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>38393210.01136813</v>
+        <v>39603212.17185009</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>38710772.81147908</v>
+        <v>39929969.48508895</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>39032757.25471216</v>
+        <v>40261274.73322722</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>39359220.25067785</v>
+        <v>40597186.18900151</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>39690219.77338085</v>
+        <v>40937763.21362562</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>40025814.90320449</v>
+        <v>41283066.30013843</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>40366065.86967062</v>
+        <v>41633157.11754472</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>40711034.0949615</v>
+        <v>41988098.55573551</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>41060782.23819235</v>
+        <v>42347954.77117489</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>41415374.24042193</v>
+        <v>42712791.23333963</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>41774875.37038951</v>
+        <v>43082674.77189938</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>42139352.27096712</v>
+        <v>43457673.62462514</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>42508873.00631489</v>
+        <v>43837857.48601283</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>42883507.10972895</v>
+        <v>44223297.55661096</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>43263325.63216978</v>
+        <v>44614066.59303881</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>43648401.19146018</v>
+        <v>45010238.9586838</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>44038808.02214058</v>
+        <v>45411890.67506519</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>44434622.02597067</v>
+        <v>45819099.47385126</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>44835920.82306349</v>
+        <v>46231944.84951696</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>45242783.80364083</v>
+        <v>46650508.11262793</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>45655292.18039492</v>
+        <v>47074872.44373739</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>46073529.04144251</v>
+        <v>47505122.94787921</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>46497579.40385622</v>
+        <v>47941346.7096424</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>46927530.26775556</v>
+        <v>48383632.84880815</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>47363470.67094095</v>
+        <v>48832072.57653209</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>47805491.7440502</v>
+        <v>49286759.25205021</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>48253686.76621672</v>
+        <v>49747788.43988687</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>48708151.2212062</v>
+        <v>50215257.96754088</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>49168982.85400662</v>
+        <v>50689267.98362309</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>49636281.72784335</v>
+        <v>51169921.01641703</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>50110150.28158993</v>
+        <v>51657322.03283101</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>50590693.38754069</v>
+        <v>52151578.49770773</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>51078018.40950879</v>
+        <v>52652800.43345349</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>51572235.26121118</v>
+        <v>53161100.47994646</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>52073456.46489578</v>
+        <v>53676593.95467938</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>52581797.21016513</v>
+        <v>54199398.9130879</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>53097375.41294369</v>
+        <v>54729636.20901176</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>53620311.77453502</v>
+        <v>55267429.55523162</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>54150729.84070604</v>
+        <v>55812905.58401884</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>54688756.06073514</v>
+        <v>56366193.90763125</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>55234519.84635129</v>
+        <v>56927427.17868159</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>55788153.63048898</v>
+        <v>57496741.15029982</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>56349792.92577627</v>
+        <v>58074274.73600575</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>56919576.3826666</v>
+        <v>58660170.06919845</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>57497645.84712009</v>
+        <v>59254572.5621671</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>58084146.41773225</v>
+        <v>59857630.96451695</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>58679226.50219949</v>
+        <v>60469497.42089812</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>59283037.87300695</v>
+        <v>61090327.52791815</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>59895735.72221228</v>
+        <v>61720280.39010946</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>60517478.71519428</v>
+        <v>62359518.67481659</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>61148429.04322454</v>
+        <v>63008208.66585774</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>61788752.47471353</v>
+        <v>63666520.31580763</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>62438618.40497217</v>
+        <v>64334627.29673874</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>63098199.90432179</v>
+        <v>65012707.04924919</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>63767673.76437536</v>
+        <v>65700940.82959489</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>64447220.54230367</v>
+        <v>66399513.75473603</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>65137024.60288981</v>
+        <v>67108614.84509385</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>65837274.15816564</v>
+        <v>67828437.06480791</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>66548161.30441359</v>
+        <v>68559177.35926987</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>67269882.05630666</v>
+        <v>69301036.68970171</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>68002636.37794858</v>
+        <v>70054220.0645334</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>68746628.21056677</v>
+        <v>70818936.56732592</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>69502065.4965979</v>
+        <v>71595399.38097355</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>70269160.19989721</v>
+        <v>72383825.80790859</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>71048128.32179092</v>
+        <v>73184437.28602055</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>71839189.91267991</v>
+        <v>73997459.39999077</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>72642569.0788936</v>
+        <v>74823121.88773391</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>73458493.9844811</v>
+        <v>75661658.64162393</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>74287196.84761733</v>
+        <v>76513307.70417519</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>75128913.93129092</v>
+        <v>77378311.25783673</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>75983885.52793156</v>
+        <v>78256915.60854782</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>76852355.93762478</v>
+        <v>79149371.16269511</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>77734573.43955284</v>
+        <v>80055932.39709944</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>78630790.25629249</v>
+        <v>80976857.8216548</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>79541262.51059143</v>
+        <v>81912409.93423183</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>80466250.17423949</v>
+        <v>82862855.16745102</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>81406017.00864162</v>
+        <v>83828463.82692471</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>82360830.4966968</v>
+        <v>84809510.02056096</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>83330961.76557973</v>
+        <v>85806271.57851639</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>84316685.50001848</v>
+        <v>86819029.96338218</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>85318279.84566072</v>
+        <v>87848070.17018487</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>86336026.3021165</v>
+        <v>88893680.61578059</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>87370209.6052662</v>
+        <v>89956153.01722203</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>88421117.59842479</v>
+        <v>91035782.25867839</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>89489041.09195344</v>
+        <v>92132866.24649125</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>90574273.71091528</v>
+        <v>93247705.75195312</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>91677111.73037803</v>
+        <v>94380604.2414021</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>92797853.89797263</v>
+        <v>95531867.69323415</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>93936801.24332666</v>
+        <v>96701804.40144241</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>95094256.87400547</v>
+        <v>97890724.76530823</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>96270525.75760305</v>
+        <v>99098941.06488034</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>97465914.48964527</v>
+        <v>100326767.2218951</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>98680731.04698247</v>
+        <v>101574518.5458113</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>99915284.5263733</v>
+        <v>102842511.4646531</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>101169884.8679801</v>
+        <v>104131063.2403786</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>102444842.5635272</v>
+        <v>105440491.6685197</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>103740468.3488978</v>
+        <v>106771114.7618668</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>105057072.8809793</v>
+        <v>108123250.4180042</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>106394966.3986005</v>
+        <v>109497216.0705407</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>107754458.3674403</v>
+        <v>110893328.3239121</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>109135857.1088301</v>
+        <v>112311902.5716808</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>110539469.4124108</v>
+        <v>113753252.5982942</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>111965600.1326589</v>
+        <v>115217690.1643199</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>113414551.7693346</v>
+        <v>116705524.5752171</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>114886624.0319695</v>
+        <v>118217062.2337645</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>116382113.3885537</v>
+        <v>119752606.1763163</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>117901312.5986509</v>
+        <v>121312455.5931218</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>119444510.2312227</v>
+        <v>122896905.3329998</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>121011990.167512</v>
+        <v>124506245.3927341</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>122604031.0893969</v>
+        <v>126140760.3916118</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>124220905.9536985</v>
+        <v>127800729.0316069</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>125862881.4529943</v>
+        <v>129486423.5437765</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>127530217.4635607</v>
+        <v>131198109.121516</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>129223166.481144</v>
+        <v>132936043.3413917</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>130941973.0453357</v>
+        <v>134700475.5723516</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>132686873.1534002</v>
+        <v>136491646.3741896</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>134458093.6644875</v>
+        <v>138309786.886219</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>136255851.6952353</v>
+        <v>140155118.2071962</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>138080354.00785</v>
+        <v>142027850.7676075</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>139931796.3918272</v>
+        <v>143928183.6955207</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>141810363.0405568</v>
+        <v>145856304.1772764</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>143716225.9241297</v>
+        <v>147812386.8143762</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>145649544.1597421</v>
+        <v>149796592.978</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>147610463.3811601</v>
+        <v>151809070.1626596</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>149599115.1087865</v>
+        <v>153849951.3405687</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>151615616.1219321</v>
+        <v>155919354.3183759</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>153660067.8349587</v>
+        <v>158017381.0979764</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>155732555.6790245</v>
+        <v>160144117.2431735</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>157833148.4912123</v>
+        <v>162299631.2540222</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>159961897.9128748</v>
+        <v>164483973.9507353</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>162118837.7990706</v>
+        <v>166697177.8690751</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>164303983.6410072</v>
+        <v>168939256.6691962</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>166517332.0034331</v>
+        <v>171210204.5599303</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>168758859.9789468</v>
+        <v>173509995.7405335</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>171028524.6612047</v>
+        <v>175838583.8619256</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>170557067.5002437</v>
+        <v>175352927.7983834</v>
       </c>
       <c r="C358" t="n">
-        <v>2769195.138774477</v>
+        <v>2776074.969043881</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>170080434.0362535</v>
+        <v>174861951.8554359</v>
       </c>
       <c r="C359" t="n">
-        <v>5571555.477072533</v>
+        <v>5585373.474988149</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>169598525.88226</v>
+        <v>174365555.0089447</v>
       </c>
       <c r="C360" t="n">
-        <v>8407073.556759739</v>
+        <v>8427887.409535415</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>169111241.696619</v>
+        <v>173863633.2003786</v>
       </c>
       <c r="C361" t="n">
-        <v>11275722.99695705</v>
+        <v>11303589.69286929</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>168618477.1022108</v>
+        <v>173356079.2539232</v>
       </c>
       <c r="C362" t="n">
-        <v>14177458.17221441</v>
+        <v>14212433.9516787</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>168120124.6039712</v>
+        <v>172842782.7918868</v>
       </c>
       <c r="C363" t="n">
-        <v>17112213.92296503</v>
+        <v>17154354.22955885</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>167616073.5048688</v>
+        <v>172323630.1485173</v>
       </c>
       <c r="C364" t="n">
-        <v>20079905.29998939</v>
+        <v>20129264.73152061</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>167106209.820465</v>
+        <v>171798504.2823652</v>
       </c>
       <c r="C365" t="n">
-        <v>23080427.34452405</v>
+        <v>23137059.60424541</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>166590416.1922226</v>
+        <v>171267284.68737</v>
       </c>
       <c r="C366" t="n">
-        <v>26113654.90555253</v>
+        <v>26177612.75362471</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>166068571.7997603</v>
+        <v>170729847.3028656</v>
       </c>
       <c r="C367" t="n">
-        <v>29179442.49570439</v>
+        <v>29250777.70101169</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>165540552.2722872</v>
+        <v>170186064.4227511</v>
       </c>
       <c r="C368" t="n">
-        <v>32277624.18705483</v>
+        <v>32356387.47947815</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>165006229.5994894</v>
+        <v>169635804.6041034</v>
       </c>
       <c r="C369" t="n">
-        <v>35408013.54798494</v>
+        <v>35494254.57123748</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>164465472.0421816</v>
+        <v>169078932.5755532</v>
       </c>
       <c r="C370" t="n">
-        <v>38570403.62210184</v>
+        <v>38664170.88723285</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>163918144.0430849</v>
+        <v>168515309.1457963</v>
       </c>
       <c r="C371" t="n">
-        <v>41764566.95005675</v>
+        <v>41865907.78972799</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>163364106.1381354</v>
+        <v>167944791.1126552</v>
       </c>
       <c r="C372" t="n">
-        <v>44990255.63491965</v>
+        <v>45099216.15855844</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>162803214.8687854</v>
+        <v>167367231.1731666</v>
       </c>
       <c r="C373" t="n">
-        <v>44989995.95202579</v>
+        <v>45098955.83928412</v>
       </c>
       <c r="D373" t="n">
-        <v>3257205.49955025</v>
+        <v>3388871.049848082</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>162235322.695812</v>
+        <v>166782477.8352202</v>
       </c>
       <c r="C374" t="n">
-        <v>44989695.47941153</v>
+        <v>45098654.63043553</v>
       </c>
       <c r="D374" t="n">
-        <v>6545420.520999989</v>
+        <v>6809833.613546507</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>161660277.9152058</v>
+        <v>166190375.3313425</v>
       </c>
       <c r="C375" t="n">
-        <v>44989348.25950878</v>
+        <v>45098306.55987818</v>
       </c>
       <c r="D375" t="n">
-        <v>9864342.645828875</v>
+        <v>10262569.39338635</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>161077924.5767784</v>
+        <v>165590763.5352748</v>
       </c>
       <c r="C376" t="n">
-        <v>44988947.5387136</v>
+        <v>45097904.85749839</v>
       </c>
       <c r="D376" t="n">
-        <v>13213650.51727214</v>
+        <v>13746740.42391416</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>160488102.4061889</v>
+        <v>164983477.8820712</v>
       </c>
       <c r="C377" t="n">
-        <v>44988485.67262261</v>
+        <v>45097441.86020856</v>
       </c>
       <c r="D377" t="n">
-        <v>16593004.22104486</v>
+        <v>17261989.4721028</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>159890646.7311627</v>
+        <v>164368349.2925052</v>
       </c>
       <c r="C378" t="n">
-        <v>44987954.02170932</v>
+        <v>45096908.90736943</v>
       </c>
       <c r="D378" t="n">
-        <v>20002045.71874902</v>
+        <v>20807940.49224333</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>159285388.4127432</v>
+        <v>163745204.102652</v>
       </c>
       <c r="C379" t="n">
-        <v>44987342.83671961</v>
+        <v>45096296.22590635</v>
       </c>
       <c r="D379" t="n">
-        <v>23440399.33379354</v>
+        <v>24384199.13536312</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>158672153.7824967</v>
+        <v>163113863.9995901</v>
       </c>
       <c r="C380" t="n">
-        <v>44986641.133044</v>
+        <v>45095592.80437565</v>
       </c>
       <c r="D380" t="n">
-        <v>26907672.28942495</v>
+        <v>27990353.3127334</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>158050764.5866632</v>
+        <v>162474145.9642409</v>
       </c>
       <c r="C381" t="n">
-        <v>44985836.55330876</v>
+        <v>45094786.25522123</v>
       </c>
       <c r="D381" t="n">
-        <v>30403455.29822541</v>
+        <v>31625973.81277846</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>157421037.9383301</v>
+        <v>161825862.2224533</v>
       </c>
       <c r="C382" t="n">
-        <v>44984915.21741673</v>
+        <v>45093862.6644503</v>
       </c>
       <c r="D382" t="n">
-        <v>33927323.20218287</v>
+        <v>35290614.97043681</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>156782786.2787796</v>
+        <v>161168820.2055156</v>
       </c>
       <c r="C383" t="n">
-        <v>44983861.55926486</v>
+        <v>45092806.4279536</v>
       </c>
       <c r="D383" t="n">
-        <v>33927259.51443945</v>
+        <v>35290548.71772115</v>
       </c>
       <c r="E383" t="n">
-        <v>3551576.147743642</v>
+        <v>3833183.880060812</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>156135817.349251</v>
+        <v>160502822.5213675</v>
       </c>
       <c r="C384" t="n">
-        <v>44982658.14936839</v>
+        <v>45091600.0736981</v>
       </c>
       <c r="D384" t="n">
-        <v>33927183.58853384</v>
+        <v>35290469.73405181</v>
       </c>
       <c r="E384" t="n">
-        <v>7130354.306967684</v>
+        <v>7695403.248201334</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>155479934.1744344</v>
+        <v>159827666.937865</v>
       </c>
       <c r="C385" t="n">
-        <v>44981285.5026342</v>
+        <v>45090224.06903271</v>
       </c>
       <c r="D385" t="n">
-        <v>33927093.22416977</v>
+        <v>35290375.73055182</v>
       </c>
       <c r="E385" t="n">
-        <v>10735868.23543725</v>
+        <v>11586149.20073493</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>154814935.0590996</v>
+        <v>159143146.3795399</v>
       </c>
       <c r="C386" t="n">
-        <v>44979721.87054708</v>
+        <v>45088656.61236928</v>
       </c>
       <c r="D386" t="n">
-        <v>33926985.85563103</v>
+        <v>35290264.03821643</v>
       </c>
       <c r="E386" t="n">
-        <v>14367639.22467294</v>
+        <v>15504899.48672037</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>154140613.5993404</v>
+        <v>158449048.9393739</v>
       </c>
       <c r="C387" t="n">
-        <v>44977943.01706609</v>
+        <v>45086873.40853416</v>
       </c>
       <c r="D387" t="n">
-        <v>33926858.49680524</v>
+        <v>35290131.55072476</v>
       </c>
       <c r="E387" t="n">
-        <v>18025177.02515285</v>
+        <v>19451119.51125522</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>153456758.7100019</v>
+        <v>157745157.9071949</v>
       </c>
       <c r="C388" t="n">
-        <v>44975921.97757323</v>
+        <v>45084847.42713097</v>
       </c>
       <c r="D388" t="n">
-        <v>33926707.67896031</v>
+        <v>35289974.65971259</v>
       </c>
       <c r="E388" t="n">
-        <v>21707980.81829898</v>
+        <v>23424263.38884629</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>152763154.6699263</v>
+        <v>157031251.8163779</v>
       </c>
       <c r="C389" t="n">
-        <v>44973628.80027556</v>
+        <v>45082548.64331444</v>
       </c>
       <c r="D389" t="n">
-        <v>33926529.38049157</v>
+        <v>35289789.1816929</v>
       </c>
       <c r="E389" t="n">
-        <v>25415540.2331888</v>
+        <v>27423775.04460582</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>152059581.1867332</v>
+        <v>156307104.5106106</v>
       </c>
       <c r="C390" t="n">
-        <v>44971030.26953605</v>
+        <v>45079943.76044922</v>
       </c>
       <c r="D390" t="n">
-        <v>33926318.94780157</v>
+        <v>35289570.27575243</v>
       </c>
       <c r="E390" t="n">
-        <v>29147336.40569225</v>
+        <v>31449089.36076253</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>151345813.4829177</v>
+        <v>155572485.2325535</v>
       </c>
       <c r="C391" t="n">
-        <v>44968089.61069781</v>
+        <v>45076995.91421723</v>
       </c>
       <c r="D391" t="n">
-        <v>33926071.00641872</v>
+        <v>35289312.35109447</v>
       </c>
       <c r="E391" t="n">
-        <v>32902843.07748663</v>
+        <v>35499633.36571107</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>150621622.405108</v>
+        <v>154827158.7362884</v>
       </c>
       <c r="C392" t="n">
-        <v>44964766.17607443</v>
+        <v>45073664.35784574</v>
       </c>
       <c r="D392" t="n">
-        <v>33925779.36140665</v>
+        <v>35289008.96344174</v>
       </c>
       <c r="E392" t="n">
-        <v>36681527.73215622</v>
+        <v>39574827.46255907</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>149886774.558388</v>
+        <v>154070885.4255091</v>
       </c>
       <c r="C393" t="n">
-        <v>44961015.11190468</v>
+        <v>45069904.12825371</v>
       </c>
       <c r="D393" t="n">
-        <v>33925436.88606465</v>
+        <v>35288652.69925945</v>
       </c>
       <c r="E393" t="n">
-        <v>36681482.344354</v>
+        <v>39574778.4873149</v>
       </c>
       <c r="F393" t="n">
-        <v>3801370.420972965</v>
+        <v>3680984.635279624</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>149141032.4676302</v>
+        <v>153303421.5194524</v>
       </c>
       <c r="C394" t="n">
-        <v>44956787.00621558</v>
+        <v>45065665.6930605</v>
       </c>
       <c r="D394" t="n">
-        <v>33925035.39787158</v>
+        <v>35288235.0467089</v>
       </c>
       <c r="E394" t="n">
-        <v>36681427.37395559</v>
+        <v>39574719.17218005</v>
       </c>
       <c r="F394" t="n">
-        <v>7624849.311581608</v>
+        <v>7383579.641669015</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>148384154.7678272</v>
+        <v>152524519.2486104</v>
       </c>
       <c r="C395" t="n">
-        <v>44952027.51770419</v>
+        <v>45060894.5785675</v>
       </c>
       <c r="D395" t="n">
-        <v>33924565.52058321</v>
+        <v>35287746.25219777</v>
       </c>
       <c r="E395" t="n">
-        <v>36681360.92426825</v>
+        <v>39574647.47059441</v>
       </c>
       <c r="F395" t="n">
-        <v>11469894.41800901</v>
+        <v>11107262.76132469</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>147615896.4254325</v>
+        <v>151733927.0822897</v>
       </c>
       <c r="C396" t="n">
-        <v>44946676.98593606</v>
+        <v>45055530.9790113</v>
       </c>
       <c r="D396" t="n">
-        <v>33924016.53135701</v>
+        <v>35287175.16135573</v>
       </c>
       <c r="E396" t="n">
-        <v>36681280.75075137</v>
+        <v>39574560.96066988</v>
       </c>
       <c r="F396" t="n">
-        <v>15335962.42662247</v>
+        <v>14851510.63517252</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>146836008.9927408</v>
+        <v>150931389.9900985</v>
       </c>
       <c r="C397" t="n">
-        <v>44940670.02336781</v>
+        <v>45049509.34759746</v>
       </c>
       <c r="D397" t="n">
-        <v>33923376.19175137</v>
+        <v>35286509.04323637</v>
       </c>
       <c r="E397" t="n">
-        <v>36681184.20293233</v>
+        <v>39574456.78251867</v>
       </c>
       <c r="F397" t="n">
-        <v>19222510.29268864</v>
+        <v>18615800.08921095</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>146044240.8973306</v>
+        <v>150116649.7394417</v>
       </c>
       <c r="C398" t="n">
-        <v>44933935.08993408</v>
+        <v>45042757.97005644</v>
       </c>
       <c r="D398" t="n">
-        <v>33922630.56142943</v>
+        <v>35285733.39652826</v>
       </c>
       <c r="E398" t="n">
-        <v>36681068.15774341</v>
+        <v>39574331.56632507</v>
       </c>
       <c r="F398" t="n">
-        <v>23128996.59254318</v>
+        <v>22399609.44388654</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>145240337.7685822</v>
+        <v>149289445.2310883</v>
       </c>
       <c r="C399" t="n">
-        <v>44926394.05119316</v>
+        <v>45035198.52171903</v>
       </c>
       <c r="D399" t="n">
-        <v>33921763.79339387</v>
+        <v>35284831.73655458</v>
       </c>
       <c r="E399" t="n">
-        <v>36680928.94322</v>
+        <v>39574181.35001761</v>
       </c>
       <c r="F399" t="n">
-        <v>27054882.89562748</v>
+        <v>26202419.84307779</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>144424042.8032503</v>
+        <v>148449512.8748432</v>
       </c>
       <c r="C400" t="n">
-        <v>44917961.72130369</v>
+        <v>45026745.60938631</v>
       </c>
       <c r="D400" t="n">
-        <v>33920757.90958917</v>
+        <v>35283785.36185107</v>
       </c>
       <c r="E400" t="n">
-        <v>36680762.25140637</v>
+        <v>39574001.4852966</v>
       </c>
       <c r="F400" t="n">
-        <v>30999635.15260635</v>
+        <v>30023716.59903041</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>143595097.1720151</v>
+        <v>147596587.0072984</v>
       </c>
       <c r="C401" t="n">
-        <v>44908545.39240359</v>
+        <v>45017306.29956946</v>
       </c>
       <c r="D401" t="n">
-        <v>33919592.55573635</v>
+        <v>35282573.09914172</v>
       </c>
       <c r="E401" t="n">
-        <v>36680563.03921887</v>
+        <v>39573786.53066835</v>
       </c>
       <c r="F401" t="n">
-        <v>34962725.09559643</v>
+        <v>33862990.54940688</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>142753240.4688722</v>
+        <v>146730400.3535717</v>
       </c>
       <c r="C402" t="n">
-        <v>44898044.35228352</v>
+        <v>45006779.63499617</v>
       </c>
       <c r="D402" t="n">
-        <v>33918244.73431195</v>
+        <v>35281171.02558026</v>
       </c>
       <c r="E402" t="n">
-        <v>36680325.41591942</v>
+        <v>39573530.13003258</v>
       </c>
       <c r="F402" t="n">
-        <v>38943631.64632317</v>
+        <v>37719739.42240746</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>141898211.2051193</v>
+        <v>145850684.5348414</v>
       </c>
       <c r="C403" t="n">
-        <v>44886349.39258724</v>
+        <v>44995056.14162159</v>
       </c>
       <c r="D403" t="n">
-        <v>33916688.51465316</v>
+        <v>35279552.16719864</v>
       </c>
       <c r="E403" t="n">
-        <v>36680042.51575565</v>
+        <v>39573224.87526562</v>
       </c>
       <c r="F403" t="n">
-        <v>38943597.46766354</v>
+        <v>37719706.32121953</v>
       </c>
       <c r="G403" t="n">
-        <v>3998244.860163818</v>
+        <v>3395037.964788939</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>141029747.3495943</v>
+        <v>144957170.6233679</v>
       </c>
       <c r="C404" t="n">
-        <v>44873342.31013059</v>
+        <v>44982017.32874182</v>
       </c>
       <c r="D404" t="n">
-        <v>33914894.71926477</v>
+        <v>35277686.17260079</v>
       </c>
       <c r="E404" t="n">
-        <v>36679706.3542306</v>
+        <v>39572862.15114059</v>
       </c>
       <c r="F404" t="n">
-        <v>38943555.51074859</v>
+        <v>37719665.68693518</v>
       </c>
       <c r="G404" t="n">
-        <v>8013299.1643757</v>
+        <v>6805160.348600408</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>140147586.9166691</v>
+        <v>144049589.7465523</v>
       </c>
       <c r="C405" t="n">
-        <v>44858895.40430587</v>
+        <v>44967535.18518396</v>
       </c>
       <c r="D405" t="n">
-        <v>33912830.58552532</v>
+        <v>35275538.96106747</v>
       </c>
       <c r="E405" t="n">
-        <v>36679307.66637495</v>
+        <v>39572431.96082976</v>
       </c>
       <c r="F405" t="n">
-        <v>38943504.11376447</v>
+        <v>37719615.91010697</v>
       </c>
       <c r="G405" t="n">
-        <v>12044673.52622592</v>
+        <v>10229960.39974076</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>139251468.6033488</v>
+        <v>143127673.7414135</v>
       </c>
       <c r="C406" t="n">
-        <v>44842870.97392717</v>
+        <v>44951471.67493635</v>
       </c>
       <c r="D406" t="n">
-        <v>33910459.40214134</v>
+        <v>35273072.34439421</v>
       </c>
       <c r="E406" t="n">
-        <v>36678835.72531337</v>
+        <v>39571922.73014559</v>
       </c>
       <c r="F406" t="n">
-        <v>38943441.2852192</v>
+        <v>37719555.0619954</v>
       </c>
       <c r="G406" t="n">
-        <v>16091891.69960384</v>
+        <v>13669042.27098212</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>138341132.4766305</v>
+        <v>142191155.86067</v>
       </c>
       <c r="C407" t="n">
-        <v>44825120.81727156</v>
+        <v>44933678.23598325</v>
       </c>
       <c r="D407" t="n">
-        <v>33907740.11988166</v>
+        <v>35270243.62197646</v>
       </c>
       <c r="E407" t="n">
-        <v>36678278.13934383</v>
+        <v>39571321.08859845</v>
       </c>
       <c r="F407" t="n">
-        <v>38943364.64418472</v>
+        <v>37719480.83669303</v>
       </c>
       <c r="G407" t="n">
-        <v>20154492.01608307</v>
+        <v>17122022.25058113</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>137416320.7120662</v>
+        <v>141239771.5313905</v>
       </c>
       <c r="C408" t="n">
-        <v>44805485.73947733</v>
+        <v>44913995.28651492</v>
       </c>
       <c r="D408" t="n">
-        <v>33904626.9363422</v>
+        <v>35267005.14888178</v>
       </c>
       <c r="E408" t="n">
-        <v>36677620.62568896</v>
+        <v>39570611.62528582</v>
       </c>
       <c r="F408" t="n">
-        <v>38943271.35089678</v>
+        <v>37719390.48390992</v>
       </c>
       <c r="G408" t="n">
-        <v>24232028.81014419</v>
+        <v>20588529.98450087</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>136476778.3842246</v>
+        <v>140273259.1669317</v>
       </c>
       <c r="C409" t="n">
-        <v>44783795.07186935</v>
+        <v>44892251.74309487</v>
       </c>
       <c r="D409" t="n">
-        <v>33901068.85474599</v>
+        <v>35263303.87691461</v>
       </c>
       <c r="E409" t="n">
-        <v>36676846.75903631</v>
+        <v>39569776.61758024</v>
       </c>
       <c r="F409" t="n">
-        <v>38943158.02639327</v>
+        <v>37719280.73114277</v>
       </c>
       <c r="G409" t="n">
-        <v>28324073.82771443</v>
+        <v>24068209.6859929</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>135522254.309484</v>
+        <v>139291361.0326012</v>
       </c>
       <c r="C410" t="n">
-        <v>44759866.20818889</v>
+        <v>44868264.55577281</v>
       </c>
       <c r="D410" t="n">
-        <v>33897009.21707597</v>
+        <v>35259080.86898308</v>
       </c>
       <c r="E410" t="n">
-        <v>36675937.69296056</v>
+        <v>39568795.73055944</v>
       </c>
       <c r="F410" t="n">
-        <v>38943020.65973668</v>
+        <v>37719147.69381879</v>
       </c>
       <c r="G410" t="n">
-        <v>32430217.61332859</v>
+        <v>27560721.32854138</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>134552501.9412867</v>
+        <v>138293824.1651788</v>
       </c>
       <c r="C411" t="n">
-        <v>44733504.16310476</v>
+        <v>44841838.26553418</v>
       </c>
       <c r="D411" t="n">
-        <v>33892385.21217047</v>
+        <v>35254270.7874232</v>
       </c>
       <c r="E411" t="n">
-        <v>36674871.85232253</v>
+        <v>39567645.68512301</v>
       </c>
       <c r="F411" t="n">
-        <v>38942854.50122398</v>
+        <v>37718986.77186822</v>
       </c>
       <c r="G411" t="n">
-        <v>36550070.87106258</v>
+        <v>31065741.81803524</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>133567280.3176638</v>
+        <v>137280401.3460999</v>
       </c>
       <c r="C412" t="n">
-        <v>44704501.15876979</v>
+        <v>44812764.58986352</v>
       </c>
       <c r="D412" t="n">
-        <v>33887127.35978422</v>
+        <v>35248801.35732382</v>
       </c>
       <c r="E412" t="n">
-        <v>36673624.59476989</v>
+        <v>39566299.89277279</v>
       </c>
       <c r="F412" t="n">
-        <v>38942653.93984202</v>
+        <v>37718792.53103824</v>
       </c>
       <c r="G412" t="n">
-        <v>40683265.79418904</v>
+        <v>34582966.13985649</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>132566355.060489</v>
+        <v>136250852.1277427</v>
       </c>
       <c r="C413" t="n">
-        <v>44672636.24555477</v>
+        <v>44780822.04256895</v>
       </c>
       <c r="D413" t="n">
-        <v>33881158.97203079</v>
+        <v>35242592.80632541</v>
       </c>
       <c r="E413" t="n">
-        <v>36672167.83952746</v>
+        <v>39564728.0551018</v>
       </c>
       <c r="F413" t="n">
-        <v>38942412.36307801</v>
+        <v>37718558.56711723</v>
       </c>
       <c r="G413" t="n">
-        <v>40683238.46789327</v>
+        <v>34582942.92130946</v>
       </c>
       <c r="H413" t="n">
-        <v>4146218.890424887</v>
+        <v>3556573.36864695</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>131549499.4255436</v>
+        <v>135204943.9118731</v>
       </c>
       <c r="C414" t="n">
-        <v>44637674.963434</v>
+        <v>44745775.59435765</v>
       </c>
       <c r="D414" t="n">
-        <v>33874395.59407702</v>
+        <v>35235557.28283843</v>
       </c>
       <c r="E414" t="n">
-        <v>36670469.66176642</v>
+        <v>39562895.72614675</v>
       </c>
       <c r="F414" t="n">
-        <v>38942121.9970462</v>
+        <v>37718277.35109474</v>
       </c>
       <c r="G414" t="n">
-        <v>40683204.55784266</v>
+        <v>34582914.10854945</v>
       </c>
       <c r="H414" t="n">
-        <v>8305120.014715387</v>
+        <v>7124883.026708464</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>130516495.4020756</v>
+        <v>134142453.0788988</v>
       </c>
       <c r="C415" t="n">
-        <v>44599369.05080623</v>
+        <v>44707376.38096233</v>
       </c>
       <c r="D415" t="n">
-        <v>33866744.42645268</v>
+        <v>35227598.25513975</v>
       </c>
       <c r="E415" t="n">
-        <v>36668493.85098635</v>
+        <v>39560763.835914</v>
       </c>
       <c r="F415" t="n">
-        <v>38941773.72474567</v>
+        <v>37717940.05314068</v>
       </c>
       <c r="G415" t="n">
-        <v>40683162.57346169</v>
+        <v>34582878.4349992</v>
       </c>
       <c r="H415" t="n">
-        <v>12476409.10953568</v>
+        <v>10704684.03383379</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>129467134.8601142</v>
+        <v>133063166.1661382</v>
       </c>
       <c r="C416" t="n">
-        <v>44557456.20780483</v>
+        <v>44665361.46588979</v>
       </c>
       <c r="D416" t="n">
-        <v>33858103.73186979</v>
+        <v>35218609.89435817</v>
       </c>
       <c r="E416" t="n">
-        <v>36666199.43203593</v>
+        <v>39558288.17359748</v>
       </c>
       <c r="F416" t="n">
-        <v>38941356.88012406</v>
+        <v>37717536.343152</v>
       </c>
       <c r="G416" t="n">
-        <v>40683110.7103553</v>
+        <v>34582834.3674129</v>
       </c>
       <c r="H416" t="n">
-        <v>16659818.61219766</v>
+        <v>14295754.2181423</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>128401220.7433567</v>
+        <v>131966881.0928679</v>
       </c>
       <c r="C417" t="n">
-        <v>44511659.92137285</v>
+        <v>44619453.66508472</v>
       </c>
       <c r="D417" t="n">
-        <v>33848362.23001127</v>
+        <v>35208476.44494778</v>
       </c>
       <c r="E417" t="n">
-        <v>36663540.14764412</v>
+        <v>39555418.82927093</v>
       </c>
       <c r="F417" t="n">
-        <v>38940859.01549172</v>
+        <v>37717054.16548786</v>
       </c>
       <c r="G417" t="n">
-        <v>40683046.78979681</v>
+        <v>34582780.05445403</v>
       </c>
       <c r="H417" t="n">
-        <v>20855108.81114829</v>
+        <v>17897895.18545807</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>127318568.3049844</v>
+        <v>130853408.4294271</v>
       </c>
       <c r="C418" t="n">
-        <v>44461689.35954605</v>
+        <v>44569361.44096974</v>
       </c>
       <c r="D418" t="n">
-        <v>33837398.4843455</v>
+        <v>35197071.58686895</v>
       </c>
       <c r="E418" t="n">
-        <v>36660463.90163597</v>
+        <v>39552099.59316418</v>
       </c>
       <c r="F418" t="n">
-        <v>38940265.63971387</v>
+        <v>37716479.48540261</v>
       </c>
       <c r="G418" t="n">
-        <v>40682968.18778451</v>
+        <v>34582713.26640837</v>
       </c>
       <c r="H418" t="n">
-        <v>25062068.94047118</v>
+        <v>21510933.28182126</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>126219006.3832862</v>
+        <v>129722572.7071763</v>
       </c>
       <c r="C419" t="n">
-        <v>44407239.34249143</v>
+        <v>44514778.8734275</v>
       </c>
       <c r="D419" t="n">
-        <v>33825080.28564546</v>
+        <v>35184257.79434422</v>
       </c>
       <c r="E419" t="n">
-        <v>36656912.16237286</v>
+        <v>39548267.31202711</v>
       </c>
       <c r="F419" t="n">
-        <v>38939559.92451128</v>
+        <v>37715796.0045903</v>
       </c>
       <c r="G419" t="n">
-        <v>40682871.75212884</v>
+        <v>34582631.32472504</v>
       </c>
       <c r="H419" t="n">
-        <v>29280518.21307136</v>
+        <v>25134720.504641</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>125102378.713481</v>
+        <v>128574213.7656003</v>
       </c>
       <c r="C420" t="n">
-        <v>44347990.39788222</v>
+        <v>44455385.71532422</v>
       </c>
       <c r="D420" t="n">
-        <v>33811264.03753503</v>
+        <v>35169885.69672494</v>
       </c>
       <c r="E420" t="n">
-        <v>36652819.32638769</v>
+        <v>39543851.20255014</v>
       </c>
       <c r="F420" t="n">
-        <v>38938722.37612739</v>
+        <v>37714984.84318526</v>
       </c>
       <c r="G420" t="n">
-        <v>40682753.70585653</v>
+        <v>34582531.01992924</v>
       </c>
       <c r="H420" t="n">
-        <v>33510306.78703165</v>
+        <v>28769135.35769155</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>123968545.2716278</v>
+        <v>127408188.1323336</v>
       </c>
       <c r="C421" t="n">
-        <v>44283608.90814701</v>
+        <v>44390847.54013018</v>
       </c>
       <c r="D421" t="n">
-        <v>33795794.1500408</v>
+        <v>35153793.44768839</v>
       </c>
       <c r="E421" t="n">
-        <v>36648112.04268664</v>
+        <v>39538772.12235022</v>
       </c>
       <c r="F421" t="n">
-        <v>38937730.469578</v>
+        <v>37714024.185522</v>
       </c>
       <c r="G421" t="n">
-        <v>40682609.53503368</v>
+        <v>34582408.51629334</v>
       </c>
       <c r="H421" t="n">
-        <v>37751316.65943993</v>
+        <v>32414083.64498348</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>122817383.6460135</v>
+        <v>126224370.4313727</v>
       </c>
       <c r="C422" t="n">
-        <v>44213747.3570016</v>
+        <v>44320815.98906398</v>
       </c>
       <c r="D422" t="n">
-        <v>33778502.44779027</v>
+        <v>35135806.10967252</v>
       </c>
       <c r="E422" t="n">
-        <v>36642708.49876154</v>
+        <v>39532941.79964926</v>
       </c>
       <c r="F422" t="n">
-        <v>38936558.24269556</v>
+        <v>37712888.88695437</v>
       </c>
       <c r="G422" t="n">
-        <v>40682433.85891527</v>
+        <v>34582259.24148822</v>
       </c>
       <c r="H422" t="n">
-        <v>42003462.48177403</v>
+        <v>36069499.19835045</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>121648790.4308988</v>
+        <v>125022654.8142166</v>
       </c>
       <c r="C423" t="n">
-        <v>44138044.68245194</v>
+        <v>44244929.12496579</v>
       </c>
       <c r="D423" t="n">
-        <v>33759207.60015509</v>
+        <v>35115735.06114079</v>
       </c>
       <c r="E423" t="n">
-        <v>36636517.67000312</v>
+        <v>39526262.02346934</v>
       </c>
       <c r="F423" t="n">
-        <v>38935175.84722166</v>
+        <v>37711550.03907361</v>
       </c>
       <c r="G423" t="n">
-        <v>40682220.28012957</v>
+        <v>34582077.75926685</v>
       </c>
       <c r="H423" t="n">
-        <v>46266692.29071841</v>
+        <v>39735344.53340161</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>120462682.6370038</v>
+        <v>123802956.4081643</v>
       </c>
       <c r="C424" t="n">
-        <v>44056126.74313871</v>
+        <v>44162811.89978716</v>
       </c>
       <c r="D424" t="n">
-        <v>33737714.58128193</v>
+        <v>35093377.43493893</v>
       </c>
       <c r="E424" t="n">
-        <v>36629438.53492638</v>
+        <v>39518623.79694632</v>
       </c>
       <c r="F424" t="n">
-        <v>38933549.05429465</v>
+        <v>37709974.49075552</v>
       </c>
       <c r="G424" t="n">
-        <v>40681961.21240077</v>
+        <v>34581857.62305848</v>
       </c>
       <c r="H424" t="n">
-        <v>50540988.14803745</v>
+        <v>43411611.4282665</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>119258999.1126208</v>
+        <v>122565212.7754928</v>
       </c>
       <c r="C425" t="n">
-        <v>43967606.90447414</v>
+        <v>44074076.74216317</v>
       </c>
       <c r="D425" t="n">
-        <v>33713814.16857223</v>
+        <v>35068515.59664883</v>
       </c>
       <c r="E425" t="n">
-        <v>36621359.25941263</v>
+        <v>39509906.4572201</v>
       </c>
       <c r="F425" t="n">
-        <v>38931638.71183404</v>
+        <v>37708124.32261696</v>
       </c>
       <c r="G425" t="n">
-        <v>40681647.68310985</v>
+        <v>34581591.2081783</v>
       </c>
       <c r="H425" t="n">
-        <v>54826366.68289176</v>
+        <v>47098321.41934584</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>118037701.9687616</v>
+        <v>121309385.3767427</v>
       </c>
       <c r="C426" t="n">
-        <v>43872086.75049454</v>
+        <v>43978324.27100442</v>
       </c>
       <c r="D426" t="n">
-        <v>33687282.48875269</v>
+        <v>35040916.67244902</v>
       </c>
       <c r="E426" t="n">
-        <v>36612156.35403775</v>
+        <v>39499976.76629238</v>
       </c>
       <c r="F426" t="n">
-        <v>38929400.15154725</v>
+        <v>37705956.27267841</v>
       </c>
       <c r="G426" t="n">
-        <v>40681269.10779168</v>
+        <v>34581269.52018618</v>
       </c>
       <c r="H426" t="n">
-        <v>59122879.52970216</v>
+        <v>50795526.2080308</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>116798778.0012842</v>
+        <v>120035461.0308671</v>
       </c>
       <c r="C427" t="n">
-        <v>43769156.9267144</v>
+        <v>43875144.14040786</v>
       </c>
       <c r="D427" t="n">
-        <v>33657880.62120824</v>
+        <v>35010332.13654207</v>
       </c>
       <c r="E427" t="n">
-        <v>36601693.80948754</v>
+        <v>39488687.97824825</v>
       </c>
       <c r="F427" t="n">
-        <v>38926782.54358488</v>
+        <v>37703421.11132068</v>
       </c>
       <c r="G427" t="n">
-        <v>40680813.03347392</v>
+        <v>34580881.97676427</v>
       </c>
       <c r="H427" t="n">
-        <v>63430613.65439638</v>
+        <v>54503307.97211143</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>115542240.1025065</v>
+        <v>118743453.364548</v>
       </c>
       <c r="C428" t="n">
-        <v>43658398.1185202</v>
+        <v>43764116.02043492</v>
       </c>
       <c r="D428" t="n">
-        <v>33625354.26871435</v>
+        <v>34976497.46869309</v>
       </c>
       <c r="E428" t="n">
-        <v>36589822.21605369</v>
+        <v>39475878.88930815</v>
       </c>
       <c r="F428" t="n">
-        <v>38923728.19725792</v>
+        <v>37700462.96399876</v>
       </c>
       <c r="G428" t="n">
-        <v>40680264.84758475</v>
+        <v>34580416.16033131</v>
       </c>
       <c r="H428" t="n">
-        <v>67749691.5615766</v>
+        <v>58221779.57533178</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>114268128.6544064</v>
+        <v>117433404.2425684</v>
       </c>
       <c r="C429" t="n">
-        <v>43539382.16877946</v>
+        <v>43644810.71744159</v>
       </c>
       <c r="D429" t="n">
-        <v>33589433.50609185</v>
+        <v>34939131.89282522</v>
       </c>
       <c r="E429" t="n">
-        <v>36576377.87424883</v>
+        <v>39461372.87830473</v>
       </c>
       <c r="F429" t="n">
-        <v>38920171.8067096</v>
+        <v>37697018.58064014</v>
       </c>
       <c r="G429" t="n">
-        <v>40679607.44899757</v>
+        <v>34579857.53847685</v>
       </c>
       <c r="H429" t="n">
-        <v>72080271.3748372</v>
+        <v>61951084.66827313</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>112976512.8951327</v>
+        <v>116105385.1707385</v>
       </c>
       <c r="C430" t="n">
-        <v>43411673.33736945</v>
+        <v>43516791.4366708</v>
       </c>
       <c r="D430" t="n">
-        <v>33549832.61759964</v>
+        <v>34897938.20792213</v>
       </c>
       <c r="E430" t="n">
-        <v>36561181.9046673</v>
+        <v>39444976.94635311</v>
       </c>
       <c r="F430" t="n">
-        <v>38916039.64101614</v>
+        <v>37693016.55121814</v>
       </c>
       <c r="G430" t="n">
-        <v>40678820.87765117</v>
+        <v>34579189.14918777</v>
       </c>
       <c r="H430" t="n">
-        <v>76422546.78215675</v>
+        <v>65691397.67347541</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>111667492.2502185</v>
+        <v>114759498.6625392</v>
       </c>
       <c r="C431" t="n">
-        <v>43274829.70424716</v>
+        <v>43379615.18873308</v>
       </c>
       <c r="D431" t="n">
-        <v>33506250.03406465</v>
+        <v>34852602.72267852</v>
       </c>
       <c r="E431" t="n">
-        <v>36544039.36633706</v>
+        <v>39426480.76568922</v>
       </c>
       <c r="F431" t="n">
-        <v>38911248.67887806</v>
+        <v>37688376.46765616</v>
       </c>
       <c r="G431" t="n">
-        <v>40677881.8990898</v>
+        <v>34578391.24775978</v>
       </c>
       <c r="H431" t="n">
-        <v>80776746.837965</v>
+        <v>69442923.64741898</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>110341197.6196042</v>
+        <v>113395879.5603474</v>
       </c>
       <c r="C432" t="n">
-        <v>43128404.71649812</v>
+        <v>43232834.3404132</v>
       </c>
       <c r="D432" t="n">
-        <v>33458368.38080953</v>
+        <v>34802795.30540344</v>
       </c>
       <c r="E432" t="n">
-        <v>36524738.39394176</v>
+        <v>39405655.74887532</v>
       </c>
       <c r="F432" t="n">
-        <v>38905705.68886416</v>
+        <v>37683008.03299463</v>
       </c>
       <c r="G432" t="n">
-        <v>40676763.54021971</v>
+        <v>34577440.91224574</v>
       </c>
       <c r="H432" t="n">
-        <v>85143135.61316466</v>
+        <v>73205898.01170321</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>108997792.6113373</v>
+        <v>112014696.3018681</v>
       </c>
       <c r="C433" t="n">
-        <v>42971948.87851608</v>
+        <v>43075998.30895306</v>
       </c>
       <c r="D433" t="n">
-        <v>33405854.64736229</v>
+        <v>34748169.56060176</v>
       </c>
       <c r="E433" t="n">
-        <v>36503049.36542577</v>
+        <v>39382254.15079336</v>
       </c>
       <c r="F433" t="n">
-        <v>38899306.2570866</v>
+        <v>37676810.11963965</v>
       </c>
       <c r="G433" t="n">
-        <v>40675434.57258645</v>
+        <v>34576311.60429903</v>
       </c>
       <c r="H433" t="n">
-        <v>89522011.68407533</v>
+        <v>76980586.14548051</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>107637474.7126403</v>
+        <v>110616152.122211</v>
       </c>
       <c r="C434" t="n">
-        <v>42805011.58309294</v>
+        <v>42908655.39758466</v>
       </c>
       <c r="D434" t="n">
-        <v>33348360.48970582</v>
+        <v>34688363.14342338</v>
       </c>
       <c r="E434" t="n">
-        <v>36478724.11260715</v>
+        <v>39356008.21704823</v>
       </c>
       <c r="F434" t="n">
-        <v>38891933.76522033</v>
+        <v>37669669.77951425</v>
       </c>
       <c r="G434" t="n">
-        <v>40673858.93955205</v>
+        <v>34574972.68233389</v>
       </c>
       <c r="H434" t="n">
-        <v>93913707.45094901</v>
+        <v>80767282.8309204</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>106260476.3889216</v>
+        <v>109200486.1819369</v>
       </c>
       <c r="C435" t="n">
-        <v>42627143.07974281</v>
+        <v>42730354.7686276</v>
       </c>
       <c r="D435" t="n">
-        <v>33285522.67543594</v>
+        <v>34622998.22276554</v>
       </c>
       <c r="E435" t="n">
-        <v>36451495.18849533</v>
+        <v>39326629.39355781</v>
       </c>
       <c r="F435" t="n">
-        <v>38883458.32293227</v>
+        <v>37661461.21004959</v>
       </c>
       <c r="G435" t="n">
-        <v>40671995.12390416</v>
+        <v>34573388.86405392</v>
       </c>
       <c r="H435" t="n">
-        <v>98318588.27642046</v>
+        <v>84566311.54322407</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>104867066.1012503</v>
+        <v>107767974.611337</v>
       </c>
       <c r="C436" t="n">
-        <v>42437896.57506179</v>
+        <v>42540648.5489402</v>
       </c>
       <c r="D436" t="n">
-        <v>33216963.68163496</v>
+        <v>34551682.10322832</v>
       </c>
       <c r="E436" t="n">
-        <v>36421075.20601549</v>
+        <v>39293807.6131923</v>
       </c>
       <c r="F436" t="n">
-        <v>38873735.66005392</v>
+        <v>37652044.68118165</v>
       </c>
       <c r="G436" t="n">
-        <v>40669795.45267211</v>
+        <v>34571519.63560729</v>
       </c>
       <c r="H436" t="n">
-        <v>102737051.4339679</v>
+        <v>88378023.5764524</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>103457549.232837</v>
+        <v>106318931.4612365</v>
       </c>
       <c r="C437" t="n">
-        <v>42236830.45834658</v>
+        <v>42339094.0609308</v>
       </c>
       <c r="D437" t="n">
-        <v>33142292.45452294</v>
+        <v>34474008.01534934</v>
       </c>
       <c r="E437" t="n">
-        <v>36387156.26375878</v>
+        <v>39257210.67631386</v>
       </c>
       <c r="F437" t="n">
-        <v>38862605.98520846</v>
+        <v>37641265.42985278</v>
       </c>
       <c r="G437" t="n">
-        <v>40667205.33627106</v>
+        <v>34569318.60492019</v>
       </c>
       <c r="H437" t="n">
-        <v>107169524.8562295</v>
+        <v>92202796.99622332</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>102032268.9151558</v>
+        <v>104853709.5507058</v>
       </c>
       <c r="C438" t="n">
-        <v>42023510.6440779</v>
+        <v>42125256.17071455</v>
       </c>
       <c r="D438" t="n">
-        <v>33061105.33901604</v>
+        <v>34389556.08257325</v>
       </c>
       <c r="E438" t="n">
-        <v>36349409.47517657</v>
+        <v>39216483.74292994</v>
       </c>
       <c r="F438" t="n">
-        <v>38849892.81908244</v>
+        <v>37628952.52995035</v>
       </c>
       <c r="G438" t="n">
-        <v>40664162.4395552</v>
+        <v>34566732.79715145</v>
       </c>
       <c r="H438" t="n">
-        <v>111616465.6727993</v>
+        <v>96041035.41013646</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>100591606.7445139</v>
+        <v>103372701.2022381</v>
       </c>
       <c r="C439" t="n">
-        <v>41797513.02123436</v>
+        <v>41898709.74335705</v>
       </c>
       <c r="D439" t="n">
-        <v>32972987.18519523</v>
+        <v>34297894.47223969</v>
       </c>
       <c r="E439" t="n">
-        <v>36307484.61829234</v>
+        <v>39171248.95488065</v>
       </c>
       <c r="F439" t="n">
-        <v>38835401.81210019</v>
+        <v>37614917.74713328</v>
       </c>
       <c r="G439" t="n">
-        <v>40660595.78294815</v>
+        <v>34563701.89070991</v>
       </c>
       <c r="H439" t="n">
-        <v>116078358.5269853</v>
+        <v>99893166.54665276</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>99135983.38012195</v>
+        <v>101876338.8552103</v>
       </c>
       <c r="C440" t="n">
-        <v>41558425.99775827</v>
+        <v>41659042.19349775</v>
       </c>
       <c r="D440" t="n">
-        <v>32877512.63736781</v>
+        <v>34198580.73650012</v>
       </c>
       <c r="E440" t="n">
-        <v>36261009.92348862</v>
+        <v>39121105.2070023</v>
       </c>
       <c r="F440" t="n">
-        <v>38818919.55790067</v>
+        <v>37598954.38958733</v>
       </c>
       <c r="G440" t="n">
-        <v>40656424.77254303</v>
+        <v>34560157.39289168</v>
       </c>
       <c r="H440" t="n">
-        <v>120555713.6609038</v>
+        <v>103759640.6330566</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>97665859.01505332</v>
+        <v>100365095.5487836</v>
       </c>
       <c r="C441" t="n">
-        <v>41305853.12686672</v>
+        <v>41405856.11801448</v>
       </c>
       <c r="D441" t="n">
-        <v>32774247.60989098</v>
+        <v>34091163.34749942</v>
       </c>
       <c r="E441" t="n">
-        <v>36209592.0172088</v>
+        <v>39065628.0865133</v>
       </c>
       <c r="F441" t="n">
-        <v>38800212.41571153</v>
+        <v>37580836.16739161</v>
       </c>
       <c r="G441" t="n">
-        <v>40651558.15893724</v>
+        <v>34556021.75493572</v>
       </c>
       <c r="H441" t="n">
-        <v>125049064.7582775</v>
+        <v>107640928.5631159</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>96181733.71189265</v>
+        <v>98839485.26582423</v>
       </c>
       <c r="C442" t="n">
-        <v>41039415.80030998</v>
+        <v>41138771.99579448</v>
       </c>
       <c r="D442" t="n">
-        <v>32662750.95222548</v>
+        <v>33975183.42938854</v>
       </c>
       <c r="E442" t="n">
-        <v>36152816.03946806</v>
+        <v>39004369.99992818</v>
       </c>
       <c r="F442" t="n">
-        <v>38779025.35644119</v>
+        <v>37560316.07485101</v>
       </c>
       <c r="G442" t="n">
-        <v>40645892.92559549</v>
+        <v>34551207.42717049</v>
       </c>
       <c r="H442" t="n">
-        <v>129558966.5343708</v>
+        <v>111537519.8451061</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>94684147.59536827</v>
+        <v>97300063.12993708</v>
       </c>
       <c r="C443" t="n">
-        <v>40758755.9921464</v>
+        <v>40857430.9381417</v>
       </c>
       <c r="D443" t="n">
-        <v>32542576.30380696</v>
+        <v>33850176.68777896</v>
       </c>
       <c r="E443" t="n">
-        <v>36090245.952867</v>
+        <v>38936860.50658767</v>
       </c>
       <c r="F443" t="n">
-        <v>38755080.84903805</v>
+        <v>37537125.31182256</v>
       </c>
       <c r="G443" t="n">
-        <v>40639313.1087261</v>
+        <v>34545615.85593691</v>
       </c>
       <c r="H443" t="n">
-        <v>134085992.0626714</v>
+        <v>115449920.3210118</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>93173680.89484456</v>
+        <v>95747425.44829543</v>
       </c>
       <c r="C444" t="n">
-        <v>40463539.03515216</v>
+        <v>40561497.47189531</v>
       </c>
       <c r="D444" t="n">
-        <v>32413274.13727573</v>
+        <v>33715675.53511991</v>
       </c>
       <c r="E444" t="n">
-        <v>36021425.06032095</v>
+        <v>38862606.87737469</v>
       </c>
       <c r="F444" t="n">
-        <v>38728077.80536536</v>
+        <v>37510972.26171061</v>
       </c>
       <c r="G444" t="n">
-        <v>40631688.55201424</v>
+        <v>34539136.42512742</v>
       </c>
       <c r="H444" t="n">
-        <v>138630729.8282368</v>
+        <v>119378649.6479814</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>91650953.83020596</v>
+        <v>94182209.5936287</v>
       </c>
       <c r="C445" t="n">
-        <v>40153456.41063667</v>
+        <v>40250662.33598344</v>
       </c>
       <c r="D445" t="n">
-        <v>32274393.98640779</v>
+        <v>33571211.40819344</v>
       </c>
       <c r="E445" t="n">
-        <v>35945876.74793483</v>
+        <v>38781094.89634095</v>
       </c>
       <c r="F445" t="n">
-        <v>38697690.60347661</v>
+        <v>37481541.54538999</v>
       </c>
       <c r="G445" t="n">
-        <v>40622873.60108197</v>
+        <v>34531645.34647796</v>
       </c>
       <c r="H445" t="n">
-        <v>143193780.4980609</v>
+        <v>123324238.5334849</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>90116626.33540274</v>
+        <v>92605093.71948653</v>
       </c>
       <c r="C446" t="n">
-        <v>39828228.53121418</v>
+        <v>39924645.27091352</v>
       </c>
       <c r="D446" t="n">
-        <v>32125486.85276166</v>
+        <v>33416317.27150078</v>
       </c>
       <c r="E446" t="n">
-        <v>35863105.46834864</v>
+        <v>38691789.9217767</v>
       </c>
       <c r="F446" t="n">
-        <v>38663568.21070894</v>
+        <v>37448493.17180144</v>
       </c>
       <c r="G446" t="n">
-        <v>40612705.74423584</v>
+        <v>34523004.50418741</v>
       </c>
       <c r="H446" t="n">
-        <v>147775753.399429</v>
+        <v>127287225.7161498</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>88571397.61473918</v>
+        <v>91016796.3037297</v>
       </c>
       <c r="C447" t="n">
-        <v>39487607.49501105</v>
+        <v>39583197.77962638</v>
       </c>
       <c r="D447" t="n">
-        <v>31966107.7826202</v>
+        <v>33250530.29777969</v>
       </c>
       <c r="E447" t="n">
-        <v>35772597.97843773</v>
+        <v>38594138.2217011</v>
       </c>
       <c r="F447" t="n">
-        <v>38625333.42940112</v>
+        <v>37411461.80730849</v>
       </c>
       <c r="G447" t="n">
-        <v>40601004.20791323</v>
+        <v>34513060.26101074</v>
       </c>
       <c r="H447" t="n">
-        <v>152377262.6980095</v>
+        <v>131268154.6849259</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>87016005.52786767</v>
+        <v>89418075.51610619</v>
       </c>
       <c r="C448" t="n">
-        <v>39131379.78888764</v>
+        <v>39226105.83723911</v>
       </c>
       <c r="D448" t="n">
-        <v>31795818.6032923</v>
+        <v>33073394.71427781</v>
       </c>
       <c r="E448" t="n">
-        <v>35673824.84346316</v>
+        <v>38487568.59682099</v>
       </c>
       <c r="F448" t="n">
-        <v>38582582.28924282</v>
+        <v>37370056.18706802</v>
       </c>
       <c r="G448" t="n">
-        <v>40587568.51723407</v>
+        <v>34501642.23466933</v>
       </c>
       <c r="H448" t="n">
-        <v>156998923.2684295</v>
+        <v>135267570.1300871</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>85451225.80039887</v>
+        <v>87809728.40674207</v>
       </c>
       <c r="C449" t="n">
-        <v>38759368.91754458</v>
+        <v>38853192.52649029</v>
       </c>
       <c r="D449" t="n">
-        <v>31614190.80527602</v>
+        <v>32884464.80074018</v>
       </c>
       <c r="E449" t="n">
-        <v>35566242.21762709</v>
+        <v>38371494.30169617</v>
       </c>
       <c r="F449" t="n">
-        <v>38534883.61122727</v>
+        <v>37323858.69260172</v>
       </c>
       <c r="G449" t="n">
-        <v>40572177.03419212</v>
+        <v>34488562.0552295</v>
       </c>
       <c r="H449" t="n">
-        <v>161641346.2512989</v>
+        <v>139286014.1206357</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>83877871.05804648</v>
+        <v>86192589.91341276</v>
       </c>
       <c r="C450" t="n">
-        <v>38371437.93488401</v>
+        <v>38464320.5752015</v>
       </c>
       <c r="D450" t="n">
-        <v>31420808.55420745</v>
+        <v>32683308.02238876</v>
       </c>
       <c r="E450" t="n">
-        <v>35449293.90849669</v>
+        <v>38245315.27216127</v>
       </c>
       <c r="F450" t="n">
-        <v>38481778.76886383</v>
+        <v>37272425.12041869</v>
       </c>
       <c r="G450" t="n">
-        <v>40554585.48825412</v>
+        <v>34473612.11599974</v>
       </c>
       <c r="H450" t="n">
-        <v>166305134.2920952</v>
+        <v>143324022.0039209</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>82296789.68328464</v>
+        <v>84567531.68654865</v>
       </c>
       <c r="C451" t="n">
-        <v>37967491.85372502</v>
+        <v>38059394.77179614</v>
       </c>
       <c r="D451" t="n">
-        <v>31215271.81396456</v>
+        <v>32469508.278514</v>
       </c>
       <c r="E451" t="n">
-        <v>35322413.72992508</v>
+        <v>38108420.66399537</v>
       </c>
       <c r="F451" t="n">
-        <v>38422781.67266185</v>
+        <v>37215284.66688345</v>
       </c>
       <c r="G451" t="n">
-        <v>40534525.51645082</v>
+        <v>34456564.3324651</v>
       </c>
       <c r="H451" t="n">
-        <v>170990876.4590654</v>
+        <v>147382118.0248007</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>80708864.49460083</v>
+        <v>82935460.73206355</v>
       </c>
       <c r="C452" t="n">
-        <v>37547479.90994196</v>
+        <v>37638364.23488714</v>
       </c>
       <c r="D452" t="n">
-        <v>30997199.55980166</v>
+        <v>32242669.24470461</v>
       </c>
       <c r="E452" t="n">
-        <v>35185028.14493486</v>
+        <v>37960191.70441833</v>
       </c>
       <c r="F452" t="n">
-        <v>38357379.00387929</v>
+        <v>37151940.15450604</v>
       </c>
       <c r="G452" t="n">
-        <v>40511703.23240478</v>
+        <v>34437168.92578518</v>
       </c>
       <c r="H452" t="n">
-        <v>175699142.8393014</v>
+        <v>151460810.663399</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>16802497.28289281</v>
+        <v>24028464.63151348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>16822118.96229002</v>
+        <v>24056520.85098809</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>16842004.21931186</v>
+        <v>24084950.05084896</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>16862156.47688169</v>
+        <v>24113756.99783322</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>16882579.19447462</v>
+        <v>24142946.50667189</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>16903275.86796818</v>
+        <v>24172523.43967967</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>16924250.02945688</v>
+        <v>24202492.70628329</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>16945505.24702916</v>
+        <v>24232859.26248576</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>16967045.12450536</v>
+        <v>24263628.11026451</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>16988873.30113512</v>
+        <v>24294804.29690072</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>17010993.45125302</v>
+        <v>24326392.91423771</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>17033409.28389111</v>
+        <v>24358399.09786637</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>17056124.54234697</v>
+        <v>24390828.02623516</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>17079143.00370627</v>
+        <v>24423684.91968303</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>17102468.47831855</v>
+        <v>24456975.03939336</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>17126104.80922535</v>
+        <v>24490703.68626693</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>17150055.87153969</v>
+        <v>24524876.1997129</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>17174325.57177605</v>
+        <v>24559497.95635588</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>17198917.84713038</v>
+        <v>24594574.36865849</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>17223836.66470933</v>
+        <v>24630110.88345805</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>17249086.02070859</v>
+        <v>24666112.98041714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>17274669.93953986</v>
+        <v>24702586.17038728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>17300592.47290663</v>
+        <v>24739535.99368585</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>17326857.69882882</v>
+        <v>24776968.01828664</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>17353469.72061677</v>
+        <v>24814887.83792418</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>17380432.66579488</v>
+        <v>24853301.07011318</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>17407750.68497615</v>
+        <v>24892213.35408416</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>17435427.95068832</v>
+        <v>24931630.34863725</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>17463468.65615327</v>
+        <v>24971557.72991603</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>17491877.01402102</v>
+        <v>25012001.18910453</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>17520657.25506043</v>
+        <v>25052966.4300498</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>17549813.62680889</v>
+        <v>25094459.16681446</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>17579350.39218335</v>
+        <v>25136485.12116287</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>17609271.82805567</v>
+        <v>25179050.0199858</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>17639582.22379563</v>
+        <v>25222159.59266877</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>17670285.87978506</v>
+        <v>25265819.5684102</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>17701387.10590692</v>
+        <v>25310035.67349544</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>17732890.22001409</v>
+        <v>25354813.6285339</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>17764799.54638207</v>
+        <v>25400159.1456673</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>17797119.41415111</v>
+        <v>25446077.92575694</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>17829854.15576292</v>
+        <v>25492575.65555901</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>17863008.10539834</v>
+        <v>25539658.0048982</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>17896585.59742172</v>
+        <v>25587330.62384927</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>17930590.96483928</v>
+        <v>25635599.13993783</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>17965028.53777815</v>
+        <v>25684469.15537226</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>17999902.6419939</v>
+        <v>25733946.24431853</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>18035217.59741441</v>
+        <v>25784035.95023175</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>18070977.71672855</v>
+        <v>25834743.78325718</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>18107187.304028</v>
+        <v>25886075.21771586</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>18143850.65351195</v>
+        <v>25938035.68968909</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>18180972.04826359</v>
+        <v>25990630.59471782</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>18218555.75910858</v>
+        <v>26043865.28563257</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>18256606.04356538</v>
+        <v>26097745.07053096</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>18295127.14489828</v>
+        <v>26152275.21091978</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>18334123.29128354</v>
+        <v>26207460.9200392</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>18373598.6950999</v>
+        <v>26263307.36138739</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>18413557.55235478</v>
+        <v>26319819.64746406</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>18454004.04225743</v>
+        <v>26377002.83875139</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>18494942.32695095</v>
+        <v>26434861.94295207</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>18536376.55141498</v>
+        <v>26493401.91450316</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>18578310.84355088</v>
+        <v>26552627.65438606</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>18620749.31446138</v>
+        <v>26612544.01025142</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>18663696.05893706</v>
+        <v>26673155.7768796</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>18707155.15616113</v>
+        <v>26734467.6969954</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>18751130.67064501</v>
+        <v>26796484.46245761</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>18795626.6534062</v>
+        <v>26859210.71584187</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>18840647.14340015</v>
+        <v>26922651.05243653</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>18886196.16921775</v>
+        <v>26986810.02267018</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>18932277.75105957</v>
+        <v>27051692.13498894</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>18978895.90299745</v>
+        <v>27117301.8592015</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>19026054.63553439</v>
+        <v>27183643.63030897</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>19073757.95847245</v>
+        <v>27250721.85283601</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>19122009.88409811</v>
+        <v>27318540.90567871</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>19170814.43069449</v>
+        <v>27387105.14748418</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>19220175.6263884</v>
+        <v>27456418.92257515</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>19270097.51333999</v>
+        <v>27526486.56743241</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>19320584.15228215</v>
+        <v>27597312.41774637</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>19371639.6274154</v>
+        <v>27668900.81604759</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>19423268.05166408</v>
+        <v>27741256.11992517</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>19475473.57229781</v>
+        <v>27814382.71083979</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>19528260.37692164</v>
+        <v>27888285.0035374</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>19581632.69983764</v>
+        <v>27962967.45606667</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>19635594.82877883</v>
+        <v>28038434.5804032</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>19690151.11201587</v>
+        <v>28114690.95367984</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>19745305.96583557</v>
+        <v>28191741.23002224</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>19801063.88238867</v>
+        <v>28269590.15298514</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>19857429.43790404</v>
+        <v>28348242.56858418</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>19914407.30126414</v>
+        <v>28427703.43891569</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>19972002.24293566</v>
+        <v>28507977.85635339</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>20030219.14424828</v>
+        <v>28589071.05831083</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>20089063.00701262</v>
+        <v>28670988.44255459</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>20148538.96346711</v>
+        <v>28753735.58305143</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>20208652.28654236</v>
+        <v>28837318.24633061</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>20269408.40043032</v>
+        <v>28921742.40834</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>20330812.89144335</v>
+        <v>29007014.27177176</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>20392871.51914791</v>
+        <v>29093140.28383271</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>20455590.22775566</v>
+        <v>29180127.15442986</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>20518975.1577533</v>
+        <v>29267981.87474174</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>20583032.65775148</v>
+        <v>29356711.73614222</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>20647769.29653155</v>
+        <v>29446324.34944189</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>20713191.87526778</v>
+        <v>29536827.66441048</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>20779307.43990134</v>
+        <v>29628229.98954114</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>20846123.29364129</v>
+        <v>29720540.01201535</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>20913647.00956653</v>
+        <v>29813766.81782633</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>20981886.44330181</v>
+        <v>29907919.91201599</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>21050849.74573978</v>
+        <v>30003009.23897941</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>21120545.37578008</v>
+        <v>30099045.2027893</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>21190982.11305603</v>
+        <v>30196038.68749156</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>21262169.07061811</v>
+        <v>30294001.07732156</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>21334115.70754353</v>
+        <v>30392944.27678999</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>21406831.84143995</v>
+        <v>30492880.73058654</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>21480327.66081146</v>
+        <v>30593823.44324783</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>21554613.7372545</v>
+        <v>30695785.99853704</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>21629701.03745104</v>
+        <v>30798782.57848101</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>21705600.93492641</v>
+        <v>30902827.98201116</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>21782325.22153912</v>
+        <v>31007937.64315454</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>21859886.11867031</v>
+        <v>31114127.6487213</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>21938296.2880806</v>
+        <v>31221414.75543558</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>22017568.84240257</v>
+        <v>31329816.40645734</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>22097717.35523769</v>
+        <v>31439350.74724403</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>22178755.87082716</v>
+        <v>31550036.6407011</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>22260698.91326717</v>
+        <v>31661893.68157279</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>22343561.49523932</v>
+        <v>31774942.21002558</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>22427359.12622915</v>
+        <v>31889203.32437817</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>22512107.8202058</v>
+        <v>32004698.89293487</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>22597824.10273789</v>
+        <v>32121451.56488007</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>22684525.01752185</v>
+        <v>32239484.78019498</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>22772228.13230062</v>
+        <v>32358822.7785599</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>22860951.54415224</v>
+        <v>32479490.60720796</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>22950713.88412974</v>
+        <v>32601514.12769925</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>23041534.32123538</v>
+        <v>32724920.02158783</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>23133432.5657151</v>
+        <v>32849735.79495662</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>23226428.87165952</v>
+        <v>32975989.7817993</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>23320544.03890237</v>
+        <v>33103711.14623128</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>23415799.41420671</v>
+        <v>33232929.8835163</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>23512216.89173434</v>
+        <v>33363676.8198976</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>23609818.91279408</v>
+        <v>33495983.61122905</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>23708628.46486827</v>
+        <v>33629882.74040204</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>23808669.07991886</v>
+        <v>33765407.51357169</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>23909964.83197704</v>
+        <v>33902592.05518735</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>24012540.33402302</v>
+        <v>34041471.30183782</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>24116420.73416482</v>
+        <v>34182080.99492566</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>24221631.71112806</v>
+        <v>34324457.6721888</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>24328199.46907065</v>
+        <v>34468638.65809266</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>24436150.73173933</v>
+        <v>34614662.05311894</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>24545512.7359871</v>
+        <v>34762566.72198245</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>24656313.22467373</v>
+        <v>34912392.2808109</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>24768580.43897285</v>
+        <v>35064179.08332626</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>24882343.11011293</v>
+        <v>35217968.20607121</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>24997630.45058032</v>
+        <v>35373801.43272627</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>25114472.14481613</v>
+        <v>35531721.23756877</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>25232898.33943953</v>
+        <v>35691770.76812671</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>25352939.63303326</v>
+        <v>35853993.82708502</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>25474627.06552853</v>
+        <v>36018434.85350388</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>25597992.10722809</v>
+        <v>36185138.90341314</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>25723066.64750882</v>
+        <v>36354151.62984797</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>25849882.98324578</v>
+        <v>36525519.26239476</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>25978473.80700182</v>
+        <v>36699288.58631855</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>26108872.19502825</v>
+        <v>36875506.92134417</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>26241111.59512227</v>
+        <v>37054222.10016728</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>26375225.81438944</v>
+        <v>37235482.44677102</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>26511249.00695896</v>
+        <v>37419336.75462676</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>26649215.66170116</v>
+        <v>37605834.2648586</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>26789160.58999665</v>
+        <v>37795024.64445084</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>26931118.91360734</v>
+        <v>37986957.96458033</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>27075126.05269987</v>
+        <v>38181684.67915414</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>27221217.71407156</v>
+        <v>38379255.60363438</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>27369429.87962953</v>
+        <v>38579721.89423079</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>27519798.79517319</v>
+        <v>38783135.02754278</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>27672360.95952994</v>
+        <v>38989546.78073025</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>27827153.11409348</v>
+        <v>39199009.21229272</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>27984212.2328131</v>
+        <v>39411574.64353528</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>28143575.51268243</v>
+        <v>39627295.64079751</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>28305280.36477403</v>
+        <v>39846224.99852081</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>28469364.40586586</v>
+        <v>40068415.72322726</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>28635865.45070445</v>
+        <v>40293921.01848152</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>28804821.50494783</v>
+        <v>40522794.2709043</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>28976270.75883034</v>
+        <v>40755089.03730451</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>29150251.58158944</v>
+        <v>40990859.03299335</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>29326802.5166933</v>
+        <v>41230158.12134235</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>29505962.27790626</v>
+        <v>41473040.30464244</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>29687769.74622718</v>
+        <v>41719559.71632063</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>29872263.96773362</v>
+        <v>41969770.61456474</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>30059484.15236382</v>
+        <v>42223727.37740618</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>30249469.67366504</v>
+        <v>42481484.49930543</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>30442260.06953606</v>
+        <v>42743096.58928157</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>30637895.04398851</v>
+        <v>43008618.37062597</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>30836414.4699503</v>
+        <v>43278104.6822322</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>31037858.39313217</v>
+        <v>43551610.48157618</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>31242267.03697569</v>
+        <v>43829190.84937198</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>31449680.80869958</v>
+        <v>44110900.99592818</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>31660140.30645904</v>
+        <v>44396796.26922549</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>31873686.32763012</v>
+        <v>44686932.1647315</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>32090359.87822941</v>
+        <v>44981364.33696708</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>32310202.1834779</v>
+        <v>45280148.61283316</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>32533254.69951463</v>
+        <v>45583341.00670561</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>32759559.12626492</v>
+        <v>45890997.73730076</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>32989157.42146535</v>
+        <v>46203175.24631184</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>33222091.81584669</v>
+        <v>46519930.21881335</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>33458404.82947296</v>
+        <v>46841319.60542816</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>33698139.28923476</v>
+        <v>47167400.64624732</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>33941338.34749182</v>
+        <v>47498230.89649241</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>34188045.5018537</v>
+        <v>47833868.25389636</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>34438304.61610815</v>
+        <v>48174370.9878142</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>34692159.94227218</v>
+        <v>48519797.77001841</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>34949656.14376221</v>
+        <v>48870207.7071679</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>35210838.31967183</v>
+        <v>49225660.37492676</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>35475752.0301457</v>
+        <v>49586215.85370994</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>35744443.32283704</v>
+        <v>49951934.76602903</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>36016958.7604351</v>
+        <v>50322878.31541208</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>36293345.44924895</v>
+        <v>50699108.32686832</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>36573651.06883214</v>
+        <v>51080687.2888694</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>36857923.90263391</v>
+        <v>51467678.39681545</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>37146212.86966077</v>
+        <v>51860145.59795728</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>37438567.55713284</v>
+        <v>52258153.63774097</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>37735038.25411879</v>
+        <v>52661768.10754453</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>38035675.98613317</v>
+        <v>53071055.49377393</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>38340532.55067988</v>
+        <v>53486083.22828634</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>38649660.55372524</v>
+        <v>53906919.74010793</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>38963113.44708531</v>
+        <v>54333634.50841556</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>39280945.56671007</v>
+        <v>54766298.11674788</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>39603212.17185009</v>
+        <v>55204982.30841748</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>39929969.48508895</v>
+        <v>55649760.0430899</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>40261274.73322722</v>
+        <v>56100705.55450134</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>40597186.18900151</v>
+        <v>56557894.40928335</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>40937763.21362562</v>
+        <v>57021403.56686582</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>41283066.30013843</v>
+        <v>57491311.44042923</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>41633157.11754472</v>
+        <v>57967697.95887798</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>41988098.55573551</v>
+        <v>58450644.62980735</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>42347954.77117489</v>
+        <v>58940234.60343747</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>42712791.23333963</v>
+        <v>59436552.73748766</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>43082674.77189938</v>
+        <v>59939685.66296577</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>43457673.62462514</v>
+        <v>60449721.85084805</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>43837857.48601283</v>
+        <v>60966751.67962395</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>44223297.55661096</v>
+        <v>61490867.5036827</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>44614066.59303881</v>
+        <v>62022163.72251716</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>45010238.9586838</v>
+        <v>62560736.85072168</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>45411890.67506519</v>
+        <v>63106685.5887602</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>45819099.47385126</v>
+        <v>63660110.89448104</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>46231944.84951696</v>
+        <v>64221116.05535391</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>46650508.11262793</v>
+        <v>64789806.76140548</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>47074872.44373739</v>
+        <v>65366291.17882803</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>47505122.94787921</v>
+        <v>65950680.0242352</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>47941346.7096424</v>
+        <v>66543086.6395382</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>48383632.84880815</v>
+        <v>67143627.06741379</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>48832072.57653209</v>
+        <v>67752420.127335</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>49286759.25205021</v>
+        <v>68369587.4921318</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>49747788.43988687</v>
+        <v>68995253.76504889</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>50215257.96754088</v>
+        <v>69629546.55726415</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>50689267.98362309</v>
+        <v>70272596.56582856</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>51169921.01641703</v>
+        <v>70924537.65198629</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>51657322.03283101</v>
+        <v>71585506.91982888</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>52151578.49770773</v>
+        <v>72255644.79523559</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>52652800.43345349</v>
+        <v>72935095.10504571</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>53161100.47994646</v>
+        <v>73624005.15640628</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>53676593.95467938</v>
+        <v>74322525.81623279</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>54199398.9130879</v>
+        <v>75030811.59071475</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>54729636.20901176</v>
+        <v>75749020.70479417</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>55267429.55523162</v>
+        <v>76477315.18153755</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>55812905.58401884</v>
+        <v>77215860.92131548</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>56366193.90763125</v>
+        <v>77964827.78069918</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>56927427.17868159</v>
+        <v>78724389.65097284</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>57496741.15029982</v>
+        <v>79494724.53615703</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>58074274.73600575</v>
+        <v>80276014.63042617</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>58660170.06919845</v>
+        <v>81068446.39479843</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>59254572.5621671</v>
+        <v>81872210.63296443</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>59857630.96451695</v>
+        <v>82687502.56611505</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>60469497.42089812</v>
+        <v>83514521.90661483</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>61090327.52791815</v>
+        <v>84353472.93036196</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>61720280.39010946</v>
+        <v>85204564.54766159</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>62359518.67481659</v>
+        <v>86068010.37243043</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>63008208.66585774</v>
+        <v>86944028.78953794</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>63666520.31580763</v>
+        <v>87832843.02007952</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>64334627.29673874</v>
+        <v>88734681.18436332</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>65012707.04924919</v>
+        <v>89649776.36237961</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>65700940.82959489</v>
+        <v>90578366.65151231</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>66399513.75473603</v>
+        <v>91520695.22123472</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>67108614.84509385</v>
+        <v>92477010.36452025</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>67828437.06480791</v>
+        <v>93447565.54568823</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>68559177.35926987</v>
+        <v>94432619.44438401</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>69301036.68970171</v>
+        <v>95432435.99538726</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>70054220.0645334</v>
+        <v>96447284.42392053</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>70818936.56732592</v>
+        <v>97477439.27612172</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>71595399.38097355</v>
+        <v>98523180.44432585</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>72383825.80790859</v>
+        <v>99584793.18678963</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>73184437.28602055</v>
+        <v>100662568.1414765</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>73997459.39999077</v>
+        <v>101756801.3335076</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>74823121.88773391</v>
+        <v>102867794.1758661</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>75661658.64162393</v>
+        <v>103995853.4629351</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>76513307.70417519</v>
+        <v>105141291.3564285</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>77378311.25783673</v>
+        <v>106304425.3632652</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>78256915.60854782</v>
+        <v>107485578.3049257</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>79149371.16269511</v>
+        <v>108685078.2778122</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>80055932.39709944</v>
+        <v>109903258.604129</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>80976857.8216548</v>
+        <v>111140457.7727817</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>81912409.93423183</v>
+        <v>112397019.3697918</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>82862855.16745102</v>
+        <v>113673291.9977058</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>83828463.82692471</v>
+        <v>114969629.1834763</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>84809510.02056096</v>
+        <v>116286389.2742824</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>85806271.57851639</v>
+        <v>117623935.3207526</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>86819029.96338218</v>
+        <v>118982634.9470477</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>87848070.17018487</v>
+        <v>119899424.6543854</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>88893680.61578059</v>
+        <v>120831811.2490246</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>89956153.01722203</v>
+        <v>121780081.6140879</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>91035782.25867839</v>
+        <v>122744525.7390878</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>92132866.24649125</v>
+        <v>123725436.5675488</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>93247705.75195312</v>
+        <v>124723109.8327654</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>94380604.2414021</v>
+        <v>125737843.8813135</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>95531867.69323415</v>
+        <v>126769939.4839389</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>96701804.40144241</v>
+        <v>127819699.6334551</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>97890724.76530823</v>
+        <v>128887429.3292989</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>99098941.06488034</v>
+        <v>129973435.3484041</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>100326767.2218951</v>
+        <v>131078026.0020693</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>101574518.5458113</v>
+        <v>132201510.8785172</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>102842511.4646531</v>
+        <v>133344200.5708641</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>104131063.2403786</v>
+        <v>134506406.3902399</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>105440491.6685197</v>
+        <v>135688440.0638305</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>106771114.7618668</v>
+        <v>136890613.4176377</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>108123250.4180042</v>
+        <v>138113238.043791</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>109497216.0705407</v>
+        <v>139356624.9522752</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>110893328.3239121</v>
+        <v>140621084.2069804</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>112311902.5716808</v>
+        <v>141906924.5460185</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>113753252.5982942</v>
+        <v>143214452.986296</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>115217690.1643199</v>
+        <v>144543974.4123829</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>116705524.5752171</v>
+        <v>145895791.1497603</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>118217062.2337645</v>
+        <v>147270202.5225907</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>119752606.1763163</v>
+        <v>148667504.3962058</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>121312455.5931218</v>
+        <v>150087988.704566</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>122896905.3329998</v>
+        <v>151531942.9630088</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>124506245.3927341</v>
+        <v>152999649.7666666</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>126140760.3916118</v>
+        <v>154491386.2750012</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>127800729.0316069</v>
+        <v>156007423.6829706</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>129486423.5437765</v>
+        <v>157548026.6794153</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>131198109.121516</v>
+        <v>159113452.8933249</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>132936043.3413917</v>
+        <v>160703952.3287191</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>134700475.5723516</v>
+        <v>162319766.7889542</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>136491646.3741896</v>
+        <v>163961129.2913439</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>138309786.886219</v>
+        <v>165628263.4730573</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>140155118.2071962</v>
+        <v>167321382.9893429</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>142027850.7676075</v>
+        <v>169040690.9051967</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>143928183.6955207</v>
+        <v>170786379.0816769</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>145856304.1772764</v>
+        <v>172558627.5581426</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>147812386.8143762</v>
+        <v>174357603.9317683</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>149796592.978</v>
+        <v>176183462.7357641</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>151809070.1626596</v>
+        <v>178036344.8177968</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>153849951.3405687</v>
+        <v>179916376.720183</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>155919354.3183759</v>
+        <v>181823670.0634864</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>158017381.0979764</v>
+        <v>183758320.9352134</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>160144117.2431735</v>
+        <v>185720409.2853615</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>162299631.2540222</v>
+        <v>187709998.3306223</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>164483973.9507353</v>
+        <v>189727133.9690952</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>166697177.8690751</v>
+        <v>191771844.2073959</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>168939256.6691962</v>
+        <v>193844138.6020952</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>171210204.5599303</v>
+        <v>195944007.7174316</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>173509995.7405335</v>
+        <v>198071422.6012765</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>175838583.8619256</v>
+        <v>200226334.2813295</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>175352927.7983834</v>
+        <v>199565699.5724526</v>
       </c>
       <c r="C358" t="n">
         <v>2776074.969043881</v>
@@ -9762,7 +9762,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>174861951.8554359</v>
+        <v>198898441.3208344</v>
       </c>
       <c r="C359" t="n">
         <v>5585373.474988149</v>
@@ -9788,7 +9788,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>174365555.0089447</v>
+        <v>198224457.6799003</v>
       </c>
       <c r="C360" t="n">
         <v>8427887.409535415</v>
@@ -9814,7 +9814,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>173863633.2003786</v>
+        <v>197543644.4429151</v>
       </c>
       <c r="C361" t="n">
         <v>11303589.69286929</v>
@@ -9840,7 +9840,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>173356079.2539232</v>
+        <v>196855894.9978431</v>
       </c>
       <c r="C362" t="n">
         <v>14212433.9516787</v>
@@ -9866,7 +9866,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>172842782.7918868</v>
+        <v>196161100.2808544</v>
       </c>
       <c r="C363" t="n">
         <v>17154354.22955885</v>
@@ -9892,7 +9892,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>172323630.1485173</v>
+        <v>195459148.728505</v>
       </c>
       <c r="C364" t="n">
         <v>20129264.73152061</v>
@@ -9918,7 +9918,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>171798504.2823652</v>
+        <v>194749926.2286516</v>
       </c>
       <c r="C365" t="n">
         <v>23137059.60424541</v>
@@ -9944,7 +9944,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>171267284.68737</v>
+        <v>194033316.070175</v>
       </c>
       <c r="C366" t="n">
         <v>26177612.75362471</v>
@@ -9970,7 +9970,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>170729847.3028656</v>
+        <v>193309198.8916276</v>
       </c>
       <c r="C367" t="n">
         <v>29250777.70101169</v>
@@ -9996,7 +9996,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>170186064.4227511</v>
+        <v>192577452.6289448</v>
       </c>
       <c r="C368" t="n">
         <v>32356387.47947815</v>
@@ -10022,7 +10022,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>169635804.6041034</v>
+        <v>191837952.4623979</v>
       </c>
       <c r="C369" t="n">
         <v>35494254.57123748</v>
@@ -10048,7 +10048,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>169078932.5755532</v>
+        <v>191090570.7630089</v>
       </c>
       <c r="C370" t="n">
         <v>38664170.88723285</v>
@@ -10074,7 +10074,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>168515309.1457963</v>
+        <v>190335177.0386818</v>
       </c>
       <c r="C371" t="n">
         <v>41865907.78972799</v>
@@ -10100,7 +10100,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>167944791.1126552</v>
+        <v>189571637.8803636</v>
       </c>
       <c r="C372" t="n">
         <v>45099216.15855844</v>
@@ -10126,7 +10126,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>167367231.1731666</v>
+        <v>188799816.908586</v>
       </c>
       <c r="C373" t="n">
         <v>45098955.83928412</v>
@@ -10152,7 +10152,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>166782477.8352202</v>
+        <v>188019574.7208037</v>
       </c>
       <c r="C374" t="n">
         <v>45098654.63043553</v>
@@ -10178,7 +10178,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>166190375.3313425</v>
+        <v>187230768.8399951</v>
       </c>
       <c r="C375" t="n">
         <v>45098306.55987818</v>
@@ -10204,7 +10204,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>165590763.5352748</v>
+        <v>186433253.6650589</v>
       </c>
       <c r="C376" t="n">
         <v>45097904.85749839</v>
@@ -10230,7 +10230,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>164983477.8820712</v>
+        <v>185626880.4236027</v>
       </c>
       <c r="C377" t="n">
         <v>45097441.86020856</v>
@@ -10256,7 +10256,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>164368349.2925052</v>
+        <v>184811497.1277886</v>
       </c>
       <c r="C378" t="n">
         <v>45096908.90736943</v>
@@ -10282,7 +10282,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>163745204.102652</v>
+        <v>183986948.533977</v>
       </c>
       <c r="C379" t="n">
         <v>45096296.22590635</v>
@@ -10308,7 +10308,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>163113863.9995901</v>
+        <v>183153076.1069808</v>
       </c>
       <c r="C380" t="n">
         <v>45095592.80437565</v>
@@ -10334,7 +10334,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>162474145.9642409</v>
+        <v>182309717.989826</v>
       </c>
       <c r="C381" t="n">
         <v>45094786.25522123</v>
@@ -10360,7 +10360,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>161825862.2224533</v>
+        <v>181456708.9799921</v>
       </c>
       <c r="C382" t="n">
         <v>45093862.6644503</v>
@@ -10386,7 +10386,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>161168820.2055156</v>
+        <v>180593880.513192</v>
       </c>
       <c r="C383" t="n">
         <v>45092806.4279536</v>
@@ -10412,7 +10412,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>160502822.5213675</v>
+        <v>179721060.6558356</v>
       </c>
       <c r="C384" t="n">
         <v>45091600.0736981</v>
@@ -10438,7 +10438,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>159827666.937865</v>
+        <v>178838074.1074066</v>
       </c>
       <c r="C385" t="n">
         <v>45090224.06903271</v>
@@ -10464,7 +10464,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>159143146.3795399</v>
+        <v>177944742.2140708</v>
       </c>
       <c r="C386" t="n">
         <v>45088656.61236928</v>
@@ -10490,7 +10490,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>158449048.9393739</v>
+        <v>177040882.9949169</v>
       </c>
       <c r="C387" t="n">
         <v>45086873.40853416</v>
@@ -10516,7 +10516,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>157745157.9071949</v>
+        <v>176126311.1823207</v>
       </c>
       <c r="C388" t="n">
         <v>45084847.42713097</v>
@@ -10542,7 +10542,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>157031251.8163779</v>
+        <v>175200838.2780017</v>
       </c>
       <c r="C389" t="n">
         <v>45082548.64331444</v>
@@ -10568,7 +10568,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>156307104.5106106</v>
+        <v>174264272.6264234</v>
       </c>
       <c r="C390" t="n">
         <v>45079943.76044922</v>
@@ -10594,7 +10594,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>155572485.2325535</v>
+        <v>173316419.5072641</v>
       </c>
       <c r="C391" t="n">
         <v>45076995.91421723</v>
@@ -10620,7 +10620,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>154827158.7362884</v>
+        <v>172357081.2487524</v>
       </c>
       <c r="C392" t="n">
         <v>45073664.35784574</v>
@@ -10646,7 +10646,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>154070885.4255091</v>
+        <v>171386057.3637275</v>
       </c>
       <c r="C393" t="n">
         <v>45069904.12825371</v>
@@ -10672,7 +10672,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>153303421.5194524</v>
+        <v>170403144.7103384</v>
       </c>
       <c r="C394" t="n">
         <v>45065665.6930605</v>
@@ -10698,7 +10698,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>152524519.2486104</v>
+        <v>169408137.6793407</v>
       </c>
       <c r="C395" t="n">
         <v>45060894.5785675</v>
@@ -10724,7 +10724,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>151733927.0822897</v>
+        <v>168400828.4099853</v>
       </c>
       <c r="C396" t="n">
         <v>45055530.9790113</v>
@@ -10750,7 +10750,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>150931389.9900985</v>
+        <v>167381007.0365152</v>
       </c>
       <c r="C397" t="n">
         <v>45049509.34759746</v>
@@ -10776,7 +10776,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>150116649.7394417</v>
+        <v>166348461.9672951</v>
       </c>
       <c r="C398" t="n">
         <v>45042757.97005644</v>
@@ -10802,7 +10802,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>149289445.2310883</v>
+        <v>165302980.198589</v>
       </c>
       <c r="C399" t="n">
         <v>45035198.52171903</v>
@@ -10828,7 +10828,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>148449512.8748432</v>
+        <v>164244347.6649816</v>
       </c>
       <c r="C400" t="n">
         <v>45026745.60938631</v>
@@ -10854,7 +10854,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>147596587.0072984</v>
+        <v>163172349.6283881</v>
       </c>
       <c r="C401" t="n">
         <v>45017306.29956946</v>
@@ -10880,7 +10880,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>146730400.3535717</v>
+        <v>162086771.1075439</v>
       </c>
       <c r="C402" t="n">
         <v>45006779.63499617</v>
@@ -10906,7 +10906,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>145850684.5348414</v>
+        <v>160987397.3497706</v>
       </c>
       <c r="C403" t="n">
         <v>44995056.14162159</v>
@@ -10932,7 +10932,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>144957170.6233679</v>
+        <v>159874014.346717</v>
       </c>
       <c r="C404" t="n">
         <v>44982017.32874182</v>
@@ -10958,7 +10958,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>144049589.7465523</v>
+        <v>158746409.3956332</v>
       </c>
       <c r="C405" t="n">
         <v>44967535.18518396</v>
@@ -10984,7 +10984,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>143127673.7414135</v>
+        <v>157604371.7075869</v>
       </c>
       <c r="C406" t="n">
         <v>44951471.67493635</v>
@@ -11010,7 +11010,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>142191155.86067</v>
+        <v>156447693.0638415</v>
       </c>
       <c r="C407" t="n">
         <v>44933678.23598325</v>
@@ -11036,7 +11036,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>141239771.5313905</v>
+        <v>155276168.5214095</v>
       </c>
       <c r="C408" t="n">
         <v>44913995.28651492</v>
@@ -11062,7 +11062,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>140273259.1669317</v>
+        <v>154089597.1685558</v>
       </c>
       <c r="C409" t="n">
         <v>44892251.74309487</v>
@@ -11088,7 +11088,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>139291361.0326012</v>
+        <v>152887782.9307611</v>
       </c>
       <c r="C410" t="n">
         <v>44868264.55577281</v>
@@ -11114,7 +11114,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>138293824.1651788</v>
+        <v>151670535.4273598</v>
       </c>
       <c r="C411" t="n">
         <v>44841838.26553418</v>
@@ -11140,7 +11140,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>137280401.3460999</v>
+        <v>150437670.8787492</v>
       </c>
       <c r="C412" t="n">
         <v>44812764.58986352</v>
@@ -11166,7 +11166,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>136250852.1277427</v>
+        <v>149189013.063717</v>
       </c>
       <c r="C413" t="n">
         <v>44780822.04256895</v>
@@ -11192,7 +11192,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>135204943.9118731</v>
+        <v>147924394.3260584</v>
       </c>
       <c r="C414" t="n">
         <v>44745775.59435765</v>
@@ -11218,7 +11218,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>134142453.0788988</v>
+        <v>146643656.6292594</v>
       </c>
       <c r="C415" t="n">
         <v>44707376.38096233</v>
@@ -11244,7 +11244,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>133063166.1661382</v>
+        <v>145346652.657594</v>
       </c>
       <c r="C416" t="n">
         <v>44665361.46588979</v>
@@ -11270,7 +11270,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>131966881.0928679</v>
+        <v>144033246.9615428</v>
       </c>
       <c r="C417" t="n">
         <v>44619453.66508472</v>
@@ -11296,7 +11296,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>130853408.4294271</v>
+        <v>142703317.1449774</v>
       </c>
       <c r="C418" t="n">
         <v>44569361.44096974</v>
@@ -11322,7 +11322,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>129722572.7071763</v>
+        <v>141356755.091071</v>
       </c>
       <c r="C419" t="n">
         <v>44514778.8734275</v>
@@ -11348,7 +11348,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>128574213.7656003</v>
+        <v>139993468.2234067</v>
       </c>
       <c r="C420" t="n">
         <v>44455385.71532422</v>
@@ -11374,7 +11374,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>127408188.1323336</v>
+        <v>138613380.7982504</v>
       </c>
       <c r="C421" t="n">
         <v>44390847.54013018</v>
@@ -11400,7 +11400,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>126224370.4313727</v>
+        <v>137216435.2234449</v>
       </c>
       <c r="C422" t="n">
         <v>44320815.98906398</v>
@@ -11426,7 +11426,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>125022654.8142166</v>
+        <v>135802593.3988736</v>
       </c>
       <c r="C423" t="n">
         <v>44244929.12496579</v>
@@ -11452,7 +11452,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>123802956.4081643</v>
+        <v>134371838.0729325</v>
       </c>
       <c r="C424" t="n">
         <v>44162811.89978716</v>
@@ -11478,7 +11478,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>122565212.7754928</v>
+        <v>132924174.2089495</v>
       </c>
       <c r="C425" t="n">
         <v>44074076.74216317</v>
@@ -11504,7 +11504,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>121309385.3767427</v>
+        <v>131459630.3550047</v>
       </c>
       <c r="C426" t="n">
         <v>43978324.27100442</v>
@@ -11530,7 +11530,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>120035461.0308671</v>
+        <v>129978260.0101316</v>
       </c>
       <c r="C427" t="n">
         <v>43875144.14040786</v>
@@ -11556,7 +11556,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>118743453.364548</v>
+        <v>128480142.9794395</v>
       </c>
       <c r="C428" t="n">
         <v>43764116.02043492</v>
@@ -11582,7 +11582,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>117433404.2425684</v>
+        <v>126965386.7102775</v>
       </c>
       <c r="C429" t="n">
         <v>43644810.71744159</v>
@@ -11608,7 +11608,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>116105385.1707385</v>
+        <v>125434127.6011803</v>
       </c>
       <c r="C430" t="n">
         <v>43516791.4366708</v>
@@ -11634,7 +11634,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>114759498.6625392</v>
+        <v>123886532.2749968</v>
       </c>
       <c r="C431" t="n">
         <v>43379615.18873308</v>
@@ -11660,7 +11660,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>113395879.5603474</v>
+        <v>122322798.8073091</v>
       </c>
       <c r="C432" t="n">
         <v>43232834.3404132</v>
@@ -11686,7 +11686,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>112014696.3018681</v>
+        <v>120743157.9010044</v>
       </c>
       <c r="C433" t="n">
         <v>43075998.30895306</v>
@@ -11712,7 +11712,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>110616152.122211</v>
+        <v>119147873.9976839</v>
       </c>
       <c r="C434" t="n">
         <v>42908655.39758466</v>
@@ -11738,7 +11738,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>109200486.1819369</v>
+        <v>117537246.3164659</v>
       </c>
       <c r="C435" t="n">
         <v>42730354.7686276</v>
@@ -11764,7 +11764,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>107767974.611337</v>
+        <v>115911609.8106861</v>
       </c>
       <c r="C436" t="n">
         <v>42540648.5489402</v>
@@ -11790,7 +11790,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>106318931.4612365</v>
+        <v>114271336.0330185</v>
       </c>
       <c r="C437" t="n">
         <v>42339094.0609308</v>
@@ -11816,7 +11816,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>104853709.5507058</v>
+        <v>112616833.899626</v>
       </c>
       <c r="C438" t="n">
         <v>42125256.17071455</v>
@@ -11842,7 +11842,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>103372701.2022381</v>
+        <v>110948550.3441244</v>
       </c>
       <c r="C439" t="n">
         <v>41898709.74335705</v>
@@ -11868,7 +11868,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>101876338.8552103</v>
+        <v>109266970.8523912</v>
       </c>
       <c r="C440" t="n">
         <v>41659042.19349775</v>
@@ -11894,7 +11894,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>100365095.5487836</v>
+        <v>107572619.8695867</v>
       </c>
       <c r="C441" t="n">
         <v>41405856.11801448</v>
@@ -11920,7 +11920,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>98839485.26582423</v>
+        <v>105866061.0711683</v>
       </c>
       <c r="C442" t="n">
         <v>41138771.99579448</v>
@@ -11946,7 +11946,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>97300063.12993708</v>
+        <v>104147897.4901844</v>
       </c>
       <c r="C443" t="n">
         <v>40857430.9381417</v>
@@ -11972,7 +11972,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>95747425.44829543</v>
+        <v>102418771.4937144</v>
       </c>
       <c r="C444" t="n">
         <v>40561497.47189531</v>
@@ -11998,7 +11998,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>94182209.5936287</v>
+        <v>100679364.6019911</v>
       </c>
       <c r="C445" t="n">
         <v>40250662.33598344</v>
@@ -12024,7 +12024,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>92605093.71948653</v>
+        <v>98930397.14448673</v>
       </c>
       <c r="C446" t="n">
         <v>39924645.27091352</v>
@@ -12050,7 +12050,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>91016796.3037297</v>
+        <v>97172627.74806413</v>
       </c>
       <c r="C447" t="n">
         <v>39583197.77962638</v>
@@ -12076,7 +12076,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>89418075.51610619</v>
+        <v>95406852.65319256</v>
       </c>
       <c r="C448" t="n">
         <v>39226105.83723911</v>
@@ -12102,7 +12102,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>87809728.40674207</v>
+        <v>93633904.85518438</v>
       </c>
       <c r="C449" t="n">
         <v>38853192.52649029</v>
@@ -12128,7 +12128,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>86192589.91341276</v>
+        <v>91854653.06843317</v>
       </c>
       <c r="C450" t="n">
         <v>38464320.5752015</v>
@@ -12154,7 +12154,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>84567531.68654865</v>
+        <v>90070000.51270874</v>
       </c>
       <c r="C451" t="n">
         <v>38059394.77179614</v>
@@ -12180,7 +12180,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>82935460.73206355</v>
+        <v>88280883.52168481</v>
       </c>
       <c r="C452" t="n">
         <v>37638364.23488714</v>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24028464.63151348</v>
+        <v>24232037.22052358</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>24056520.85098809</v>
+        <v>24260331.0395267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>24084950.05084896</v>
+        <v>24289000.89894334</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>24113756.99783322</v>
+        <v>24318051.60265132</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>24142946.50667189</v>
+        <v>24347488.00282076</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>24172523.43967967</v>
+        <v>24377314.99949545</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>24202492.70628329</v>
+        <v>24407537.54011193</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>24232859.26248576</v>
+        <v>24438160.61895373</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>24263628.11026451</v>
+        <v>24469189.27653869</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>24294804.29690072</v>
+        <v>24500628.5989366</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>24326392.91423771</v>
+        <v>24532483.71701493</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>24358399.09786637</v>
+        <v>24564759.80561084</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>24390828.02623516</v>
+        <v>24597462.0826267</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>24423684.91968303</v>
+        <v>24630595.80804775</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>24456975.03939336</v>
+        <v>24664166.28287944</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>24490703.68626693</v>
+        <v>24698178.84800327</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>24524876.1997129</v>
+        <v>24732638.88294925</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>24559497.95635588</v>
+        <v>24767551.80458364</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>24594574.36865849</v>
+        <v>24802923.06571092</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>24630110.88345805</v>
+        <v>24838758.15358907</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>24666112.98041714</v>
+        <v>24875062.58835744</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>24702586.17038728</v>
+        <v>24911841.92137682</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>24739535.99368585</v>
+        <v>24949101.73348159</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>24776968.01828664</v>
+        <v>24986847.63314445</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>24814887.83792418</v>
+        <v>25025085.25455382</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>24853301.07011318</v>
+        <v>25063820.25560533</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>24892213.35408416</v>
+        <v>25103058.31580857</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>24931630.34863725</v>
+        <v>25142805.1341107</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>24971557.72991603</v>
+        <v>25183066.42663948</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>25012001.18910453</v>
+        <v>25223847.92436805</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>25052966.4300498</v>
+        <v>25265155.37070481</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>25094459.16681446</v>
+        <v>25306994.51901206</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>25136485.12116287</v>
+        <v>25349371.13005747</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>25179050.0199858</v>
+        <v>25392290.96940349</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>25222159.59266877</v>
+        <v>25435759.8047394</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>25265819.5684102</v>
+        <v>25479783.40316267</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>25310035.67349544</v>
+        <v>25524367.52841556</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>25354813.6285339</v>
+        <v>25569517.9380845</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>25400159.1456673</v>
+        <v>25615240.38076986</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>25446077.92575694</v>
+        <v>25661540.59323462</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>25492575.65555901</v>
+        <v>25708424.29754098</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>25539658.0048982</v>
+        <v>25755897.19818489</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>25587330.62384927</v>
+        <v>25803964.97923884</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>25635599.13993783</v>
+        <v>25852633.30151375</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>25684469.15537226</v>
+        <v>25901907.79975256</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>25733946.24431853</v>
+        <v>25951794.079867</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>25784035.95023175</v>
+        <v>26002297.71623155</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>25834743.78325718</v>
+        <v>26053424.24904804</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>25886075.21771586</v>
+        <v>26105179.18179514</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>25938035.68968909</v>
+        <v>26157567.97877846</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>25990630.59471782</v>
+        <v>26210596.06279627</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>26043865.28563257</v>
+        <v>26264268.81293763</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>26097745.07053096</v>
+        <v>26318591.56252939</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>26152275.21091978</v>
+        <v>26373569.59724996</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>26207460.9200392</v>
+        <v>26429208.15342698</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>26263307.36138739</v>
+        <v>26485512.41653784</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>26319819.64746406</v>
+        <v>26542487.51993153</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>26377002.83875139</v>
+        <v>26600138.5437906</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>26434861.94295207</v>
+        <v>26658470.51435316</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>26493401.91450316</v>
+        <v>26717488.40341384</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>26552627.65438606</v>
+        <v>26777197.12812428</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>26612544.01025142</v>
+        <v>26837601.55111213</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>26673155.7768796</v>
+        <v>26898706.48093943</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>26734467.6969954</v>
+        <v>26960516.67291947</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>26796484.46245761</v>
+        <v>27023036.83031244</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>26859210.71584187</v>
+        <v>27086271.60591939</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>26922651.05243653</v>
+        <v>27150225.60409354</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>26986810.02267018</v>
+        <v>27214903.38318836</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>27051692.13498894</v>
+        <v>27280309.45846076</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>27117301.8592015</v>
+        <v>27346448.30544703</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>27183643.63030897</v>
+        <v>27413324.36382971</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>27250721.85283601</v>
+        <v>27480942.04181083</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>27318540.90567871</v>
+        <v>27549305.72100875</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>27387105.14748418</v>
+        <v>27618419.76189197</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>27456418.92257515</v>
+        <v>27688288.50976482</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>27526486.56743241</v>
+        <v>27758916.30131716</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>27597312.41774637</v>
+        <v>27830307.47174992</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>27668900.81604759</v>
+        <v>27902466.36248614</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>27741256.11992517</v>
+        <v>27975397.32947674</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>27814382.71083979</v>
+        <v>28049104.75210805</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>27888285.0035374</v>
+        <v>28123593.04271619</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>27962967.45606667</v>
+        <v>28198866.6567133</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>28038434.5804032</v>
+        <v>28274930.10332631</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>28114690.95367984</v>
+        <v>28351787.95694986</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>28191741.23002224</v>
+        <v>28429444.86911072</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>28269590.15298514</v>
+        <v>28507905.58104018</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>28348242.56858418</v>
+        <v>28587174.93684901</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>28427703.43891569</v>
+        <v>28667257.89729659</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>28507977.85635339</v>
+        <v>28748159.55414412</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>28589071.05831083</v>
+        <v>28829885.14508002</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>28670988.44255459</v>
+        <v>28912440.06920209</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>28753735.58305143</v>
+        <v>28995829.90304017</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>28837318.24633061</v>
+        <v>29080060.4170995</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>28921742.40834</v>
+        <v>29165137.59290379</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>29007014.27177176</v>
+        <v>29251067.64051317</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>29093140.28383271</v>
+        <v>29337857.01649171</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>29180127.15442986</v>
+        <v>29425512.4422952</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>29267981.87474174</v>
+        <v>29514040.92304882</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>29356711.73614222</v>
+        <v>29603449.76668119</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>29446324.34944189</v>
+        <v>29693746.60338001</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>29536827.66441048</v>
+        <v>29784939.40533131</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>29628229.98954114</v>
+        <v>29877036.50670359</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>29720540.01201535</v>
+        <v>29970046.62383491</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>29813766.81782633</v>
+        <v>30063978.87557963</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>29907919.91201599</v>
+        <v>30158842.80377036</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>30003009.23897941</v>
+        <v>30254648.39374786</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>30099045.2027893</v>
+        <v>30351406.09491093</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>30196038.68749156</v>
+        <v>30449126.84123705</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>30294001.07732156</v>
+        <v>30547822.07172234</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>30392944.27678999</v>
+        <v>30647503.75068976</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>30492880.73058654</v>
+        <v>30748184.38791227</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>30593823.44324783</v>
+        <v>30849877.05849792</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>30695785.99853704</v>
+        <v>30952595.42248241</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>30798782.57848101</v>
+        <v>31056353.74407547</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>30902827.98201116</v>
+        <v>31161166.9105057</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>31007937.64315454</v>
+        <v>31267050.4504103</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>31114127.6487213</v>
+        <v>31374020.55171521</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>31221414.75543558</v>
+        <v>31482094.07895144</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>31329816.40645734</v>
+        <v>31591288.58995562</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>31439350.74724403</v>
+        <v>31701622.35190161</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>31550036.6407011</v>
+        <v>31813114.35661322</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>31661893.68157279</v>
+        <v>31925784.33510733</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>31774942.21002558</v>
+        <v>32039652.77132016</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>31889203.32437817</v>
+        <v>32154740.91496999</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>32004698.89293487</v>
+        <v>32271070.7935123</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>32121451.56488007</v>
+        <v>32388665.22314454</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>32239484.78019498</v>
+        <v>32507547.81882191</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>32358822.7785599</v>
+        <v>32627743.00324585</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>32479490.60720796</v>
+        <v>32749276.0147917</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>32601514.12769925</v>
+        <v>32872172.91434388</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>32724920.02158783</v>
+        <v>32996460.59101042</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>32849735.79495662</v>
+        <v>33122166.76669178</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>32975989.7817993</v>
+        <v>33249319.99948287</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>33103711.14623128</v>
+        <v>33377949.68589015</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>33232929.8835163</v>
+        <v>33508086.06184957</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>33363676.8198976</v>
+        <v>33639760.20253572</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>33495983.61122905</v>
+        <v>33773004.02095516</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>33629882.74040204</v>
+        <v>33907850.26532207</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>33765407.51357169</v>
+        <v>34044332.51521824</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>33902592.05518735</v>
+        <v>34182485.17654267</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>34041471.30183782</v>
+        <v>34322343.47526222</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>34182080.99492566</v>
+        <v>34463943.4499765</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>34324457.6721888</v>
+        <v>34607321.94331645</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>34468638.65809266</v>
+        <v>34752516.5921996</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>34614662.05311894</v>
+        <v>34899565.8169684</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>34762566.72198245</v>
+        <v>35048508.80944392</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>34912392.2808109</v>
+        <v>35199385.51992918</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>35064179.08332626</v>
+        <v>35352236.64320259</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>35217968.20607121</v>
+        <v>35507103.60354391</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>35373801.43272627</v>
+        <v>35664028.53884021</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>35531721.23756877</v>
+        <v>35823054.28382286</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>35691770.76812671</v>
+        <v>35984224.35248909</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>35853993.82708502</v>
+        <v>36147582.91976699</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>36018434.85350388</v>
+        <v>36313174.80248353</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>36185138.90341314</v>
+        <v>36481045.43970066</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>36354151.62984797</v>
+        <v>36651240.87248553</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>36525519.26239476</v>
+        <v>36823807.72318465</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>36699288.58631855</v>
+        <v>36998793.17427329</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>36875506.92134417</v>
+        <v>37176244.94685469</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>37054222.10016728</v>
+        <v>37356211.2788842</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>37235482.44677102</v>
+        <v>37538740.90319675</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>37419336.75462676</v>
+        <v>37723883.02541573</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>37605834.2648586</v>
+        <v>37911687.30182447</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>37795024.64445084</v>
+        <v>38102203.81728031</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>37986957.96458033</v>
+        <v>38295483.06325393</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>38181684.67915414</v>
+        <v>38491575.91607567</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>38379255.60363438</v>
+        <v>38690533.6154709</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>38579721.89423079</v>
+        <v>38892407.74346725</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>38783135.02754278</v>
+        <v>39097250.20375448</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>38989546.78073025</v>
+        <v>39305113.20157898</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>39199009.21229272</v>
+        <v>39516049.22425231</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>39411574.64353528</v>
+        <v>39730111.02235322</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>39627295.64079751</v>
+        <v>39947351.59170076</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>39846224.99852081</v>
+        <v>40167824.15617397</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>40068415.72322726</v>
+        <v>40391582.15145267</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>40293921.01848152</v>
+        <v>40618679.20975149</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>40522794.2709043</v>
+        <v>40849169.14561631</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>40755089.03730451</v>
+        <v>41083105.94285099</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>40990859.03299335</v>
+        <v>41320543.74263864</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>41230158.12134235</v>
+        <v>41561536.83291912</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>41473040.30464244</v>
+        <v>41806139.63908274</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>41719559.71632063</v>
+        <v>42054406.71603388</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>41969770.61456474</v>
+        <v>42306392.741679</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>42223727.37740618</v>
+        <v>42562152.51188732</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>42481484.49930543</v>
+        <v>42821740.93696991</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>42743096.58928157</v>
+        <v>43085213.03971952</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>43008618.37062597</v>
+        <v>43352623.95505047</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>43278104.6822322</v>
+        <v>43624028.93127248</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>43551610.48157618</v>
+        <v>43899483.33303128</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>43829190.84937198</v>
+        <v>44179042.64594267</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>44110900.99592818</v>
+        <v>44462762.48294505</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>44396796.26922549</v>
+        <v>44750698.5923904</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>44686932.1647315</v>
+        <v>45042906.86789118</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>44981364.33696708</v>
+        <v>45339443.35993613</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>45280148.61283316</v>
+        <v>45640364.28928541</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>45583341.00670561</v>
+        <v>45945726.06215107</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>45890997.73730076</v>
+        <v>46255585.28716671</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>46203175.24631184</v>
+        <v>46569998.79414587</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>46519930.21881335</v>
+        <v>46889023.65462646</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>46841319.60542816</v>
+        <v>47212717.20419472</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>47167400.64624732</v>
+        <v>47541137.06658055</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>47498230.89649241</v>
+        <v>47874341.1795117</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>47833868.25389636</v>
+        <v>48212387.82230384</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>48174370.9878142</v>
+        <v>48555335.64519699</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>48519797.77001841</v>
+        <v>48903243.70039338</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>48870207.7071679</v>
+        <v>49256171.47478436</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>49225660.37492676</v>
+        <v>49614178.9243434</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>49586215.85370994</v>
+        <v>49977326.51016053</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>49951934.76602903</v>
+        <v>50345675.23609249</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>50322878.31541208</v>
+        <v>50719286.68800083</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>50699108.32686832</v>
+        <v>51098223.07454909</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>51080687.2888694</v>
+        <v>51482547.26952983</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>51467678.39681545</v>
+        <v>51872322.85569</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>51860145.59795728</v>
+        <v>52267614.17002451</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>52258153.63774097</v>
+        <v>52668486.35050438</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>52661768.10754453</v>
+        <v>53075005.38420888</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>53071055.49377393</v>
+        <v>53487238.15682778</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>53486083.22828634</v>
+        <v>53905252.50350133</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>53906919.74010793</v>
+        <v>54329117.26096558</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>54333634.50841556</v>
+        <v>54758902.32097007</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>54766298.11674788</v>
+        <v>55194678.68493517</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>55204982.30841748</v>
+        <v>55636518.51981803</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>55649760.0430899</v>
+        <v>56084495.21515448</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>56100705.55450134</v>
+        <v>56538683.44124665</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>56557894.40928335</v>
+        <v>56999159.2084646</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>57021403.56686582</v>
+        <v>57465999.92763364</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>57491311.44042923</v>
+        <v>57939284.47147626</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>57967697.95887798</v>
+        <v>58419093.23708203</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>58450644.62980735</v>
+        <v>58905508.20937531</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>58940234.60343747</v>
+        <v>59398613.02555564</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>59436552.73748766</v>
+        <v>59898493.04048282</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>59939685.66296577</v>
+        <v>60405235.39298118</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>60449721.85084805</v>
+        <v>60918929.073038</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>60966751.67962395</v>
+        <v>61439664.98986999</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>61490867.5036827</v>
+        <v>61967536.0408351</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>62022163.72251716</v>
+        <v>62502637.18116374</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>62560736.85072168</v>
+        <v>63045065.49448632</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>63106685.5887602</v>
+        <v>63594920.2641329</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>63660110.89448104</v>
+        <v>64152303.04518148</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>64221116.05535391</v>
+        <v>64717317.73722918</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>64789806.76140548</v>
+        <v>65290070.6578633</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>65366291.17882803</v>
+        <v>65870670.61680587</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>65950680.0242352</v>
+        <v>66459228.99070556</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>66543086.6395382</v>
+        <v>67055859.79855009</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>67143627.06741379</v>
+        <v>67660679.77767001</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>67752420.127335</v>
+        <v>68273808.46030419</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>68369587.4921318</v>
+        <v>68895368.25069492</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>68995253.76504889</v>
+        <v>69525484.50267778</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>69629546.55726415</v>
+        <v>70164285.5977315</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>70272596.56582856</v>
+        <v>70811903.02344631</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>70924537.65198629</v>
+        <v>71468471.45237036</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>71585506.91982888</v>
+        <v>72134128.82118747</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>72255644.79523559</v>
+        <v>72809016.41017757</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>72935095.10504571</v>
+        <v>73493278.9229054</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>73624005.15640628</v>
+        <v>74187064.56608063</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>74322525.81623279</v>
+        <v>74890525.12952566</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>75030811.59071475</v>
+        <v>75603816.06618451</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>75749020.70479417</v>
+        <v>76327096.57209699</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>76477315.18153755</v>
+        <v>77060529.66626161</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>77215860.92131548</v>
+        <v>77804282.27029845</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>77964827.78069918</v>
+        <v>78558525.28782125</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>78724389.65097284</v>
+        <v>79323433.68341757</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>79494724.53615703</v>
+        <v>80099186.56112996</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>80276014.63042617</v>
+        <v>80885967.24232243</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>81068446.39479843</v>
+        <v>81683963.34280744</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>81872210.63296443</v>
+        <v>82493366.84910083</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>82687502.56611505</v>
+        <v>83314374.19366282</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>83514521.90661483</v>
+        <v>84147186.32897079</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>84353472.93036196</v>
+        <v>84992008.80026418</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>85204564.54766159</v>
+        <v>85849051.81678604</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>86068010.37243043</v>
+        <v>86718530.32133916</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>86944028.78953794</v>
+        <v>87600664.05796035</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>87832843.02007952</v>
+        <v>88495677.63750619</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>88734681.18436332</v>
+        <v>89403800.600931</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>89649776.36237961</v>
+        <v>90325267.48002511</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>90578366.65151231</v>
+        <v>91260317.85536991</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>91520695.22123472</v>
+        <v>92209196.41125041</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>92477010.36452025</v>
+        <v>93172152.98725699</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>93447565.54568823</v>
+        <v>94149442.62628821</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>94432619.44438401</v>
+        <v>95141325.61866045</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>95432435.99538726</v>
+        <v>96148067.54200815</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>96447284.42392053</v>
+        <v>97169939.29665029</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>97477439.27612172</v>
+        <v>98207217.13608141</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>98523180.44432585</v>
+        <v>99260182.69223168</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>99584793.18678963</v>
+        <v>100329122.9951267</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>100662568.1414765</v>
+        <v>101414330.4865623</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>101756801.3335076</v>
+        <v>102516103.027396</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>102867794.1758661</v>
+        <v>103634743.8980443</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>103995853.4629351</v>
+        <v>104770561.7917555</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>105141291.3564285</v>
+        <v>105923870.8002231</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>106304425.3632652</v>
+        <v>107094990.3910825</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>107485578.3049257</v>
+        <v>108284245.376826</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>108685078.2778122</v>
+        <v>109491965.8746596</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>109903258.604129</v>
+        <v>110718487.2568091</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>111140457.7727817</v>
+        <v>111964150.0907763</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>112397019.3697918</v>
+        <v>113229300.0690342</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>113673291.9977058</v>
+        <v>114514287.9276405</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>114969629.1834763</v>
+        <v>115819469.353242</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>116286389.2742824</v>
+        <v>117145204.8779347</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>117623935.3207526</v>
+        <v>118491859.7614393</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>118982634.9470477</v>
+        <v>119859803.8600447</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>119899424.6543854</v>
+        <v>120896918.6324745</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>120831811.2490246</v>
+        <v>121951251.1971102</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>121780081.6140879</v>
+        <v>123023112.2133734</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>122744525.7390878</v>
+        <v>124112815.6337839</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>123725436.5675488</v>
+        <v>125220678.5372296</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>124723109.8327654</v>
+        <v>126347020.9491901</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>125737843.8813135</v>
+        <v>127492165.6485011</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>126769939.4839389</v>
+        <v>128656437.9602488</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>127819699.6334551</v>
+        <v>129840165.5343944</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>128887429.3292989</v>
+        <v>131043678.109748</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>129973435.3484041</v>
+        <v>132267307.2629243</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>131078026.0020693</v>
+        <v>133511386.1419279</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>132201510.8785172</v>
+        <v>134776249.1840431</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>133344200.5708641</v>
+        <v>136062231.8177227</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>134506406.3902399</v>
+        <v>137369670.1481987</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>135688440.0638305</v>
+        <v>138698900.6265666</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>136890613.4176377</v>
+        <v>140050259.7021296</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>138113238.043791</v>
+        <v>141424083.4578202</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>139356624.9522752</v>
+        <v>142820707.2285616</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>140621084.2069804</v>
+        <v>144240465.2024689</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>141906924.5460185</v>
+        <v>145683690.0048344</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>143214452.986296</v>
+        <v>147150712.2648951</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>144543974.4123829</v>
+        <v>148641860.1654272</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>145895791.1497603</v>
+        <v>150157458.975268</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>147270202.5225907</v>
+        <v>151697830.5649264</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>148667504.3962058</v>
+        <v>153263292.9055007</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>150087988.704566</v>
+        <v>154854159.55119</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>151531942.9630088</v>
+        <v>156470739.1057496</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>152999649.7666666</v>
+        <v>158113334.6733145</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>154491386.2750012</v>
+        <v>159782243.2940831</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>156007423.6829706</v>
+        <v>161477755.3654339</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>157548026.6794153</v>
+        <v>163200154.0491197</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>159113452.8933249</v>
+        <v>164949714.6652682</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>160703952.3287191</v>
+        <v>166726704.0739975</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>162319766.7889542</v>
+        <v>168531380.0455356</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>163961129.2913439</v>
+        <v>170363990.6198212</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>165628263.4730573</v>
+        <v>172224773.4566436</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>167321382.9893429</v>
+        <v>174113955.177468</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>169040690.9051967</v>
+        <v>176031750.7001756</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>170786379.0816769</v>
+        <v>177978362.5680326</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>172558627.5581426</v>
+        <v>179953980.2742868</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>174357603.9317683</v>
+        <v>181958779.5838729</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>176183462.7357641</v>
+        <v>183992921.853786</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>178036344.8177968</v>
+        <v>186056553.3537621</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>179916376.720183</v>
+        <v>188149804.5889788</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>181823670.0634864</v>
+        <v>190272789.6265601</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>183758320.9352134</v>
+        <v>192425605.4277358</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>185720409.2853615</v>
+        <v>194608331.1875671</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>187709998.3306223</v>
+        <v>196821027.6842093</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>189727133.9690952</v>
+        <v>199063736.6397264</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>191771844.2073959</v>
+        <v>201336480.0945253</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>193844138.6020952</v>
+        <v>203639259.7975042</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>195944007.7174316</v>
+        <v>205972056.6140423</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>198071422.6012765</v>
+        <v>208334829.9539819</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>200226334.2813295</v>
+        <v>210727517.2217563</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>199565699.5724526</v>
+        <v>210060053.6273533</v>
       </c>
       <c r="C358" t="n">
-        <v>2776074.969043881</v>
+        <v>3012579.487683256</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>198898441.3208344</v>
+        <v>209385789.6915619</v>
       </c>
       <c r="C359" t="n">
-        <v>5585373.474988149</v>
+        <v>6060834.20493824</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>198224457.6799003</v>
+        <v>208704614.8407645</v>
       </c>
       <c r="C360" t="n">
-        <v>8427887.409535415</v>
+        <v>9144745.409100363</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>197543644.4429151</v>
+        <v>208016415.7113128</v>
       </c>
       <c r="C361" t="n">
-        <v>11303589.69286929</v>
+        <v>12264273.74198407</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>196855894.9978431</v>
+        <v>207321076.0884469</v>
       </c>
       <c r="C362" t="n">
-        <v>14212433.9516787</v>
+        <v>15419358.89071305</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>196161100.2808544</v>
+        <v>206618476.8436461</v>
       </c>
       <c r="C363" t="n">
-        <v>17154354.22955885</v>
+        <v>18609919.28393532</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>195459148.728505</v>
+        <v>205908495.8704747</v>
       </c>
       <c r="C364" t="n">
-        <v>20129264.73152061</v>
+        <v>21835851.82527442</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>194749926.2286516</v>
+        <v>205191008.0190103</v>
       </c>
       <c r="C365" t="n">
-        <v>23137059.60424541</v>
+        <v>25097031.66576344</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>194033316.070175</v>
+        <v>204465885.0289704</v>
       </c>
       <c r="C366" t="n">
-        <v>26177612.75362471</v>
+        <v>28393312.01690004</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>193309198.8916276</v>
+        <v>203732995.4616916</v>
       </c>
       <c r="C367" t="n">
-        <v>29250777.70101169</v>
+        <v>31724524.00583735</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>192577452.6289448</v>
+        <v>202992204.6311468</v>
       </c>
       <c r="C368" t="n">
-        <v>32356387.47947815</v>
+        <v>35090476.5740785</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>191837952.4623979</v>
+        <v>202243374.5342265</v>
       </c>
       <c r="C369" t="n">
-        <v>35494254.57123748</v>
+        <v>38490956.42089616</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>191090570.7630089</v>
+        <v>201486363.7805586</v>
       </c>
       <c r="C370" t="n">
-        <v>38664170.88723285</v>
+        <v>41925727.99252252</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>190335177.0386818</v>
+        <v>200721027.5221846</v>
       </c>
       <c r="C371" t="n">
-        <v>41865907.78972799</v>
+        <v>45394533.51797683</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>189571637.8803636</v>
+        <v>199947217.3834609</v>
       </c>
       <c r="C372" t="n">
-        <v>45099216.15855844</v>
+        <v>48897093.09220231</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>188799816.908586</v>
+        <v>199164781.3916146</v>
       </c>
       <c r="C373" t="n">
-        <v>45098955.83928412</v>
+        <v>48896810.7335415</v>
       </c>
       <c r="D373" t="n">
-        <v>3388871.049848082</v>
+        <v>3659906.738382566</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>188019574.7208037</v>
+        <v>198373563.9084407</v>
       </c>
       <c r="C374" t="n">
-        <v>45098654.63043553</v>
+        <v>48896484.02513916</v>
       </c>
       <c r="D374" t="n">
-        <v>6809833.613546507</v>
+        <v>7354021.56642376</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>187230768.8399951</v>
+        <v>197573405.5636867</v>
       </c>
       <c r="C375" t="n">
-        <v>45098306.55987818</v>
+        <v>48896106.48976716</v>
       </c>
       <c r="D375" t="n">
-        <v>10262569.39338635</v>
+        <v>11081991.13943588</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>186433253.6650589</v>
+        <v>196764143.1907486</v>
       </c>
       <c r="C376" t="n">
-        <v>45097904.85749839</v>
+        <v>48895670.78477383</v>
       </c>
       <c r="D376" t="n">
-        <v>13746740.42391416</v>
+        <v>14843440.96656501</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>185626880.4236027</v>
+        <v>195945609.7653651</v>
       </c>
       <c r="C377" t="n">
-        <v>45097441.86020856</v>
+        <v>48895168.59906716</v>
       </c>
       <c r="D377" t="n">
-        <v>17261989.4721028</v>
+        <v>18637975.85361197</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>184811497.1277886</v>
+        <v>195117634.348078</v>
       </c>
       <c r="C378" t="n">
-        <v>45096908.90736943</v>
+        <v>48894590.53970647</v>
       </c>
       <c r="D378" t="n">
-        <v>20807940.49224333</v>
+        <v>22465180.40471096</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>183986948.533977</v>
+        <v>194280042.0313029</v>
       </c>
       <c r="C379" t="n">
-        <v>45096296.22590635</v>
+        <v>48893926.00731907</v>
       </c>
       <c r="D379" t="n">
-        <v>24384199.13536312</v>
+        <v>26324619.58260835</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>183153076.1069808</v>
+        <v>193432653.8919408</v>
       </c>
       <c r="C380" t="n">
-        <v>45095592.80437565</v>
+        <v>48893163.05953491</v>
       </c>
       <c r="D380" t="n">
-        <v>27990353.3127334</v>
+        <v>30215839.32702155</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>182309717.989826</v>
+        <v>192575286.9505428</v>
       </c>
       <c r="C381" t="n">
-        <v>45094786.25522123</v>
+        <v>48892288.26161613</v>
       </c>
       <c r="D381" t="n">
-        <v>31625973.81277846</v>
+        <v>34138367.23028714</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>181456708.9799921</v>
+        <v>191707754.1381325</v>
       </c>
       <c r="C382" t="n">
-        <v>45093862.6644503</v>
+        <v>48891286.52344471</v>
       </c>
       <c r="D382" t="n">
-        <v>35290614.97043681</v>
+        <v>38091713.26922453</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>180593880.513192</v>
+        <v>190829864.2718774</v>
       </c>
       <c r="C383" t="n">
-        <v>45092806.4279536</v>
+        <v>48890140.92202921</v>
       </c>
       <c r="D383" t="n">
-        <v>35290548.71772115</v>
+        <v>38091641.74258432</v>
       </c>
       <c r="E383" t="n">
-        <v>3833183.880060812</v>
+        <v>4161636.112121526</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>179721060.6558356</v>
+        <v>189941422.0408992</v>
       </c>
       <c r="C384" t="n">
-        <v>45091600.0736981</v>
+        <v>48888832.50869324</v>
       </c>
       <c r="D384" t="n">
-        <v>35290469.73405181</v>
+        <v>38091556.4718042</v>
       </c>
       <c r="E384" t="n">
-        <v>7695403.248201334</v>
+        <v>8354237.472701279</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>178838074.1074066</v>
+        <v>189042228.0035959</v>
       </c>
       <c r="C385" t="n">
-        <v>45090224.06903271</v>
+        <v>48887340.10012264</v>
       </c>
       <c r="D385" t="n">
-        <v>35290375.73055182</v>
+        <v>38091454.9858958</v>
       </c>
       <c r="E385" t="n">
-        <v>11586149.20073493</v>
+        <v>12577241.74614802</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>177944742.2140708</v>
+        <v>188132078.5979531</v>
       </c>
       <c r="C386" t="n">
-        <v>45088656.61236928</v>
+        <v>48885640.05247151</v>
       </c>
       <c r="D386" t="n">
-        <v>35290264.03821643</v>
+        <v>38091334.40350762</v>
       </c>
       <c r="E386" t="n">
-        <v>15504899.48672037</v>
+        <v>16830072.29139735</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>177040882.9949169</v>
+        <v>187210766.1664083</v>
       </c>
       <c r="C387" t="n">
-        <v>45086873.40853416</v>
+        <v>48883706.01776352</v>
       </c>
       <c r="D387" t="n">
-        <v>35290131.55072476</v>
+        <v>38091191.37118956</v>
       </c>
       <c r="E387" t="n">
-        <v>19451119.51125522</v>
+        <v>21112139.25934006</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>176126311.1823207</v>
+        <v>186278078.9969236</v>
       </c>
       <c r="C388" t="n">
-        <v>45084847.42713097</v>
+        <v>48881508.6818736</v>
       </c>
       <c r="D388" t="n">
-        <v>35289974.65971259</v>
+        <v>38091021.99351939</v>
       </c>
       <c r="E388" t="n">
-        <v>23424263.38884629</v>
+        <v>25422840.74389912</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>175200838.2780017</v>
+        <v>185333801.382013</v>
       </c>
       <c r="C389" t="n">
-        <v>45082548.64331444</v>
+        <v>48879015.48343997</v>
       </c>
       <c r="D389" t="n">
-        <v>35289789.1816929</v>
+        <v>38090821.75421317</v>
       </c>
       <c r="E389" t="n">
-        <v>27423775.04460582</v>
+        <v>29761563.98426061</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>174264272.6264234</v>
+        <v>184377713.6975537</v>
       </c>
       <c r="C390" t="n">
-        <v>45079943.76044922</v>
+        <v>48876190.31313609</v>
       </c>
       <c r="D390" t="n">
-        <v>35289570.27575243</v>
+        <v>38090585.42727879</v>
       </c>
       <c r="E390" t="n">
-        <v>31449089.36076253</v>
+        <v>34127686.61548378</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>173316419.5072641</v>
+        <v>183409592.5032938</v>
       </c>
       <c r="C391" t="n">
-        <v>45076995.91421723</v>
+        <v>48872993.19283</v>
       </c>
       <c r="D391" t="n">
-        <v>35289312.35109447</v>
+        <v>38090306.97720888</v>
       </c>
       <c r="E391" t="n">
-        <v>35499633.36571107</v>
+        <v>38520577.96442884</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>172357081.2487524</v>
+        <v>182429210.6670391</v>
       </c>
       <c r="C392" t="n">
-        <v>45073664.35784574</v>
+        <v>48869379.93427601</v>
       </c>
       <c r="D392" t="n">
-        <v>35289008.96344174</v>
+        <v>38089979.44714848</v>
       </c>
       <c r="E392" t="n">
-        <v>39574827.46255907</v>
+        <v>42939600.38765614</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>171386057.3637275</v>
+        <v>181436337.5145696</v>
       </c>
       <c r="C393" t="n">
-        <v>45069904.12825371</v>
+        <v>48865301.77711962</v>
       </c>
       <c r="D393" t="n">
-        <v>35288652.69925945</v>
+        <v>38089594.83391563</v>
       </c>
       <c r="E393" t="n">
-        <v>39574778.4873149</v>
+        <v>42939547.23556738</v>
       </c>
       <c r="F393" t="n">
-        <v>3680984.635279624</v>
+        <v>4070947.517112286</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>170403144.7103384</v>
+        <v>180430739.0073962</v>
       </c>
       <c r="C394" t="n">
-        <v>45065665.6930605</v>
+        <v>48860705.00615569</v>
       </c>
       <c r="D394" t="n">
-        <v>35288235.0467089</v>
+        <v>38089143.94869787</v>
       </c>
       <c r="E394" t="n">
-        <v>39574719.17218005</v>
+        <v>42939482.86194529</v>
       </c>
       <c r="F394" t="n">
-        <v>7383579.641669015</v>
+        <v>8165047.36894992</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>169408137.6793407</v>
+        <v>179412177.9505123</v>
       </c>
       <c r="C395" t="n">
-        <v>45060894.5785675</v>
+        <v>48855530.54796013</v>
       </c>
       <c r="D395" t="n">
-        <v>35287746.25219777</v>
+        <v>38088616.26220147</v>
       </c>
       <c r="E395" t="n">
-        <v>39574647.47059441</v>
+        <v>42939405.04577009</v>
       </c>
       <c r="F395" t="n">
-        <v>11107262.76132469</v>
+        <v>12281711.52589696</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>168400828.4099853</v>
+        <v>178380414.2323299</v>
       </c>
       <c r="C396" t="n">
-        <v>45055530.9790113</v>
+        <v>48849713.54721962</v>
       </c>
       <c r="D396" t="n">
-        <v>35287175.16135573</v>
+        <v>38087999.73298881</v>
       </c>
       <c r="E396" t="n">
-        <v>39574560.96066988</v>
+        <v>42939311.15870789</v>
       </c>
       <c r="F396" t="n">
-        <v>14851510.63517252</v>
+        <v>16420351.0177988</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>167381007.0365152</v>
+        <v>177335205.0990129</v>
       </c>
       <c r="C397" t="n">
-        <v>45049509.34759746</v>
+        <v>48843182.92331184</v>
       </c>
       <c r="D397" t="n">
-        <v>35286509.04323637</v>
+        <v>38087280.61770971</v>
       </c>
       <c r="E397" t="n">
-        <v>39574456.78251867</v>
+        <v>42939198.09709987</v>
       </c>
       <c r="F397" t="n">
-        <v>18615800.08921095</v>
+        <v>20580377.35776694</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>166348461.9672951</v>
+        <v>176276305.4654251</v>
       </c>
       <c r="C398" t="n">
-        <v>45042757.97005644</v>
+        <v>48835860.90794097</v>
       </c>
       <c r="D398" t="n">
-        <v>35285733.39652826</v>
+        <v>38086443.26191317</v>
       </c>
       <c r="E398" t="n">
-        <v>39574331.56632507</v>
+        <v>42939062.20390644</v>
       </c>
       <c r="F398" t="n">
-        <v>22399609.44388654</v>
+        <v>24761203.99016695</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>165302980.198589</v>
+        <v>175203468.2648984</v>
       </c>
       <c r="C399" t="n">
-        <v>45035198.52171903</v>
+        <v>48827662.56491017</v>
       </c>
       <c r="D399" t="n">
-        <v>35284831.73655458</v>
+        <v>38085469.87012184</v>
       </c>
       <c r="E399" t="n">
-        <v>39574181.35001761</v>
+        <v>42938899.17936639</v>
       </c>
       <c r="F399" t="n">
-        <v>26202419.84307779</v>
+        <v>28962247.75892115</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>164244347.6649816</v>
+        <v>174116444.84</v>
       </c>
       <c r="C400" t="n">
-        <v>45026745.60938631</v>
+        <v>48818495.29341471</v>
       </c>
       <c r="D400" t="n">
-        <v>35283785.36185107</v>
+        <v>38084340.25386338</v>
       </c>
       <c r="E400" t="n">
-        <v>39574001.4852966</v>
+        <v>42938703.97901983</v>
       </c>
       <c r="F400" t="n">
-        <v>30023716.59903041</v>
+        <v>33182930.39204887</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>163172349.6283881</v>
+        <v>173014985.3764203</v>
       </c>
       <c r="C401" t="n">
-        <v>45017306.29956946</v>
+        <v>48808258.31656383</v>
       </c>
       <c r="D401" t="n">
-        <v>35282573.09914172</v>
+        <v>38083031.556384</v>
       </c>
       <c r="E401" t="n">
-        <v>39573786.53066835</v>
+        <v>42938470.69763154</v>
       </c>
       <c r="F401" t="n">
-        <v>33862990.54940688</v>
+        <v>37422679.99817149</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>162086771.1075439</v>
+        <v>171898839.3820414</v>
       </c>
       <c r="C402" t="n">
-        <v>45006779.63499617</v>
+        <v>48796842.15718902</v>
       </c>
       <c r="D402" t="n">
-        <v>35281171.02558026</v>
+        <v>38081517.95282327</v>
       </c>
       <c r="E402" t="n">
-        <v>39573530.13003258</v>
+        <v>42938192.43743758</v>
       </c>
       <c r="F402" t="n">
-        <v>37719739.42240746</v>
+        <v>41680932.57048737</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>160987397.3497706</v>
+        <v>170767756.2131386</v>
       </c>
       <c r="C403" t="n">
-        <v>44995056.14162159</v>
+        <v>48784128.10336563</v>
       </c>
       <c r="D403" t="n">
-        <v>35279552.16719864</v>
+        <v>38079770.32470665</v>
       </c>
       <c r="E403" t="n">
-        <v>39573224.87526562</v>
+        <v>42937861.15902518</v>
       </c>
       <c r="F403" t="n">
-        <v>37719706.32121953</v>
+        <v>41680895.98081669</v>
       </c>
       <c r="G403" t="n">
-        <v>3395037.964788939</v>
+        <v>3604370.090996038</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>159874014.346717</v>
+        <v>169621485.649556</v>
       </c>
       <c r="C404" t="n">
-        <v>44982017.32874182</v>
+        <v>48769987.66646538</v>
       </c>
       <c r="D404" t="n">
-        <v>35277686.17260079</v>
+        <v>38077755.90771882</v>
       </c>
       <c r="E404" t="n">
-        <v>39572862.15114059</v>
+        <v>42937467.51304617</v>
       </c>
       <c r="F404" t="n">
-        <v>37719665.68693518</v>
+        <v>41680851.06432651</v>
       </c>
       <c r="G404" t="n">
-        <v>6805160.348600408</v>
+        <v>7224180.419194905</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>158746409.3956332</v>
+        <v>168459778.5205446</v>
       </c>
       <c r="C405" t="n">
-        <v>44967535.18518396</v>
+        <v>48754282.0349649</v>
       </c>
       <c r="D405" t="n">
-        <v>35275538.96106747</v>
+        <v>38075437.9118566</v>
       </c>
       <c r="E405" t="n">
-        <v>39572431.96082976</v>
+        <v>42937000.65085962</v>
       </c>
       <c r="F405" t="n">
-        <v>37719615.91010697</v>
+        <v>41680796.04203273</v>
       </c>
       <c r="G405" t="n">
-        <v>10229960.39974076</v>
+        <v>10858992.92054519</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>157604371.7075869</v>
+        <v>167282387.38278</v>
       </c>
       <c r="C406" t="n">
-        <v>44951471.67493635</v>
+        <v>48736861.52765796</v>
       </c>
       <c r="D406" t="n">
-        <v>35273072.34439421</v>
+        <v>38072775.11323101</v>
       </c>
       <c r="E406" t="n">
-        <v>39571922.73014559</v>
+        <v>42936448.01210365</v>
       </c>
       <c r="F406" t="n">
-        <v>37719555.0619954</v>
+        <v>41680728.7820351</v>
       </c>
       <c r="G406" t="n">
-        <v>13669042.27098212</v>
+        <v>14508381.28723427</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>156447693.0638415</v>
+        <v>166089067.2518699</v>
       </c>
       <c r="C407" t="n">
-        <v>44933678.23598325</v>
+        <v>48717565.05035303</v>
       </c>
       <c r="D407" t="n">
-        <v>35270243.62197646</v>
+        <v>38069721.41699325</v>
       </c>
       <c r="E407" t="n">
-        <v>39571321.08859845</v>
+        <v>42935795.08711093</v>
       </c>
       <c r="F407" t="n">
-        <v>37719480.83669303</v>
+        <v>41680646.73554857</v>
       </c>
       <c r="G407" t="n">
-        <v>17122022.25058113</v>
+        <v>18171932.26718223</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>155276168.5214095</v>
+        <v>164879576.388434</v>
       </c>
       <c r="C408" t="n">
-        <v>44913995.28651492</v>
+        <v>48696219.56057952</v>
       </c>
       <c r="D408" t="n">
-        <v>35267005.14888178</v>
+        <v>38066225.39110512</v>
       </c>
       <c r="E408" t="n">
-        <v>39570611.62528582</v>
+        <v>42935025.15201367</v>
       </c>
       <c r="F408" t="n">
-        <v>37719390.48390992</v>
+        <v>41680546.86261323</v>
       </c>
       <c r="G408" t="n">
-        <v>20588529.98450087</v>
+        <v>21849246.95311274</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>154089597.1685558</v>
+        <v>163653677.139572</v>
       </c>
       <c r="C409" t="n">
-        <v>44892251.74309487</v>
+        <v>48672639.54526983</v>
       </c>
       <c r="D409" t="n">
-        <v>35263303.87691461</v>
+        <v>38062229.77095924</v>
       </c>
       <c r="E409" t="n">
-        <v>39569776.61758024</v>
+        <v>42934118.97433299</v>
       </c>
       <c r="F409" t="n">
-        <v>37719280.73114277</v>
+        <v>41680425.5460709</v>
       </c>
       <c r="G409" t="n">
-        <v>24068209.6859929</v>
+        <v>25539942.05712395</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>152887782.9307611</v>
+        <v>162411136.8362453</v>
       </c>
       <c r="C410" t="n">
-        <v>44868264.55577281</v>
+        <v>48646626.51682749</v>
       </c>
       <c r="D410" t="n">
-        <v>35259080.86898308</v>
+        <v>38057670.93518438</v>
       </c>
       <c r="E410" t="n">
-        <v>39568795.73055944</v>
+        <v>42933054.48682079</v>
       </c>
       <c r="F410" t="n">
-        <v>37719147.69381879</v>
+        <v>41680278.49225134</v>
       </c>
       <c r="G410" t="n">
-        <v>27560721.32854138</v>
+        <v>29243651.16652239</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>151670535.4273598</v>
+        <v>161151728.746774</v>
       </c>
       <c r="C411" t="n">
-        <v>44841838.26553418</v>
+        <v>48617968.53342537</v>
       </c>
       <c r="D411" t="n">
-        <v>35254270.7874232</v>
+        <v>38052478.353343</v>
       </c>
       <c r="E411" t="n">
-        <v>39567645.68512301</v>
+        <v>42931806.4273244</v>
       </c>
       <c r="F411" t="n">
-        <v>37718986.77186822</v>
+        <v>41680100.61665908</v>
       </c>
       <c r="G411" t="n">
-        <v>31065741.81803524</v>
+        <v>32960025.97654322</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>150437670.8787492</v>
+        <v>159875233.086298</v>
       </c>
       <c r="C412" t="n">
-        <v>44812764.58986352</v>
+        <v>48586439.74979883</v>
       </c>
       <c r="D412" t="n">
-        <v>35248801.35732382</v>
+        <v>38046574.00664803</v>
       </c>
       <c r="E412" t="n">
-        <v>39566299.89277279</v>
+        <v>42930345.94247872</v>
       </c>
       <c r="F412" t="n">
-        <v>37718792.53103824</v>
+        <v>41679885.91279665</v>
       </c>
       <c r="G412" t="n">
-        <v>34582966.13985649</v>
+        <v>36688737.49539515</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>149189013.063717</v>
+        <v>158581438.0816683</v>
       </c>
       <c r="C413" t="n">
-        <v>44780822.04256895</v>
+        <v>48551800.00519846</v>
       </c>
       <c r="D413" t="n">
-        <v>35242592.80632541</v>
+        <v>38039871.78328936</v>
       </c>
       <c r="E413" t="n">
-        <v>39564728.0551018</v>
+        <v>42928640.15310524</v>
       </c>
       <c r="F413" t="n">
-        <v>37718558.56711723</v>
+        <v>41679627.30210051</v>
       </c>
       <c r="G413" t="n">
-        <v>34582942.92130946</v>
+        <v>36688712.85579278</v>
       </c>
       <c r="H413" t="n">
-        <v>3556573.36864695</v>
+        <v>3805599.735701174</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>147924394.3260584</v>
+        <v>157270141.0908231</v>
       </c>
       <c r="C414" t="n">
-        <v>44745775.59435765</v>
+        <v>48513794.45553865</v>
       </c>
       <c r="D414" t="n">
-        <v>35235557.28283843</v>
+        <v>38032276.85047047</v>
       </c>
       <c r="E414" t="n">
-        <v>39562895.72614675</v>
+        <v>42926651.67931591</v>
       </c>
       <c r="F414" t="n">
-        <v>37718277.35109474</v>
+        <v>41679316.46280722</v>
       </c>
       <c r="G414" t="n">
-        <v>34582914.10854945</v>
+        <v>36688682.27969314</v>
       </c>
       <c r="H414" t="n">
-        <v>7124883.026708464</v>
+        <v>7623069.197028018</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>146643656.6292594</v>
+        <v>155941149.7752672</v>
       </c>
       <c r="C415" t="n">
-        <v>44707376.38096233</v>
+        <v>48472153.25711481</v>
       </c>
       <c r="D415" t="n">
-        <v>35227598.25513975</v>
+        <v>38023685.00580971</v>
       </c>
       <c r="E415" t="n">
-        <v>39560763.835914</v>
+        <v>42924338.12348872</v>
       </c>
       <c r="F415" t="n">
-        <v>37717940.05314068</v>
+        <v>41678943.63541143</v>
       </c>
       <c r="G415" t="n">
-        <v>34582878.4349992</v>
+        <v>36688644.42304847</v>
       </c>
       <c r="H415" t="n">
-        <v>10704684.03383379</v>
+        <v>11452140.29394964</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>145346652.657594</v>
+        <v>154594283.3238056</v>
       </c>
       <c r="C416" t="n">
-        <v>44665361.46588979</v>
+        <v>48426591.30955496</v>
       </c>
       <c r="D416" t="n">
-        <v>35218609.89435817</v>
+        <v>38013982.01135646</v>
       </c>
       <c r="E416" t="n">
-        <v>39558288.17359748</v>
+        <v>42921651.50950762</v>
       </c>
       <c r="F416" t="n">
-        <v>37717536.343152</v>
+        <v>41678497.40222676</v>
       </c>
       <c r="G416" t="n">
-        <v>34582834.3674129</v>
+        <v>36688597.65883765</v>
       </c>
       <c r="H416" t="n">
-        <v>14295754.2181423</v>
+        <v>15292569.40747351</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>144033246.9615428</v>
+        <v>153229373.7251999</v>
       </c>
       <c r="C417" t="n">
-        <v>44619453.66508472</v>
+        <v>48376808.06591281</v>
       </c>
       <c r="D417" t="n">
-        <v>35208476.44494778</v>
+        <v>38003042.91410743</v>
       </c>
       <c r="E417" t="n">
-        <v>39555418.82927093</v>
+        <v>42918537.67694614</v>
       </c>
       <c r="F417" t="n">
-        <v>37717054.16548786</v>
+        <v>41677964.43842135</v>
       </c>
       <c r="G417" t="n">
-        <v>34582780.05445403</v>
+        <v>36688540.02250145</v>
       </c>
       <c r="H417" t="n">
-        <v>17897895.18545807</v>
+        <v>19144138.45159841</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>142703317.1449774</v>
+        <v>151846267.0869057</v>
       </c>
       <c r="C418" t="n">
-        <v>44569361.44096974</v>
+        <v>48322487.41799079</v>
       </c>
       <c r="D418" t="n">
-        <v>35197071.58686895</v>
+        <v>37990731.35757814</v>
       </c>
       <c r="E418" t="n">
-        <v>39552099.59316418</v>
+        <v>42914935.62922952</v>
       </c>
       <c r="F418" t="n">
-        <v>37716479.48540261</v>
+        <v>41677329.23177478</v>
       </c>
       <c r="G418" t="n">
-        <v>34582713.26640837</v>
+        <v>36688469.14797139</v>
       </c>
       <c r="H418" t="n">
-        <v>21510933.28182126</v>
+        <v>23006655.88422883</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>141356755.091071</v>
+        <v>150444824.9965243</v>
       </c>
       <c r="C419" t="n">
-        <v>44514778.8734275</v>
+        <v>48263297.6650948</v>
       </c>
       <c r="D419" t="n">
-        <v>35184257.79434422</v>
+        <v>37976898.88968372</v>
       </c>
       <c r="E419" t="n">
-        <v>39548267.31202711</v>
+        <v>42910776.83523701</v>
       </c>
       <c r="F419" t="n">
-        <v>37715796.0045903</v>
+        <v>41676573.76829937</v>
       </c>
       <c r="G419" t="n">
-        <v>34582631.32472504</v>
+        <v>36688382.19290536</v>
       </c>
       <c r="H419" t="n">
-        <v>25134720.504641</v>
+        <v>26879957.6621409</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>139993468.2234067</v>
+        <v>149024925.9220631</v>
       </c>
       <c r="C420" t="n">
-        <v>44455385.71532422</v>
+        <v>48198891.57445918</v>
       </c>
       <c r="D420" t="n">
-        <v>35169885.69672494</v>
+        <v>37961384.27290514</v>
       </c>
       <c r="E420" t="n">
-        <v>39543851.20255014</v>
+        <v>42905984.48431139</v>
       </c>
       <c r="F420" t="n">
-        <v>37714984.84318526</v>
+        <v>41675677.18079092</v>
       </c>
       <c r="G420" t="n">
-        <v>34582531.01992924</v>
+        <v>36688275.75158472</v>
       </c>
       <c r="H420" t="n">
-        <v>28769135.35769155</v>
+        <v>30763908.13492242</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>138613380.7982504</v>
+        <v>147586466.6465496</v>
       </c>
       <c r="C421" t="n">
-        <v>44390847.54013018</v>
+        <v>48128906.5415323</v>
       </c>
       <c r="D421" t="n">
-        <v>35153793.44768839</v>
+        <v>37944012.80345426</v>
       </c>
       <c r="E421" t="n">
-        <v>39538772.12235022</v>
+        <v>42900472.69522882</v>
       </c>
       <c r="F421" t="n">
-        <v>37714024.185522</v>
+        <v>41674615.3573292</v>
       </c>
       <c r="G421" t="n">
-        <v>34582408.51629334</v>
+        <v>36688145.75376137</v>
       </c>
       <c r="H421" t="n">
-        <v>32414083.64498348</v>
+        <v>34658400.87263344</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>137216435.2234449</v>
+        <v>146129363.7319851</v>
       </c>
       <c r="C422" t="n">
-        <v>44320815.98906398</v>
+        <v>48052964.85817301</v>
       </c>
       <c r="D422" t="n">
-        <v>35135806.10967252</v>
+        <v>37924595.6468939</v>
       </c>
       <c r="E422" t="n">
-        <v>39532941.79964926</v>
+        <v>42894145.6803524</v>
       </c>
       <c r="F422" t="n">
-        <v>37712888.88695437</v>
+        <v>41673360.50674491</v>
       </c>
       <c r="G422" t="n">
-        <v>34582259.24148822</v>
+        <v>36687987.34756778</v>
       </c>
       <c r="H422" t="n">
-        <v>36069499.19835045</v>
+        <v>38563359.4217369</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>135802593.3988736</v>
+        <v>144653555.0070717</v>
       </c>
       <c r="C423" t="n">
-        <v>44244929.12496579</v>
+        <v>47970674.09656886</v>
       </c>
       <c r="D423" t="n">
-        <v>35115735.06114079</v>
+        <v>37902929.19840848</v>
       </c>
       <c r="E423" t="n">
-        <v>39526262.02346934</v>
+        <v>42886896.86694988</v>
       </c>
       <c r="F423" t="n">
-        <v>37711550.03907361</v>
+        <v>41671880.67811327</v>
       </c>
       <c r="G423" t="n">
-        <v>34582077.75926685</v>
+        <v>36687794.76442351</v>
       </c>
       <c r="H423" t="n">
-        <v>39735344.53340161</v>
+        <v>42478737.98365089</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>134371838.0729325</v>
+        <v>143159001.0725839</v>
       </c>
       <c r="C424" t="n">
-        <v>44162811.89978716</v>
+        <v>47881627.61634097</v>
       </c>
       <c r="D424" t="n">
-        <v>35093377.43493893</v>
+        <v>37878794.47664266</v>
       </c>
       <c r="E424" t="n">
-        <v>39518623.79694632</v>
+        <v>42878607.97849929</v>
       </c>
       <c r="F424" t="n">
-        <v>37709974.49075552</v>
+        <v>41670139.23143505</v>
       </c>
       <c r="G424" t="n">
-        <v>34581857.62305848</v>
+        <v>36687561.16368701</v>
       </c>
       <c r="H424" t="n">
-        <v>43411611.4282665</v>
+        <v>46404522.01004345</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>132924174.2089495</v>
+        <v>141645686.8177188</v>
       </c>
       <c r="C425" t="n">
-        <v>44074076.74216317</v>
+        <v>47785405.20184421</v>
       </c>
       <c r="D425" t="n">
-        <v>35068515.59664883</v>
+        <v>37851956.56072117</v>
       </c>
       <c r="E425" t="n">
-        <v>39509906.4572201</v>
+        <v>42869148.0797359</v>
       </c>
       <c r="F425" t="n">
-        <v>37708124.32261696</v>
+        <v>41668094.25683169</v>
       </c>
       <c r="G425" t="n">
-        <v>34581591.2081783</v>
+        <v>36687278.4546176</v>
       </c>
       <c r="H425" t="n">
-        <v>47098321.41934584</v>
+        <v>50340728.70876914</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>131459630.3550047</v>
+        <v>140113622.9402202</v>
       </c>
       <c r="C426" t="n">
-        <v>43978324.27100442</v>
+        <v>47681573.83609749</v>
       </c>
       <c r="D426" t="n">
-        <v>35040916.67244902</v>
+        <v>37822164.08071325</v>
       </c>
       <c r="E426" t="n">
-        <v>39499976.76629238</v>
+        <v>42858372.59020555</v>
       </c>
       <c r="F426" t="n">
-        <v>37705956.27267841</v>
+        <v>41665697.93982033</v>
       </c>
       <c r="G426" t="n">
-        <v>34581269.52018618</v>
+        <v>36686937.09303088</v>
       </c>
       <c r="H426" t="n">
-        <v>50795526.2080308</v>
+        <v>54287407.45408556</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>129978260.0101316</v>
+        <v>138562847.4625654</v>
       </c>
       <c r="C427" t="n">
-        <v>43875144.14040786</v>
+        <v>47569688.61708715</v>
       </c>
       <c r="D427" t="n">
-        <v>35010332.13654207</v>
+        <v>37789148.77240146</v>
       </c>
       <c r="E427" t="n">
-        <v>39488687.97824825</v>
+        <v>42846122.27218082</v>
       </c>
       <c r="F427" t="n">
-        <v>37703421.11132068</v>
+        <v>41662895.8705567</v>
       </c>
       <c r="G427" t="n">
-        <v>34580881.97676427</v>
+        <v>36686525.84985711</v>
       </c>
       <c r="H427" t="n">
-        <v>54503307.97211143</v>
+        <v>58244640.09453809</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>128480142.9794395</v>
+        <v>136993427.236016</v>
       </c>
       <c r="C428" t="n">
-        <v>43764116.02043492</v>
+        <v>47449293.82137183</v>
       </c>
       <c r="D428" t="n">
-        <v>34976497.46869309</v>
+        <v>37752625.10773531</v>
       </c>
       <c r="E428" t="n">
-        <v>39475878.88930815</v>
+        <v>42832222.19995736</v>
       </c>
       <c r="F428" t="n">
-        <v>37700462.96399876</v>
+        <v>41659626.29534823</v>
       </c>
       <c r="G428" t="n">
-        <v>34580416.16033131</v>
+        <v>36686031.54865069</v>
       </c>
       <c r="H428" t="n">
-        <v>58221779.57533178</v>
+        <v>62212541.15162585</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>126965386.7102775</v>
+        <v>135405459.4238798</v>
       </c>
       <c r="C429" t="n">
-        <v>43644810.71744159</v>
+        <v>47319924.11898161</v>
       </c>
       <c r="D429" t="n">
-        <v>34939131.89282522</v>
+        <v>37712290.0127848</v>
       </c>
       <c r="E429" t="n">
-        <v>39461372.87830473</v>
+        <v>42816480.71877196</v>
       </c>
       <c r="F429" t="n">
-        <v>37697018.58064014</v>
+        <v>41655819.30925345</v>
       </c>
       <c r="G429" t="n">
-        <v>34579857.53847685</v>
+        <v>36685438.76895631</v>
       </c>
       <c r="H429" t="n">
-        <v>61951084.66827313</v>
+        <v>66191257.90207577</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>125434127.6011803</v>
+        <v>133799072.9549195</v>
       </c>
       <c r="C430" t="n">
-        <v>43516791.4366708</v>
+        <v>47181105.94254648</v>
       </c>
       <c r="D430" t="n">
-        <v>34897938.20792213</v>
+        <v>37667822.68533593</v>
       </c>
       <c r="E430" t="n">
-        <v>39444976.94635311</v>
+        <v>42798688.40285727</v>
       </c>
       <c r="F430" t="n">
-        <v>37693016.55121814</v>
+        <v>41651395.98920508</v>
       </c>
       <c r="G430" t="n">
-        <v>34579189.14918777</v>
+        <v>36684729.51231979</v>
       </c>
       <c r="H430" t="n">
-        <v>65691397.67347541</v>
+        <v>70180970.33626881</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>123886532.2749968</v>
+        <v>132174429.9374704</v>
       </c>
       <c r="C431" t="n">
-        <v>43379615.18873308</v>
+        <v>47032359.01241443</v>
       </c>
       <c r="D431" t="n">
-        <v>34852602.72267852</v>
+        <v>37618884.5244773</v>
       </c>
       <c r="E431" t="n">
-        <v>39426480.76568922</v>
+        <v>42778617.02345742</v>
       </c>
       <c r="F431" t="n">
-        <v>37688376.46765616</v>
+        <v>41646267.4678312</v>
       </c>
       <c r="G431" t="n">
-        <v>34578391.24775978</v>
+        <v>36683882.82764693</v>
       </c>
       <c r="H431" t="n">
-        <v>69442923.64741898</v>
+        <v>74181890.98506299</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>122322798.8073091</v>
+        <v>130531727.0245132</v>
       </c>
       <c r="C432" t="n">
-        <v>43232834.3404132</v>
+        <v>46873198.01823056</v>
       </c>
       <c r="D432" t="n">
-        <v>34802795.30540344</v>
+        <v>37565119.18459507</v>
       </c>
       <c r="E432" t="n">
-        <v>39405655.74887532</v>
+        <v>42756018.53895634</v>
       </c>
       <c r="F432" t="n">
-        <v>37683008.03299463</v>
+        <v>41640333.94900519</v>
       </c>
       <c r="G432" t="n">
-        <v>34577440.91224574</v>
+        <v>36682874.39257061</v>
       </c>
       <c r="H432" t="n">
-        <v>73205898.01170321</v>
+        <v>78194264.60695969</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>120743157.9010044</v>
+        <v>128871196.7196838</v>
       </c>
       <c r="C433" t="n">
-        <v>43075998.30895306</v>
+        <v>46703134.4560533</v>
       </c>
       <c r="D433" t="n">
-        <v>34748169.56060176</v>
+        <v>37506152.7661074</v>
       </c>
       <c r="E433" t="n">
-        <v>39382254.15079336</v>
+        <v>42730624.12059721</v>
       </c>
       <c r="F433" t="n">
-        <v>37676810.11963965</v>
+        <v>41633483.66713595</v>
       </c>
       <c r="G433" t="n">
-        <v>34576311.60429903</v>
+        <v>36681676.04749335</v>
       </c>
       <c r="H433" t="n">
-        <v>76980586.14548051</v>
+        <v>82218367.72727206</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>119147873.9976839</v>
+        <v>127193108.6140035</v>
       </c>
       <c r="C434" t="n">
-        <v>42908655.39758466</v>
+        <v>46521678.61859022</v>
       </c>
       <c r="D434" t="n">
-        <v>34688363.14342338</v>
+        <v>37441594.1550158</v>
       </c>
       <c r="E434" t="n">
-        <v>39356008.21704823</v>
+        <v>42702143.22857341</v>
       </c>
       <c r="F434" t="n">
-        <v>37669669.77951425</v>
+        <v>41625591.79331762</v>
       </c>
       <c r="G434" t="n">
-        <v>34574972.68233389</v>
+        <v>36680255.27903959</v>
       </c>
       <c r="H434" t="n">
-        <v>80767282.8309204</v>
+        <v>86254508.02065724</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>117537246.3164659</v>
+        <v>125497770.5429826</v>
       </c>
       <c r="C435" t="n">
-        <v>42730354.7686276</v>
+        <v>46328341.7345558</v>
       </c>
       <c r="D435" t="n">
-        <v>34622998.22276554</v>
+        <v>37371035.52291295</v>
       </c>
       <c r="E435" t="n">
-        <v>39326629.39355781</v>
+        <v>42670262.75452552</v>
       </c>
       <c r="F435" t="n">
-        <v>37661461.21004959</v>
+        <v>41616519.29269154</v>
       </c>
       <c r="G435" t="n">
-        <v>34573388.86405392</v>
+        <v>36678574.64979041</v>
       </c>
       <c r="H435" t="n">
-        <v>84566311.54322407</v>
+        <v>90303023.52811109</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>115911609.8106861</v>
+        <v>123785529.6536898</v>
       </c>
       <c r="C436" t="n">
-        <v>42540648.5489402</v>
+        <v>46122638.25149772</v>
       </c>
       <c r="D436" t="n">
-        <v>34551682.10322832</v>
+        <v>37294052.99845617</v>
       </c>
       <c r="E436" t="n">
-        <v>39293807.6131923</v>
+        <v>42634646.24765593</v>
       </c>
       <c r="F436" t="n">
-        <v>37652044.68118165</v>
+        <v>41606111.73873016</v>
       </c>
       <c r="G436" t="n">
-        <v>34571519.63560729</v>
+        <v>36676591.17139184</v>
       </c>
       <c r="H436" t="n">
-        <v>88378023.5764524</v>
+        <v>94364281.69925587</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>114271336.0330185</v>
+        <v>122056773.3714025</v>
       </c>
       <c r="C437" t="n">
-        <v>42339094.0609308</v>
+        <v>45904088.25472405</v>
       </c>
       <c r="D437" t="n">
-        <v>34474008.01534934</v>
+        <v>37210207.52047876</v>
       </c>
       <c r="E437" t="n">
-        <v>39257210.67631386</v>
+        <v>42594933.24274522</v>
       </c>
       <c r="F437" t="n">
-        <v>37641265.42985278</v>
+        <v>41594198.09162738</v>
       </c>
       <c r="G437" t="n">
-        <v>34569318.60492019</v>
+        <v>36674255.61844054</v>
       </c>
       <c r="H437" t="n">
-        <v>92202796.99622332</v>
+        <v>98438678.25053868</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>112616833.899626</v>
+        <v>120311930.2555545</v>
       </c>
       <c r="C438" t="n">
-        <v>42125256.17071455</v>
+        <v>45672220.01320539</v>
       </c>
       <c r="D438" t="n">
-        <v>34389556.08257325</v>
+        <v>37119045.8818646</v>
       </c>
       <c r="E438" t="n">
-        <v>39216483.74292994</v>
+        <v>42550738.70929006</v>
       </c>
       <c r="F438" t="n">
-        <v>37628952.52995035</v>
+        <v>41580589.44956271</v>
       </c>
       <c r="G438" t="n">
-        <v>34566732.79715145</v>
+        <v>36671511.78096466</v>
       </c>
       <c r="H438" t="n">
-        <v>96041035.41013646</v>
+        <v>102526635.8297512</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>110948550.3441244</v>
+        <v>118551470.7348826</v>
       </c>
       <c r="C439" t="n">
-        <v>41898709.74335705</v>
+        <v>45426572.64154421</v>
       </c>
       <c r="D439" t="n">
-        <v>34297894.47223969</v>
+        <v>37020101.97204604</v>
       </c>
       <c r="E439" t="n">
-        <v>39171248.95488065</v>
+        <v>42501652.64174872</v>
       </c>
       <c r="F439" t="n">
-        <v>37614917.74713328</v>
+        <v>41565077.78328472</v>
       </c>
       <c r="G439" t="n">
-        <v>34563701.89070991</v>
+        <v>36668295.65384785</v>
       </c>
       <c r="H439" t="n">
-        <v>99893166.54665276</v>
+        <v>106628602.4771515</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>109266970.8523912</v>
+        <v>116775907.7119539</v>
       </c>
       <c r="C440" t="n">
-        <v>41659042.19349775</v>
+        <v>45166698.86531673</v>
       </c>
       <c r="D440" t="n">
-        <v>34198580.73650012</v>
+        <v>36912898.22450291</v>
       </c>
       <c r="E440" t="n">
-        <v>39121105.2070023</v>
+        <v>42447239.81144698</v>
       </c>
       <c r="F440" t="n">
-        <v>37598954.38958733</v>
+        <v>41547434.66621662</v>
       </c>
       <c r="G440" t="n">
-        <v>34560157.39289168</v>
+        <v>36664534.56219685</v>
       </c>
       <c r="H440" t="n">
-        <v>103759640.6330566</v>
+        <v>110745049.8733648</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>107572619.8695867</v>
+        <v>114985797.0276158</v>
       </c>
       <c r="C441" t="n">
-        <v>41405856.11801448</v>
+        <v>44892167.8753234</v>
       </c>
       <c r="D441" t="n">
-        <v>34091163.34749942</v>
+        <v>36796947.27394027</v>
       </c>
       <c r="E441" t="n">
-        <v>39065628.0865133</v>
+        <v>42387039.70102612</v>
       </c>
       <c r="F441" t="n">
-        <v>37580836.16739161</v>
+        <v>41527410.01410053</v>
       </c>
       <c r="G441" t="n">
-        <v>34556021.75493572</v>
+        <v>36660146.22244025</v>
       </c>
       <c r="H441" t="n">
-        <v>107640928.5631159</v>
+        <v>114876471.3642357</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>105866061.0711683</v>
+        <v>113181737.7763731</v>
       </c>
       <c r="C442" t="n">
-        <v>41138771.99579448</v>
+        <v>44602568.25455542</v>
       </c>
       <c r="D442" t="n">
-        <v>33975183.42938854</v>
+        <v>36671753.82591364</v>
       </c>
       <c r="E442" t="n">
-        <v>39004369.99992818</v>
+        <v>42320566.64237902</v>
       </c>
       <c r="F442" t="n">
-        <v>37560316.07485101</v>
+        <v>41504730.85004512</v>
       </c>
       <c r="G442" t="n">
-        <v>34551207.42717049</v>
+        <v>36655037.73987331</v>
       </c>
       <c r="H442" t="n">
-        <v>111537519.8451061</v>
+        <v>119023379.7528579</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>104147897.4901844</v>
+        <v>111364372.4642418</v>
       </c>
       <c r="C443" t="n">
-        <v>40857430.9381417</v>
+        <v>44297510.96001837</v>
       </c>
       <c r="D443" t="n">
-        <v>33850176.68777896</v>
+        <v>36536816.73955776</v>
       </c>
       <c r="E443" t="n">
-        <v>38936860.50658767</v>
+        <v>42247310.17878439</v>
       </c>
       <c r="F443" t="n">
-        <v>37537125.31182256</v>
+        <v>41479100.11268958</v>
       </c>
       <c r="G443" t="n">
-        <v>34545615.85593691</v>
+        <v>36649104.54443838</v>
       </c>
       <c r="H443" t="n">
-        <v>115449920.3210118</v>
+        <v>123186304.8491738</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>102418771.4937144</v>
+        <v>109534387.0012711</v>
       </c>
       <c r="C444" t="n">
-        <v>40561497.47189531</v>
+        <v>43976632.3399789</v>
       </c>
       <c r="D444" t="n">
-        <v>33715675.53511991</v>
+        <v>36391631.3217781</v>
       </c>
       <c r="E444" t="n">
-        <v>38862606.87737469</v>
+        <v>42166735.67138577</v>
       </c>
       <c r="F444" t="n">
-        <v>37510972.26171061</v>
+        <v>41450195.52701752</v>
       </c>
       <c r="G444" t="n">
-        <v>34539136.42512742</v>
+        <v>36642229.26775517</v>
       </c>
       <c r="H444" t="n">
-        <v>119378649.6479814</v>
+        <v>127365790.7678159</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>100679364.6019911</v>
+        <v>107692510.5216528</v>
       </c>
       <c r="C445" t="n">
-        <v>40250662.33598344</v>
+        <v>43639597.16573494</v>
       </c>
       <c r="D445" t="n">
-        <v>33571211.40819344</v>
+        <v>36235691.82879541</v>
       </c>
       <c r="E445" t="n">
-        <v>38781094.89634095</v>
+        <v>42078285.16924535</v>
       </c>
       <c r="F445" t="n">
-        <v>37481541.54538999</v>
+        <v>41417668.55910384</v>
       </c>
       <c r="G445" t="n">
-        <v>34531645.34647796</v>
+        <v>36634280.56579179</v>
       </c>
       <c r="H445" t="n">
-        <v>123324238.5334849</v>
+        <v>131562392.9652632</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>98930397.14448673</v>
+        <v>105839515.0251546</v>
       </c>
       <c r="C446" t="n">
-        <v>39924645.27091352</v>
+        <v>43286101.65568545</v>
       </c>
       <c r="D446" t="n">
-        <v>33416317.27150078</v>
+        <v>36068494.16832047</v>
       </c>
       <c r="E446" t="n">
-        <v>38691789.9217767</v>
+        <v>41981378.56090815</v>
       </c>
       <c r="F446" t="n">
-        <v>37448493.17180144</v>
+        <v>41381143.47771893</v>
       </c>
       <c r="G446" t="n">
-        <v>34523004.50418741</v>
+        <v>36625111.89309219</v>
       </c>
       <c r="H446" t="n">
-        <v>127287225.7161498</v>
+        <v>135776675.0079486</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>97172627.74806413</v>
+        <v>103976214.8345108</v>
       </c>
       <c r="C447" t="n">
-        <v>39583197.77962638</v>
+        <v>42915876.46831149</v>
       </c>
       <c r="D447" t="n">
-        <v>33250530.29777969</v>
+        <v>35889538.79290158</v>
       </c>
       <c r="E447" t="n">
-        <v>38594138.2217011</v>
+        <v>41875415.02372489</v>
       </c>
       <c r="F447" t="n">
-        <v>37411461.80730849</v>
+        <v>41340216.54720039</v>
       </c>
       <c r="G447" t="n">
-        <v>34513060.26101074</v>
+        <v>36614560.23614386</v>
       </c>
       <c r="H447" t="n">
-        <v>131268154.6849259</v>
+        <v>140009205.063672</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>95406852.65319256</v>
+        <v>102103465.8643829</v>
       </c>
       <c r="C448" t="n">
-        <v>39226105.83723911</v>
+        <v>42528689.63970221</v>
       </c>
       <c r="D448" t="n">
-        <v>33073394.71427781</v>
+        <v>35698333.7721645</v>
       </c>
       <c r="E448" t="n">
-        <v>38487568.59682099</v>
+        <v>41759774.78508754</v>
       </c>
       <c r="F448" t="n">
-        <v>37370056.18706802</v>
+        <v>41294455.37728713</v>
       </c>
       <c r="G448" t="n">
-        <v>34501642.23466933</v>
+        <v>36602444.81527007</v>
       </c>
       <c r="H448" t="n">
-        <v>135267570.1300871</v>
+        <v>144260552.1095883</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>93633904.85518438</v>
+        <v>100222164.6985523</v>
       </c>
       <c r="C449" t="n">
-        <v>38853192.52649029</v>
+        <v>42124349.44048969</v>
       </c>
       <c r="D449" t="n">
-        <v>32884464.80074018</v>
+        <v>35494398.02878696</v>
       </c>
       <c r="E449" t="n">
-        <v>38371494.30169617</v>
+        <v>41633821.2072254</v>
       </c>
       <c r="F449" t="n">
-        <v>37323858.69260172</v>
+        <v>41243398.45664314</v>
       </c>
       <c r="G449" t="n">
-        <v>34488562.0552295</v>
+        <v>36588565.76634829</v>
       </c>
       <c r="H449" t="n">
-        <v>139286014.1206357</v>
+        <v>148531281.8511625</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>91854653.06843317</v>
+        <v>98333247.47312225</v>
       </c>
       <c r="C450" t="n">
-        <v>38464320.5752015</v>
+        <v>41702707.12651395</v>
       </c>
       <c r="D450" t="n">
-        <v>32683308.02238876</v>
+        <v>35277264.72015639</v>
       </c>
       <c r="E450" t="n">
-        <v>38245315.27216127</v>
+        <v>41496903.20429233</v>
       </c>
       <c r="F450" t="n">
-        <v>37272425.12041869</v>
+        <v>41186554.8975307</v>
       </c>
       <c r="G450" t="n">
-        <v>34473612.11599974</v>
+        <v>36572702.81567246</v>
       </c>
       <c r="H450" t="n">
-        <v>143324022.0039209</v>
+        <v>152821952.3478144</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>90070000.51270874</v>
+        <v>96437688.56468247</v>
       </c>
       <c r="C451" t="n">
-        <v>38059394.77179614</v>
+        <v>41263659.55724531</v>
       </c>
       <c r="D451" t="n">
-        <v>32469508.278514</v>
+        <v>35046484.74479107</v>
       </c>
       <c r="E451" t="n">
-        <v>38108420.66399537</v>
+        <v>41348357.99715676</v>
       </c>
       <c r="F451" t="n">
-        <v>37215284.66688345</v>
+        <v>41123404.41947233</v>
       </c>
       <c r="G451" t="n">
-        <v>34456564.3324651</v>
+        <v>36554613.96336383</v>
       </c>
       <c r="H451" t="n">
-        <v>147382118.0248007</v>
+        <v>157133109.3425788</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>88280883.52168481</v>
+        <v>94536499.08361436</v>
       </c>
       <c r="C452" t="n">
-        <v>37638364.23488714</v>
+        <v>40807151.65595895</v>
       </c>
       <c r="D452" t="n">
-        <v>32242669.24470461</v>
+        <v>34801630.3498057</v>
       </c>
       <c r="E452" t="n">
-        <v>37960191.70441833</v>
+        <v>41187514.20760375</v>
       </c>
       <c r="F452" t="n">
-        <v>37151940.15450604</v>
+        <v>41053397.59972043</v>
       </c>
       <c r="G452" t="n">
-        <v>34437168.92578518</v>
+        <v>36534034.19286544</v>
       </c>
       <c r="H452" t="n">
-        <v>151460810.663399</v>
+        <v>161465281.2949494</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24232037.22052358</v>
+        <v>24191322.70272157</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>24260331.0395267</v>
+        <v>24219569.00181898</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>24289000.89894334</v>
+        <v>24248190.72932446</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>24318051.60265132</v>
+        <v>24277192.6816877</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>24347488.00282076</v>
+        <v>24306579.70359099</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>24377314.99949545</v>
+        <v>24336356.6875323</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>24407537.54011193</v>
+        <v>24366528.5733462</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>24438160.61895373</v>
+        <v>24397100.34766014</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>24469189.27653869</v>
+        <v>24428077.04328386</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>24500628.5989366</v>
+        <v>24459463.73852942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>24532483.71701493</v>
+        <v>24491265.55645949</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>24564759.80561084</v>
+        <v>24523487.66406194</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>24597462.0826267</v>
+        <v>24556135.27134839</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>24630595.80804775</v>
+        <v>24589213.63037481</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>24664166.28287944</v>
+        <v>24622728.03418222</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>24698178.84800327</v>
+        <v>24656683.81565601</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>24732638.88294925</v>
+        <v>24691086.346302</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>24767551.80458364</v>
+        <v>24725941.03493809</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>24802923.06571092</v>
+        <v>24761253.32630043</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>24838758.15358907</v>
+        <v>24797028.69956287</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>24875062.58835744</v>
+        <v>24833272.66676939</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>24911841.92137682</v>
+        <v>24869990.77117892</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>24949101.73348159</v>
+        <v>24907188.58552245</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>24986847.63314445</v>
+        <v>24944871.7101729</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>25025085.25455382</v>
+        <v>24983045.7712279</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>25063820.25560533</v>
+        <v>25021716.4185069</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>25103058.31580857</v>
+        <v>25060889.32346369</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>25142805.1341107</v>
+        <v>25100570.17701602</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>25183066.42663948</v>
+        <v>25140764.68729479</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>25223847.92436805</v>
+        <v>25181478.57731536</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>25265155.37070481</v>
+        <v>25222717.58257381</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>25306994.51901206</v>
+        <v>25264487.44857254</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>25349371.13005747</v>
+        <v>25306793.92827857</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>25392290.96940349</v>
+        <v>25349642.77951996</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>25435759.8047394</v>
+        <v>25393039.76232528</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>25479783.40316267</v>
+        <v>25436990.63621218</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>25524367.52841556</v>
+        <v>25481501.15743154</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>25569517.9380845</v>
+        <v>25526577.07617439</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>25615240.38076986</v>
+        <v>25572224.13374937</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>25661540.59323462</v>
+        <v>25618448.05973909</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>25708424.29754098</v>
+        <v>25665254.56914458</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>25755897.19818489</v>
+        <v>25712649.35952758</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>25803964.97923884</v>
+        <v>25760638.10816093</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>25852633.30151375</v>
+        <v>25809226.46919857</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>25901907.79975256</v>
+        <v>25858420.07087651</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>25951794.079867</v>
+        <v>25908224.51275731</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>26002297.71623155</v>
+        <v>25958645.36303159</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>26053424.24904804</v>
+        <v>26009688.15588987</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>26105179.18179514</v>
+        <v>26061358.38897928</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>26157567.97877846</v>
+        <v>26113661.52096059</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>26210596.06279627</v>
+        <v>26166602.9691806</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>26264268.81293763</v>
+        <v>26220188.10747661</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>26318591.56252939</v>
+        <v>26274422.26412973</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>26373569.59724996</v>
+        <v>26329310.71998393</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>26429208.15342698</v>
+        <v>26384858.70674942</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>26485512.41653784</v>
+        <v>26441071.40550775</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>26542487.51993153</v>
+        <v>26497953.94543804</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>26600138.5437906</v>
+        <v>26555511.40278276</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>26658470.51435316</v>
+        <v>26613748.80007292</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>26717488.40341384</v>
+        <v>26672671.1056317</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>26777197.12812428</v>
+        <v>26732283.23337664</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>26837601.55111213</v>
+        <v>26792590.04293996</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>26898706.48093943</v>
+        <v>26853596.34012749</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>26960516.67291947</v>
+        <v>26915306.87773465</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>27023036.83031244</v>
+        <v>26977726.35674147</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>27086271.60591939</v>
+        <v>27040859.42790389</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>27150225.60409354</v>
+        <v>27104710.69376213</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>27214903.38318836</v>
+        <v>27169284.71108472</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>27280309.45846076</v>
+        <v>27234585.99376639</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>27346448.30544703</v>
+        <v>27300619.01619793</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>27413324.36382971</v>
+        <v>27367388.21712554</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>27480942.04181083</v>
+        <v>27434898.00401588</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>27549305.72100875</v>
+        <v>27503152.75794276</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>27618419.76189197</v>
+        <v>27572156.83901042</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>27688288.50976482</v>
+        <v>27641914.59232688</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>27758916.30131716</v>
+        <v>27712430.35454023</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>27830307.47174992</v>
+        <v>27783708.46094922</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>27902466.36248614</v>
+        <v>27855753.25319842</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>27975397.32947674</v>
+        <v>27928569.08756645</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>28049104.75210805</v>
+        <v>28002160.3438544</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>28123593.04271619</v>
+        <v>28076531.43488044</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>28198866.6567133</v>
+        <v>28151686.81658396</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>28274930.10332631</v>
+        <v>28227630.99874167</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>28351787.95694986</v>
+        <v>28304368.55629586</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>28429444.86911072</v>
+        <v>28381904.14129303</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>28507905.58104018</v>
+        <v>28460242.49542918</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>28587174.93684901</v>
+        <v>28539388.46319607</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>28667257.89729659</v>
+        <v>28619347.00562039</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>28748159.55414412</v>
+        <v>28700123.21458599</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>28829885.14508002</v>
+        <v>28781722.32772617</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>28912440.06920209</v>
+        <v>28864149.74387259</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>28995829.90304017</v>
+        <v>28947411.03904243</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>29080060.4170995</v>
+        <v>29031511.98294575</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>29165137.59290379</v>
+        <v>29116458.55599103</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>29251067.64051317</v>
+        <v>29202256.96676489</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>29337857.01649171</v>
+        <v>29288913.66995988</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>29425512.4422952</v>
+        <v>29376435.38472211</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>29514040.92304882</v>
+        <v>29464829.11338739</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>29603449.76668119</v>
+        <v>29554102.16057342</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>29693746.60338001</v>
+        <v>29644262.15259241</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>29784939.40533131</v>
+        <v>29735317.05714713</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>29877036.50670359</v>
+        <v>29827275.20327112</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>29970046.62383491</v>
+        <v>29920145.30147098</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>30063978.87557963</v>
+        <v>30013936.46402896</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>30158842.80377036</v>
+        <v>30108658.22541949</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>30254648.39374786</v>
+        <v>30204320.56279415</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>30351406.09491093</v>
+        <v>30300933.91648661</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>30449126.84123705</v>
+        <v>30398509.21048794</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>30547822.07172234</v>
+        <v>30497057.87284216</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>30647503.75068976</v>
+        <v>30596591.85590978</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>30748184.38791227</v>
+        <v>30697123.65644711</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>30849877.05849792</v>
+        <v>30798666.33544793</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>30952595.42248241</v>
+        <v>30901233.53769335</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>31056353.74407547</v>
+        <v>31004839.51095657</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>31161166.9105057</v>
+        <v>31109499.12480677</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>31267050.4504103</v>
+        <v>31215227.88895915</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>31374020.55171521</v>
+        <v>31322041.97111641</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>31482094.07895144</v>
+        <v>31429958.21424824</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>31591288.58995562</v>
+        <v>31538994.15325596</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>31701622.35190161</v>
+        <v>31649168.03097009</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>31813114.35661322</v>
+        <v>31760498.81343079</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>31925784.33510733</v>
+        <v>31873006.20440044</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>32039652.77132016</v>
+        <v>31986710.65906125</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>32154740.91496999</v>
+        <v>32101633.39685165</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>32271070.7935123</v>
+        <v>32217796.4133968</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>32388665.22314454</v>
+        <v>32335222.49149163</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>32507547.81882191</v>
+        <v>32453935.21109656</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>32627743.00324585</v>
+        <v>32573958.95830868</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>32749276.0147917</v>
+        <v>32695318.93327494</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>32872172.91434388</v>
+        <v>32818041.15701497</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>32996460.59101042</v>
+        <v>32942152.4771259</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>33122166.76669178</v>
+        <v>33067680.57234478</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>33249319.99948287</v>
+        <v>33194653.95594617</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>33377949.68589015</v>
+        <v>33323101.97795837</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>33508086.06184957</v>
+        <v>33453054.82618289</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>33639760.20253572</v>
+        <v>33584543.52600808</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>33773004.02095516</v>
+        <v>33717599.93900994</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>33907850.26532207</v>
+        <v>33852256.76033808</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>34044332.51521824</v>
+        <v>33988547.51488893</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>34182485.17654267</v>
+        <v>34126506.55227162</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>34322343.47526222</v>
+        <v>34266169.04057733</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>34463943.4499765</v>
+        <v>34407570.95896632</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>34607321.94331645</v>
+        <v>34550749.08909094</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>34752516.5921996</v>
+        <v>34695741.00537821</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>34899565.8169684</v>
+        <v>34842585.06419852</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>35048508.80944392</v>
+        <v>34991320.39195161</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>35199385.51992918</v>
+        <v>35141986.87210552</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>35352236.64320259</v>
+        <v>35294625.13122734</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>35507103.60354391</v>
+        <v>35449276.52404936</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>35664028.53884021</v>
+        <v>35605983.11761743</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>35823054.28382286</v>
+        <v>35764787.67457202</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>35984224.35248909</v>
+        <v>35925733.63561664</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>36147582.91976699</v>
+        <v>36088865.1012306</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>36313174.80248353</v>
+        <v>36254226.8126876</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>36481045.43970066</v>
+        <v>36421864.13244315</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>36651240.87248553</v>
+        <v>36591823.02395803</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>36823807.72318465</v>
+        <v>36764150.0310267</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>36998793.17427329</v>
+        <v>36938892.25668234</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>37176244.94685469</v>
+        <v>37116097.34175257</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>37356211.2788842</v>
+        <v>37295813.44314083</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>37538740.90319675</v>
+        <v>37478089.21191159</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>37723883.02541573</v>
+        <v>37662973.77125793</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>37911687.30182447</v>
+        <v>37850516.69443133</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>38102203.81728031</v>
+        <v>38040767.98271442</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>38295483.06325393</v>
+        <v>38233778.04351924</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>38491575.91607567</v>
+        <v>38429597.66869137</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>38690533.6154709</v>
+        <v>38628278.0131036</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>38892407.74346725</v>
+        <v>38829870.57361998</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>39097250.20375448</v>
+        <v>39034427.16851215</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>39305113.20157898</v>
+        <v>39241999.91740923</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>39516049.22425231</v>
+        <v>39452641.22186039</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>39730111.02235322</v>
+        <v>39666403.74658965</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>39947351.59170076</v>
+        <v>39883340.40152016</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>40167824.15617397</v>
+        <v>40103504.32464334</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>40391582.15145267</v>
+        <v>40326948.86580759</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>40618679.20975149</v>
+        <v>40553727.57149749</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>40849169.14561631</v>
+        <v>40783894.17067393</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>41083105.94285099</v>
+        <v>41017502.56174171</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>41320543.74263864</v>
+        <v>41254606.80070955</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>41561536.83291912</v>
+        <v>41495261.09060379</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>41806139.63908274</v>
+        <v>41739519.77219468</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>42054406.71603388</v>
+        <v>41987437.31609123</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>42306392.741679</v>
+        <v>42239068.31625615</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>42562152.51188732</v>
+        <v>42494467.48499113</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>42821740.93696991</v>
+        <v>42753689.64943701</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>43085213.03971952</v>
+        <v>43016789.74963194</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>43352623.95505047</v>
+        <v>43283822.83816557</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>43624028.93127248</v>
+        <v>43554844.08146442</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>43899483.33303128</v>
+        <v>43829908.76274023</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>44179042.64594267</v>
+        <v>44109072.28662854</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>44462762.48294505</v>
+        <v>44392390.18554168</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>44750698.5923904</v>
+        <v>44679918.12775743</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>45042906.86789118</v>
+        <v>44971711.92725924</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>45339443.35993613</v>
+        <v>45267827.55534233</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>45640364.28928541</v>
+        <v>45568321.15399495</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>45945726.06215107</v>
+        <v>45873249.05106196</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>46255585.28716671</v>
+        <v>46182667.77719352</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>46569998.79414587</v>
+        <v>46496634.08457908</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>46889023.65462646</v>
+        <v>46815204.96746385</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>47212717.20419472</v>
+        <v>47138437.68444142</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>47541137.06658055</v>
+        <v>47466389.78251388</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>47874341.1795117</v>
+        <v>47799119.12290783</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>48212387.82230384</v>
+        <v>48136683.90862235</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>48555335.64519699</v>
+        <v>48479142.71372046</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>48903243.70039338</v>
+        <v>48826554.51431838</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>49256171.47478436</v>
+        <v>49178978.72126109</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>49614178.9243434</v>
+        <v>49536475.2144601</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>49977326.51016053</v>
+        <v>49899104.3788704</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>50345675.23609249</v>
+        <v>50266927.14207979</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>50719286.68800083</v>
+        <v>50640005.01348307</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>51098223.07454909</v>
+        <v>51018400.12501292</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>51482547.26952983</v>
+        <v>51402175.27339768</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>51872322.85569</v>
+        <v>51791393.96391511</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>52267614.17002451</v>
+        <v>52186120.45561106</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>52668486.35050438</v>
+        <v>52586419.80795169</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>53075005.38420888</v>
+        <v>52992357.928876</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>53487238.15682778</v>
+        <v>53404001.62421702</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>53905252.50350133</v>
+        <v>53821418.64845835</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>54329117.26096558</v>
+        <v>54244677.75679407</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>54758902.32097007</v>
+        <v>54673848.75845914</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>55194678.68493517</v>
+        <v>55109002.57129773</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>55636518.51981803</v>
+        <v>55550211.2775379</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>56084495.21515448</v>
+        <v>55997548.18074157</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>56538683.44124665</v>
+        <v>56451087.86389761</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>56999159.2084646</v>
+        <v>56910906.24862839</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>57465999.92763364</v>
+        <v>57377080.65548006</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>57939284.47147626</v>
+        <v>57849689.86526685</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>58419093.23708203</v>
+        <v>58328814.18144123</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>58905508.20937531</v>
+        <v>58814535.49346174</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>59398613.02555564</v>
+        <v>59306937.341132</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>59898493.04048282</v>
+        <v>59806104.97988378</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>60405235.39298118</v>
+        <v>60312125.44697811</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>60918929.073038</v>
+        <v>60825087.62859996</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>61439664.98986999</v>
+        <v>61345082.32782077</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>61967536.0408351</v>
+        <v>61872202.33340464</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>62502637.18116374</v>
+        <v>62406542.4894344</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>63045065.49448632</v>
+        <v>62948199.76573336</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>63594920.2641329</v>
+        <v>63497273.32905837</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>64152303.04518148</v>
+        <v>64053864.61504139</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>64717317.73722918</v>
+        <v>64618077.40085412</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>65290070.6578633</v>
+        <v>65190017.87857173</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>65870670.61680587</v>
+        <v>65769794.72921031</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>66459228.99070556</v>
+        <v>66357519.19741147</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>67055859.79855009</v>
+        <v>66953305.16674773</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>67660679.77767001</v>
+        <v>67557269.23561877</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>68273808.46030419</v>
+        <v>68169530.79371041</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>68895368.25069492</v>
+        <v>68790212.09898226</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>69525484.50267778</v>
+        <v>69419438.35515203</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>70164285.5977315</v>
+        <v>70057337.78963804</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>70811903.02344631</v>
+        <v>70704041.73192273</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>71468471.45237036</v>
+        <v>71359684.69229355</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>72134128.82118747</v>
+        <v>72024404.44091575</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>72809016.41017757</v>
+        <v>72698342.08718917</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>73493278.9229054</v>
+        <v>73381642.1593335</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>74187064.56608063</v>
+        <v>74074452.68414578</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>74890525.12952566</v>
+        <v>74776925.2668671</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>75603816.06618451</v>
+        <v>75489215.17109053</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>76327096.57209699</v>
+        <v>76211481.3986364</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>77060529.66626161</v>
+        <v>76943886.76931678</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>77804282.27029845</v>
+        <v>77686598.00050184</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>78558525.28782125</v>
+        <v>78439785.78639682</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>79323433.68341757</v>
+        <v>79203624.87692867</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>80099186.56112996</v>
+        <v>79978294.15613535</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>80885967.24232243</v>
+        <v>80763976.71994321</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>81683963.34280744</v>
+        <v>81560859.95320562</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>82493366.84910083</v>
+        <v>82369135.6058736</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>83314374.19366282</v>
+        <v>83188999.86815323</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>84147186.32897079</v>
+        <v>84020653.44449957</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>84992008.80026418</v>
+        <v>84864301.62628371</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>85849051.81678604</v>
+        <v>85720154.36296114</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>86718530.32133916</v>
+        <v>86588426.33155742</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>87600664.05796035</v>
+        <v>87469337.00427583</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>88495677.63750619</v>
+        <v>88363110.71402086</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>89403800.600931</v>
+        <v>89269976.71761748</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>90325267.48002511</v>
+        <v>90190169.25649607</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>91260317.85536991</v>
+        <v>91123927.61459842</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>92209196.41125041</v>
+        <v>92071496.17324728</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>93172152.98725699</v>
+        <v>93033124.46270961</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>94149442.62628821</v>
+        <v>94009067.21016821</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>95141325.61866045</v>
+        <v>94999584.3838052</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>96148067.54200815</v>
+        <v>96004941.23268397</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>97169939.29665029</v>
+        <v>97025408.32210431</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>98207217.13608141</v>
+        <v>98061261.56408952</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>99260182.69223168</v>
+        <v>99112782.24265046</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>100329122.9951267</v>
+        <v>100180257.0334593</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>101414330.4865623</v>
+        <v>101263978.0175451</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>102516103.027396</v>
+        <v>102364242.6886184</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>103634743.8980443</v>
+        <v>103481353.9536086</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>104770561.7917555</v>
+        <v>104615620.1259914</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>105923870.8002231</v>
+        <v>105767354.9114642</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>107094990.3910825</v>
+        <v>106936877.3855191</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>108284245.376826</v>
+        <v>108124511.962446</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>109491965.8746596</v>
+        <v>109330588.3552901</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>110718487.2568091</v>
+        <v>110555441.5262731</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>111964150.0907763</v>
+        <v>111799411.6271774</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>113229300.0690342</v>
+        <v>113062843.9291857</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>114514287.9276405</v>
+        <v>114346088.7416535</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>115819469.353242</v>
+        <v>115649501.3192888</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>117145204.8779347</v>
+        <v>116973441.7572042</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>118491859.7614393</v>
+        <v>118318274.873302</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>119859803.8600447</v>
+        <v>119684370.0774453</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>120896918.6324745</v>
+        <v>120756824.1363598</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>121951251.1971102</v>
+        <v>121846988.5986755</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>123023112.2133734</v>
+        <v>122955181.6322148</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>124112815.6337839</v>
+        <v>124081724.7708363</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>125220678.5372296</v>
+        <v>125226942.7441093</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>126347020.9491901</v>
+        <v>126391163.293598</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>127492165.6485011</v>
+        <v>127574716.9753259</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>128656437.9602488</v>
+        <v>128777936.9480027</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>129840165.5343944</v>
+        <v>130001158.7466002</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>131043678.109748</v>
+        <v>131244720.0408898</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>132267307.2629243</v>
+        <v>132508960.3785584</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>133511386.1419279</v>
+        <v>133794220.9125466</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>134776249.1840431</v>
+        <v>135100844.112271</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>136062231.8177227</v>
+        <v>136429173.4584199</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>137369670.1481987</v>
+        <v>137779553.1210343</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>138698900.6265666</v>
+        <v>139152327.6206219</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>140050259.7021296</v>
+        <v>140547841.4720818</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>141424083.4578202</v>
+        <v>141966438.8112529</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>142820707.2285616</v>
+        <v>143408463.003946</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>144240465.2024689</v>
+        <v>144874256.2373506</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>145683690.0048344</v>
+        <v>146364159.0937673</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>147150712.2648951</v>
+        <v>147878510.1066527</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>148641860.1654272</v>
+        <v>149417645.2990304</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>150157458.975268</v>
+        <v>150981897.7043646</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>151697830.5649264</v>
+        <v>152571596.8700633</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>153263292.9055007</v>
+        <v>154187068.3438332</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>154854159.55119</v>
+        <v>155828633.1431781</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>156470739.1057496</v>
+        <v>157496607.2084017</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>158113334.6733145</v>
+        <v>159191300.8395432</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>159782243.2940831</v>
+        <v>160913018.1177557</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>161477755.3654339</v>
+        <v>162662056.3117071</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>163200154.0491197</v>
+        <v>164438705.2696671</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>164949714.6652682</v>
+        <v>166243246.7980254</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>166726704.0739975</v>
+        <v>168075954.0270659</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>168531380.0455356</v>
+        <v>169937090.7649123</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>170363990.6198212</v>
+        <v>171826910.8406401</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>172224773.4566436</v>
+        <v>173745657.4376414</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>174113955.177468</v>
+        <v>175693562.4184161</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>176031750.7001756</v>
+        <v>177670845.642047</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>177978362.5680326</v>
+        <v>179677714.2757046</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>179953980.2742868</v>
+        <v>181714362.1016166</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>181958779.5838729</v>
+        <v>183780968.8210157</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>183992921.853786</v>
+        <v>185877699.3566656</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>186056553.3537621</v>
+        <v>188004703.1556413</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>188149804.5889788</v>
+        <v>190162113.4941234</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>190272789.6265601</v>
+        <v>192350046.7860272</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>192425605.4277358</v>
+        <v>194568601.8973687</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>194608331.1875671</v>
+        <v>196817859.4683228</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>196821027.6842093</v>
+        <v>199097881.2449929</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>199063736.6397264</v>
+        <v>201408709.4229591</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>201336480.0945253</v>
+        <v>203750366.0047204</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>203639259.7975042</v>
+        <v>206122852.1731807</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>205972056.6140423</v>
+        <v>208526147.683356</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>208334829.9539819</v>
+        <v>210960210.2745099</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>210727517.2217563</v>
+        <v>213424975.1049233</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>210060053.6273533</v>
+        <v>212757892.3691977</v>
       </c>
       <c r="C358" t="n">
-        <v>3012579.487683256</v>
+        <v>3103692.131812897</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>209385789.6915619</v>
+        <v>212083975.9511196</v>
       </c>
       <c r="C359" t="n">
-        <v>6060834.20493824</v>
+        <v>6244076.677711964</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>208704614.8407645</v>
+        <v>211403112.7967087</v>
       </c>
       <c r="C360" t="n">
-        <v>9144745.409100363</v>
+        <v>9421132.706233907</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>208016415.7113128</v>
+        <v>210715186.9300746</v>
       </c>
       <c r="C361" t="n">
-        <v>12264273.74198407</v>
+        <v>12634818.04237171</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>207321076.0884469</v>
+        <v>210020079.3872329</v>
       </c>
       <c r="C362" t="n">
-        <v>15419358.89071305</v>
+        <v>15885068.91981664</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>206618476.8436461</v>
+        <v>209317668.1482841</v>
       </c>
       <c r="C363" t="n">
-        <v>18609919.28393532</v>
+        <v>19171799.66969609</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>205908495.8704747</v>
+        <v>208607828.0680256</v>
       </c>
       <c r="C364" t="n">
-        <v>21835851.82527442</v>
+        <v>22494902.44770991</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>205191008.0190103</v>
+        <v>207890430.8050967</v>
       </c>
       <c r="C365" t="n">
-        <v>25097031.66576344</v>
+        <v>25854247.00145987</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>204465885.0289704</v>
+        <v>207165344.7497857</v>
       </c>
       <c r="C366" t="n">
-        <v>28393312.01690004</v>
+        <v>29249680.47965473</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>203732995.4616916</v>
+        <v>206432434.9506596</v>
       </c>
       <c r="C367" t="n">
-        <v>31724524.00583735</v>
+        <v>32681027.28474611</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>202992204.6311468</v>
+        <v>205691563.0402253</v>
       </c>
       <c r="C368" t="n">
-        <v>35090476.5740785</v>
+        <v>36148088.97039834</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>202243374.5342265</v>
+        <v>204942587.1598549</v>
       </c>
       <c r="C369" t="n">
-        <v>38490956.42089616</v>
+        <v>39650644.18504465</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>201486363.7805586</v>
+        <v>204185361.8842721</v>
       </c>
       <c r="C370" t="n">
-        <v>41925727.99252252</v>
+        <v>43188448.66259979</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>200721027.5221846</v>
+        <v>203419738.145932</v>
       </c>
       <c r="C371" t="n">
-        <v>45394533.51797683</v>
+        <v>46761235.26121659</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>199947217.3834609</v>
+        <v>202645563.1596859</v>
       </c>
       <c r="C372" t="n">
-        <v>48897093.09220231</v>
+        <v>50368714.05077074</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>199164781.3916146</v>
+        <v>201862680.3481802</v>
       </c>
       <c r="C373" t="n">
-        <v>48896810.7335415</v>
+        <v>50368423.17498167</v>
       </c>
       <c r="D373" t="n">
-        <v>3659906.738382566</v>
+        <v>3741155.723322554</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>198373563.9084407</v>
+        <v>201070929.2684975</v>
       </c>
       <c r="C374" t="n">
-        <v>48896484.02513916</v>
+        <v>50368086.61194716</v>
       </c>
       <c r="D374" t="n">
-        <v>7354021.56642376</v>
+        <v>7517230.869729544</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>197573405.5636867</v>
+        <v>200270145.5406163</v>
       </c>
       <c r="C375" t="n">
-        <v>48896106.48976716</v>
+        <v>50367697.68914421</v>
       </c>
       <c r="D375" t="n">
-        <v>11081991.13943588</v>
+        <v>11327863.22588051</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>196764143.1907486</v>
+        <v>199460160.7783334</v>
       </c>
       <c r="C376" t="n">
-        <v>48895670.78477383</v>
+        <v>50367248.84254014</v>
       </c>
       <c r="D376" t="n">
-        <v>14843440.96656501</v>
+        <v>15172668.9729319</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>195945609.7653651</v>
+        <v>198640802.5233684</v>
       </c>
       <c r="C377" t="n">
-        <v>48895168.59906716</v>
+        <v>50366731.5104718</v>
       </c>
       <c r="D377" t="n">
-        <v>18637975.85361197</v>
+        <v>19051243.14032571</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>195117634.348078</v>
+        <v>197811894.183447</v>
       </c>
       <c r="C378" t="n">
-        <v>48894590.53970647</v>
+        <v>50366136.01682017</v>
       </c>
       <c r="D378" t="n">
-        <v>22465180.40471096</v>
+        <v>22963160.11971689</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>194280042.0313029</v>
+        <v>196973254.9752423</v>
       </c>
       <c r="C379" t="n">
-        <v>48893926.00731907</v>
+        <v>50365451.44267329</v>
       </c>
       <c r="D379" t="n">
-        <v>26324619.58260835</v>
+        <v>26907974.23877106</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>193432653.8919408</v>
+        <v>196124699.8731329</v>
       </c>
       <c r="C380" t="n">
-        <v>48893163.05953491</v>
+        <v>50364665.48564672</v>
       </c>
       <c r="D380" t="n">
-        <v>30215839.32702155</v>
+        <v>30885220.3942959</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>192575286.9505428</v>
+        <v>195266039.5648354</v>
       </c>
       <c r="C381" t="n">
-        <v>48892288.26161613</v>
+        <v>50363764.30601277</v>
       </c>
       <c r="D381" t="n">
-        <v>34138367.23028714</v>
+        <v>34894414.7438927</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>191707754.1381325</v>
+        <v>194397080.4150456</v>
       </c>
       <c r="C382" t="n">
-        <v>48891286.52344471</v>
+        <v>50362732.35877768</v>
       </c>
       <c r="D382" t="n">
-        <v>38091713.26922453</v>
+        <v>38935055.45502513</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>190829864.2718774</v>
+        <v>193517624.4383276</v>
       </c>
       <c r="C383" t="n">
-        <v>48890140.92202921</v>
+        <v>50361552.21084134</v>
       </c>
       <c r="D383" t="n">
-        <v>38091641.74258432</v>
+        <v>38934982.34316622</v>
       </c>
       <c r="E383" t="n">
-        <v>4161636.112121526</v>
+        <v>4128996.661394277</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>189941422.0408992</v>
+        <v>192627469.2825764</v>
       </c>
       <c r="C384" t="n">
-        <v>48888832.50869324</v>
+        <v>50360204.34237799</v>
       </c>
       <c r="D384" t="n">
-        <v>38091556.4718042</v>
+        <v>38934895.18258648</v>
       </c>
       <c r="E384" t="n">
-        <v>8354237.472701279</v>
+        <v>8288830.594046655</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>189042228.0035959</v>
+        <v>191726408.2244796</v>
       </c>
       <c r="C385" t="n">
-        <v>48887340.10012264</v>
+        <v>50358666.93158952</v>
       </c>
       <c r="D385" t="n">
-        <v>38091454.9858958</v>
+        <v>38934791.44754358</v>
       </c>
       <c r="E385" t="n">
-        <v>12577241.74614802</v>
+        <v>12478945.89496276</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>188132078.5979531</v>
+        <v>190814230.1784944</v>
       </c>
       <c r="C386" t="n">
-        <v>48885640.05247151</v>
+        <v>50356915.62200767</v>
       </c>
       <c r="D386" t="n">
-        <v>38091334.40350762</v>
+        <v>38934668.19283991</v>
       </c>
       <c r="E386" t="n">
-        <v>16830072.29139735</v>
+        <v>16698772.42970208</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>187210766.1664083</v>
+        <v>189890719.7209572</v>
       </c>
       <c r="C387" t="n">
-        <v>48883706.01776352</v>
+        <v>50354923.27155862</v>
       </c>
       <c r="D387" t="n">
-        <v>38091191.37118956</v>
+        <v>38934521.99071946</v>
       </c>
       <c r="E387" t="n">
-        <v>21112139.25934006</v>
+        <v>20947726.91951859</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>186278078.9969236</v>
+        <v>188955657.1310307</v>
       </c>
       <c r="C388" t="n">
-        <v>48881508.6818736</v>
+        <v>50352659.68265376</v>
       </c>
       <c r="D388" t="n">
-        <v>38091021.99351939</v>
+        <v>38934348.85944631</v>
       </c>
       <c r="E388" t="n">
-        <v>25422840.74389912</v>
+        <v>25225214.08187725</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>185333801.382013</v>
+        <v>188008818.4502857</v>
       </c>
       <c r="C389" t="n">
-        <v>48879015.48343997</v>
+        <v>50350091.31263663</v>
       </c>
       <c r="D389" t="n">
-        <v>38090821.75421317</v>
+        <v>38934144.18266748</v>
       </c>
       <c r="E389" t="n">
-        <v>29761563.98426061</v>
+        <v>29530627.82188172</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>184377713.6975537</v>
+        <v>187049975.5628015</v>
       </c>
       <c r="C390" t="n">
-        <v>48876190.31313609</v>
+        <v>50347180.96399897</v>
       </c>
       <c r="D390" t="n">
-        <v>38090585.42727879</v>
+        <v>38933902.61859832</v>
       </c>
       <c r="E390" t="n">
-        <v>34127686.61548378</v>
+        <v>33863352.47187021</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>183409592.5032938</v>
+        <v>186078896.297753</v>
       </c>
       <c r="C391" t="n">
-        <v>48872993.19283</v>
+        <v>50343887.45387907</v>
       </c>
       <c r="D391" t="n">
-        <v>38090306.97720888</v>
+        <v>38933617.99800438</v>
       </c>
       <c r="E391" t="n">
-        <v>38520577.96442884</v>
+        <v>38222764.07615186</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>182429210.6670391</v>
+        <v>185095344.5565213</v>
       </c>
       <c r="C392" t="n">
-        <v>48869379.93427601</v>
+        <v>50340165.26247653</v>
       </c>
       <c r="D392" t="n">
-        <v>38089979.44714848</v>
+        <v>38933283.20989208</v>
       </c>
       <c r="E392" t="n">
-        <v>42939600.38765614</v>
+        <v>42608231.71757264</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>181436337.5145696</v>
+        <v>184099080.4664395</v>
       </c>
       <c r="C393" t="n">
-        <v>48865301.77711962</v>
+        <v>50335964.16015808</v>
       </c>
       <c r="D393" t="n">
-        <v>38089594.83391563</v>
+        <v>38932890.07376055</v>
       </c>
       <c r="E393" t="n">
-        <v>42939547.23556738</v>
+        <v>42608178.97830322</v>
       </c>
       <c r="F393" t="n">
-        <v>4070947.517112286</v>
+        <v>4148674.649450599</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>180430739.0073962</v>
+        <v>183089860.5633382</v>
       </c>
       <c r="C394" t="n">
-        <v>48860705.00615569</v>
+        <v>50331228.81319259</v>
       </c>
       <c r="D394" t="n">
-        <v>38089143.94869787</v>
+        <v>38932429.19721268</v>
       </c>
       <c r="E394" t="n">
-        <v>42939482.86194529</v>
+        <v>42608115.10461564</v>
       </c>
       <c r="F394" t="n">
-        <v>8165047.36894992</v>
+        <v>8320924.632872179</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>179412177.9505123</v>
+        <v>182067438.0051062</v>
       </c>
       <c r="C395" t="n">
-        <v>48855530.54796013</v>
+        <v>50325898.36823944</v>
       </c>
       <c r="D395" t="n">
-        <v>38088616.26220147</v>
+        <v>38931889.81767429</v>
       </c>
       <c r="E395" t="n">
-        <v>42939405.04577009</v>
+        <v>42608037.89272362</v>
       </c>
       <c r="F395" t="n">
-        <v>12281711.52589696</v>
+        <v>12516150.42711997</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>178380414.2323299</v>
+        <v>181031562.818514</v>
       </c>
       <c r="C396" t="n">
-        <v>48849713.54721962</v>
+        <v>50319906.01592424</v>
       </c>
       <c r="D396" t="n">
-        <v>38087999.73298881</v>
+        <v>38931259.62692925</v>
       </c>
       <c r="E396" t="n">
-        <v>42939311.15870789</v>
+        <v>42607944.73468538</v>
       </c>
       <c r="F396" t="n">
-        <v>16420351.0177988</v>
+        <v>16733751.55762221</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>177335205.0990129</v>
+        <v>179981982.181571</v>
       </c>
       <c r="C397" t="n">
-        <v>48843182.92331184</v>
+        <v>50313178.53407168</v>
       </c>
       <c r="D397" t="n">
-        <v>38087280.61770971</v>
+        <v>38930524.57714751</v>
       </c>
       <c r="E397" t="n">
-        <v>42939198.09709987</v>
+        <v>42607832.55091986</v>
       </c>
       <c r="F397" t="n">
-        <v>20580377.35776694</v>
+        <v>20973128.04940117</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>176276305.4654251</v>
+        <v>178918440.7436913</v>
       </c>
       <c r="C398" t="n">
-        <v>48835860.90794097</v>
+        <v>50305635.81142397</v>
       </c>
       <c r="D398" t="n">
-        <v>38086443.26191317</v>
+        <v>38929668.66706358</v>
       </c>
       <c r="E398" t="n">
-        <v>42939062.20390644</v>
+        <v>42607697.71275578</v>
       </c>
       <c r="F398" t="n">
-        <v>24761203.99016695</v>
+        <v>25233681.90270513</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>175203468.2648984</v>
+        <v>177840680.9859299</v>
       </c>
       <c r="C399" t="n">
-        <v>48827662.56491017</v>
+        <v>50297190.3529598</v>
       </c>
       <c r="D399" t="n">
-        <v>38085469.87012184</v>
+        <v>38928673.70695844</v>
       </c>
       <c r="E399" t="n">
-        <v>42938899.17936639</v>
+        <v>42607535.95378292</v>
       </c>
       <c r="F399" t="n">
-        <v>28962247.75892115</v>
+        <v>29514818.58930808</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>174116444.84</v>
+        <v>176748443.6235231</v>
       </c>
       <c r="C400" t="n">
-        <v>48818495.29341471</v>
+        <v>50287746.76823881</v>
       </c>
       <c r="D400" t="n">
-        <v>38084340.25386338</v>
+        <v>38927519.06111034</v>
       </c>
       <c r="E400" t="n">
-        <v>42938703.97901983</v>
+        <v>42607342.26866503</v>
       </c>
       <c r="F400" t="n">
-        <v>33182930.39204887</v>
+        <v>33815948.56532096</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>173014985.3764203</v>
+        <v>175641468.0529074</v>
       </c>
       <c r="C401" t="n">
-        <v>48808258.31656383</v>
+        <v>50277201.24453152</v>
       </c>
       <c r="D401" t="n">
-        <v>38083031.556384</v>
+        <v>38926181.36641143</v>
       </c>
       <c r="E401" t="n">
-        <v>42938470.69763154</v>
+        <v>42607110.7979624</v>
       </c>
       <c r="F401" t="n">
-        <v>37422679.99817149</v>
+        <v>38136488.79616003</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>171898839.3820414</v>
+        <v>174519492.8453257</v>
       </c>
       <c r="C402" t="n">
-        <v>48796842.15718902</v>
+        <v>50265441.0068543</v>
       </c>
       <c r="D402" t="n">
-        <v>38081517.95282327</v>
+        <v>38924634.22590223</v>
       </c>
       <c r="E402" t="n">
-        <v>42938192.43743758</v>
+        <v>42606834.69739889</v>
       </c>
       <c r="F402" t="n">
-        <v>41680932.57048737</v>
+        <v>42475864.28909029</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>170767756.2131386</v>
+        <v>173382256.2890216</v>
       </c>
       <c r="C403" t="n">
-        <v>48784128.10336563</v>
+        <v>50252343.76740932</v>
       </c>
       <c r="D403" t="n">
-        <v>38079770.32470665</v>
+        <v>38922847.87605536</v>
       </c>
       <c r="E403" t="n">
-        <v>42937861.15902518</v>
+        <v>42606505.9898966</v>
       </c>
       <c r="F403" t="n">
-        <v>41680895.98081669</v>
+        <v>42475827.00127347</v>
       </c>
       <c r="G403" t="n">
-        <v>3604370.090996038</v>
+        <v>3261734.519380498</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>169621485.649556</v>
+        <v>172229496.9819034</v>
       </c>
       <c r="C404" t="n">
-        <v>48769987.66646538</v>
+        <v>50237777.16733227</v>
       </c>
       <c r="D404" t="n">
-        <v>38077755.90771882</v>
+        <v>38920788.82674833</v>
       </c>
       <c r="E404" t="n">
-        <v>42937467.51304617</v>
+        <v>42606115.3985924</v>
       </c>
       <c r="F404" t="n">
-        <v>41680851.06432651</v>
+        <v>42475781.22776249</v>
       </c>
       <c r="G404" t="n">
-        <v>7224180.419194905</v>
+        <v>6537906.363299248</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>168459778.5205446</v>
+        <v>171060954.4764071</v>
       </c>
       <c r="C405" t="n">
-        <v>48754282.0349649</v>
+        <v>50221598.21406994</v>
       </c>
       <c r="D405" t="n">
-        <v>38075437.9118566</v>
+        <v>38918419.47300448</v>
       </c>
       <c r="E405" t="n">
-        <v>42937000.65085962</v>
+        <v>42605652.15894678</v>
       </c>
       <c r="F405" t="n">
-        <v>41680796.04203273</v>
+        <v>42475725.15563158</v>
       </c>
       <c r="G405" t="n">
-        <v>10858992.92054519</v>
+        <v>9828124.155885532</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>167282387.38278</v>
+        <v>169876369.9781043</v>
       </c>
       <c r="C406" t="n">
-        <v>48736861.52765796</v>
+        <v>50203652.71814522</v>
       </c>
       <c r="D406" t="n">
-        <v>38072775.11323101</v>
+        <v>38915697.67775553</v>
       </c>
       <c r="E406" t="n">
-        <v>42936448.01210365</v>
+        <v>42605103.80796003</v>
       </c>
       <c r="F406" t="n">
-        <v>41680728.7820351</v>
+        <v>42475656.61230564</v>
       </c>
       <c r="G406" t="n">
-        <v>14508381.28723427</v>
+        <v>13132007.01470635</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>166089067.2518699</v>
+        <v>168675487.0993962</v>
       </c>
       <c r="C407" t="n">
-        <v>48717565.05035303</v>
+        <v>50183774.73351427</v>
       </c>
       <c r="D407" t="n">
-        <v>38069721.41699325</v>
+        <v>38912576.32508864</v>
       </c>
       <c r="E407" t="n">
-        <v>42935795.08711093</v>
+        <v>42604455.94842687</v>
       </c>
       <c r="F407" t="n">
-        <v>41680646.73554857</v>
+        <v>42475573.00037128</v>
       </c>
       <c r="G407" t="n">
-        <v>18171932.26718223</v>
+        <v>16449185.73274117</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>164879576.388434</v>
+        <v>167458052.6693949</v>
       </c>
       <c r="C408" t="n">
-        <v>48696219.56057952</v>
+        <v>50161786.00617523</v>
       </c>
       <c r="D408" t="n">
-        <v>38066225.39110512</v>
+        <v>38909002.84369255</v>
       </c>
       <c r="E408" t="n">
-        <v>42935025.15201367</v>
+        <v>42603691.98609165</v>
       </c>
       <c r="F408" t="n">
-        <v>41680546.86261323</v>
+        <v>42475471.22186942</v>
       </c>
       <c r="G408" t="n">
-        <v>21849246.95311274</v>
+        <v>19779303.95180188</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>163653677.139572</v>
+        <v>166223817.6008195</v>
       </c>
       <c r="C409" t="n">
-        <v>48672639.54526983</v>
+        <v>50137495.43614525</v>
       </c>
       <c r="D409" t="n">
-        <v>38062229.77095924</v>
+        <v>38904918.70050846</v>
       </c>
       <c r="E409" t="n">
-        <v>42934118.97433299</v>
+        <v>42602792.83751599</v>
       </c>
       <c r="F409" t="n">
-        <v>41680425.5460709</v>
+        <v>42475347.59063089</v>
       </c>
       <c r="G409" t="n">
-        <v>25539942.05712395</v>
+        <v>23122019.32370597</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>162411136.8362453</v>
+        <v>164972537.8144391</v>
       </c>
       <c r="C410" t="n">
-        <v>48646626.51682749</v>
+        <v>50110698.55837917</v>
       </c>
       <c r="D410" t="n">
-        <v>38057670.93518438</v>
+        <v>38900258.86492793</v>
       </c>
       <c r="E410" t="n">
-        <v>42933054.48682079</v>
+        <v>42601736.60644453</v>
       </c>
       <c r="F410" t="n">
-        <v>41680278.49225134</v>
+        <v>42475197.73106781</v>
       </c>
       <c r="G410" t="n">
-        <v>29243651.16652239</v>
+        <v>26477004.65536253</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>161151728.746774</v>
+        <v>163703975.2212612</v>
       </c>
       <c r="C411" t="n">
-        <v>48617968.53342537</v>
+        <v>50081177.0486495</v>
       </c>
       <c r="D411" t="n">
-        <v>38052478.353343</v>
+        <v>38894951.24426127</v>
       </c>
       <c r="E411" t="n">
-        <v>42931806.4273244</v>
+        <v>42600498.22645574</v>
       </c>
       <c r="F411" t="n">
-        <v>41680100.61665908</v>
+        <v>42475016.46167984</v>
       </c>
       <c r="G411" t="n">
-        <v>32960025.97654322</v>
+        <v>29843949.03380081</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>159875233.086298</v>
+        <v>162417898.7622977</v>
       </c>
       <c r="C412" t="n">
-        <v>48586439.74979883</v>
+        <v>50048698.26084139</v>
       </c>
       <c r="D412" t="n">
-        <v>38046574.00664803</v>
+        <v>38888916.09162787</v>
       </c>
       <c r="E412" t="n">
-        <v>42930345.94247872</v>
+        <v>42599049.06771988</v>
       </c>
       <c r="F412" t="n">
-        <v>41679885.91279665</v>
+        <v>42474797.66137487</v>
       </c>
       <c r="G412" t="n">
-        <v>36688737.49539515</v>
+        <v>33222558.92699987</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>158581438.0816683</v>
+        <v>161114085.5053546</v>
       </c>
       <c r="C413" t="n">
-        <v>48551800.00519846</v>
+        <v>50013014.80252767</v>
       </c>
       <c r="D413" t="n">
-        <v>38039871.78328936</v>
+        <v>38882065.38789444</v>
       </c>
       <c r="E413" t="n">
-        <v>42928640.15310524</v>
+        <v>42597356.50575954</v>
       </c>
       <c r="F413" t="n">
-        <v>41679627.30210051</v>
+        <v>42474534.11654214</v>
       </c>
       <c r="G413" t="n">
-        <v>36688712.85579278</v>
+        <v>33222536.62111848</v>
       </c>
       <c r="H413" t="n">
-        <v>3805599.735701174</v>
+        <v>3471511.19722601</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>157270141.0908231</v>
+        <v>159792321.7978642</v>
       </c>
       <c r="C414" t="n">
-        <v>48513794.45553865</v>
+        <v>49973864.15607199</v>
       </c>
       <c r="D414" t="n">
-        <v>38032276.85047047</v>
+        <v>38874302.19980836</v>
       </c>
       <c r="E414" t="n">
-        <v>42926651.67931591</v>
+        <v>42595383.45022628</v>
       </c>
       <c r="F414" t="n">
-        <v>41679316.46280722</v>
+        <v>42474217.34665379</v>
       </c>
       <c r="G414" t="n">
-        <v>36688682.27969314</v>
+        <v>33222508.94092891</v>
       </c>
       <c r="H414" t="n">
-        <v>7623069.197028018</v>
+        <v>6954313.912137287</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>155941149.7752672</v>
+        <v>158452404.4743317</v>
       </c>
       <c r="C415" t="n">
-        <v>48472153.25711481</v>
+        <v>49930968.35285492</v>
       </c>
       <c r="D415" t="n">
-        <v>38023685.00580971</v>
+        <v>38865520.01703897</v>
       </c>
       <c r="E415" t="n">
-        <v>42924338.12348872</v>
+        <v>42593087.83187417</v>
       </c>
       <c r="F415" t="n">
-        <v>41678943.63541143</v>
+        <v>42473837.40601166</v>
       </c>
       <c r="G415" t="n">
-        <v>36688644.42304847</v>
+        <v>33222474.66964462</v>
       </c>
       <c r="H415" t="n">
-        <v>11452140.29394964</v>
+        <v>10448167.63253614</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>154594283.3238056</v>
+        <v>157094142.1164909</v>
       </c>
       <c r="C416" t="n">
-        <v>48426591.30955496</v>
+        <v>49884033.70851906</v>
       </c>
       <c r="D416" t="n">
-        <v>38013982.01135646</v>
+        <v>38855602.07144959</v>
       </c>
       <c r="E416" t="n">
-        <v>42921651.50950762</v>
+        <v>42590422.04613527</v>
       </c>
       <c r="F416" t="n">
-        <v>41678497.40222676</v>
+        <v>42473382.65910299</v>
       </c>
       <c r="G416" t="n">
-        <v>36688597.65883765</v>
+        <v>33222432.33429424</v>
       </c>
       <c r="H416" t="n">
-        <v>15292569.40747351</v>
+        <v>13952854.09597184</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>153229373.7251999</v>
+        <v>155717356.3637677</v>
       </c>
       <c r="C417" t="n">
-        <v>48376808.06591281</v>
+        <v>49832750.62737834</v>
       </c>
       <c r="D417" t="n">
-        <v>38003042.91410743</v>
+        <v>38844420.64257118</v>
       </c>
       <c r="E417" t="n">
-        <v>42918537.67694614</v>
+        <v>42587332.3519866</v>
       </c>
       <c r="F417" t="n">
-        <v>41677964.43842135</v>
+        <v>42472839.52688657</v>
       </c>
       <c r="G417" t="n">
-        <v>36688540.02250145</v>
+        <v>33222380.15632097</v>
       </c>
       <c r="H417" t="n">
-        <v>19144138.45159841</v>
+        <v>17468178.27055945</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>151846267.0869057</v>
+        <v>154321883.2711232</v>
       </c>
       <c r="C418" t="n">
-        <v>48322487.41799079</v>
+        <v>49776793.48432346</v>
       </c>
       <c r="D418" t="n">
-        <v>37990731.35757814</v>
+        <v>38831836.3539339</v>
       </c>
       <c r="E418" t="n">
-        <v>42914935.62922952</v>
+        <v>42583758.22515047</v>
       </c>
       <c r="F418" t="n">
-        <v>41677329.23177478</v>
+        <v>42472192.20120382</v>
       </c>
       <c r="G418" t="n">
-        <v>36688469.14797139</v>
+        <v>33222315.99366608</v>
       </c>
       <c r="H418" t="n">
-        <v>23006655.88422883</v>
+        <v>20993969.28994409</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>150444824.9965243</v>
+        <v>152907574.7108176</v>
       </c>
       <c r="C419" t="n">
-        <v>48263297.6650948</v>
+        <v>49715820.59267151</v>
       </c>
       <c r="D419" t="n">
-        <v>37976898.88968372</v>
+        <v>38817697.46562687</v>
       </c>
       <c r="E419" t="n">
-        <v>42910776.83523701</v>
+        <v>42579631.66509423</v>
       </c>
       <c r="F419" t="n">
-        <v>41676573.76829937</v>
+        <v>42471422.32440297</v>
       </c>
       <c r="G419" t="n">
-        <v>36688382.19290536</v>
+        <v>33222237.27307996</v>
       </c>
       <c r="H419" t="n">
-        <v>26879957.6621409</v>
+        <v>24530081.33789811</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>149024925.9220631</v>
+        <v>151474299.8140758</v>
       </c>
       <c r="C420" t="n">
-        <v>48198891.57445918</v>
+        <v>49649474.26644639</v>
       </c>
       <c r="D420" t="n">
-        <v>37961384.27290514</v>
+        <v>38801839.16919467</v>
       </c>
       <c r="E420" t="n">
-        <v>42905984.48431139</v>
+        <v>42574876.45579629</v>
       </c>
       <c r="F420" t="n">
-        <v>41675677.18079092</v>
+        <v>42470508.63118555</v>
       </c>
       <c r="G420" t="n">
-        <v>36688275.75158472</v>
+        <v>33222140.9112625</v>
       </c>
       <c r="H420" t="n">
-        <v>30763908.13492242</v>
+        <v>28076394.47788129</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>147586466.6465496</v>
+        <v>150021946.4480771</v>
       </c>
       <c r="C421" t="n">
-        <v>48128906.5415323</v>
+        <v>49577380.98552652</v>
       </c>
       <c r="D421" t="n">
-        <v>37944012.80345426</v>
+        <v>38784082.89173286</v>
       </c>
       <c r="E421" t="n">
-        <v>42900472.69522882</v>
+        <v>42569407.38082726</v>
       </c>
       <c r="F421" t="n">
-        <v>41674615.3573292</v>
+        <v>42469426.54963894</v>
       </c>
       <c r="G421" t="n">
-        <v>36688145.75376137</v>
+        <v>33222023.22328217</v>
       </c>
       <c r="H421" t="n">
-        <v>34658400.87263344</v>
+        <v>31632815.42272941</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>146129363.7319851</v>
+        <v>148550422.7231179</v>
       </c>
       <c r="C422" t="n">
-        <v>48052964.85817301</v>
+        <v>49499151.6719522</v>
       </c>
       <c r="D422" t="n">
-        <v>37924595.6468939</v>
+        <v>38764235.61680347</v>
       </c>
       <c r="E422" t="n">
-        <v>42894145.6803524</v>
+        <v>42563129.3939599</v>
       </c>
       <c r="F422" t="n">
-        <v>41673360.50674491</v>
+        <v>42468147.75841429</v>
       </c>
       <c r="G422" t="n">
-        <v>36687987.34756778</v>
+        <v>33221879.81656624</v>
       </c>
       <c r="H422" t="n">
-        <v>38563359.4217369</v>
+        <v>35199278.23945211</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>144653555.0070717</v>
+        <v>147059658.5242258</v>
       </c>
       <c r="C423" t="n">
-        <v>47970674.09656886</v>
+        <v>49414382.08543828</v>
       </c>
       <c r="D423" t="n">
-        <v>37902929.19840848</v>
+        <v>38742089.23054772</v>
       </c>
       <c r="E423" t="n">
-        <v>42886896.86694988</v>
+        <v>42555936.74727301</v>
       </c>
       <c r="F423" t="n">
-        <v>41671880.67811327</v>
+        <v>42466639.6970543</v>
       </c>
       <c r="G423" t="n">
-        <v>36687794.76442351</v>
+        <v>33221705.46859017</v>
       </c>
       <c r="H423" t="n">
-        <v>42478737.98365089</v>
+        <v>38775744.98393595</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>143159001.0725839</v>
+        <v>145549607.060936</v>
       </c>
       <c r="C424" t="n">
-        <v>47881627.61634097</v>
+        <v>49322653.3457813</v>
       </c>
       <c r="D424" t="n">
-        <v>37878794.47664266</v>
+        <v>38717419.90211106</v>
       </c>
       <c r="E424" t="n">
-        <v>42878607.97849929</v>
+        <v>42547712.07955082</v>
       </c>
       <c r="F424" t="n">
-        <v>41670139.23143505</v>
+        <v>42464865.0265775</v>
       </c>
       <c r="G424" t="n">
-        <v>36687561.16368701</v>
+        <v>33221493.9862285</v>
       </c>
       <c r="H424" t="n">
-        <v>46404522.01004345</v>
+        <v>42362206.26013305</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>141645686.8177188</v>
+        <v>144020246.4283814</v>
       </c>
       <c r="C425" t="n">
-        <v>47785405.20184421</v>
+        <v>49223532.58938056</v>
       </c>
       <c r="D425" t="n">
-        <v>37851956.56072117</v>
+        <v>38689987.50820607</v>
       </c>
       <c r="E425" t="n">
-        <v>42869148.0797359</v>
+        <v>42538325.46870217</v>
       </c>
       <c r="F425" t="n">
-        <v>41668094.25683169</v>
+        <v>42462781.03759458</v>
       </c>
       <c r="G425" t="n">
-        <v>36687278.4546176</v>
+        <v>33221238.04456196</v>
       </c>
       <c r="H425" t="n">
-        <v>50340728.70876914</v>
+        <v>45958681.69810882</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>140113622.9402202</v>
+        <v>142471581.1723004</v>
       </c>
       <c r="C426" t="n">
-        <v>47681573.83609749</v>
+        <v>49116573.76650082</v>
       </c>
       <c r="D426" t="n">
-        <v>37822164.08071325</v>
+        <v>38659535.11230441</v>
       </c>
       <c r="E426" t="n">
-        <v>42858372.59020555</v>
+        <v>42527633.45292769</v>
       </c>
       <c r="F426" t="n">
-        <v>41665697.93982033</v>
+        <v>42460339.00347605</v>
       </c>
       <c r="G426" t="n">
-        <v>36686937.09303088</v>
+        <v>33220929.00277165</v>
       </c>
       <c r="H426" t="n">
-        <v>54287407.45408556</v>
+        <v>49565220.34507904</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>138562847.4625654</v>
+        <v>140903643.8500485</v>
       </c>
       <c r="C427" t="n">
-        <v>47569688.61708715</v>
+        <v>49001318.58519243</v>
       </c>
       <c r="D427" t="n">
-        <v>37789148.77240146</v>
+        <v>38625788.50955772</v>
       </c>
       <c r="E427" t="n">
-        <v>42846122.27218082</v>
+        <v>42515478.02644587</v>
       </c>
       <c r="F427" t="n">
-        <v>41662895.8705567</v>
+        <v>42457483.47641937</v>
       </c>
       <c r="G427" t="n">
-        <v>36686525.84985711</v>
+        <v>33220556.69459345</v>
       </c>
       <c r="H427" t="n">
-        <v>58244640.09453809</v>
+        <v>53181900.96333295</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>136993427.236016</v>
+        <v>139316496.5791951</v>
       </c>
       <c r="C428" t="n">
-        <v>47449293.82137183</v>
+        <v>48877297.60694509</v>
       </c>
       <c r="D428" t="n">
-        <v>37752625.10773531</v>
+        <v>38588455.84907994</v>
       </c>
       <c r="E428" t="n">
-        <v>42832222.19995736</v>
+        <v>42501685.6167409</v>
       </c>
       <c r="F428" t="n">
-        <v>41659626.29534823</v>
+        <v>42454151.52468515</v>
       </c>
       <c r="G428" t="n">
-        <v>36686031.54865069</v>
+        <v>33220109.19065984</v>
       </c>
       <c r="H428" t="n">
-        <v>62212541.15162585</v>
+        <v>56808832.22868314</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>135405459.4238798</v>
+        <v>137710232.5648297</v>
       </c>
       <c r="C429" t="n">
-        <v>47319924.11898161</v>
+        <v>48744031.49818732</v>
       </c>
       <c r="D429" t="n">
-        <v>37712290.0127848</v>
+        <v>38547227.34566783</v>
       </c>
       <c r="E429" t="n">
-        <v>42816480.71877196</v>
+        <v>42486066.05151031</v>
       </c>
       <c r="F429" t="n">
-        <v>41655819.30925345</v>
+        <v>42450271.90979594</v>
       </c>
       <c r="G429" t="n">
-        <v>36685438.76895631</v>
+        <v>33219572.52992734</v>
       </c>
       <c r="H429" t="n">
-        <v>66191257.90207577</v>
+        <v>60446152.82281645</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>133799072.9549195</v>
+        <v>136084977.5962731</v>
       </c>
       <c r="C430" t="n">
-        <v>47181105.94254648</v>
+        <v>48601032.44065528</v>
       </c>
       <c r="D430" t="n">
-        <v>37667822.68533593</v>
+        <v>38501775.09337021</v>
       </c>
       <c r="E430" t="n">
-        <v>42798688.40285727</v>
+        <v>42468411.52475318</v>
       </c>
       <c r="F430" t="n">
-        <v>41651395.98920508</v>
+        <v>42445764.20312466</v>
       </c>
       <c r="G430" t="n">
-        <v>36684729.51231979</v>
+        <v>33218930.41728061</v>
       </c>
       <c r="H430" t="n">
-        <v>70180970.33626881</v>
+        <v>64094031.41265605</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>132174429.9374704</v>
+        <v>134440891.5035102</v>
       </c>
       <c r="C431" t="n">
-        <v>47032359.01241443</v>
+        <v>48447805.70244302</v>
       </c>
       <c r="D431" t="n">
-        <v>37618884.5244773</v>
+        <v>38451752.99352896</v>
       </c>
       <c r="E431" t="n">
-        <v>42778617.02345742</v>
+        <v>42448495.57273982</v>
       </c>
       <c r="F431" t="n">
-        <v>41646267.4678312</v>
+        <v>42440537.84205005</v>
       </c>
       <c r="G431" t="n">
-        <v>36683882.82764693</v>
+        <v>33218163.88432867</v>
       </c>
       <c r="H431" t="n">
-        <v>74181890.98506299</v>
+        <v>67752666.50956704</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>130531727.0245132</v>
+        <v>132778169.5633381</v>
       </c>
       <c r="C432" t="n">
-        <v>46873198.01823056</v>
+        <v>48283851.37021989</v>
       </c>
       <c r="D432" t="n">
-        <v>37565119.18459507</v>
+        <v>38396796.80998317</v>
       </c>
       <c r="E432" t="n">
-        <v>42756018.53895634</v>
+        <v>42426072.0719208</v>
       </c>
       <c r="F432" t="n">
-        <v>41640333.94900519</v>
+        <v>42434491.12672962</v>
       </c>
       <c r="G432" t="n">
-        <v>36682874.39257061</v>
+        <v>33217250.91036835</v>
       </c>
       <c r="H432" t="n">
-        <v>78194264.60695969</v>
+        <v>71422286.20095992</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>128871196.7196838</v>
+        <v>131097043.8449499</v>
       </c>
       <c r="C433" t="n">
-        <v>46703134.4560533</v>
+        <v>48108666.24166217</v>
       </c>
       <c r="D433" t="n">
-        <v>37506152.7661074</v>
+        <v>38336524.36404129</v>
       </c>
       <c r="E433" t="n">
-        <v>42730624.12059721</v>
+        <v>42400874.27214886</v>
       </c>
       <c r="F433" t="n">
-        <v>41633483.66713595</v>
+        <v>42427510.15954021</v>
       </c>
       <c r="G433" t="n">
-        <v>36681676.04749335</v>
+        <v>33216166.00049727</v>
       </c>
       <c r="H433" t="n">
-        <v>82218367.72727206</v>
+        <v>75103147.74657762</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>127193108.6140035</v>
+        <v>129397784.4844769</v>
       </c>
       <c r="C434" t="n">
-        <v>46521678.61859022</v>
+        <v>47921745.87560911</v>
       </c>
       <c r="D434" t="n">
-        <v>37441594.1550158</v>
+        <v>38270535.88156523</v>
       </c>
       <c r="E434" t="n">
-        <v>42702143.22857341</v>
+        <v>42372613.87988073</v>
       </c>
       <c r="F434" t="n">
-        <v>41625591.79331762</v>
+        <v>42419467.73036466</v>
       </c>
       <c r="G434" t="n">
-        <v>36680255.27903959</v>
+        <v>33214879.71791907</v>
       </c>
       <c r="H434" t="n">
-        <v>86254508.02065724</v>
+        <v>78795537.03147683</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>125497770.5429826</v>
+        <v>127680700.8778688</v>
       </c>
       <c r="C435" t="n">
-        <v>46328341.7345558</v>
+        <v>47722586.79582383</v>
       </c>
       <c r="D435" t="n">
-        <v>37371035.52291295</v>
+        <v>38198414.50406425</v>
       </c>
       <c r="E435" t="n">
-        <v>42670262.75452552</v>
+        <v>42340980.2072688</v>
       </c>
       <c r="F435" t="n">
-        <v>41616519.29269154</v>
+        <v>42410222.15216044</v>
       </c>
       <c r="G435" t="n">
-        <v>36678574.64979041</v>
+        <v>33213358.16760837</v>
       </c>
       <c r="H435" t="n">
-        <v>90303023.52811109</v>
+        <v>82499767.86746722</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>123785529.6536898</v>
+        <v>125946142.7814443</v>
       </c>
       <c r="C436" t="n">
-        <v>46122638.25149772</v>
+        <v>47510688.84253625</v>
       </c>
       <c r="D436" t="n">
-        <v>37294052.99845617</v>
+        <v>38119726.97505072</v>
       </c>
       <c r="E436" t="n">
-        <v>42634646.24765593</v>
+        <v>42305639.40422173</v>
       </c>
       <c r="F436" t="n">
-        <v>41606111.73873016</v>
+        <v>42399616.05262914</v>
       </c>
       <c r="G436" t="n">
-        <v>36676591.17139184</v>
+        <v>33211562.42870159</v>
       </c>
       <c r="H436" t="n">
-        <v>94364281.69925587</v>
+        <v>86216181.13452373</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>122056773.3714025</v>
+        <v>124194501.309454</v>
       </c>
       <c r="C437" t="n">
-        <v>45904088.25472405</v>
+        <v>47285557.66417703</v>
       </c>
       <c r="D437" t="n">
-        <v>37210207.52047876</v>
+        <v>38034024.51205584</v>
       </c>
       <c r="E437" t="n">
-        <v>42594933.24274522</v>
+        <v>42266233.79157666</v>
       </c>
       <c r="F437" t="n">
-        <v>41594198.09162738</v>
+        <v>42387475.12930797</v>
       </c>
       <c r="G437" t="n">
-        <v>36674255.61844054</v>
+        <v>33209447.93326174</v>
       </c>
       <c r="H437" t="n">
-        <v>98438678.25053868</v>
+        <v>89945143.75348619</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>120311930.2555545</v>
+        <v>122426209.8181095</v>
       </c>
       <c r="C438" t="n">
-        <v>45672220.01320539</v>
+        <v>47046707.33990273</v>
       </c>
       <c r="D438" t="n">
-        <v>37119045.8818646</v>
+        <v>37940843.87363171</v>
       </c>
       <c r="E438" t="n">
-        <v>42550738.70929006</v>
+        <v>42222381.31445444</v>
       </c>
       <c r="F438" t="n">
-        <v>41580589.44956271</v>
+        <v>42373606.87701834</v>
       </c>
       <c r="G438" t="n">
-        <v>36671511.78096466</v>
+        <v>33206963.78944117</v>
       </c>
       <c r="H438" t="n">
-        <v>102526635.8297512</v>
+        <v>93687047.48116899</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>118551470.7348826</v>
+        <v>120641744.6657228</v>
       </c>
       <c r="C439" t="n">
-        <v>45426572.64154421</v>
+        <v>46793663.12167481</v>
       </c>
       <c r="D439" t="n">
-        <v>37020101.97204604</v>
+        <v>37839708.62937441</v>
       </c>
       <c r="E439" t="n">
-        <v>42501652.64174872</v>
+        <v>42173675.1356302</v>
       </c>
       <c r="F439" t="n">
-        <v>41565077.78328472</v>
+        <v>42357799.29831594</v>
       </c>
       <c r="G439" t="n">
-        <v>36668295.65384785</v>
+        <v>33204052.04754489</v>
       </c>
       <c r="H439" t="n">
-        <v>106628602.4771515</v>
+        <v>97442307.51887858</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>116775907.7119539</v>
+        <v>118841625.8388837</v>
       </c>
       <c r="C440" t="n">
-        <v>45166698.86531673</v>
+        <v>46525964.28281593</v>
       </c>
       <c r="D440" t="n">
-        <v>36912898.22450291</v>
+        <v>37730130.63948622</v>
       </c>
       <c r="E440" t="n">
-        <v>42447239.81144698</v>
+        <v>42119683.38931268</v>
       </c>
       <c r="F440" t="n">
-        <v>41547434.66621662</v>
+        <v>42339819.60937807</v>
       </c>
       <c r="G440" t="n">
-        <v>36664534.56219685</v>
+        <v>33200646.90808923</v>
       </c>
       <c r="H440" t="n">
-        <v>110745049.8733648</v>
+        <v>101211360.9252394</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>114985797.0276158</v>
+        <v>117026417.4349748</v>
       </c>
       <c r="C441" t="n">
-        <v>44892167.8753234</v>
+        <v>46243167.05814433</v>
       </c>
       <c r="D441" t="n">
-        <v>36796947.27394027</v>
+        <v>37611611.74865866</v>
       </c>
       <c r="E441" t="n">
-        <v>42387039.70102612</v>
+        <v>42059949.11605386</v>
       </c>
       <c r="F441" t="n">
-        <v>41527410.01410053</v>
+        <v>42319412.95561239</v>
       </c>
       <c r="G441" t="n">
-        <v>36660146.22244025</v>
+        <v>33196673.87166197</v>
       </c>
       <c r="H441" t="n">
-        <v>114876471.3642357</v>
+        <v>104994664.824219</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>113181737.7763731</v>
+        <v>115196727.9917991</v>
       </c>
       <c r="C442" t="n">
-        <v>44602568.25455542</v>
+        <v>45944847.65900517</v>
       </c>
       <c r="D442" t="n">
-        <v>36671753.82591364</v>
+        <v>37483645.69710541</v>
       </c>
       <c r="E442" t="n">
-        <v>42320566.64237902</v>
+        <v>41993990.39957278</v>
       </c>
       <c r="F442" t="n">
-        <v>41504730.85004512</v>
+        <v>42296301.15315384</v>
       </c>
       <c r="G442" t="n">
-        <v>36655037.73987331</v>
+        <v>33192048.83123061</v>
       </c>
       <c r="H442" t="n">
-        <v>119023379.7528579</v>
+        <v>108792694.3992924</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>111364372.4642418</v>
+        <v>113353210.6556509</v>
       </c>
       <c r="C443" t="n">
-        <v>44297510.96001837</v>
+        <v>45630605.34480381</v>
       </c>
       <c r="D443" t="n">
-        <v>36536816.73955776</v>
+        <v>37345720.24941624</v>
       </c>
       <c r="E443" t="n">
-        <v>42247310.17878439</v>
+        <v>41921300.72604445</v>
       </c>
       <c r="F443" t="n">
-        <v>41479100.11268958</v>
+        <v>42270181.47430117</v>
       </c>
       <c r="G443" t="n">
-        <v>36649104.54443838</v>
+        <v>33186677.10851761</v>
       </c>
       <c r="H443" t="n">
-        <v>123186304.8491738</v>
+        <v>112605940.6648333</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>109534387.0012711</v>
+        <v>111496563.1798214</v>
       </c>
       <c r="C444" t="n">
-        <v>43976632.3399789</v>
+        <v>45300065.53102043</v>
       </c>
       <c r="D444" t="n">
-        <v>36391631.3217781</v>
+        <v>37197319.53955386</v>
       </c>
       <c r="E444" t="n">
-        <v>42166735.67138577</v>
+        <v>41841349.58584529</v>
       </c>
       <c r="F444" t="n">
-        <v>41450195.52701752</v>
+        <v>42240725.49679892</v>
       </c>
       <c r="G444" t="n">
-        <v>36642229.26775517</v>
+        <v>33180452.43717108</v>
       </c>
       <c r="H444" t="n">
-        <v>127365790.7678159</v>
+        <v>116434908.0060714</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>107692510.5216528</v>
+        <v>109627527.7462746</v>
       </c>
       <c r="C445" t="n">
-        <v>43639597.16573494</v>
+        <v>44952882.91217879</v>
       </c>
       <c r="D445" t="n">
-        <v>36235691.82879541</v>
+        <v>37037926.6277934</v>
       </c>
       <c r="E445" t="n">
-        <v>42078285.16924535</v>
+        <v>41753583.33683686</v>
       </c>
       <c r="F445" t="n">
-        <v>41417668.55910384</v>
+        <v>42207578.03865388</v>
       </c>
       <c r="G445" t="n">
-        <v>36634280.56579179</v>
+        <v>33173255.89670512</v>
       </c>
       <c r="H445" t="n">
-        <v>131562392.9652632</v>
+        <v>120280111.4793254</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>105839515.0251546</v>
+        <v>107746890.6040689</v>
       </c>
       <c r="C446" t="n">
-        <v>43286101.65568545</v>
+        <v>44588744.57687575</v>
       </c>
       <c r="D446" t="n">
-        <v>36068494.16832047</v>
+        <v>36867026.26273218</v>
       </c>
       <c r="E446" t="n">
-        <v>41981378.56090815</v>
+        <v>41657426.34698588</v>
       </c>
       <c r="F446" t="n">
-        <v>41381143.47771893</v>
+        <v>42170356.2018477</v>
       </c>
       <c r="G446" t="n">
-        <v>36625111.89309219</v>
+        <v>33164954.80256511</v>
       </c>
       <c r="H446" t="n">
-        <v>135776675.0079486</v>
+        <v>124142073.8647304</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>103976214.8345108</v>
+        <v>105855481.5190164</v>
       </c>
       <c r="C447" t="n">
-        <v>42915876.46831149</v>
+        <v>44207373.09077954</v>
       </c>
       <c r="D447" t="n">
-        <v>35889538.79290158</v>
+        <v>36684107.83870286</v>
       </c>
       <c r="E447" t="n">
-        <v>41875415.02372489</v>
+        <v>41552282.43244388</v>
       </c>
       <c r="F447" t="n">
-        <v>41340216.54720039</v>
+        <v>42128648.54982163</v>
       </c>
       <c r="G447" t="n">
-        <v>36614560.23614386</v>
+        <v>33155401.55918352</v>
       </c>
       <c r="H447" t="n">
-        <v>140009205.063672</v>
+        <v>128021322.4643397</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>102103465.8643829</v>
+        <v>103954173.030077</v>
       </c>
       <c r="C448" t="n">
-        <v>42528689.63970221</v>
+        <v>43808529.52249787</v>
       </c>
       <c r="D448" t="n">
-        <v>35698333.7721645</v>
+        <v>36488668.5360376</v>
       </c>
       <c r="E448" t="n">
-        <v>41759774.78508754</v>
+        <v>41437536.60513186</v>
       </c>
       <c r="F448" t="n">
-        <v>41294455.37728713</v>
+        <v>42082014.44491757</v>
       </c>
       <c r="G448" t="n">
-        <v>36602444.81527007</v>
+        <v>33144432.48452199</v>
       </c>
       <c r="H448" t="n">
-        <v>144260552.1095883</v>
+        <v>131918385.639314</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>100222164.6985523</v>
+        <v>102043879.5090593</v>
       </c>
       <c r="C449" t="n">
-        <v>42124349.44048969</v>
+        <v>43392016.38642297</v>
       </c>
       <c r="D449" t="n">
-        <v>35494398.02878696</v>
+        <v>36280216.62868959</v>
       </c>
       <c r="E449" t="n">
-        <v>41633821.2072254</v>
+        <v>41312557.14138858</v>
       </c>
       <c r="F449" t="n">
-        <v>41243398.45664314</v>
+        <v>42029983.57301359</v>
       </c>
       <c r="G449" t="n">
-        <v>36588565.76634829</v>
+        <v>33131866.61633174</v>
       </c>
       <c r="H449" t="n">
-        <v>148531281.8511625</v>
+        <v>135833789.080944</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>98333247.47312225</v>
+        <v>100125556.0213451</v>
       </c>
       <c r="C450" t="n">
-        <v>41702707.12651395</v>
+        <v>42957680.47610316</v>
       </c>
       <c r="D450" t="n">
-        <v>35277264.72015639</v>
+        <v>36058274.94076045</v>
       </c>
       <c r="E450" t="n">
-        <v>41496903.20429233</v>
+        <v>41176697.98034662</v>
       </c>
       <c r="F450" t="n">
-        <v>41186554.8975307</v>
+        <v>41972055.68333628</v>
       </c>
       <c r="G450" t="n">
-        <v>36572702.81567246</v>
+        <v>33117504.51218959</v>
       </c>
       <c r="H450" t="n">
-        <v>152821952.3478144</v>
+        <v>139768051.8114675</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>96437688.56468247</v>
+        <v>98200196.98655407</v>
       </c>
       <c r="C451" t="n">
-        <v>41263659.55724531</v>
+        <v>42505415.56138653</v>
       </c>
       <c r="D451" t="n">
-        <v>35046484.74479107</v>
+        <v>35822384.43055094</v>
       </c>
       <c r="E451" t="n">
-        <v>41348357.99715676</v>
+        <v>41029301.45740691</v>
       </c>
       <c r="F451" t="n">
-        <v>41123404.41947233</v>
+        <v>41907700.57182103</v>
       </c>
       <c r="G451" t="n">
-        <v>36554613.96336383</v>
+        <v>33101127.05725722</v>
       </c>
       <c r="H451" t="n">
-        <v>157133109.3425788</v>
+        <v>143721681.9121161</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>94536499.08361436</v>
+        <v>96268834.6393277</v>
       </c>
       <c r="C452" t="n">
-        <v>40807151.65595895</v>
+        <v>42035164.92254954</v>
       </c>
       <c r="D452" t="n">
-        <v>34801630.3498057</v>
+        <v>35572107.87789015</v>
       </c>
       <c r="E452" t="n">
-        <v>41187514.20760375</v>
+        <v>40869701.37450825</v>
       </c>
       <c r="F452" t="n">
-        <v>41053397.59972043</v>
+        <v>41836358.33636916</v>
       </c>
       <c r="G452" t="n">
-        <v>36534034.19286544</v>
+        <v>33082494.29563983</v>
       </c>
       <c r="H452" t="n">
-        <v>161465281.2949494</v>
+        <v>147695171.9775108</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24191322.70272157</v>
+        <v>13305227.48649686</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>24219569.00181898</v>
+        <v>13320762.95100044</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>24248190.72932446</v>
+        <v>13336504.90112846</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>24277192.6816877</v>
+        <v>13352455.97492824</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>24306579.70359099</v>
+        <v>13368618.83697505</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>24336356.6875323</v>
+        <v>13384996.17814277</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>24366528.5733462</v>
+        <v>13401590.71534041</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>24397100.34766014</v>
+        <v>13418405.19121308</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>24428077.04328386</v>
+        <v>13435442.37380612</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>24459463.73852942</v>
+        <v>13452705.05619118</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>24491265.55645949</v>
+        <v>13470196.05605272</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>24523487.66406194</v>
+        <v>13487918.21523407</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>24556135.27134839</v>
+        <v>13505874.39924162</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>24589213.63037481</v>
+        <v>13524067.49670615</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>24622728.03418222</v>
+        <v>13542500.41880022</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>24656683.81565601</v>
+        <v>13561176.0986108</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>24691086.346302</v>
+        <v>13580097.4904661</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>24725941.03493809</v>
+        <v>13599267.56921595</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>24761253.32630043</v>
+        <v>13618689.32946524</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>24797028.69956287</v>
+        <v>13638365.78475958</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>24833272.66676939</v>
+        <v>13658299.96672316</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>24869990.77117892</v>
+        <v>13678494.9241484</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>24907188.58552245</v>
+        <v>13698953.72203735</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>24944871.7101729</v>
+        <v>13719679.4405951</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>24983045.7712279</v>
+        <v>13740675.17417534</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>25021716.4185069</v>
+        <v>13761944.03017879</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>25060889.32346369</v>
+        <v>13783489.12790503</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>25100570.17701602</v>
+        <v>13805313.5973588</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>25140764.68729479</v>
+        <v>13827420.57801214</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>25181478.57731536</v>
+        <v>13849813.21752344</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>25222717.58257381</v>
+        <v>13872494.6704156</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>25264487.44857254</v>
+        <v>13895468.0967149</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>25306793.92827857</v>
+        <v>13918736.66055321</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>25349642.77951996</v>
+        <v>13942303.52873597</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>25393039.76232528</v>
+        <v>13966171.86927891</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>25436990.63621218</v>
+        <v>13990344.8499167</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>25481501.15743154</v>
+        <v>14014825.63658735</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>25526577.07617439</v>
+        <v>14039617.39189592</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>25572224.13374937</v>
+        <v>14064723.27356215</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>25618448.05973909</v>
+        <v>14090146.4328565</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>25665254.56914458</v>
+        <v>14115890.01302952</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>25712649.35952758</v>
+        <v>14141957.14774016</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>25760638.10816093</v>
+        <v>14168350.95948851</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>25809226.46919857</v>
+        <v>14195074.55805921</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>25858420.07087651</v>
+        <v>14222131.03898208</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>25908224.51275731</v>
+        <v>14249523.48201652</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>25958645.36303159</v>
+        <v>14277254.94966737</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>26009688.15588987</v>
+        <v>14305328.48573942</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>26061358.38897928</v>
+        <v>14333747.11393861</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>26113661.52096059</v>
+        <v>14362513.83652833</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>26166602.9691806</v>
+        <v>14391631.63304932</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>26220188.10747661</v>
+        <v>14421103.45911214</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>26274422.26412973</v>
+        <v>14450932.24527134</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>26329310.71998393</v>
+        <v>14481120.89599116</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>26384858.70674942</v>
+        <v>14511672.28871219</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>26441071.40550775</v>
+        <v>14542589.27302927</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>26497953.94543804</v>
+        <v>14573874.66999093</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>26555511.40278276</v>
+        <v>14605531.27153052</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>26613748.80007292</v>
+        <v>14637561.84004012</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>26672671.1056317</v>
+        <v>14669969.10809745</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>26732283.23337664</v>
+        <v>14702755.77835715</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>26792590.04293996</v>
+        <v>14735924.523617</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>26853596.34012749</v>
+        <v>14769477.98707012</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>26915306.87773465</v>
+        <v>14803418.78275407</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>26977726.35674147</v>
+        <v>14837749.49620781</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>27040859.42790389</v>
+        <v>14872472.68534714</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>27104710.69376213</v>
+        <v>14907590.88156918</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>27169284.71108472</v>
+        <v>14943106.5910966</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>27234585.99376639</v>
+        <v>14979022.29657151</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>27300619.01619793</v>
+        <v>15015340.45890886</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>27367388.21712554</v>
+        <v>15052063.51941905</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>27434898.00401588</v>
+        <v>15089193.90220873</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>27503152.75794276</v>
+        <v>15126734.0168685</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>27572156.83901042</v>
+        <v>15164686.26145572</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>27641914.59232688</v>
+        <v>15203053.02577979</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>27712430.35454023</v>
+        <v>15241836.69499712</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>27783708.46094922</v>
+        <v>15281039.65352206</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>27855753.25319842</v>
+        <v>15320664.28925913</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>27928569.08756645</v>
+        <v>15360712.99816154</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>28002160.3438544</v>
+        <v>15401188.18911992</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>28076531.43488044</v>
+        <v>15442092.28918425</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>28151686.81658396</v>
+        <v>15483427.74912117</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>28227630.99874167</v>
+        <v>15525197.04930793</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>28304368.55629586</v>
+        <v>15567402.70596273</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>28381904.14129303</v>
+        <v>15610047.27771117</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>28460242.49542918</v>
+        <v>15653133.37248604</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>28539388.46319607</v>
+        <v>15696663.65475783</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>28619347.00562039</v>
+        <v>15740640.85309122</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>28700123.21458599</v>
+        <v>15785067.76802229</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>28781722.32772617</v>
+        <v>15829947.28024941</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>28864149.74387259</v>
+        <v>15875282.35912993</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>28947411.03904243</v>
+        <v>15921076.07147334</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>29031511.98294575</v>
+        <v>15967331.59062015</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>29116458.55599103</v>
+        <v>16014052.20579506</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>29202256.96676489</v>
+        <v>16061241.33172068</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>29288913.66995988</v>
+        <v>16108902.51847795</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>29376435.38472211</v>
+        <v>16157039.46159718</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>29464829.11338739</v>
+        <v>16205656.01236307</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>29554102.16057342</v>
+        <v>16254756.18831538</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>29644262.15259241</v>
+        <v>16304344.18392582</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>29735317.05714713</v>
+        <v>16354424.38143093</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>29827275.20327112</v>
+        <v>16405001.36179911</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>29920145.30147098</v>
+        <v>16456079.91580904</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>30013936.46402896</v>
+        <v>16507665.05521594</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>30108658.22541949</v>
+        <v>16559762.02398071</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>30204320.56279415</v>
+        <v>16612376.30953679</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>30300933.91648661</v>
+        <v>16665513.65406764</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>30398509.21048794</v>
+        <v>16719180.06576838</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>30497057.87284216</v>
+        <v>16773381.83006321</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>30596591.85590978</v>
+        <v>16828125.52075039</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>30697123.65644711</v>
+        <v>16883418.01104593</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>30798666.33544793</v>
+        <v>16939266.48449635</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>30901233.53769335</v>
+        <v>16995678.44573135</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>31004839.51095657</v>
+        <v>17052661.73102611</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>31109499.12480677</v>
+        <v>17110224.51864373</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>31215227.88895915</v>
+        <v>17168375.33892754</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>31322041.97111641</v>
+        <v>17227123.08411404</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>31429958.21424824</v>
+        <v>17286477.01783654</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>31538994.15325596</v>
+        <v>17346446.78429076</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>31649168.03097009</v>
+        <v>17407042.41703355</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>31760498.81343079</v>
+        <v>17468274.34738695</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>31873006.20440044</v>
+        <v>17530153.41242024</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>31986710.65906125</v>
+        <v>17592690.86248369</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>32101633.39685165</v>
+        <v>17655898.3682684</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>32217796.4133968</v>
+        <v>17719788.02736826</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>32335222.49149163</v>
+        <v>17784372.3703204</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>32453935.21109656</v>
+        <v>17849664.36610311</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>32573958.95830868</v>
+        <v>17915677.42706976</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>32695318.93327494</v>
+        <v>17982425.41330122</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>32818041.15701497</v>
+        <v>18049922.63635823</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>32942152.4771259</v>
+        <v>18118183.86241924</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>33067680.57234478</v>
+        <v>18187224.3147896</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>33194653.95594617</v>
+        <v>18257059.67577039</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>33323101.97795837</v>
+        <v>18327706.08787711</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>33453054.82618289</v>
+        <v>18399180.15440061</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>33584543.52600808</v>
+        <v>18471498.93930446</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>33717599.93900994</v>
+        <v>18544679.96645546</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>33852256.76033808</v>
+        <v>18618741.21818594</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>33988547.51488893</v>
+        <v>18693701.13318891</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>34126506.55227162</v>
+        <v>18769578.60374939</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>34266169.04057733</v>
+        <v>18846392.97231754</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>34407570.95896632</v>
+        <v>18924164.02743149</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>34550749.08909094</v>
+        <v>19002911.99900001</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>34695741.00537821</v>
+        <v>19082657.55295802</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>34842585.06419852</v>
+        <v>19163421.7853092</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>34991320.39195161</v>
+        <v>19245226.21557339</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>35141986.87210552</v>
+        <v>19328092.77965805</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>35294625.13122734</v>
+        <v>19412043.82217504</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>35449276.52404936</v>
+        <v>19497102.08822716</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>35605983.11761743</v>
+        <v>19583290.71468959</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>35764787.67457202</v>
+        <v>19670633.22101463</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>35925733.63561664</v>
+        <v>19759153.49958914</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>36088865.1012306</v>
+        <v>19848875.80567683</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>36254226.8126876</v>
+        <v>19939824.74697817</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>36421864.13244315</v>
+        <v>20032025.27284374</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>36591823.02395803</v>
+        <v>20125502.66317692</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>36764150.0310267</v>
+        <v>20220282.51706468</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>36938892.25668234</v>
+        <v>20316390.7411753</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>37116097.34175257</v>
+        <v>20413853.53796392</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>37295813.44314083</v>
+        <v>20512697.39372746</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>37478089.21191159</v>
+        <v>20612949.06655137</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>37662973.77125793</v>
+        <v>20714635.57419186</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>37850516.69443133</v>
+        <v>20817784.18193721</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>38040767.98271442</v>
+        <v>20922422.39049294</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>38233778.04351924</v>
+        <v>21028577.92393559</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>38429597.66869137</v>
+        <v>21136278.71778024</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>38628278.0131036</v>
+        <v>21245552.90720698</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>38829870.57361998</v>
+        <v>21356428.81549099</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>39034427.16851215</v>
+        <v>21468934.9426817</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>39241999.91740923</v>
+        <v>21583099.95457509</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>39452641.22186039</v>
+        <v>21698952.67202322</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>39666403.74658965</v>
+        <v>21816522.0606243</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>39883340.40152016</v>
+        <v>21935837.22083608</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>40103504.32464334</v>
+        <v>22056927.37855383</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>40326948.86580759</v>
+        <v>22179821.87619418</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>40553727.57149749</v>
+        <v>22304550.16432362</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>40783894.17067393</v>
+        <v>22431141.79387065</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>41017502.56174171</v>
+        <v>22559626.40895793</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>41254606.80070955</v>
+        <v>22690033.74039024</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>41495261.09060379</v>
+        <v>22822393.59983208</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>41739519.77219468</v>
+        <v>22956735.87470707</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>41987437.31609123</v>
+        <v>23093090.52385017</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>42239068.31625615</v>
+        <v>23231487.57394088</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>42494467.48499113</v>
+        <v>23371957.11674511</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>42753689.64943701</v>
+        <v>23514529.30719037</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>43016789.74963194</v>
+        <v>23659234.36229757</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>43283822.83816557</v>
+        <v>23806102.56099106</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>43554844.08146442</v>
+        <v>23955164.24480543</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>43829908.76274023</v>
+        <v>24106449.81950713</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>44109072.28662854</v>
+        <v>24259989.75764571</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>44392390.18554168</v>
+        <v>24415814.60204793</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>44679918.12775743</v>
+        <v>24573954.97026658</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>44971711.92725924</v>
+        <v>24734441.55999259</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>45267827.55534233</v>
+        <v>24897305.15543828</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>45568321.15399495</v>
+        <v>25062576.63469723</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>45873249.05106196</v>
+        <v>25230286.97808408</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>46182667.77719352</v>
+        <v>25400467.27745645</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>46496634.08457908</v>
+        <v>25573148.7465185</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>46815204.96746385</v>
+        <v>25748362.73210512</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>47138437.68444142</v>
+        <v>25926140.72644277</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>47466389.78251388</v>
+        <v>26106514.38038264</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>47799119.12290783</v>
+        <v>26289515.51759932</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>48136683.90862235</v>
+        <v>26475176.14974231</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>48479142.71372046</v>
+        <v>26663528.49254624</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>48826554.51431838</v>
+        <v>26854604.98287512</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>49178978.72126109</v>
+        <v>27048438.2966936</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>49536475.2144601</v>
+        <v>27245061.36795305</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>49899104.3788704</v>
+        <v>27444507.40837872</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>50266927.14207979</v>
+        <v>27646809.9281439</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>50640005.01348307</v>
+        <v>27852002.75741569</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>51018400.12501292</v>
+        <v>28060120.06875712</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>51402175.27339768</v>
+        <v>28271196.40036874</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>51791393.96391511</v>
+        <v>28485266.68015333</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>52186120.45561106</v>
+        <v>28702366.25058609</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>52586419.80795169</v>
+        <v>28922530.89437343</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>52992357.928876</v>
+        <v>29145796.86088181</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>53404001.62421702</v>
+        <v>29372200.89331934</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>53821418.64845835</v>
+        <v>29601780.25665209</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>54244677.75679407</v>
+        <v>29834572.76623673</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>54673848.75845914</v>
+        <v>30070616.81715255</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>55109002.57129773</v>
+        <v>30309951.41421375</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>55550211.2775379</v>
+        <v>30552616.20264587</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>55997548.18074157</v>
+        <v>30798651.49940786</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>56451087.86389761</v>
+        <v>31048098.3251437</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>56910906.24862839</v>
+        <v>31300998.43674561</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>57377080.65548006</v>
+        <v>31557394.36051401</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>57849689.86526685</v>
+        <v>31817329.42589677</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>58328814.18144123</v>
+        <v>32080847.79979268</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>58814535.49346174</v>
+        <v>32347994.52140395</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>59306937.341132</v>
+        <v>32618815.53762261</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>59806104.97988378</v>
+        <v>32893357.73893607</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>60312125.44697811</v>
+        <v>33171668.99583796</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>60825087.62859996</v>
+        <v>33453798.19573</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>61345082.32782077</v>
+        <v>33739795.28030142</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>61872202.33340464</v>
+        <v>34029711.28337257</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>62406542.4894344</v>
+        <v>34323598.36918895</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>62948199.76573336</v>
+        <v>34621509.87115335</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>63497273.32905837</v>
+        <v>34923500.33098209</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>64053864.61504139</v>
+        <v>35229625.5382728</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>64618077.40085412</v>
+        <v>35539942.57046976</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>65190017.87857173</v>
+        <v>35854509.83321445</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>65769794.72921031</v>
+        <v>36173387.10106568</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>66357519.19741147</v>
+        <v>36496635.55857634</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>66953305.16674773</v>
+        <v>36824317.84171125</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>67557269.23561877</v>
+        <v>37156498.07959033</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>68169530.79371041</v>
+        <v>37493241.93654071</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>68790212.09898226</v>
+        <v>37834616.65444025</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>69419438.35515203</v>
+        <v>38180691.0953336</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>70057337.78963804</v>
+        <v>38531535.78430092</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>70704041.73192273</v>
+        <v>38887222.95255753</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>71359684.69229355</v>
+        <v>39247826.58076145</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>72024404.44091575</v>
+        <v>39613422.44250368</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>72698342.08718917</v>
+        <v>39984088.14795405</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>73381642.1593335</v>
+        <v>40359903.18763342</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>74074452.68414578</v>
+        <v>40740948.97628019</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>74776925.2668671</v>
+        <v>41127308.89677691</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>75489215.17109053</v>
+        <v>41519068.34409978</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>76211481.3986364</v>
+        <v>41916314.76925002</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>76943886.76931678</v>
+        <v>42319137.72312426</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>77686598.00050184</v>
+        <v>42727628.90027601</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>78439785.78639682</v>
+        <v>43141882.18251823</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>79203624.87692867</v>
+        <v>43561993.68231077</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>79978294.15613535</v>
+        <v>43988061.78587444</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>80763976.71994321</v>
+        <v>44420187.19596875</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>81560859.95320562</v>
+        <v>44858472.97426309</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>82369135.6058736</v>
+        <v>45303024.58323047</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>83188999.86815323</v>
+        <v>45753949.92748432</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>84020653.44449957</v>
+        <v>46211359.39447477</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>84864301.62628371</v>
+        <v>46675365.89445609</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>85720154.36296114</v>
+        <v>47146084.89962861</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>86588426.33155742</v>
+        <v>47623634.48235657</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>87469337.00427583</v>
+        <v>48108135.35235175</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>88363110.71402086</v>
+        <v>48599710.89271151</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>89269976.71761748</v>
+        <v>49098487.19468962</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>90190169.25649607</v>
+        <v>49604593.09107284</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>91123927.61459842</v>
+        <v>50118160.18802912</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>92071496.17324728</v>
+        <v>50639322.895286</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>93033124.46270961</v>
+        <v>51168218.45449028</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>94009067.21016821</v>
+        <v>51704986.96559252</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>94999584.3838052</v>
+        <v>52249771.41109287</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>96004941.23268397</v>
+        <v>52802717.67797621</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>97025408.32210431</v>
+        <v>53363974.57715738</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>98061261.56408952</v>
+        <v>53933693.86024924</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>99112782.24265046</v>
+        <v>54512030.23345778</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>100180257.0334593</v>
+        <v>55099141.36840261</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>101263978.0175451</v>
+        <v>55695187.90964982</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>102364242.6886184</v>
+        <v>56300333.47874008</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>103481353.9536086</v>
+        <v>56914744.67448474</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>104615620.1259914</v>
+        <v>57538591.06929529</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>105767354.9114642</v>
+        <v>58172045.20130534</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>106936877.3855191</v>
+        <v>58815282.56203552</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>108124511.962446</v>
+        <v>59468481.57934527</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>109330588.3552901</v>
+        <v>60131823.59540955</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>110555441.5262731</v>
+        <v>60805492.8394502</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>111799411.6271774</v>
+        <v>61489676.39494757</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>113062843.9291857</v>
+        <v>62184564.16105215</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>114346088.7416535</v>
+        <v>62890348.80790946</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>115649501.3192888</v>
+        <v>63607225.72560884</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>116973441.7572042</v>
+        <v>64335392.96646234</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>118318274.873302</v>
+        <v>65075051.18031607</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>119684370.0774453</v>
+        <v>65826403.54259492</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>120756824.1363598</v>
+        <v>66416253.2749979</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>121846988.5986755</v>
+        <v>67015843.72927151</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>122955181.6322148</v>
+        <v>67625349.89771816</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>124081724.7708363</v>
+        <v>68244948.62395999</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>125226942.7441093</v>
+        <v>68874818.50926013</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>126391163.293598</v>
+        <v>69515139.8114789</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>127574716.9753259</v>
+        <v>70166094.33642924</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>128777936.9480027</v>
+        <v>70827865.32140145</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>130001158.7466002</v>
+        <v>71500637.31063014</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>131244720.0408898</v>
+        <v>72184596.02248937</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>132508960.3785584</v>
+        <v>72879928.20820716</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>133794220.9125466</v>
+        <v>73586821.50190061</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>135100844.112271</v>
+        <v>74305464.26174903</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>136429173.4584199</v>
+        <v>75036045.40213093</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>137779553.1210343</v>
+        <v>75778754.21656884</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>139152327.6206219</v>
+        <v>76533780.19134203</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>140547841.4720818</v>
+        <v>77301312.80964495</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>141966438.8112529</v>
+        <v>78081541.34618914</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>143408463.003946</v>
+        <v>78874654.6521703</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>144874256.2373506</v>
+        <v>79680840.93054289</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>146364159.0937673</v>
+        <v>80500287.50157203</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>147878510.1066527</v>
+        <v>81333180.55865899</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>149417645.2990304</v>
+        <v>82179704.91446666</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>150981897.7043646</v>
+        <v>83040043.73740049</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>152571596.8700633</v>
+        <v>83914378.27853484</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>154187068.3438332</v>
+        <v>84802887.58910827</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>155828633.1431781</v>
+        <v>85705748.22874798</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>157496607.2084017</v>
+        <v>86623133.96462087</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>159191300.8395432</v>
+        <v>87555215.46174875</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>160913018.1177557</v>
+        <v>88502159.96476567</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>162662056.3117071</v>
+        <v>89464130.97143891</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>164438705.2696671</v>
+        <v>90441287.89831692</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>166243246.7980254</v>
+        <v>91433785.73891392</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>168075954.0270659</v>
+        <v>92441774.71488623</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>169937090.7649123</v>
+        <v>93465399.9207018</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>171826910.8406401</v>
+        <v>94504800.96235204</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>173745657.4376414</v>
+        <v>95560111.5907028</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>175693562.4184161</v>
+        <v>96631459.33012886</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>177670845.642047</v>
+        <v>97718965.10312587</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>179677714.2757046</v>
+        <v>98822742.85163745</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>181714362.1016166</v>
+        <v>99942899.15588918</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>183780968.8210157</v>
+        <v>101079532.8515587</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>185877699.3566656</v>
+        <v>102232734.6461661</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>188004703.1556413</v>
+        <v>103402586.7356028</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>190162113.4941234</v>
+        <v>104589162.421768</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>192350046.7860272</v>
+        <v>105792525.7323149</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>194568601.8973687</v>
+        <v>107012731.0435528</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>196817859.4683228</v>
+        <v>108249822.7075776</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>199097881.2449929</v>
+        <v>109503834.6847461</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>201408709.4229591</v>
+        <v>110774790.1826275</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>203750366.0047204</v>
+        <v>112062701.3025963</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>206122852.1731807</v>
+        <v>113367568.6952494</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>208526147.683356</v>
+        <v>114689381.2258457</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>210960210.2745099</v>
+        <v>116028115.6509804</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>213424975.1049233</v>
+        <v>117383736.3077078</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>212757892.3691977</v>
+        <v>117016840.8030587</v>
       </c>
       <c r="C358" t="n">
-        <v>3103692.131812897</v>
+        <v>1707030.672497093</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>212083975.9511196</v>
+        <v>116646186.7731158</v>
       </c>
       <c r="C359" t="n">
-        <v>6244076.677711964</v>
+        <v>3434242.17274158</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>211403112.7967087</v>
+        <v>116271712.0381898</v>
       </c>
       <c r="C360" t="n">
-        <v>9421132.706233907</v>
+        <v>5181622.988428649</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>210715186.9300746</v>
+        <v>115893352.811541</v>
       </c>
       <c r="C361" t="n">
-        <v>12634818.04237171</v>
+        <v>6949149.923304443</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>210020079.3872329</v>
+        <v>115511043.6629781</v>
       </c>
       <c r="C362" t="n">
-        <v>15885068.91981664</v>
+        <v>8736787.905899156</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>209317668.1482841</v>
+        <v>115124717.4815563</v>
       </c>
       <c r="C363" t="n">
-        <v>19171799.66969609</v>
+        <v>10544489.81833285</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>208607828.0680256</v>
+        <v>114734305.4374141</v>
       </c>
       <c r="C364" t="n">
-        <v>22494902.44770991</v>
+        <v>12372196.34624045</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>207890430.8050967</v>
+        <v>114339736.9428032</v>
       </c>
       <c r="C365" t="n">
-        <v>25854247.00145987</v>
+        <v>14219835.85080293</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>207165344.7497857</v>
+        <v>113940939.612382</v>
       </c>
       <c r="C366" t="n">
-        <v>29249680.47965473</v>
+        <v>16087324.2638101</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>206432434.9506596</v>
+        <v>113537839.2228628</v>
       </c>
       <c r="C367" t="n">
-        <v>32681027.28474611</v>
+        <v>17974565.00661036</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>205691563.0402253</v>
+        <v>113130359.6721239</v>
       </c>
       <c r="C368" t="n">
-        <v>36148088.97039834</v>
+        <v>19881448.93371909</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>204942587.1598549</v>
+        <v>112718422.9379202</v>
       </c>
       <c r="C369" t="n">
-        <v>39650644.18504465</v>
+        <v>21807854.30177455</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>204185361.8842721</v>
+        <v>112301949.0363497</v>
       </c>
       <c r="C370" t="n">
-        <v>43188448.66259979</v>
+        <v>23753646.76442989</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>203419738.145932</v>
+        <v>111880855.9802627</v>
       </c>
       <c r="C371" t="n">
-        <v>46761235.26121659</v>
+        <v>25718679.39366913</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>202645563.1596859</v>
+        <v>111455059.7378272</v>
       </c>
       <c r="C372" t="n">
-        <v>50368714.05077074</v>
+        <v>27702792.72792391</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>201862680.3481802</v>
+        <v>111024474.1914992</v>
       </c>
       <c r="C373" t="n">
-        <v>50368423.17498167</v>
+        <v>27702632.74623992</v>
       </c>
       <c r="D373" t="n">
-        <v>3741155.723322554</v>
+        <v>2057635.647827405</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>201070929.2684975</v>
+        <v>110589011.0976737</v>
       </c>
       <c r="C374" t="n">
-        <v>50368086.61194716</v>
+        <v>27702447.63657095</v>
       </c>
       <c r="D374" t="n">
-        <v>7517230.869729544</v>
+        <v>4134476.97835125</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>200270145.5406163</v>
+        <v>110148580.047339</v>
       </c>
       <c r="C375" t="n">
-        <v>50367697.68914421</v>
+        <v>27702233.72902932</v>
       </c>
       <c r="D375" t="n">
-        <v>11327863.22588051</v>
+        <v>6230324.77423428</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>199460160.7783334</v>
+        <v>109703088.4280833</v>
       </c>
       <c r="C376" t="n">
-        <v>50367248.84254014</v>
+        <v>27701986.86339708</v>
       </c>
       <c r="D376" t="n">
-        <v>15172668.9729319</v>
+        <v>8344967.935112545</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>198640802.5233684</v>
+        <v>109252441.3878525</v>
       </c>
       <c r="C377" t="n">
-        <v>50366731.5104718</v>
+        <v>27701702.33075949</v>
       </c>
       <c r="D377" t="n">
-        <v>19051243.14032571</v>
+        <v>10478183.72717914</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>197811894.183447</v>
+        <v>108796541.8008959</v>
       </c>
       <c r="C378" t="n">
-        <v>50366136.01682017</v>
+        <v>27701374.8092511</v>
       </c>
       <c r="D378" t="n">
-        <v>22963160.11971689</v>
+        <v>12629738.06584429</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>196973254.9752423</v>
+        <v>108335290.2363833</v>
       </c>
       <c r="C379" t="n">
-        <v>50365451.44267329</v>
+        <v>27700998.29347031</v>
       </c>
       <c r="D379" t="n">
-        <v>26907974.23877106</v>
+        <v>14799385.83132408</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>196124699.8731329</v>
+        <v>107868584.9302231</v>
       </c>
       <c r="C380" t="n">
-        <v>50364665.48564672</v>
+        <v>27700566.01710571</v>
       </c>
       <c r="D380" t="n">
-        <v>30885220.3942959</v>
+        <v>16986871.21686275</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>195266039.5648354</v>
+        <v>107396321.7606595</v>
       </c>
       <c r="C381" t="n">
-        <v>50363764.30601277</v>
+        <v>27700070.36830704</v>
       </c>
       <c r="D381" t="n">
-        <v>34894414.7438927</v>
+        <v>19191928.10914098</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>194397080.4150456</v>
+        <v>106918394.2282751</v>
       </c>
       <c r="C382" t="n">
-        <v>50362732.35877768</v>
+        <v>27699502.79732772</v>
       </c>
       <c r="D382" t="n">
-        <v>38935055.45502513</v>
+        <v>21414280.50026382</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>193517624.4383276</v>
+        <v>106434693.4410802</v>
       </c>
       <c r="C383" t="n">
-        <v>50361552.21084134</v>
+        <v>27698853.71596273</v>
       </c>
       <c r="D383" t="n">
-        <v>38934982.34316622</v>
+        <v>21414240.28874142</v>
       </c>
       <c r="E383" t="n">
-        <v>4128996.661394277</v>
+        <v>2270948.163766852</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>192627469.2825764</v>
+        <v>105945108.1054172</v>
       </c>
       <c r="C384" t="n">
-        <v>50360204.34237799</v>
+        <v>27698112.38830791</v>
       </c>
       <c r="D384" t="n">
-        <v>38934895.18258648</v>
+        <v>21414192.35042256</v>
       </c>
       <c r="E384" t="n">
-        <v>8288830.594046655</v>
+        <v>4558856.826725661</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>191726408.2244796</v>
+        <v>105449524.5234638</v>
       </c>
       <c r="C385" t="n">
-        <v>50358666.93158952</v>
+        <v>27697266.81237424</v>
       </c>
       <c r="D385" t="n">
-        <v>38934791.44754358</v>
+        <v>21414135.29614897</v>
       </c>
       <c r="E385" t="n">
-        <v>12478945.89496276</v>
+        <v>6863420.242229516</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>190814230.1784944</v>
+        <v>104947826.5981719</v>
       </c>
       <c r="C386" t="n">
-        <v>50356915.62200767</v>
+        <v>27696303.59210422</v>
       </c>
       <c r="D386" t="n">
-        <v>38934668.19283991</v>
+        <v>21414067.50606195</v>
       </c>
       <c r="E386" t="n">
-        <v>16698772.42970208</v>
+        <v>9184324.836336145</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>189890719.7209572</v>
+        <v>104439895.8465264</v>
       </c>
       <c r="C387" t="n">
-        <v>50354923.27155862</v>
+        <v>27695207.79935725</v>
       </c>
       <c r="D387" t="n">
-        <v>38934521.99071946</v>
+        <v>21413987.09489571</v>
       </c>
       <c r="E387" t="n">
-        <v>20947726.91951859</v>
+        <v>11521249.80573522</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>188955657.1310307</v>
+        <v>103925611.4220669</v>
       </c>
       <c r="C388" t="n">
-        <v>50352659.68265376</v>
+        <v>27693962.82545957</v>
       </c>
       <c r="D388" t="n">
-        <v>38934348.85944631</v>
+        <v>21413891.87269547</v>
       </c>
       <c r="E388" t="n">
-        <v>25225214.08187725</v>
+        <v>15798743.82838826</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>188008818.4502857</v>
+        <v>103404850.1476571</v>
       </c>
       <c r="C389" t="n">
-        <v>50350091.31263663</v>
+        <v>27692550.22195015</v>
       </c>
       <c r="D389" t="n">
-        <v>38934144.18266748</v>
+        <v>21413779.30046711</v>
       </c>
       <c r="E389" t="n">
-        <v>29530627.82188172</v>
+        <v>20104165.92239539</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>187049975.5628015</v>
+        <v>102877486.5595408</v>
       </c>
       <c r="C390" t="n">
-        <v>50347180.96399897</v>
+        <v>27690949.53019943</v>
       </c>
       <c r="D390" t="n">
-        <v>38933902.61859832</v>
+        <v>21413646.44022908</v>
       </c>
       <c r="E390" t="n">
-        <v>33863352.47187021</v>
+        <v>24436900.72572042</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>186078896.297753</v>
+        <v>102343392.9637641</v>
       </c>
       <c r="C391" t="n">
-        <v>50343887.45387907</v>
+        <v>27689138.09963349</v>
       </c>
       <c r="D391" t="n">
-        <v>38933617.99800438</v>
+        <v>21413489.89890242</v>
       </c>
       <c r="E391" t="n">
-        <v>38222764.07615186</v>
+        <v>28796324.64643938</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>185095344.5565213</v>
+        <v>101802439.5060867</v>
       </c>
       <c r="C392" t="n">
-        <v>50340165.26247653</v>
+        <v>27687090.8943621</v>
       </c>
       <c r="D392" t="n">
-        <v>38933283.20989208</v>
+        <v>21413305.76544064</v>
       </c>
       <c r="E392" t="n">
-        <v>42608231.71757264</v>
+        <v>33181807.1994311</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,16 +10646,16 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>184099080.4664395</v>
+        <v>101254494.2565417</v>
       </c>
       <c r="C393" t="n">
-        <v>50335964.16015808</v>
+        <v>27684780.28808694</v>
       </c>
       <c r="D393" t="n">
-        <v>38932890.07376055</v>
+        <v>21413089.54056831</v>
       </c>
       <c r="E393" t="n">
-        <v>42608178.97830322</v>
+        <v>33181772.47886395</v>
       </c>
       <c r="F393" t="n">
         <v>4148674.649450599</v>
@@ -10672,16 +10672,16 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>183089860.5633382</v>
+        <v>100699423.309836</v>
       </c>
       <c r="C394" t="n">
-        <v>50331228.81319259</v>
+        <v>27682175.84725593</v>
       </c>
       <c r="D394" t="n">
-        <v>38932429.19721268</v>
+        <v>21412836.05846698</v>
       </c>
       <c r="E394" t="n">
-        <v>42608115.10461564</v>
+        <v>33181730.33645422</v>
       </c>
       <c r="F394" t="n">
         <v>8320924.632872179</v>
@@ -10698,16 +10698,16 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>182067438.0051062</v>
+        <v>100137090.9028085</v>
       </c>
       <c r="C395" t="n">
-        <v>50325898.36823944</v>
+        <v>27679244.10253168</v>
       </c>
       <c r="D395" t="n">
-        <v>38931889.81767429</v>
+        <v>21412539.39972087</v>
       </c>
       <c r="E395" t="n">
-        <v>42608037.89272362</v>
+        <v>33181679.28280086</v>
       </c>
       <c r="F395" t="n">
         <v>12516150.42711997</v>
@@ -10724,16 +10724,16 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>181031562.818514</v>
+        <v>99567359.55018273</v>
       </c>
       <c r="C396" t="n">
-        <v>50319906.01592424</v>
+        <v>27675948.30875833</v>
       </c>
       <c r="D396" t="n">
-        <v>38931259.62692925</v>
+        <v>21412192.79481109</v>
       </c>
       <c r="E396" t="n">
-        <v>42607944.73468538</v>
+        <v>33181617.5510475</v>
       </c>
       <c r="F396" t="n">
         <v>16733751.55762221</v>
@@ -10750,16 +10750,16 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>179981982.181571</v>
+        <v>98990090.19986407</v>
       </c>
       <c r="C397" t="n">
-        <v>50313178.53407168</v>
+        <v>27672248.19373944</v>
       </c>
       <c r="D397" t="n">
-        <v>38930524.57714751</v>
+        <v>21411788.51743114</v>
       </c>
       <c r="E397" t="n">
-        <v>42607832.55091986</v>
+        <v>33181543.04969743</v>
       </c>
       <c r="F397" t="n">
         <v>20973128.04940117</v>
@@ -10776,16 +10776,16 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>178918440.7436913</v>
+        <v>98405142.40903012</v>
       </c>
       <c r="C398" t="n">
-        <v>50305635.81142397</v>
+        <v>27668099.69628318</v>
       </c>
       <c r="D398" t="n">
-        <v>38929668.66706358</v>
+        <v>21411317.76688497</v>
       </c>
       <c r="E398" t="n">
-        <v>42607697.71275578</v>
+        <v>33181453.30829981</v>
       </c>
       <c r="F398" t="n">
         <v>25233681.90270513</v>
@@ -10802,16 +10802,16 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>177840680.9859299</v>
+        <v>97812374.54226147</v>
       </c>
       <c r="C399" t="n">
-        <v>50297190.3529598</v>
+        <v>27663454.6941279</v>
       </c>
       <c r="D399" t="n">
-        <v>38928673.70695844</v>
+        <v>21410770.53882714</v>
       </c>
       <c r="E399" t="n">
-        <v>42607535.95378292</v>
+        <v>33181345.41509864</v>
       </c>
       <c r="F399" t="n">
         <v>29514818.58930808</v>
@@ -10828,16 +10828,16 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>176748443.6235231</v>
+        <v>97211643.99293776</v>
       </c>
       <c r="C400" t="n">
-        <v>50287746.76823881</v>
+        <v>27658260.72253134</v>
       </c>
       <c r="D400" t="n">
-        <v>38927519.06111034</v>
+        <v>21410135.48361069</v>
       </c>
       <c r="E400" t="n">
-        <v>42607342.26866503</v>
+        <v>33181215.94565065</v>
       </c>
       <c r="F400" t="n">
         <v>33815948.56532096</v>
@@ -10854,16 +10854,16 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>175641468.0529074</v>
+        <v>96602807.4290991</v>
       </c>
       <c r="C401" t="n">
-        <v>50277201.24453152</v>
+        <v>27652460.68449234</v>
       </c>
       <c r="D401" t="n">
-        <v>38926181.36641143</v>
+        <v>21409399.75152629</v>
       </c>
       <c r="E401" t="n">
-        <v>42607110.7979624</v>
+        <v>33181060.88132945</v>
       </c>
       <c r="F401" t="n">
         <v>38136488.79616003</v>
@@ -10880,16 +10880,16 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>174519492.8453257</v>
+        <v>95985721.06492919</v>
       </c>
       <c r="C402" t="n">
-        <v>50265441.0068543</v>
+        <v>27645992.55376986</v>
       </c>
       <c r="D402" t="n">
-        <v>38924634.22590223</v>
+        <v>21408548.82424623</v>
       </c>
       <c r="E402" t="n">
-        <v>42606834.69739889</v>
+        <v>33180875.51654351</v>
       </c>
       <c r="F402" t="n">
         <v>42475864.28909029</v>
@@ -10906,16 +10906,16 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>173382256.2890216</v>
+        <v>95360240.95896187</v>
       </c>
       <c r="C403" t="n">
-        <v>50252343.76740932</v>
+        <v>27638789.07207512</v>
       </c>
       <c r="D403" t="n">
-        <v>38922847.87605536</v>
+        <v>21407566.33183046</v>
       </c>
       <c r="E403" t="n">
-        <v>42606505.9898966</v>
+        <v>33180654.35340459</v>
       </c>
       <c r="F403" t="n">
         <v>42475827.00127347</v>
@@ -10932,16 +10932,16 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>172229496.9819034</v>
+        <v>94726223.34004688</v>
       </c>
       <c r="C404" t="n">
-        <v>50237777.16733227</v>
+        <v>27630777.44203275</v>
       </c>
       <c r="D404" t="n">
-        <v>38920788.82674833</v>
+        <v>21406433.85471158</v>
       </c>
       <c r="E404" t="n">
-        <v>42606115.3985924</v>
+        <v>33180390.982493</v>
       </c>
       <c r="F404" t="n">
         <v>42475781.22776249</v>
@@ -10958,16 +10958,16 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>171060954.4764071</v>
+        <v>94083524.96202393</v>
       </c>
       <c r="C405" t="n">
-        <v>50221598.21406994</v>
+        <v>27621879.01773847</v>
       </c>
       <c r="D405" t="n">
-        <v>38918419.47300448</v>
+        <v>21405130.71015247</v>
       </c>
       <c r="E405" t="n">
-        <v>42605652.15894678</v>
+        <v>33180077.94827889</v>
       </c>
       <c r="F405" t="n">
         <v>42475725.15563158</v>
@@ -10984,16 +10984,16 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>169876369.9781043</v>
+        <v>93432003.48795733</v>
       </c>
       <c r="C406" t="n">
-        <v>50203652.71814522</v>
+        <v>27612008.99497987</v>
       </c>
       <c r="D406" t="n">
-        <v>38915697.67775553</v>
+        <v>21403633.72276554</v>
       </c>
       <c r="E406" t="n">
-        <v>42605103.80796003</v>
+        <v>33179706.59767579</v>
       </c>
       <c r="F406" t="n">
         <v>42475656.61230564</v>
@@ -11010,16 +11010,16 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>168675487.0993962</v>
+        <v>92771517.90466793</v>
       </c>
       <c r="C407" t="n">
-        <v>50183774.73351427</v>
+        <v>27601076.10343286</v>
       </c>
       <c r="D407" t="n">
-        <v>38912576.32508864</v>
+        <v>21401916.97879875</v>
       </c>
       <c r="E407" t="n">
-        <v>42604455.94842687</v>
+        <v>33179266.91012616</v>
       </c>
       <c r="F407" t="n">
         <v>42475573.00037128</v>
@@ -11036,16 +11036,16 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>167458052.6693949</v>
+        <v>92101928.96816723</v>
       </c>
       <c r="C408" t="n">
-        <v>50161786.00617523</v>
+        <v>27588982.30339638</v>
       </c>
       <c r="D408" t="n">
-        <v>38909002.84369255</v>
+        <v>21399951.5640309</v>
       </c>
       <c r="E408" t="n">
-        <v>42603691.98609165</v>
+        <v>33178747.30755288</v>
       </c>
       <c r="F408" t="n">
         <v>42475471.22186942</v>
@@ -11062,16 +11062,16 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>166223817.6008195</v>
+        <v>91423099.68045068</v>
       </c>
       <c r="C409" t="n">
-        <v>50137495.43614525</v>
+        <v>27575622.4898799</v>
       </c>
       <c r="D409" t="n">
-        <v>38904918.70050846</v>
+        <v>21397705.28527965</v>
       </c>
       <c r="E409" t="n">
-        <v>42602792.83751599</v>
+        <v>33178134.44245578</v>
       </c>
       <c r="F409" t="n">
         <v>42475347.59063089</v>
@@ -11088,16 +11088,16 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>164972537.8144391</v>
+        <v>90734895.79794151</v>
       </c>
       <c r="C410" t="n">
-        <v>50110698.55837917</v>
+        <v>27560884.20710854</v>
       </c>
       <c r="D410" t="n">
-        <v>38900258.86492793</v>
+        <v>21395142.37571036</v>
       </c>
       <c r="E410" t="n">
-        <v>42601736.60644453</v>
+        <v>33177412.96239443</v>
       </c>
       <c r="F410" t="n">
         <v>42475197.73106781</v>
@@ -11114,16 +11114,16 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>163703975.2212612</v>
+        <v>90037186.37169369</v>
       </c>
       <c r="C411" t="n">
-        <v>50081177.0486495</v>
+        <v>27544647.37675723</v>
       </c>
       <c r="D411" t="n">
-        <v>38894951.24426127</v>
+        <v>21392223.1843437</v>
       </c>
       <c r="E411" t="n">
-        <v>42600498.22645574</v>
+        <v>33176565.24907953</v>
       </c>
       <c r="F411" t="n">
         <v>42475016.46167984</v>
@@ -11140,16 +11140,16 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>162417898.7622977</v>
+        <v>89329844.31926376</v>
       </c>
       <c r="C412" t="n">
-        <v>50048698.26084139</v>
+        <v>27526784.04346276</v>
       </c>
       <c r="D412" t="n">
-        <v>38888916.09162787</v>
+        <v>21388903.85039533</v>
       </c>
       <c r="E412" t="n">
-        <v>42599049.06771988</v>
+        <v>33175571.13029941</v>
       </c>
       <c r="F412" t="n">
         <v>42474797.66137487</v>
@@ -11166,16 +11166,16 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>161114085.5053546</v>
+        <v>88612747.02794504</v>
       </c>
       <c r="C413" t="n">
-        <v>50013014.80252767</v>
+        <v>27507158.14139022</v>
       </c>
       <c r="D413" t="n">
-        <v>38882065.38789444</v>
+        <v>21385135.96334194</v>
       </c>
       <c r="E413" t="n">
-        <v>42597356.50575954</v>
+        <v>33174407.5629402</v>
       </c>
       <c r="F413" t="n">
         <v>42474534.11654214</v>
@@ -11192,16 +11192,16 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>159792321.7978642</v>
+        <v>87885776.9888254</v>
       </c>
       <c r="C414" t="n">
-        <v>49973864.15607199</v>
+        <v>27485625.28583959</v>
       </c>
       <c r="D414" t="n">
-        <v>38874302.19980836</v>
+        <v>21380866.20989459</v>
       </c>
       <c r="E414" t="n">
-        <v>42595383.45022628</v>
+        <v>33173048.28542184</v>
       </c>
       <c r="F414" t="n">
         <v>42474217.34665379</v>
@@ -11218,16 +11218,16 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>158452404.4743317</v>
+        <v>87148822.4608824</v>
       </c>
       <c r="C415" t="n">
-        <v>49930968.35285492</v>
+        <v>27462032.59407021</v>
       </c>
       <c r="D415" t="n">
-        <v>38865520.01703897</v>
+        <v>21376036.00937143</v>
       </c>
       <c r="E415" t="n">
-        <v>42593087.83187417</v>
+        <v>33171463.43797243</v>
       </c>
       <c r="F415" t="n">
         <v>42473837.40601166</v>
@@ -11244,16 +11244,16 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>157094142.1164909</v>
+        <v>86401778.16407003</v>
       </c>
       <c r="C416" t="n">
-        <v>49884033.70851906</v>
+        <v>27436218.53968548</v>
       </c>
       <c r="D416" t="n">
-        <v>38855602.07144959</v>
+        <v>21370581.13929728</v>
       </c>
       <c r="E416" t="n">
-        <v>42590422.04613527</v>
+        <v>33169619.14930469</v>
       </c>
       <c r="F416" t="n">
         <v>42473382.65910299</v>
@@ -11270,16 +11270,16 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>155717356.3637677</v>
+        <v>85644546.00007223</v>
       </c>
       <c r="C417" t="n">
-        <v>49832750.62737834</v>
+        <v>27408012.84505809</v>
       </c>
       <c r="D417" t="n">
-        <v>38844420.64257118</v>
+        <v>21364431.35341415</v>
       </c>
       <c r="E417" t="n">
-        <v>42587332.3519866</v>
+        <v>33167477.08844543</v>
       </c>
       <c r="F417" t="n">
         <v>42472839.52688657</v>
@@ -11296,16 +11296,16 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>154321883.2711232</v>
+        <v>84877035.79911782</v>
       </c>
       <c r="C418" t="n">
-        <v>49776793.48432346</v>
+        <v>27377236.41637791</v>
       </c>
       <c r="D418" t="n">
-        <v>38831836.3539339</v>
+        <v>21357509.99466365</v>
       </c>
       <c r="E418" t="n">
-        <v>42583758.22515047</v>
+        <v>33164993.98070653</v>
       </c>
       <c r="F418" t="n">
         <v>42472192.20120382</v>
@@ -11322,16 +11322,16 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>152907574.7108176</v>
+        <v>84099166.09094973</v>
       </c>
       <c r="C419" t="n">
-        <v>49715820.59267151</v>
+        <v>27343701.32596933</v>
       </c>
       <c r="D419" t="n">
-        <v>38817697.46562687</v>
+        <v>21349733.60609477</v>
       </c>
       <c r="E419" t="n">
-        <v>42579631.66509423</v>
+        <v>33162121.08707886</v>
       </c>
       <c r="F419" t="n">
         <v>42471422.32440297</v>
@@ -11348,16 +11348,16 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>151474299.8140758</v>
+        <v>83310864.89774171</v>
       </c>
       <c r="C420" t="n">
-        <v>49649474.26644639</v>
+        <v>27307210.84654552</v>
       </c>
       <c r="D420" t="n">
-        <v>38801839.16919467</v>
+        <v>21341011.54305707</v>
       </c>
       <c r="E420" t="n">
-        <v>42574876.45579629</v>
+        <v>33158803.64668151</v>
       </c>
       <c r="F420" t="n">
         <v>42470508.63118555</v>
@@ -11374,16 +11374,16 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>150021946.4480771</v>
+        <v>82512070.54644249</v>
       </c>
       <c r="C421" t="n">
-        <v>49577380.98552652</v>
+        <v>27267559.54203959</v>
       </c>
       <c r="D421" t="n">
-        <v>38784082.89173286</v>
+        <v>21331245.59045307</v>
       </c>
       <c r="E421" t="n">
-        <v>42569407.38082726</v>
+        <v>33154980.28231377</v>
       </c>
       <c r="F421" t="n">
         <v>42469426.54963894</v>
@@ -11400,16 +11400,16 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>148550422.7231179</v>
+        <v>81702732.49771489</v>
       </c>
       <c r="C422" t="n">
-        <v>49499151.6719522</v>
+        <v>27224533.41957372</v>
       </c>
       <c r="D422" t="n">
-        <v>38764235.61680347</v>
+        <v>21320329.58924191</v>
       </c>
       <c r="E422" t="n">
-        <v>42563129.3939599</v>
+        <v>33150582.36963708</v>
       </c>
       <c r="F422" t="n">
         <v>42468147.75841429</v>
@@ -11426,16 +11426,16 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>147059658.5242258</v>
+        <v>80882812.18832415</v>
       </c>
       <c r="C423" t="n">
-        <v>49414382.08543828</v>
+        <v>27177910.14699105</v>
       </c>
       <c r="D423" t="n">
-        <v>38742089.23054772</v>
+        <v>21308149.07680125</v>
       </c>
       <c r="E423" t="n">
-        <v>42555936.74727301</v>
+        <v>33145533.37106239</v>
       </c>
       <c r="F423" t="n">
         <v>42466639.6970543</v>
@@ -11452,16 +11452,16 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>145549607.060936</v>
+        <v>80052283.88351481</v>
       </c>
       <c r="C424" t="n">
-        <v>49322653.3457813</v>
+        <v>27127459.34017972</v>
       </c>
       <c r="D424" t="n">
-        <v>38717419.90211106</v>
+        <v>21294580.94616109</v>
       </c>
       <c r="E424" t="n">
-        <v>42547712.07955082</v>
+        <v>33139748.13603675</v>
       </c>
       <c r="F424" t="n">
         <v>42464865.0265775</v>
@@ -11478,16 +11478,16 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>144020246.4283814</v>
+        <v>79211135.53560975</v>
       </c>
       <c r="C425" t="n">
-        <v>49223532.58938056</v>
+        <v>27072942.9241593</v>
       </c>
       <c r="D425" t="n">
-        <v>38689987.50820607</v>
+        <v>21279493.12951334</v>
       </c>
       <c r="E425" t="n">
-        <v>42538325.46870217</v>
+        <v>33133132.17010963</v>
       </c>
       <c r="F425" t="n">
         <v>42462781.03759458</v>
@@ -11504,16 +11504,16 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>142471581.1723004</v>
+        <v>78359369.64476524</v>
       </c>
       <c r="C426" t="n">
-        <v>49116573.76650082</v>
+        <v>27014115.57157544</v>
       </c>
       <c r="D426" t="n">
-        <v>38659535.11230441</v>
+        <v>21262744.31176743</v>
       </c>
       <c r="E426" t="n">
-        <v>42527633.45292769</v>
+        <v>33125580.87591656</v>
       </c>
       <c r="F426" t="n">
         <v>42460339.00347605</v>
@@ -11530,16 +11530,16 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>140903643.8500485</v>
+        <v>77497004.11752668</v>
       </c>
       <c r="C427" t="n">
-        <v>49001318.58519243</v>
+        <v>26950725.22185585</v>
       </c>
       <c r="D427" t="n">
-        <v>38625788.50955772</v>
+        <v>21244183.68025675</v>
       </c>
       <c r="E427" t="n">
-        <v>42515478.02644587</v>
+        <v>33116978.77003925</v>
       </c>
       <c r="F427" t="n">
         <v>42457483.47641937</v>
@@ -11556,16 +11556,16 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>139316496.5791951</v>
+        <v>76624073.11855729</v>
       </c>
       <c r="C428" t="n">
-        <v>48877297.60694509</v>
+        <v>26882513.6838198</v>
       </c>
       <c r="D428" t="n">
-        <v>38588455.84907994</v>
+        <v>21223650.71699397</v>
       </c>
       <c r="E428" t="n">
-        <v>42501685.6167409</v>
+        <v>33107198.68058645</v>
       </c>
       <c r="F428" t="n">
         <v>42454151.52468515</v>
@@ -11582,16 +11582,16 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>137710232.5648297</v>
+        <v>75740627.91065635</v>
       </c>
       <c r="C429" t="n">
-        <v>48744031.49818732</v>
+        <v>26809217.32400303</v>
       </c>
       <c r="D429" t="n">
-        <v>38547227.34566783</v>
+        <v>21200975.04011731</v>
       </c>
       <c r="E429" t="n">
-        <v>42486066.05151031</v>
+        <v>33096100.93127923</v>
       </c>
       <c r="F429" t="n">
         <v>42450271.90979594</v>
@@ -11608,16 +11608,16 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>136084977.5962731</v>
+        <v>74846737.67795022</v>
       </c>
       <c r="C430" t="n">
-        <v>48601032.44065528</v>
+        <v>26730567.8423604</v>
       </c>
       <c r="D430" t="n">
-        <v>38501775.09337021</v>
+        <v>21175976.30135363</v>
       </c>
       <c r="E430" t="n">
-        <v>42468411.52475318</v>
+        <v>33083532.51881342</v>
       </c>
       <c r="F430" t="n">
         <v>42445764.20312466</v>
@@ -11634,16 +11634,16 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>134440891.5035102</v>
+        <v>73942490.32693063</v>
       </c>
       <c r="C431" t="n">
-        <v>48447805.70244302</v>
+        <v>26646293.13634367</v>
       </c>
       <c r="D431" t="n">
-        <v>38451752.99352896</v>
+        <v>21148464.14644093</v>
       </c>
       <c r="E431" t="n">
-        <v>42448495.57273982</v>
+        <v>33069326.2912977</v>
       </c>
       <c r="F431" t="n">
         <v>42440537.84205005</v>
@@ -11660,16 +11660,16 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>132778169.5633381</v>
+        <v>73027993.25983591</v>
       </c>
       <c r="C432" t="n">
-        <v>48283851.37021989</v>
+        <v>26556118.25362094</v>
       </c>
       <c r="D432" t="n">
-        <v>38396796.80998317</v>
+        <v>21118238.24549074</v>
       </c>
       <c r="E432" t="n">
-        <v>42426072.0719208</v>
+        <v>33053300.13661835</v>
       </c>
       <c r="F432" t="n">
         <v>42434491.12672962</v>
@@ -11686,16 +11686,16 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>131097043.8449499</v>
+        <v>72103374.11472249</v>
       </c>
       <c r="C433" t="n">
-        <v>48108666.24166217</v>
+        <v>26459766.4329142</v>
       </c>
       <c r="D433" t="n">
-        <v>38336524.36404129</v>
+        <v>21085088.40022271</v>
       </c>
       <c r="E433" t="n">
-        <v>42400874.27214886</v>
+        <v>33035256.1906453</v>
       </c>
       <c r="F433" t="n">
         <v>42427510.15954021</v>
@@ -11712,16 +11712,16 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>129397784.4844769</v>
+        <v>71168781.46646225</v>
       </c>
       <c r="C434" t="n">
-        <v>47921745.87560911</v>
+        <v>26356960.23158501</v>
       </c>
       <c r="D434" t="n">
-        <v>38270535.88156523</v>
+        <v>21048794.73486088</v>
       </c>
       <c r="E434" t="n">
-        <v>42372613.87988073</v>
+        <v>33014980.07625319</v>
       </c>
       <c r="F434" t="n">
         <v>42419467.73036466</v>
@@ -11738,16 +11738,16 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>127680700.8778688</v>
+        <v>70224385.48282783</v>
       </c>
       <c r="C435" t="n">
-        <v>47722586.79582383</v>
+        <v>26247422.73770311</v>
       </c>
       <c r="D435" t="n">
-        <v>38198414.50406425</v>
+        <v>21009127.97723533</v>
       </c>
       <c r="E435" t="n">
-        <v>42340980.2072688</v>
+        <v>32992240.18516611</v>
       </c>
       <c r="F435" t="n">
         <v>42410222.15216044</v>
@@ -11764,16 +11764,16 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>125946142.7814443</v>
+        <v>69270378.52979437</v>
       </c>
       <c r="C436" t="n">
-        <v>47510688.84253625</v>
+        <v>26130878.86339493</v>
       </c>
       <c r="D436" t="n">
-        <v>38119726.97505072</v>
+        <v>20965849.8362779</v>
       </c>
       <c r="E436" t="n">
-        <v>42305639.40422173</v>
+        <v>32966787.01562661</v>
       </c>
       <c r="F436" t="n">
         <v>42399616.05262914</v>
@@ -11790,16 +11790,16 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>124194501.309454</v>
+        <v>68306975.72019973</v>
       </c>
       <c r="C437" t="n">
-        <v>47285557.66417703</v>
+        <v>26007056.71529737</v>
       </c>
       <c r="D437" t="n">
-        <v>38034024.51205584</v>
+        <v>20918713.48163072</v>
       </c>
       <c r="E437" t="n">
-        <v>42266233.79157666</v>
+        <v>32938352.57981366</v>
       </c>
       <c r="F437" t="n">
         <v>42387475.12930797</v>
@@ -11816,16 +11816,16 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>122426209.8181095</v>
+        <v>67334415.3999602</v>
       </c>
       <c r="C438" t="n">
-        <v>47046707.33990273</v>
+        <v>25875689.03694651</v>
       </c>
       <c r="D438" t="n">
-        <v>37940843.87363171</v>
+        <v>20867464.13049744</v>
       </c>
       <c r="E438" t="n">
-        <v>42222381.31445444</v>
+        <v>32906649.89576854</v>
       </c>
       <c r="F438" t="n">
         <v>42373606.87701834</v>
@@ -11842,16 +11842,16 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>120641744.6657228</v>
+        <v>66352959.56614757</v>
       </c>
       <c r="C439" t="n">
-        <v>46793663.12167481</v>
+        <v>25736514.71692114</v>
       </c>
       <c r="D439" t="n">
-        <v>37839708.62937441</v>
+        <v>20811839.74615593</v>
       </c>
       <c r="E439" t="n">
-        <v>42173675.1356302</v>
+        <v>32871372.57930575</v>
       </c>
       <c r="F439" t="n">
         <v>42357799.29831594</v>
@@ -11868,16 +11868,16 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>118841625.8388837</v>
+        <v>65362894.21138605</v>
       </c>
       <c r="C440" t="n">
-        <v>46525964.28281593</v>
+        <v>25589280.35554876</v>
       </c>
       <c r="D440" t="n">
-        <v>37730130.63948622</v>
+        <v>20751571.85171742</v>
       </c>
       <c r="E440" t="n">
-        <v>42119683.38931268</v>
+        <v>32832194.55196194</v>
       </c>
       <c r="F440" t="n">
         <v>42339819.60937807</v>
@@ -11894,16 +11894,16 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>117026417.4349748</v>
+        <v>64364529.58923615</v>
       </c>
       <c r="C441" t="n">
-        <v>46243167.05814433</v>
+        <v>25433741.88197937</v>
       </c>
       <c r="D441" t="n">
-        <v>37611611.74865866</v>
+        <v>20686386.46176226</v>
       </c>
       <c r="E441" t="n">
-        <v>42059949.11605386</v>
+        <v>32788769.88144275</v>
       </c>
       <c r="F441" t="n">
         <v>42319412.95561239</v>
@@ -11920,16 +11920,16 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>115196727.9917991</v>
+        <v>63358200.39548952</v>
       </c>
       <c r="C442" t="n">
-        <v>45944847.65900517</v>
+        <v>25269666.21245284</v>
       </c>
       <c r="D442" t="n">
-        <v>37483645.69710541</v>
+        <v>20616005.13340798</v>
       </c>
       <c r="E442" t="n">
-        <v>41993990.39957278</v>
+        <v>32740732.7712386</v>
       </c>
       <c r="F442" t="n">
         <v>42296301.15315384</v>
@@ -11946,16 +11946,16 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>113353210.6556509</v>
+        <v>62344265.86060803</v>
       </c>
       <c r="C443" t="n">
-        <v>45630605.34480381</v>
+        <v>25096832.9396421</v>
       </c>
       <c r="D443" t="n">
-        <v>37345720.24941624</v>
+        <v>20540146.13717894</v>
       </c>
       <c r="E443" t="n">
-        <v>41921300.72604445</v>
+        <v>32687697.71607045</v>
       </c>
       <c r="F443" t="n">
         <v>42270181.47430117</v>
@@ -11972,16 +11972,16 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>111496563.1798214</v>
+        <v>61323109.74890176</v>
       </c>
       <c r="C444" t="n">
-        <v>45300065.53102043</v>
+        <v>24915036.04206124</v>
       </c>
       <c r="D444" t="n">
-        <v>37197319.53955386</v>
+        <v>20458525.74675463</v>
       </c>
       <c r="E444" t="n">
-        <v>41841349.58584529</v>
+        <v>32629259.83956903</v>
       </c>
       <c r="F444" t="n">
         <v>42240725.49679892</v>
@@ -11998,16 +11998,16 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>109627527.7462746</v>
+        <v>60295140.26045105</v>
       </c>
       <c r="C445" t="n">
-        <v>44952882.91217879</v>
+        <v>24724085.60169834</v>
       </c>
       <c r="D445" t="n">
-        <v>37037926.6277934</v>
+        <v>20370859.64528637</v>
       </c>
       <c r="E445" t="n">
-        <v>41753583.33683686</v>
+        <v>32564995.43006482</v>
       </c>
       <c r="F445" t="n">
         <v>42207578.03865388</v>
@@ -12024,16 +12024,16 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>107746890.6040689</v>
+        <v>59260789.83223796</v>
       </c>
       <c r="C446" t="n">
-        <v>44588744.57687575</v>
+        <v>24523809.51728166</v>
       </c>
       <c r="D446" t="n">
-        <v>36867026.26273218</v>
+        <v>20276864.4445027</v>
       </c>
       <c r="E446" t="n">
-        <v>41657426.34698588</v>
+        <v>32494462.68954936</v>
       </c>
       <c r="F446" t="n">
         <v>42170356.2018477</v>
@@ -12050,16 +12050,16 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>105855481.5190164</v>
+        <v>58220514.83545905</v>
       </c>
       <c r="C447" t="n">
-        <v>44207373.09077954</v>
+        <v>24314055.19992874</v>
       </c>
       <c r="D447" t="n">
-        <v>36684107.83870286</v>
+        <v>20176259.31128657</v>
       </c>
       <c r="E447" t="n">
-        <v>41552282.43244388</v>
+        <v>32417202.70974469</v>
       </c>
       <c r="F447" t="n">
         <v>42128648.54982163</v>
@@ -12076,16 +12076,16 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>103954173.030077</v>
+        <v>57174795.16654231</v>
       </c>
       <c r="C448" t="n">
-        <v>43808529.52249787</v>
+        <v>24094691.23737383</v>
       </c>
       <c r="D448" t="n">
-        <v>36488668.5360376</v>
+        <v>20068767.69482068</v>
       </c>
       <c r="E448" t="n">
-        <v>41437536.60513186</v>
+        <v>32332740.68777387</v>
       </c>
       <c r="F448" t="n">
         <v>42082014.44491757</v>
@@ -12102,16 +12102,16 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>102043879.5090593</v>
+        <v>56124133.72998263</v>
       </c>
       <c r="C449" t="n">
-        <v>43392016.38642297</v>
+        <v>23865609.01253264</v>
       </c>
       <c r="D449" t="n">
-        <v>36280216.62868959</v>
+        <v>19954119.14577927</v>
       </c>
       <c r="E449" t="n">
-        <v>41312557.14138858</v>
+        <v>32240587.39215324</v>
       </c>
       <c r="F449" t="n">
         <v>42029983.57301359</v>
@@ -12128,16 +12128,16 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>100125556.0213451</v>
+        <v>55069055.81173979</v>
       </c>
       <c r="C450" t="n">
-        <v>42957680.47610316</v>
+        <v>23626724.26185675</v>
       </c>
       <c r="D450" t="n">
-        <v>36058274.94076045</v>
+        <v>19832051.21741825</v>
       </c>
       <c r="E450" t="n">
-        <v>41176697.98034662</v>
+        <v>32140240.88772246</v>
       </c>
       <c r="F450" t="n">
         <v>41972055.68333628</v>
@@ -12154,16 +12154,16 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>98200196.98655407</v>
+        <v>54010108.34260474</v>
       </c>
       <c r="C451" t="n">
-        <v>42505415.56138653</v>
+        <v>23377978.55876259</v>
       </c>
       <c r="D451" t="n">
-        <v>35822384.43055094</v>
+        <v>19702311.43680302</v>
       </c>
       <c r="E451" t="n">
-        <v>41029301.45740691</v>
+        <v>32031188.52569592</v>
       </c>
       <c r="F451" t="n">
         <v>41907700.57182103</v>
@@ -12180,16 +12180,16 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>96268834.6393277</v>
+        <v>52947859.05163024</v>
       </c>
       <c r="C452" t="n">
-        <v>42035164.92254954</v>
+        <v>23119340.70740225</v>
       </c>
       <c r="D452" t="n">
-        <v>35572107.87789015</v>
+        <v>19564659.33283959</v>
       </c>
       <c r="E452" t="n">
-        <v>40869701.37450825</v>
+        <v>31912909.2022662</v>
       </c>
       <c r="F452" t="n">
         <v>41836358.33636916</v>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>13305227.48649686</v>
+        <v>24028464.63151348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>13320762.95100044</v>
+        <v>24056520.85098809</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>13336504.90112846</v>
+        <v>24084950.05084896</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>13352455.97492824</v>
+        <v>24113756.99783322</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>13368618.83697505</v>
+        <v>24142946.50667189</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>13384996.17814277</v>
+        <v>24172523.43967967</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>13401590.71534041</v>
+        <v>24202492.70628329</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>13418405.19121308</v>
+        <v>24232859.26248576</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>13435442.37380612</v>
+        <v>24263628.11026451</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>13452705.05619118</v>
+        <v>24294804.29690072</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>13470196.05605272</v>
+        <v>24326392.91423771</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>13487918.21523407</v>
+        <v>24358399.09786637</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>13505874.39924162</v>
+        <v>24390828.02623516</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>13524067.49670615</v>
+        <v>24423684.91968303</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>13542500.41880022</v>
+        <v>24456975.03939336</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>13561176.0986108</v>
+        <v>24490703.68626693</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>13580097.4904661</v>
+        <v>24524876.1997129</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>13599267.56921595</v>
+        <v>24559497.95635588</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>13618689.32946524</v>
+        <v>24594574.36865849</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>13638365.78475958</v>
+        <v>24630110.88345805</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>13658299.96672316</v>
+        <v>24666112.98041714</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>13678494.9241484</v>
+        <v>24702586.17038728</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>13698953.72203735</v>
+        <v>24739535.99368585</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>13719679.4405951</v>
+        <v>24776968.01828664</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>13740675.17417534</v>
+        <v>24814887.83792418</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>13761944.03017879</v>
+        <v>24853301.07011318</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>13783489.12790503</v>
+        <v>24892213.35408416</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>13805313.5973588</v>
+        <v>24931630.34863725</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>13827420.57801214</v>
+        <v>24971557.72991603</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>13849813.21752344</v>
+        <v>25012001.18910453</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>13872494.6704156</v>
+        <v>25052966.4300498</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>13895468.0967149</v>
+        <v>25094459.16681446</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>13918736.66055321</v>
+        <v>25136485.12116287</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>13942303.52873597</v>
+        <v>25179050.0199858</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>13966171.86927891</v>
+        <v>25222159.59266877</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>13990344.8499167</v>
+        <v>25265819.5684102</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>14014825.63658735</v>
+        <v>25310035.67349544</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>14039617.39189592</v>
+        <v>25354813.6285339</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>14064723.27356215</v>
+        <v>25400159.1456673</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>14090146.4328565</v>
+        <v>25446077.92575694</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>14115890.01302952</v>
+        <v>25492575.65555901</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>14141957.14774016</v>
+        <v>25539658.0048982</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>14168350.95948851</v>
+        <v>25587330.62384927</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>14195074.55805921</v>
+        <v>25635599.13993783</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>14222131.03898208</v>
+        <v>25684469.15537226</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>14249523.48201652</v>
+        <v>25733946.24431853</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>14277254.94966737</v>
+        <v>25784035.95023175</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>14305328.48573942</v>
+        <v>25834743.78325718</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>14333747.11393861</v>
+        <v>25886075.21771586</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>14362513.83652833</v>
+        <v>25938035.68968909</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>14391631.63304932</v>
+        <v>25990630.59471782</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>14421103.45911214</v>
+        <v>26043865.28563257</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>14450932.24527134</v>
+        <v>26097745.07053096</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>14481120.89599116</v>
+        <v>26152275.21091978</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>14511672.28871219</v>
+        <v>26207460.9200392</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>14542589.27302927</v>
+        <v>26263307.36138739</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>14573874.66999093</v>
+        <v>26319819.64746406</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>14605531.27153052</v>
+        <v>26377002.83875139</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>14637561.84004012</v>
+        <v>26434861.94295207</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>14669969.10809745</v>
+        <v>26493401.91450316</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>14702755.77835715</v>
+        <v>26552627.65438606</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>14735924.523617</v>
+        <v>26612544.01025142</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>14769477.98707012</v>
+        <v>26673155.7768796</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>14803418.78275407</v>
+        <v>26734467.6969954</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>14837749.49620781</v>
+        <v>26796484.46245761</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>14872472.68534714</v>
+        <v>26859210.71584187</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>14907590.88156918</v>
+        <v>26922651.05243653</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>14943106.5910966</v>
+        <v>26986810.02267018</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>14979022.29657151</v>
+        <v>27051692.13498894</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>15015340.45890886</v>
+        <v>27117301.8592015</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>15052063.51941905</v>
+        <v>27183643.63030897</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>15089193.90220873</v>
+        <v>27250721.85283601</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>15126734.0168685</v>
+        <v>27318540.90567871</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>15164686.26145572</v>
+        <v>27387105.14748418</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>15203053.02577979</v>
+        <v>27456418.92257515</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>15241836.69499712</v>
+        <v>27526486.56743241</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>15281039.65352206</v>
+        <v>27597312.41774637</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>15320664.28925913</v>
+        <v>27668900.81604759</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>15360712.99816154</v>
+        <v>27741256.11992517</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>15401188.18911992</v>
+        <v>27814382.71083979</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>15442092.28918425</v>
+        <v>27888285.0035374</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>15483427.74912117</v>
+        <v>27962967.45606667</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>15525197.04930793</v>
+        <v>28038434.5804032</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>15567402.70596273</v>
+        <v>28114690.95367984</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>15610047.27771117</v>
+        <v>28191741.23002224</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>15653133.37248604</v>
+        <v>28269590.15298514</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>15696663.65475783</v>
+        <v>28348242.56858418</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>15740640.85309122</v>
+        <v>28427703.43891569</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>15785067.76802229</v>
+        <v>28507977.85635339</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>15829947.28024941</v>
+        <v>28589071.05831083</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>15875282.35912993</v>
+        <v>28670988.44255459</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>15921076.07147334</v>
+        <v>28753735.58305143</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>15967331.59062015</v>
+        <v>28837318.24633061</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>16014052.20579506</v>
+        <v>28921742.40834</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>16061241.33172068</v>
+        <v>29007014.27177176</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>16108902.51847795</v>
+        <v>29093140.28383271</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>16157039.46159718</v>
+        <v>29180127.15442986</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>16205656.01236307</v>
+        <v>29267981.87474174</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>16254756.18831538</v>
+        <v>29356711.73614222</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>16304344.18392582</v>
+        <v>29446324.34944189</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>16354424.38143093</v>
+        <v>29536827.66441048</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>16405001.36179911</v>
+        <v>29628229.98954114</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>16456079.91580904</v>
+        <v>29720540.01201535</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>16507665.05521594</v>
+        <v>29813766.81782633</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>16559762.02398071</v>
+        <v>29907919.91201599</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>16612376.30953679</v>
+        <v>30003009.23897941</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>16665513.65406764</v>
+        <v>30099045.2027893</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>16719180.06576838</v>
+        <v>30196038.68749156</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>16773381.83006321</v>
+        <v>30294001.07732156</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>16828125.52075039</v>
+        <v>30392944.27678999</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>16883418.01104593</v>
+        <v>30492880.73058654</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>16939266.48449635</v>
+        <v>30593823.44324783</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>16995678.44573135</v>
+        <v>30695785.99853704</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>17052661.73102611</v>
+        <v>30798782.57848101</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>17110224.51864373</v>
+        <v>30902827.98201116</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>17168375.33892754</v>
+        <v>31007937.64315454</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>17227123.08411404</v>
+        <v>31114127.6487213</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>17286477.01783654</v>
+        <v>31221414.75543558</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>17346446.78429076</v>
+        <v>31329816.40645734</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>17407042.41703355</v>
+        <v>31439350.74724403</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>17468274.34738695</v>
+        <v>31550036.6407011</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>17530153.41242024</v>
+        <v>31661893.68157279</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>17592690.86248369</v>
+        <v>31774942.21002558</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>17655898.3682684</v>
+        <v>31889203.32437817</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>17719788.02736826</v>
+        <v>32004698.89293487</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>17784372.3703204</v>
+        <v>32121451.56488007</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>17849664.36610311</v>
+        <v>32239484.78019498</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>17915677.42706976</v>
+        <v>32358822.7785599</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>17982425.41330122</v>
+        <v>32479490.60720796</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>18049922.63635823</v>
+        <v>32601514.12769925</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>18118183.86241924</v>
+        <v>32724920.02158783</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>18187224.3147896</v>
+        <v>32849735.79495662</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>18257059.67577039</v>
+        <v>32975989.7817993</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>18327706.08787711</v>
+        <v>33103711.14623128</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>18399180.15440061</v>
+        <v>33232929.8835163</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>18471498.93930446</v>
+        <v>33363676.8198976</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>18544679.96645546</v>
+        <v>33495983.61122905</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>18618741.21818594</v>
+        <v>33629882.74040204</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>18693701.13318891</v>
+        <v>33765407.51357169</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>18769578.60374939</v>
+        <v>33902592.05518735</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>18846392.97231754</v>
+        <v>34041471.30183782</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>18924164.02743149</v>
+        <v>34182080.99492566</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>19002911.99900001</v>
+        <v>34324457.6721888</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>19082657.55295802</v>
+        <v>34468638.65809266</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>19163421.7853092</v>
+        <v>34614662.05311894</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>19245226.21557339</v>
+        <v>34762566.72198245</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>19328092.77965805</v>
+        <v>34912392.2808109</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>19412043.82217504</v>
+        <v>35064179.08332626</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>19497102.08822716</v>
+        <v>35217968.20607121</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>19583290.71468959</v>
+        <v>35373801.43272627</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>19670633.22101463</v>
+        <v>35531721.23756877</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>19759153.49958914</v>
+        <v>35691770.76812671</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>19848875.80567683</v>
+        <v>35853993.82708502</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>19939824.74697817</v>
+        <v>36018434.85350388</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>20032025.27284374</v>
+        <v>36185138.90341314</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>20125502.66317692</v>
+        <v>36354151.62984797</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>20220282.51706468</v>
+        <v>36525519.26239476</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>20316390.7411753</v>
+        <v>36699288.58631855</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>20413853.53796392</v>
+        <v>36875506.92134417</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>20512697.39372746</v>
+        <v>37054222.10016728</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>20612949.06655137</v>
+        <v>37235482.44677102</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>20714635.57419186</v>
+        <v>37419336.75462676</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>20817784.18193721</v>
+        <v>37605834.2648586</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>20922422.39049294</v>
+        <v>37795024.64445084</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>21028577.92393559</v>
+        <v>37986957.96458033</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>21136278.71778024</v>
+        <v>38181684.67915414</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>21245552.90720698</v>
+        <v>38379255.60363438</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>21356428.81549099</v>
+        <v>38579721.89423079</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>21468934.9426817</v>
+        <v>38783135.02754278</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>21583099.95457509</v>
+        <v>38989546.78073025</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>21698952.67202322</v>
+        <v>39199009.21229272</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>21816522.0606243</v>
+        <v>39411574.64353528</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>21935837.22083608</v>
+        <v>39627295.64079751</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>22056927.37855383</v>
+        <v>39846224.99852081</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>22179821.87619418</v>
+        <v>40068415.72322726</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>22304550.16432362</v>
+        <v>40293921.01848152</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>22431141.79387065</v>
+        <v>40522794.2709043</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>22559626.40895793</v>
+        <v>40755089.03730451</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>22690033.74039024</v>
+        <v>40990859.03299335</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>22822393.59983208</v>
+        <v>41230158.12134235</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>22956735.87470707</v>
+        <v>41473040.30464244</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>23093090.52385017</v>
+        <v>41719559.71632063</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>23231487.57394088</v>
+        <v>41969770.61456474</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>23371957.11674511</v>
+        <v>42223727.37740618</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>23514529.30719037</v>
+        <v>42481484.49930543</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>23659234.36229757</v>
+        <v>42743096.58928157</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>23806102.56099106</v>
+        <v>43008618.37062597</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>23955164.24480543</v>
+        <v>43278104.6822322</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>24106449.81950713</v>
+        <v>43551610.48157618</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>24259989.75764571</v>
+        <v>43829190.84937198</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>24415814.60204793</v>
+        <v>44110900.99592818</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>24573954.97026658</v>
+        <v>44396796.26922549</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>24734441.55999259</v>
+        <v>44686932.1647315</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>24897305.15543828</v>
+        <v>44981364.33696708</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>25062576.63469723</v>
+        <v>45280148.61283316</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>25230286.97808408</v>
+        <v>45583341.00670561</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>25400467.27745645</v>
+        <v>45890997.73730076</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>25573148.7465185</v>
+        <v>46203175.24631184</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>25748362.73210512</v>
+        <v>46519930.21881335</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>25926140.72644277</v>
+        <v>46841319.60542816</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>26106514.38038264</v>
+        <v>47167400.64624732</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>26289515.51759932</v>
+        <v>47498230.89649241</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>26475176.14974231</v>
+        <v>47833868.25389636</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>26663528.49254624</v>
+        <v>48174370.9878142</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>26854604.98287512</v>
+        <v>48519797.77001841</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>27048438.2966936</v>
+        <v>48870207.7071679</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>27245061.36795305</v>
+        <v>49225660.37492676</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>27444507.40837872</v>
+        <v>49586215.85370994</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>27646809.9281439</v>
+        <v>49951934.76602903</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>27852002.75741569</v>
+        <v>50322878.31541208</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>28060120.06875712</v>
+        <v>50699108.32686832</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>28271196.40036874</v>
+        <v>51080687.2888694</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>28485266.68015333</v>
+        <v>51467678.39681545</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>28702366.25058609</v>
+        <v>51860145.59795728</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>28922530.89437343</v>
+        <v>52258153.63774097</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>29145796.86088181</v>
+        <v>52661768.10754453</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>29372200.89331934</v>
+        <v>53071055.49377393</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>29601780.25665209</v>
+        <v>53486083.22828634</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>29834572.76623673</v>
+        <v>53906919.74010793</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>30070616.81715255</v>
+        <v>54333634.50841556</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>30309951.41421375</v>
+        <v>54766298.11674788</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>30552616.20264587</v>
+        <v>55204982.30841748</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>30798651.49940786</v>
+        <v>55649760.0430899</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>31048098.3251437</v>
+        <v>56100705.55450134</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>31300998.43674561</v>
+        <v>56557894.40928335</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>31557394.36051401</v>
+        <v>57021403.56686582</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>31817329.42589677</v>
+        <v>57491311.44042923</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>32080847.79979268</v>
+        <v>57967697.95887798</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>32347994.52140395</v>
+        <v>58450644.62980735</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>32618815.53762261</v>
+        <v>58940234.60343747</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>32893357.73893607</v>
+        <v>59436552.73748766</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>33171668.99583796</v>
+        <v>59939685.66296577</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>33453798.19573</v>
+        <v>60449721.85084805</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>33739795.28030142</v>
+        <v>60966751.67962395</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>34029711.28337257</v>
+        <v>61490867.5036827</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>34323598.36918895</v>
+        <v>62022163.72251716</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>34621509.87115335</v>
+        <v>62560736.85072168</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>34923500.33098209</v>
+        <v>63106685.5887602</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>35229625.5382728</v>
+        <v>63660110.89448104</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>35539942.57046976</v>
+        <v>64221116.05535391</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>35854509.83321445</v>
+        <v>64789806.76140548</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>36173387.10106568</v>
+        <v>65366291.17882803</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>36496635.55857634</v>
+        <v>65950680.0242352</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>36824317.84171125</v>
+        <v>66543086.6395382</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>37156498.07959033</v>
+        <v>67143627.06741379</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>37493241.93654071</v>
+        <v>67752420.127335</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>37834616.65444025</v>
+        <v>68369587.4921318</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>38180691.0953336</v>
+        <v>68995253.76504889</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>38531535.78430092</v>
+        <v>69629546.55726415</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>38887222.95255753</v>
+        <v>70272596.56582856</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>39247826.58076145</v>
+        <v>70924537.65198629</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>39613422.44250368</v>
+        <v>71585506.91982888</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>39984088.14795405</v>
+        <v>72255644.79523559</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>40359903.18763342</v>
+        <v>72935095.10504571</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>40740948.97628019</v>
+        <v>73624005.15640628</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>41127308.89677691</v>
+        <v>74322525.81623279</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>41519068.34409978</v>
+        <v>75030811.59071475</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>41916314.76925002</v>
+        <v>75749020.70479417</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>42319137.72312426</v>
+        <v>76477315.18153755</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>42727628.90027601</v>
+        <v>77215860.92131548</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>43141882.18251823</v>
+        <v>77964827.78069918</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>43561993.68231077</v>
+        <v>78724389.65097284</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>43988061.78587444</v>
+        <v>79494724.53615703</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>44420187.19596875</v>
+        <v>80276014.63042617</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>44858472.97426309</v>
+        <v>81068446.39479843</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>45303024.58323047</v>
+        <v>81872210.63296443</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>45753949.92748432</v>
+        <v>82687502.56611505</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>46211359.39447477</v>
+        <v>83514521.90661483</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>46675365.89445609</v>
+        <v>84353472.93036196</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>47146084.89962861</v>
+        <v>85204564.54766159</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>47623634.48235657</v>
+        <v>86068010.37243043</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>48108135.35235175</v>
+        <v>86944028.78953794</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>48599710.89271151</v>
+        <v>87832843.02007952</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>49098487.19468962</v>
+        <v>88734681.18436332</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>49604593.09107284</v>
+        <v>89649776.36237961</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>50118160.18802912</v>
+        <v>90578366.65151231</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>50639322.895286</v>
+        <v>91520695.22123472</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>51168218.45449028</v>
+        <v>92477010.36452025</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>51704986.96559252</v>
+        <v>93447565.54568823</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>52249771.41109287</v>
+        <v>94432619.44438401</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>52802717.67797621</v>
+        <v>95432435.99538726</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>53363974.57715738</v>
+        <v>96447284.42392053</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>53933693.86024924</v>
+        <v>97477439.27612172</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>54512030.23345778</v>
+        <v>98523180.44432585</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>55099141.36840261</v>
+        <v>99584793.18678963</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>55695187.90964982</v>
+        <v>100662568.1414765</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>56300333.47874008</v>
+        <v>101756801.3335076</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>56914744.67448474</v>
+        <v>102867794.1758661</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>57538591.06929529</v>
+        <v>103995853.4629351</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>58172045.20130534</v>
+        <v>105141291.3564285</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>58815282.56203552</v>
+        <v>106304425.3632652</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>59468481.57934527</v>
+        <v>107485578.3049257</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>60131823.59540955</v>
+        <v>108685078.2778122</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>60805492.8394502</v>
+        <v>109903258.604129</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>61489676.39494757</v>
+        <v>111140457.7727817</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>62184564.16105215</v>
+        <v>112397019.3697918</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>62890348.80790946</v>
+        <v>113673291.9977058</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>63607225.72560884</v>
+        <v>114969629.1834763</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>64335392.96646234</v>
+        <v>116286389.2742824</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>65075051.18031607</v>
+        <v>117623935.3207526</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>65826403.54259492</v>
+        <v>118982634.9470477</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>66416253.2749979</v>
+        <v>119899424.6543854</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>67015843.72927151</v>
+        <v>120831811.2490246</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>67625349.89771816</v>
+        <v>121780081.6140879</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>68244948.62395999</v>
+        <v>122744525.7390878</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>68874818.50926013</v>
+        <v>123725436.5675488</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>69515139.8114789</v>
+        <v>124723109.8327654</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>70166094.33642924</v>
+        <v>125737843.8813135</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>70827865.32140145</v>
+        <v>126769939.4839389</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>71500637.31063014</v>
+        <v>127819699.6334551</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>72184596.02248937</v>
+        <v>128887429.3292989</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>72879928.20820716</v>
+        <v>129973435.3484041</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>73586821.50190061</v>
+        <v>131078026.0020693</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>74305464.26174903</v>
+        <v>132201510.8785172</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>75036045.40213093</v>
+        <v>133344200.5708641</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>75778754.21656884</v>
+        <v>134506406.3902399</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>76533780.19134203</v>
+        <v>135688440.0638305</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>77301312.80964495</v>
+        <v>136890613.4176377</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>78081541.34618914</v>
+        <v>138113238.043791</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>78874654.6521703</v>
+        <v>139356624.9522752</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>79680840.93054289</v>
+        <v>140621084.2069804</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>80500287.50157203</v>
+        <v>141906924.5460185</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>81333180.55865899</v>
+        <v>143214452.986296</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>82179704.91446666</v>
+        <v>144543974.4123829</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>83040043.73740049</v>
+        <v>145895791.1497603</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>83914378.27853484</v>
+        <v>147270202.5225907</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>84802887.58910827</v>
+        <v>148667504.3962058</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>85705748.22874798</v>
+        <v>150087988.704566</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>86623133.96462087</v>
+        <v>151531942.9630088</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>87555215.46174875</v>
+        <v>152999649.7666666</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>88502159.96476567</v>
+        <v>154491386.2750012</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>89464130.97143891</v>
+        <v>156007423.6829706</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>90441287.89831692</v>
+        <v>157548026.6794153</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>91433785.73891392</v>
+        <v>159113452.8933249</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>92441774.71488623</v>
+        <v>160703952.3287191</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>93465399.9207018</v>
+        <v>162319766.7889542</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>94504800.96235204</v>
+        <v>163961129.2913439</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>95560111.5907028</v>
+        <v>165628263.4730573</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>96631459.33012886</v>
+        <v>167321382.9893429</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>97718965.10312587</v>
+        <v>169040690.9051967</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>98822742.85163745</v>
+        <v>170786379.0816769</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>99942899.15588918</v>
+        <v>172558627.5581426</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>101079532.8515587</v>
+        <v>174357603.9317683</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>102232734.6461661</v>
+        <v>176183462.7357641</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>103402586.7356028</v>
+        <v>178036344.8177968</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>104589162.421768</v>
+        <v>179916376.720183</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>105792525.7323149</v>
+        <v>181823670.0634864</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>107012731.0435528</v>
+        <v>183758320.9352134</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>108249822.7075776</v>
+        <v>185720409.2853615</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>109503834.6847461</v>
+        <v>187709998.3306223</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>110774790.1826275</v>
+        <v>189727133.9690952</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>112062701.3025963</v>
+        <v>191771844.2073959</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>113367568.6952494</v>
+        <v>193844138.6020952</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>114689381.2258457</v>
+        <v>195944007.7174316</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>116028115.6509804</v>
+        <v>198071422.6012765</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>117383736.3077078</v>
+        <v>200226334.2813295</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>117016840.8030587</v>
+        <v>199565699.5724526</v>
       </c>
       <c r="C358" t="n">
-        <v>1707030.672497093</v>
+        <v>2776074.969043881</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>116646186.7731158</v>
+        <v>198898441.3208344</v>
       </c>
       <c r="C359" t="n">
-        <v>3434242.17274158</v>
+        <v>5585373.474988149</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>116271712.0381898</v>
+        <v>198224457.6799003</v>
       </c>
       <c r="C360" t="n">
-        <v>5181622.988428649</v>
+        <v>8427887.409535415</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>115893352.811541</v>
+        <v>197543644.4429151</v>
       </c>
       <c r="C361" t="n">
-        <v>6949149.923304443</v>
+        <v>11303589.69286929</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>115511043.6629781</v>
+        <v>196855894.9978431</v>
       </c>
       <c r="C362" t="n">
-        <v>8736787.905899156</v>
+        <v>14212433.9516787</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>115124717.4815563</v>
+        <v>196161100.2808544</v>
       </c>
       <c r="C363" t="n">
-        <v>10544489.81833285</v>
+        <v>17154354.22955885</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>114734305.4374141</v>
+        <v>195459148.728505</v>
       </c>
       <c r="C364" t="n">
-        <v>12372196.34624045</v>
+        <v>20129264.73152061</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>114339736.9428032</v>
+        <v>194749926.2286516</v>
       </c>
       <c r="C365" t="n">
-        <v>14219835.85080293</v>
+        <v>23137059.60424541</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>113940939.612382</v>
+        <v>194033316.070175</v>
       </c>
       <c r="C366" t="n">
-        <v>16087324.2638101</v>
+        <v>26177612.75362471</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>113537839.2228628</v>
+        <v>193309198.8916276</v>
       </c>
       <c r="C367" t="n">
-        <v>17974565.00661036</v>
+        <v>29250777.70101169</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>113130359.6721239</v>
+        <v>192577452.6289448</v>
       </c>
       <c r="C368" t="n">
-        <v>19881448.93371909</v>
+        <v>32356387.47947815</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>112718422.9379202</v>
+        <v>191837952.4623979</v>
       </c>
       <c r="C369" t="n">
-        <v>21807854.30177455</v>
+        <v>35494254.57123748</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>112301949.0363497</v>
+        <v>191090570.7630089</v>
       </c>
       <c r="C370" t="n">
-        <v>23753646.76442989</v>
+        <v>38664170.88723285</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>111880855.9802627</v>
+        <v>190335177.0386818</v>
       </c>
       <c r="C371" t="n">
-        <v>25718679.39366913</v>
+        <v>41865907.78972799</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>111455059.7378272</v>
+        <v>189571637.8803636</v>
       </c>
       <c r="C372" t="n">
-        <v>27702792.72792391</v>
+        <v>45099216.15855844</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>111024474.1914992</v>
+        <v>188799816.908586</v>
       </c>
       <c r="C373" t="n">
-        <v>27702632.74623992</v>
+        <v>45098955.83928412</v>
       </c>
       <c r="D373" t="n">
-        <v>2057635.647827405</v>
+        <v>3388871.049848082</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>110589011.0976737</v>
+        <v>188019574.7208037</v>
       </c>
       <c r="C374" t="n">
-        <v>27702447.63657095</v>
+        <v>45098654.63043553</v>
       </c>
       <c r="D374" t="n">
-        <v>4134476.97835125</v>
+        <v>6809833.613546507</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>110148580.047339</v>
+        <v>187230768.8399951</v>
       </c>
       <c r="C375" t="n">
-        <v>27702233.72902932</v>
+        <v>45098306.55987818</v>
       </c>
       <c r="D375" t="n">
-        <v>6230324.77423428</v>
+        <v>10262569.39338635</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>109703088.4280833</v>
+        <v>186433253.6650589</v>
       </c>
       <c r="C376" t="n">
-        <v>27701986.86339708</v>
+        <v>45097904.85749839</v>
       </c>
       <c r="D376" t="n">
-        <v>8344967.935112545</v>
+        <v>13746740.42391416</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>109252441.3878525</v>
+        <v>185626880.4236027</v>
       </c>
       <c r="C377" t="n">
-        <v>27701702.33075949</v>
+        <v>45097441.86020856</v>
       </c>
       <c r="D377" t="n">
-        <v>10478183.72717914</v>
+        <v>17261989.4721028</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>108796541.8008959</v>
+        <v>184811497.1277886</v>
       </c>
       <c r="C378" t="n">
-        <v>27701374.8092511</v>
+        <v>45096908.90736943</v>
       </c>
       <c r="D378" t="n">
-        <v>12629738.06584429</v>
+        <v>20807940.49224333</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>108335290.2363833</v>
+        <v>183986948.533977</v>
       </c>
       <c r="C379" t="n">
-        <v>27700998.29347031</v>
+        <v>45096296.22590635</v>
       </c>
       <c r="D379" t="n">
-        <v>14799385.83132408</v>
+        <v>24384199.13536312</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>107868584.9302231</v>
+        <v>183153076.1069808</v>
       </c>
       <c r="C380" t="n">
-        <v>27700566.01710571</v>
+        <v>45095592.80437565</v>
       </c>
       <c r="D380" t="n">
-        <v>16986871.21686275</v>
+        <v>27990353.3127334</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>107396321.7606595</v>
+        <v>182309717.989826</v>
       </c>
       <c r="C381" t="n">
-        <v>27700070.36830704</v>
+        <v>45094786.25522123</v>
       </c>
       <c r="D381" t="n">
-        <v>19191928.10914098</v>
+        <v>31625973.81277846</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>106918394.2282751</v>
+        <v>181456708.9799921</v>
       </c>
       <c r="C382" t="n">
-        <v>27699502.79732772</v>
+        <v>45093862.6644503</v>
       </c>
       <c r="D382" t="n">
-        <v>21414280.50026382</v>
+        <v>35290614.97043681</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>106434693.4410802</v>
+        <v>180593880.513192</v>
       </c>
       <c r="C383" t="n">
-        <v>27698853.71596273</v>
+        <v>45092806.4279536</v>
       </c>
       <c r="D383" t="n">
-        <v>21414240.28874142</v>
+        <v>35290548.71772115</v>
       </c>
       <c r="E383" t="n">
-        <v>2270948.163766852</v>
+        <v>3833183.880060812</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>105945108.1054172</v>
+        <v>179721060.6558356</v>
       </c>
       <c r="C384" t="n">
-        <v>27698112.38830791</v>
+        <v>45091600.0736981</v>
       </c>
       <c r="D384" t="n">
-        <v>21414192.35042256</v>
+        <v>35290469.73405181</v>
       </c>
       <c r="E384" t="n">
-        <v>4558856.826725661</v>
+        <v>7695403.248201334</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>105449524.5234638</v>
+        <v>178838074.1074066</v>
       </c>
       <c r="C385" t="n">
-        <v>27697266.81237424</v>
+        <v>45090224.06903271</v>
       </c>
       <c r="D385" t="n">
-        <v>21414135.29614897</v>
+        <v>35290375.73055182</v>
       </c>
       <c r="E385" t="n">
-        <v>6863420.242229516</v>
+        <v>11586149.20073493</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>104947826.5981719</v>
+        <v>177944742.2140708</v>
       </c>
       <c r="C386" t="n">
-        <v>27696303.59210422</v>
+        <v>45088656.61236928</v>
       </c>
       <c r="D386" t="n">
-        <v>21414067.50606195</v>
+        <v>35290264.03821643</v>
       </c>
       <c r="E386" t="n">
-        <v>9184324.836336145</v>
+        <v>15504899.48672037</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>104439895.8465264</v>
+        <v>177040882.9949169</v>
       </c>
       <c r="C387" t="n">
-        <v>27695207.79935725</v>
+        <v>45086873.40853416</v>
       </c>
       <c r="D387" t="n">
-        <v>21413987.09489571</v>
+        <v>35290131.55072476</v>
       </c>
       <c r="E387" t="n">
-        <v>11521249.80573522</v>
+        <v>19451119.51125522</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>103925611.4220669</v>
+        <v>176126311.1823207</v>
       </c>
       <c r="C388" t="n">
-        <v>27693962.82545957</v>
+        <v>45084847.42713097</v>
       </c>
       <c r="D388" t="n">
-        <v>21413891.87269547</v>
+        <v>35289974.65971259</v>
       </c>
       <c r="E388" t="n">
-        <v>15798743.82838826</v>
+        <v>23424263.38884629</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>103404850.1476571</v>
+        <v>175200838.2780017</v>
       </c>
       <c r="C389" t="n">
-        <v>27692550.22195015</v>
+        <v>45082548.64331444</v>
       </c>
       <c r="D389" t="n">
-        <v>21413779.30046711</v>
+        <v>35289789.1816929</v>
       </c>
       <c r="E389" t="n">
-        <v>20104165.92239539</v>
+        <v>27423775.04460582</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>102877486.5595408</v>
+        <v>174264272.6264234</v>
       </c>
       <c r="C390" t="n">
-        <v>27690949.53019943</v>
+        <v>45079943.76044922</v>
       </c>
       <c r="D390" t="n">
-        <v>21413646.44022908</v>
+        <v>35289570.27575243</v>
       </c>
       <c r="E390" t="n">
-        <v>24436900.72572042</v>
+        <v>31449089.36076253</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>102343392.9637641</v>
+        <v>173316419.5072641</v>
       </c>
       <c r="C391" t="n">
-        <v>27689138.09963349</v>
+        <v>45076995.91421723</v>
       </c>
       <c r="D391" t="n">
-        <v>21413489.89890242</v>
+        <v>35289312.35109447</v>
       </c>
       <c r="E391" t="n">
-        <v>28796324.64643938</v>
+        <v>35499633.36571107</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>101802439.5060867</v>
+        <v>172357081.2487524</v>
       </c>
       <c r="C392" t="n">
-        <v>27687090.8943621</v>
+        <v>45073664.35784574</v>
       </c>
       <c r="D392" t="n">
-        <v>21413305.76544064</v>
+        <v>35289008.96344174</v>
       </c>
       <c r="E392" t="n">
-        <v>33181807.1994311</v>
+        <v>39574827.46255907</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>101254494.2565417</v>
+        <v>171386057.3637275</v>
       </c>
       <c r="C393" t="n">
-        <v>27684780.28808694</v>
+        <v>45069904.12825371</v>
       </c>
       <c r="D393" t="n">
-        <v>21413089.54056831</v>
+        <v>35288652.69925945</v>
       </c>
       <c r="E393" t="n">
-        <v>33181772.47886395</v>
+        <v>39574778.4873149</v>
       </c>
       <c r="F393" t="n">
-        <v>4148674.649450599</v>
+        <v>3680984.635279624</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>100699423.309836</v>
+        <v>170403144.7103384</v>
       </c>
       <c r="C394" t="n">
-        <v>27682175.84725593</v>
+        <v>45065665.6930605</v>
       </c>
       <c r="D394" t="n">
-        <v>21412836.05846698</v>
+        <v>35288235.0467089</v>
       </c>
       <c r="E394" t="n">
-        <v>33181730.33645422</v>
+        <v>39574719.17218005</v>
       </c>
       <c r="F394" t="n">
-        <v>8320924.632872179</v>
+        <v>7383579.641669015</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>100137090.9028085</v>
+        <v>169408137.6793407</v>
       </c>
       <c r="C395" t="n">
-        <v>27679244.10253168</v>
+        <v>45060894.5785675</v>
       </c>
       <c r="D395" t="n">
-        <v>21412539.39972087</v>
+        <v>35287746.25219777</v>
       </c>
       <c r="E395" t="n">
-        <v>33181679.28280086</v>
+        <v>39574647.47059441</v>
       </c>
       <c r="F395" t="n">
-        <v>12516150.42711997</v>
+        <v>11107262.76132469</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>99567359.55018273</v>
+        <v>168400828.4099853</v>
       </c>
       <c r="C396" t="n">
-        <v>27675948.30875833</v>
+        <v>45055530.9790113</v>
       </c>
       <c r="D396" t="n">
-        <v>21412192.79481109</v>
+        <v>35287175.16135573</v>
       </c>
       <c r="E396" t="n">
-        <v>33181617.5510475</v>
+        <v>39574560.96066988</v>
       </c>
       <c r="F396" t="n">
-        <v>16733751.55762221</v>
+        <v>14851510.63517252</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>98990090.19986407</v>
+        <v>167381007.0365152</v>
       </c>
       <c r="C397" t="n">
-        <v>27672248.19373944</v>
+        <v>45049509.34759746</v>
       </c>
       <c r="D397" t="n">
-        <v>21411788.51743114</v>
+        <v>35286509.04323637</v>
       </c>
       <c r="E397" t="n">
-        <v>33181543.04969743</v>
+        <v>39574456.78251867</v>
       </c>
       <c r="F397" t="n">
-        <v>20973128.04940117</v>
+        <v>18615800.08921095</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>98405142.40903012</v>
+        <v>166348461.9672951</v>
       </c>
       <c r="C398" t="n">
-        <v>27668099.69628318</v>
+        <v>45042757.97005644</v>
       </c>
       <c r="D398" t="n">
-        <v>21411317.76688497</v>
+        <v>35285733.39652826</v>
       </c>
       <c r="E398" t="n">
-        <v>33181453.30829981</v>
+        <v>39574331.56632507</v>
       </c>
       <c r="F398" t="n">
-        <v>25233681.90270513</v>
+        <v>22399609.44388654</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>97812374.54226147</v>
+        <v>165302980.198589</v>
       </c>
       <c r="C399" t="n">
-        <v>27663454.6941279</v>
+        <v>45035198.52171903</v>
       </c>
       <c r="D399" t="n">
-        <v>21410770.53882714</v>
+        <v>35284831.73655458</v>
       </c>
       <c r="E399" t="n">
-        <v>33181345.41509864</v>
+        <v>39574181.35001761</v>
       </c>
       <c r="F399" t="n">
-        <v>29514818.58930808</v>
+        <v>26202419.84307779</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>97211643.99293776</v>
+        <v>164244347.6649816</v>
       </c>
       <c r="C400" t="n">
-        <v>27658260.72253134</v>
+        <v>45026745.60938631</v>
       </c>
       <c r="D400" t="n">
-        <v>21410135.48361069</v>
+        <v>35283785.36185107</v>
       </c>
       <c r="E400" t="n">
-        <v>33181215.94565065</v>
+        <v>39574001.4852966</v>
       </c>
       <c r="F400" t="n">
-        <v>33815948.56532096</v>
+        <v>30023716.59903041</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>96602807.4290991</v>
+        <v>163172349.6283881</v>
       </c>
       <c r="C401" t="n">
-        <v>27652460.68449234</v>
+        <v>45017306.29956946</v>
       </c>
       <c r="D401" t="n">
-        <v>21409399.75152629</v>
+        <v>35282573.09914172</v>
       </c>
       <c r="E401" t="n">
-        <v>33181060.88132945</v>
+        <v>39573786.53066835</v>
       </c>
       <c r="F401" t="n">
-        <v>38136488.79616003</v>
+        <v>33862990.54940688</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>95985721.06492919</v>
+        <v>162086771.1075439</v>
       </c>
       <c r="C402" t="n">
-        <v>27645992.55376986</v>
+        <v>45006779.63499617</v>
       </c>
       <c r="D402" t="n">
-        <v>21408548.82424623</v>
+        <v>35281171.02558026</v>
       </c>
       <c r="E402" t="n">
-        <v>33180875.51654351</v>
+        <v>39573530.13003258</v>
       </c>
       <c r="F402" t="n">
-        <v>42475864.28909029</v>
+        <v>37719739.42240746</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>95360240.95896187</v>
+        <v>160987397.3497706</v>
       </c>
       <c r="C403" t="n">
-        <v>27638789.07207512</v>
+        <v>44995056.14162159</v>
       </c>
       <c r="D403" t="n">
-        <v>21407566.33183046</v>
+        <v>35279552.16719864</v>
       </c>
       <c r="E403" t="n">
-        <v>33180654.35340459</v>
+        <v>39573224.87526562</v>
       </c>
       <c r="F403" t="n">
-        <v>42475827.00127347</v>
+        <v>37719706.32121953</v>
       </c>
       <c r="G403" t="n">
-        <v>3261734.519380498</v>
+        <v>3395037.964788939</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>94726223.34004688</v>
+        <v>159874014.346717</v>
       </c>
       <c r="C404" t="n">
-        <v>27630777.44203275</v>
+        <v>44982017.32874182</v>
       </c>
       <c r="D404" t="n">
-        <v>21406433.85471158</v>
+        <v>35277686.17260079</v>
       </c>
       <c r="E404" t="n">
-        <v>33180390.982493</v>
+        <v>39572862.15114059</v>
       </c>
       <c r="F404" t="n">
-        <v>42475781.22776249</v>
+        <v>37719665.68693518</v>
       </c>
       <c r="G404" t="n">
-        <v>6537906.363299248</v>
+        <v>6805160.348600408</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>94083524.96202393</v>
+        <v>158746409.3956332</v>
       </c>
       <c r="C405" t="n">
-        <v>27621879.01773847</v>
+        <v>44967535.18518396</v>
       </c>
       <c r="D405" t="n">
-        <v>21405130.71015247</v>
+        <v>35275538.96106747</v>
       </c>
       <c r="E405" t="n">
-        <v>33180077.94827889</v>
+        <v>39572431.96082976</v>
       </c>
       <c r="F405" t="n">
-        <v>42475725.15563158</v>
+        <v>37719615.91010697</v>
       </c>
       <c r="G405" t="n">
-        <v>9828124.155885532</v>
+        <v>10229960.39974076</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>93432003.48795733</v>
+        <v>157604371.7075869</v>
       </c>
       <c r="C406" t="n">
-        <v>27612008.99497987</v>
+        <v>44951471.67493635</v>
       </c>
       <c r="D406" t="n">
-        <v>21403633.72276554</v>
+        <v>35273072.34439421</v>
       </c>
       <c r="E406" t="n">
-        <v>33179706.59767579</v>
+        <v>39571922.73014559</v>
       </c>
       <c r="F406" t="n">
-        <v>42475656.61230564</v>
+        <v>37719555.0619954</v>
       </c>
       <c r="G406" t="n">
-        <v>13132007.01470635</v>
+        <v>13669042.27098212</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>92771517.90466793</v>
+        <v>156447693.0638415</v>
       </c>
       <c r="C407" t="n">
-        <v>27601076.10343286</v>
+        <v>44933678.23598325</v>
       </c>
       <c r="D407" t="n">
-        <v>21401916.97879875</v>
+        <v>35270243.62197646</v>
       </c>
       <c r="E407" t="n">
-        <v>33179266.91012616</v>
+        <v>39571321.08859845</v>
       </c>
       <c r="F407" t="n">
-        <v>42475573.00037128</v>
+        <v>37719480.83669303</v>
       </c>
       <c r="G407" t="n">
-        <v>16449185.73274117</v>
+        <v>17122022.25058113</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>92101928.96816723</v>
+        <v>155276168.5214095</v>
       </c>
       <c r="C408" t="n">
-        <v>27588982.30339638</v>
+        <v>44913995.28651492</v>
       </c>
       <c r="D408" t="n">
-        <v>21399951.5640309</v>
+        <v>35267005.14888178</v>
       </c>
       <c r="E408" t="n">
-        <v>33178747.30755288</v>
+        <v>39570611.62528582</v>
       </c>
       <c r="F408" t="n">
-        <v>42475471.22186942</v>
+        <v>37719390.48390992</v>
       </c>
       <c r="G408" t="n">
-        <v>19779303.95180188</v>
+        <v>20588529.98450087</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>91423099.68045068</v>
+        <v>154089597.1685558</v>
       </c>
       <c r="C409" t="n">
-        <v>27575622.4898799</v>
+        <v>44892251.74309487</v>
       </c>
       <c r="D409" t="n">
-        <v>21397705.28527965</v>
+        <v>35263303.87691461</v>
       </c>
       <c r="E409" t="n">
-        <v>33178134.44245578</v>
+        <v>39569776.61758024</v>
       </c>
       <c r="F409" t="n">
-        <v>42475347.59063089</v>
+        <v>37719280.73114277</v>
       </c>
       <c r="G409" t="n">
-        <v>23122019.32370597</v>
+        <v>24068209.6859929</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>90734895.79794151</v>
+        <v>152887782.9307611</v>
       </c>
       <c r="C410" t="n">
-        <v>27560884.20710854</v>
+        <v>44868264.55577281</v>
       </c>
       <c r="D410" t="n">
-        <v>21395142.37571036</v>
+        <v>35259080.86898308</v>
       </c>
       <c r="E410" t="n">
-        <v>33177412.96239443</v>
+        <v>39568795.73055944</v>
       </c>
       <c r="F410" t="n">
-        <v>42475197.73106781</v>
+        <v>37719147.69381879</v>
       </c>
       <c r="G410" t="n">
-        <v>26477004.65536253</v>
+        <v>27560721.32854138</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>90037186.37169369</v>
+        <v>151670535.4273598</v>
       </c>
       <c r="C411" t="n">
-        <v>27544647.37675723</v>
+        <v>44841838.26553418</v>
       </c>
       <c r="D411" t="n">
-        <v>21392223.1843437</v>
+        <v>35254270.7874232</v>
       </c>
       <c r="E411" t="n">
-        <v>33176565.24907953</v>
+        <v>39567645.68512301</v>
       </c>
       <c r="F411" t="n">
-        <v>42475016.46167984</v>
+        <v>37718986.77186822</v>
       </c>
       <c r="G411" t="n">
-        <v>29843949.03380081</v>
+        <v>31065741.81803524</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>89329844.31926376</v>
+        <v>150437670.8787492</v>
       </c>
       <c r="C412" t="n">
-        <v>27526784.04346276</v>
+        <v>44812764.58986352</v>
       </c>
       <c r="D412" t="n">
-        <v>21388903.85039533</v>
+        <v>35248801.35732382</v>
       </c>
       <c r="E412" t="n">
-        <v>33175571.13029941</v>
+        <v>39566299.89277279</v>
       </c>
       <c r="F412" t="n">
-        <v>42474797.66137487</v>
+        <v>37718792.53103824</v>
       </c>
       <c r="G412" t="n">
-        <v>33222558.92699987</v>
+        <v>34582966.13985649</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>88612747.02794504</v>
+        <v>149189013.063717</v>
       </c>
       <c r="C413" t="n">
-        <v>27507158.14139022</v>
+        <v>44780822.04256895</v>
       </c>
       <c r="D413" t="n">
-        <v>21385135.96334194</v>
+        <v>35242592.80632541</v>
       </c>
       <c r="E413" t="n">
-        <v>33174407.5629402</v>
+        <v>39564728.0551018</v>
       </c>
       <c r="F413" t="n">
-        <v>42474534.11654214</v>
+        <v>37718558.56711723</v>
       </c>
       <c r="G413" t="n">
-        <v>33222536.62111848</v>
+        <v>34582942.92130946</v>
       </c>
       <c r="H413" t="n">
-        <v>3471511.19722601</v>
+        <v>3556573.36864695</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>87885776.9888254</v>
+        <v>147924394.3260584</v>
       </c>
       <c r="C414" t="n">
-        <v>27485625.28583959</v>
+        <v>44745775.59435765</v>
       </c>
       <c r="D414" t="n">
-        <v>21380866.20989459</v>
+        <v>35235557.28283843</v>
       </c>
       <c r="E414" t="n">
-        <v>33173048.28542184</v>
+        <v>39562895.72614675</v>
       </c>
       <c r="F414" t="n">
-        <v>42474217.34665379</v>
+        <v>37718277.35109474</v>
       </c>
       <c r="G414" t="n">
-        <v>33222508.94092891</v>
+        <v>34582914.10854945</v>
       </c>
       <c r="H414" t="n">
-        <v>6954313.912137287</v>
+        <v>7124883.026708464</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>87148822.4608824</v>
+        <v>146643656.6292594</v>
       </c>
       <c r="C415" t="n">
-        <v>27462032.59407021</v>
+        <v>44707376.38096233</v>
       </c>
       <c r="D415" t="n">
-        <v>21376036.00937143</v>
+        <v>35227598.25513975</v>
       </c>
       <c r="E415" t="n">
-        <v>33171463.43797243</v>
+        <v>39560763.835914</v>
       </c>
       <c r="F415" t="n">
-        <v>42473837.40601166</v>
+        <v>37717940.05314068</v>
       </c>
       <c r="G415" t="n">
-        <v>33222474.66964462</v>
+        <v>34582878.4349992</v>
       </c>
       <c r="H415" t="n">
-        <v>10448167.63253614</v>
+        <v>10704684.03383379</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>86401778.16407003</v>
+        <v>145346652.657594</v>
       </c>
       <c r="C416" t="n">
-        <v>27436218.53968548</v>
+        <v>44665361.46588979</v>
       </c>
       <c r="D416" t="n">
-        <v>21370581.13929728</v>
+        <v>35218609.89435817</v>
       </c>
       <c r="E416" t="n">
-        <v>33169619.14930469</v>
+        <v>39558288.17359748</v>
       </c>
       <c r="F416" t="n">
-        <v>42473382.65910299</v>
+        <v>37717536.343152</v>
       </c>
       <c r="G416" t="n">
-        <v>33222432.33429424</v>
+        <v>34582834.3674129</v>
       </c>
       <c r="H416" t="n">
-        <v>13952854.09597184</v>
+        <v>14295754.2181423</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>85644546.00007223</v>
+        <v>144033246.9615428</v>
       </c>
       <c r="C417" t="n">
-        <v>27408012.84505809</v>
+        <v>44619453.66508472</v>
       </c>
       <c r="D417" t="n">
-        <v>21364431.35341415</v>
+        <v>35208476.44494778</v>
       </c>
       <c r="E417" t="n">
-        <v>33167477.08844543</v>
+        <v>39555418.82927093</v>
       </c>
       <c r="F417" t="n">
-        <v>42472839.52688657</v>
+        <v>37717054.16548786</v>
       </c>
       <c r="G417" t="n">
-        <v>33222380.15632097</v>
+        <v>34582780.05445403</v>
       </c>
       <c r="H417" t="n">
-        <v>17468178.27055945</v>
+        <v>17897895.18545807</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>84877035.79911782</v>
+        <v>142703317.1449774</v>
       </c>
       <c r="C418" t="n">
-        <v>27377236.41637791</v>
+        <v>44569361.44096974</v>
       </c>
       <c r="D418" t="n">
-        <v>21357509.99466365</v>
+        <v>35197071.58686895</v>
       </c>
       <c r="E418" t="n">
-        <v>33164993.98070653</v>
+        <v>39552099.59316418</v>
       </c>
       <c r="F418" t="n">
-        <v>42472192.20120382</v>
+        <v>37716479.48540261</v>
       </c>
       <c r="G418" t="n">
-        <v>33222315.99366608</v>
+        <v>34582713.26640837</v>
       </c>
       <c r="H418" t="n">
-        <v>20993969.28994409</v>
+        <v>21510933.28182126</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>84099166.09094973</v>
+        <v>141356755.091071</v>
       </c>
       <c r="C419" t="n">
-        <v>27343701.32596933</v>
+        <v>44514778.8734275</v>
       </c>
       <c r="D419" t="n">
-        <v>21349733.60609477</v>
+        <v>35184257.79434422</v>
       </c>
       <c r="E419" t="n">
-        <v>33162121.08707886</v>
+        <v>39548267.31202711</v>
       </c>
       <c r="F419" t="n">
-        <v>42471422.32440297</v>
+        <v>37715796.0045903</v>
       </c>
       <c r="G419" t="n">
-        <v>33222237.27307996</v>
+        <v>34582631.32472504</v>
       </c>
       <c r="H419" t="n">
-        <v>24530081.33789811</v>
+        <v>25134720.504641</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>83310864.89774171</v>
+        <v>139993468.2234067</v>
       </c>
       <c r="C420" t="n">
-        <v>27307210.84654552</v>
+        <v>44455385.71532422</v>
       </c>
       <c r="D420" t="n">
-        <v>21341011.54305707</v>
+        <v>35169885.69672494</v>
       </c>
       <c r="E420" t="n">
-        <v>33158803.64668151</v>
+        <v>39543851.20255014</v>
       </c>
       <c r="F420" t="n">
-        <v>42470508.63118555</v>
+        <v>37714984.84318526</v>
       </c>
       <c r="G420" t="n">
-        <v>33222140.9112625</v>
+        <v>34582531.01992924</v>
       </c>
       <c r="H420" t="n">
-        <v>28076394.47788129</v>
+        <v>28769135.35769155</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>82512070.54644249</v>
+        <v>138613380.7982504</v>
       </c>
       <c r="C421" t="n">
-        <v>27267559.54203959</v>
+        <v>44390847.54013018</v>
       </c>
       <c r="D421" t="n">
-        <v>21331245.59045307</v>
+        <v>35153793.44768839</v>
       </c>
       <c r="E421" t="n">
-        <v>33154980.28231377</v>
+        <v>39538772.12235022</v>
       </c>
       <c r="F421" t="n">
-        <v>42469426.54963894</v>
+        <v>37714024.185522</v>
       </c>
       <c r="G421" t="n">
-        <v>33222023.22328217</v>
+        <v>34582408.51629334</v>
       </c>
       <c r="H421" t="n">
-        <v>31632815.42272941</v>
+        <v>32414083.64498348</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>81702732.49771489</v>
+        <v>137216435.2234449</v>
       </c>
       <c r="C422" t="n">
-        <v>27224533.41957372</v>
+        <v>44320815.98906398</v>
       </c>
       <c r="D422" t="n">
-        <v>21320329.58924191</v>
+        <v>35135806.10967252</v>
       </c>
       <c r="E422" t="n">
-        <v>33150582.36963708</v>
+        <v>39532941.79964926</v>
       </c>
       <c r="F422" t="n">
-        <v>42468147.75841429</v>
+        <v>37712888.88695437</v>
       </c>
       <c r="G422" t="n">
-        <v>33221879.81656624</v>
+        <v>34582259.24148822</v>
       </c>
       <c r="H422" t="n">
-        <v>35199278.23945211</v>
+        <v>36069499.19835045</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>80882812.18832415</v>
+        <v>135802593.3988736</v>
       </c>
       <c r="C423" t="n">
-        <v>27177910.14699105</v>
+        <v>44244929.12496579</v>
       </c>
       <c r="D423" t="n">
-        <v>21308149.07680125</v>
+        <v>35115735.06114079</v>
       </c>
       <c r="E423" t="n">
-        <v>33145533.37106239</v>
+        <v>39526262.02346934</v>
       </c>
       <c r="F423" t="n">
-        <v>42466639.6970543</v>
+        <v>37711550.03907361</v>
       </c>
       <c r="G423" t="n">
-        <v>33221705.46859017</v>
+        <v>34582077.75926685</v>
       </c>
       <c r="H423" t="n">
-        <v>38775744.98393595</v>
+        <v>39735344.53340161</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>80052283.88351481</v>
+        <v>134371838.0729325</v>
       </c>
       <c r="C424" t="n">
-        <v>27127459.34017972</v>
+        <v>44162811.89978716</v>
       </c>
       <c r="D424" t="n">
-        <v>21294580.94616109</v>
+        <v>35093377.43493893</v>
       </c>
       <c r="E424" t="n">
-        <v>33139748.13603675</v>
+        <v>39518623.79694632</v>
       </c>
       <c r="F424" t="n">
-        <v>42464865.0265775</v>
+        <v>37709974.49075552</v>
       </c>
       <c r="G424" t="n">
-        <v>33221493.9862285</v>
+        <v>34581857.62305848</v>
       </c>
       <c r="H424" t="n">
-        <v>42362206.26013305</v>
+        <v>43411611.4282665</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>79211135.53560975</v>
+        <v>132924174.2089495</v>
       </c>
       <c r="C425" t="n">
-        <v>27072942.9241593</v>
+        <v>44074076.74216317</v>
       </c>
       <c r="D425" t="n">
-        <v>21279493.12951334</v>
+        <v>35068515.59664883</v>
       </c>
       <c r="E425" t="n">
-        <v>33133132.17010963</v>
+        <v>39509906.4572201</v>
       </c>
       <c r="F425" t="n">
-        <v>42462781.03759458</v>
+        <v>37708124.32261696</v>
       </c>
       <c r="G425" t="n">
-        <v>33221238.04456196</v>
+        <v>34581591.2081783</v>
       </c>
       <c r="H425" t="n">
-        <v>45958681.69810882</v>
+        <v>47098321.41934584</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>78359369.64476524</v>
+        <v>131459630.3550047</v>
       </c>
       <c r="C426" t="n">
-        <v>27014115.57157544</v>
+        <v>43978324.27100442</v>
       </c>
       <c r="D426" t="n">
-        <v>21262744.31176743</v>
+        <v>35040916.67244902</v>
       </c>
       <c r="E426" t="n">
-        <v>33125580.87591656</v>
+        <v>39499976.76629238</v>
       </c>
       <c r="F426" t="n">
-        <v>42460339.00347605</v>
+        <v>37705956.27267841</v>
       </c>
       <c r="G426" t="n">
-        <v>33220929.00277165</v>
+        <v>34581269.52018618</v>
       </c>
       <c r="H426" t="n">
-        <v>49565220.34507904</v>
+        <v>50795526.2080308</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>77497004.11752668</v>
+        <v>129978260.0101316</v>
       </c>
       <c r="C427" t="n">
-        <v>26950725.22185585</v>
+        <v>43875144.14040786</v>
       </c>
       <c r="D427" t="n">
-        <v>21244183.68025675</v>
+        <v>35010332.13654207</v>
       </c>
       <c r="E427" t="n">
-        <v>33116978.77003925</v>
+        <v>39488687.97824825</v>
       </c>
       <c r="F427" t="n">
-        <v>42457483.47641937</v>
+        <v>37703421.11132068</v>
       </c>
       <c r="G427" t="n">
-        <v>33220556.69459345</v>
+        <v>34580881.97676427</v>
       </c>
       <c r="H427" t="n">
-        <v>53181900.96333295</v>
+        <v>54503307.97211143</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>76624073.11855729</v>
+        <v>128480142.9794395</v>
       </c>
       <c r="C428" t="n">
-        <v>26882513.6838198</v>
+        <v>43764116.02043492</v>
       </c>
       <c r="D428" t="n">
-        <v>21223650.71699397</v>
+        <v>34976497.46869309</v>
       </c>
       <c r="E428" t="n">
-        <v>33107198.68058645</v>
+        <v>39475878.88930815</v>
       </c>
       <c r="F428" t="n">
-        <v>42454151.52468515</v>
+        <v>37700462.96399876</v>
       </c>
       <c r="G428" t="n">
-        <v>33220109.19065984</v>
+        <v>34580416.16033131</v>
       </c>
       <c r="H428" t="n">
-        <v>56808832.22868314</v>
+        <v>58221779.57533178</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>75740627.91065635</v>
+        <v>126965386.7102775</v>
       </c>
       <c r="C429" t="n">
-        <v>26809217.32400303</v>
+        <v>43644810.71744159</v>
       </c>
       <c r="D429" t="n">
-        <v>21200975.04011731</v>
+        <v>34939131.89282522</v>
       </c>
       <c r="E429" t="n">
-        <v>33096100.93127923</v>
+        <v>39461372.87830473</v>
       </c>
       <c r="F429" t="n">
-        <v>42450271.90979594</v>
+        <v>37697018.58064014</v>
       </c>
       <c r="G429" t="n">
-        <v>33219572.52992734</v>
+        <v>34579857.53847685</v>
       </c>
       <c r="H429" t="n">
-        <v>60446152.82281645</v>
+        <v>61951084.66827313</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>74846737.67795022</v>
+        <v>125434127.6011803</v>
       </c>
       <c r="C430" t="n">
-        <v>26730567.8423604</v>
+        <v>43516791.4366708</v>
       </c>
       <c r="D430" t="n">
-        <v>21175976.30135363</v>
+        <v>34897938.20792213</v>
       </c>
       <c r="E430" t="n">
-        <v>33083532.51881342</v>
+        <v>39444976.94635311</v>
       </c>
       <c r="F430" t="n">
-        <v>42445764.20312466</v>
+        <v>37693016.55121814</v>
       </c>
       <c r="G430" t="n">
-        <v>33218930.41728061</v>
+        <v>34579189.14918777</v>
       </c>
       <c r="H430" t="n">
-        <v>64094031.41265605</v>
+        <v>65691397.67347541</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>73942490.32693063</v>
+        <v>123886532.2749968</v>
       </c>
       <c r="C431" t="n">
-        <v>26646293.13634367</v>
+        <v>43379615.18873308</v>
       </c>
       <c r="D431" t="n">
-        <v>21148464.14644093</v>
+        <v>34852602.72267852</v>
       </c>
       <c r="E431" t="n">
-        <v>33069326.2912977</v>
+        <v>39426480.76568922</v>
       </c>
       <c r="F431" t="n">
-        <v>42440537.84205005</v>
+        <v>37688376.46765616</v>
       </c>
       <c r="G431" t="n">
-        <v>33218163.88432867</v>
+        <v>34578391.24775978</v>
       </c>
       <c r="H431" t="n">
-        <v>67752666.50956704</v>
+        <v>69442923.64741898</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>73027993.25983591</v>
+        <v>122322798.8073091</v>
       </c>
       <c r="C432" t="n">
-        <v>26556118.25362094</v>
+        <v>43232834.3404132</v>
       </c>
       <c r="D432" t="n">
-        <v>21118238.24549074</v>
+        <v>34802795.30540344</v>
       </c>
       <c r="E432" t="n">
-        <v>33053300.13661835</v>
+        <v>39405655.74887532</v>
       </c>
       <c r="F432" t="n">
-        <v>42434491.12672962</v>
+        <v>37683008.03299463</v>
       </c>
       <c r="G432" t="n">
-        <v>33217250.91036835</v>
+        <v>34577440.91224574</v>
       </c>
       <c r="H432" t="n">
-        <v>71422286.20095992</v>
+        <v>73205898.01170321</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>72103374.11472249</v>
+        <v>120743157.9010044</v>
       </c>
       <c r="C433" t="n">
-        <v>26459766.4329142</v>
+        <v>43075998.30895306</v>
       </c>
       <c r="D433" t="n">
-        <v>21085088.40022271</v>
+        <v>34748169.56060176</v>
       </c>
       <c r="E433" t="n">
-        <v>33035256.1906453</v>
+        <v>39382254.15079336</v>
       </c>
       <c r="F433" t="n">
-        <v>42427510.15954021</v>
+        <v>37676810.11963965</v>
       </c>
       <c r="G433" t="n">
-        <v>33216166.00049727</v>
+        <v>34576311.60429903</v>
       </c>
       <c r="H433" t="n">
-        <v>75103147.74657762</v>
+        <v>76980586.14548051</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>71168781.46646225</v>
+        <v>119147873.9976839</v>
       </c>
       <c r="C434" t="n">
-        <v>26356960.23158501</v>
+        <v>42908655.39758466</v>
       </c>
       <c r="D434" t="n">
-        <v>21048794.73486088</v>
+        <v>34688363.14342338</v>
       </c>
       <c r="E434" t="n">
-        <v>33014980.07625319</v>
+        <v>39356008.21704823</v>
       </c>
       <c r="F434" t="n">
-        <v>42419467.73036466</v>
+        <v>37669669.77951425</v>
       </c>
       <c r="G434" t="n">
-        <v>33214879.71791907</v>
+        <v>34574972.68233389</v>
       </c>
       <c r="H434" t="n">
-        <v>78795537.03147683</v>
+        <v>80767282.8309204</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>70224385.48282783</v>
+        <v>117537246.3164659</v>
       </c>
       <c r="C435" t="n">
-        <v>26247422.73770311</v>
+        <v>42730354.7686276</v>
       </c>
       <c r="D435" t="n">
-        <v>21009127.97723533</v>
+        <v>34622998.22276554</v>
       </c>
       <c r="E435" t="n">
-        <v>32992240.18516611</v>
+        <v>39326629.39355781</v>
       </c>
       <c r="F435" t="n">
-        <v>42410222.15216044</v>
+        <v>37661461.21004959</v>
       </c>
       <c r="G435" t="n">
-        <v>33213358.16760837</v>
+        <v>34573388.86405392</v>
       </c>
       <c r="H435" t="n">
-        <v>82499767.86746722</v>
+        <v>84566311.54322407</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>69270378.52979437</v>
+        <v>115911609.8106861</v>
       </c>
       <c r="C436" t="n">
-        <v>26130878.86339493</v>
+        <v>42540648.5489402</v>
       </c>
       <c r="D436" t="n">
-        <v>20965849.8362779</v>
+        <v>34551682.10322832</v>
       </c>
       <c r="E436" t="n">
-        <v>32966787.01562661</v>
+        <v>39293807.6131923</v>
       </c>
       <c r="F436" t="n">
-        <v>42399616.05262914</v>
+        <v>37652044.68118165</v>
       </c>
       <c r="G436" t="n">
-        <v>33211562.42870159</v>
+        <v>34571519.63560729</v>
       </c>
       <c r="H436" t="n">
-        <v>86216181.13452373</v>
+        <v>88378023.5764524</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>68306975.72019973</v>
+        <v>114271336.0330185</v>
       </c>
       <c r="C437" t="n">
-        <v>26007056.71529737</v>
+        <v>42339094.0609308</v>
       </c>
       <c r="D437" t="n">
-        <v>20918713.48163072</v>
+        <v>34474008.01534934</v>
       </c>
       <c r="E437" t="n">
-        <v>32938352.57981366</v>
+        <v>39257210.67631386</v>
       </c>
       <c r="F437" t="n">
-        <v>42387475.12930797</v>
+        <v>37641265.42985278</v>
       </c>
       <c r="G437" t="n">
-        <v>33209447.93326174</v>
+        <v>34569318.60492019</v>
       </c>
       <c r="H437" t="n">
-        <v>89945143.75348619</v>
+        <v>92202796.99622332</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>67334415.3999602</v>
+        <v>112616833.899626</v>
       </c>
       <c r="C438" t="n">
-        <v>25875689.03694651</v>
+        <v>42125256.17071455</v>
       </c>
       <c r="D438" t="n">
-        <v>20867464.13049744</v>
+        <v>34389556.08257325</v>
       </c>
       <c r="E438" t="n">
-        <v>32906649.89576854</v>
+        <v>39216483.74292994</v>
       </c>
       <c r="F438" t="n">
-        <v>42373606.87701834</v>
+        <v>37628952.52995035</v>
       </c>
       <c r="G438" t="n">
-        <v>33206963.78944117</v>
+        <v>34566732.79715145</v>
       </c>
       <c r="H438" t="n">
-        <v>93687047.48116899</v>
+        <v>96041035.41013646</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>66352959.56614757</v>
+        <v>110948550.3441244</v>
       </c>
       <c r="C439" t="n">
-        <v>25736514.71692114</v>
+        <v>41898709.74335705</v>
       </c>
       <c r="D439" t="n">
-        <v>20811839.74615593</v>
+        <v>34297894.47223969</v>
       </c>
       <c r="E439" t="n">
-        <v>32871372.57930575</v>
+        <v>39171248.95488065</v>
       </c>
       <c r="F439" t="n">
-        <v>42357799.29831594</v>
+        <v>37614917.74713328</v>
       </c>
       <c r="G439" t="n">
-        <v>33204052.04754489</v>
+        <v>34563701.89070991</v>
       </c>
       <c r="H439" t="n">
-        <v>97442307.51887858</v>
+        <v>99893166.54665276</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>65362894.21138605</v>
+        <v>109266970.8523912</v>
       </c>
       <c r="C440" t="n">
-        <v>25589280.35554876</v>
+        <v>41659042.19349775</v>
       </c>
       <c r="D440" t="n">
-        <v>20751571.85171742</v>
+        <v>34198580.73650012</v>
       </c>
       <c r="E440" t="n">
-        <v>32832194.55196194</v>
+        <v>39121105.2070023</v>
       </c>
       <c r="F440" t="n">
-        <v>42339819.60937807</v>
+        <v>37598954.38958733</v>
       </c>
       <c r="G440" t="n">
-        <v>33200646.90808923</v>
+        <v>34560157.39289168</v>
       </c>
       <c r="H440" t="n">
-        <v>101211360.9252394</v>
+        <v>103759640.6330566</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>64364529.58923615</v>
+        <v>107572619.8695867</v>
       </c>
       <c r="C441" t="n">
-        <v>25433741.88197937</v>
+        <v>41405856.11801448</v>
       </c>
       <c r="D441" t="n">
-        <v>20686386.46176226</v>
+        <v>34091163.34749942</v>
       </c>
       <c r="E441" t="n">
-        <v>32788769.88144275</v>
+        <v>39065628.0865133</v>
       </c>
       <c r="F441" t="n">
-        <v>42319412.95561239</v>
+        <v>37580836.16739161</v>
       </c>
       <c r="G441" t="n">
-        <v>33196673.87166197</v>
+        <v>34556021.75493572</v>
       </c>
       <c r="H441" t="n">
-        <v>104994664.824219</v>
+        <v>107640928.5631159</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>63358200.39548952</v>
+        <v>105866061.0711683</v>
       </c>
       <c r="C442" t="n">
-        <v>25269666.21245284</v>
+        <v>41138771.99579448</v>
       </c>
       <c r="D442" t="n">
-        <v>20616005.13340798</v>
+        <v>33975183.42938854</v>
       </c>
       <c r="E442" t="n">
-        <v>32740732.7712386</v>
+        <v>39004369.99992818</v>
       </c>
       <c r="F442" t="n">
-        <v>42296301.15315384</v>
+        <v>37560316.07485101</v>
       </c>
       <c r="G442" t="n">
-        <v>33192048.83123061</v>
+        <v>34551207.42717049</v>
       </c>
       <c r="H442" t="n">
-        <v>108792694.3992924</v>
+        <v>111537519.8451061</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>62344265.86060803</v>
+        <v>104147897.4901844</v>
       </c>
       <c r="C443" t="n">
-        <v>25096832.9396421</v>
+        <v>40857430.9381417</v>
       </c>
       <c r="D443" t="n">
-        <v>20540146.13717894</v>
+        <v>33850176.68777896</v>
       </c>
       <c r="E443" t="n">
-        <v>32687697.71607045</v>
+        <v>38936860.50658767</v>
       </c>
       <c r="F443" t="n">
-        <v>42270181.47430117</v>
+        <v>37537125.31182256</v>
       </c>
       <c r="G443" t="n">
-        <v>33186677.10851761</v>
+        <v>34545615.85593691</v>
       </c>
       <c r="H443" t="n">
-        <v>112605940.6648333</v>
+        <v>115449920.3210118</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>61323109.74890176</v>
+        <v>102418771.4937144</v>
       </c>
       <c r="C444" t="n">
-        <v>24915036.04206124</v>
+        <v>40561497.47189531</v>
       </c>
       <c r="D444" t="n">
-        <v>20458525.74675463</v>
+        <v>33715675.53511991</v>
       </c>
       <c r="E444" t="n">
-        <v>32629259.83956903</v>
+        <v>38862606.87737469</v>
       </c>
       <c r="F444" t="n">
-        <v>42240725.49679892</v>
+        <v>37510972.26171061</v>
       </c>
       <c r="G444" t="n">
-        <v>33180452.43717108</v>
+        <v>34539136.42512742</v>
       </c>
       <c r="H444" t="n">
-        <v>116434908.0060714</v>
+        <v>119378649.6479814</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>60295140.26045105</v>
+        <v>100679364.6019911</v>
       </c>
       <c r="C445" t="n">
-        <v>24724085.60169834</v>
+        <v>40250662.33598344</v>
       </c>
       <c r="D445" t="n">
-        <v>20370859.64528637</v>
+        <v>33571211.40819344</v>
       </c>
       <c r="E445" t="n">
-        <v>32564995.43006482</v>
+        <v>38781094.89634095</v>
       </c>
       <c r="F445" t="n">
-        <v>42207578.03865388</v>
+        <v>37481541.54538999</v>
       </c>
       <c r="G445" t="n">
-        <v>33173255.89670512</v>
+        <v>34531645.34647796</v>
       </c>
       <c r="H445" t="n">
-        <v>120280111.4793254</v>
+        <v>123324238.5334849</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>59260789.83223796</v>
+        <v>98930397.14448673</v>
       </c>
       <c r="C446" t="n">
-        <v>24523809.51728166</v>
+        <v>39924645.27091352</v>
       </c>
       <c r="D446" t="n">
-        <v>20276864.4445027</v>
+        <v>33416317.27150078</v>
       </c>
       <c r="E446" t="n">
-        <v>32494462.68954936</v>
+        <v>38691789.9217767</v>
       </c>
       <c r="F446" t="n">
-        <v>42170356.2018477</v>
+        <v>37448493.17180144</v>
       </c>
       <c r="G446" t="n">
-        <v>33164954.80256511</v>
+        <v>34523004.50418741</v>
       </c>
       <c r="H446" t="n">
-        <v>124142073.8647304</v>
+        <v>127287225.7161498</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>58220514.83545905</v>
+        <v>97172627.74806413</v>
       </c>
       <c r="C447" t="n">
-        <v>24314055.19992874</v>
+        <v>39583197.77962638</v>
       </c>
       <c r="D447" t="n">
-        <v>20176259.31128657</v>
+        <v>33250530.29777969</v>
       </c>
       <c r="E447" t="n">
-        <v>32417202.70974469</v>
+        <v>38594138.2217011</v>
       </c>
       <c r="F447" t="n">
-        <v>42128648.54982163</v>
+        <v>37411461.80730849</v>
       </c>
       <c r="G447" t="n">
-        <v>33155401.55918352</v>
+        <v>34513060.26101074</v>
       </c>
       <c r="H447" t="n">
-        <v>128021322.4643397</v>
+        <v>131268154.6849259</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>57174795.16654231</v>
+        <v>95406852.65319256</v>
       </c>
       <c r="C448" t="n">
-        <v>24094691.23737383</v>
+        <v>39226105.83723911</v>
       </c>
       <c r="D448" t="n">
-        <v>20068767.69482068</v>
+        <v>33073394.71427781</v>
       </c>
       <c r="E448" t="n">
-        <v>32332740.68777387</v>
+        <v>38487568.59682099</v>
       </c>
       <c r="F448" t="n">
-        <v>42082014.44491757</v>
+        <v>37370056.18706802</v>
       </c>
       <c r="G448" t="n">
-        <v>33144432.48452199</v>
+        <v>34501642.23466933</v>
       </c>
       <c r="H448" t="n">
-        <v>131918385.639314</v>
+        <v>135267570.1300871</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>56124133.72998263</v>
+        <v>93633904.85518438</v>
       </c>
       <c r="C449" t="n">
-        <v>23865609.01253264</v>
+        <v>38853192.52649029</v>
       </c>
       <c r="D449" t="n">
-        <v>19954119.14577927</v>
+        <v>32884464.80074018</v>
       </c>
       <c r="E449" t="n">
-        <v>32240587.39215324</v>
+        <v>38371494.30169617</v>
       </c>
       <c r="F449" t="n">
-        <v>42029983.57301359</v>
+        <v>37323858.69260172</v>
       </c>
       <c r="G449" t="n">
-        <v>33131866.61633174</v>
+        <v>34488562.0552295</v>
       </c>
       <c r="H449" t="n">
-        <v>135833789.080944</v>
+        <v>139286014.1206357</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>55069055.81173979</v>
+        <v>91854653.06843317</v>
       </c>
       <c r="C450" t="n">
-        <v>23626724.26185675</v>
+        <v>38464320.5752015</v>
       </c>
       <c r="D450" t="n">
-        <v>19832051.21741825</v>
+        <v>32683308.02238876</v>
       </c>
       <c r="E450" t="n">
-        <v>32140240.88772246</v>
+        <v>38245315.27216127</v>
       </c>
       <c r="F450" t="n">
-        <v>41972055.68333628</v>
+        <v>37272425.12041869</v>
       </c>
       <c r="G450" t="n">
-        <v>33117504.51218959</v>
+        <v>34473612.11599974</v>
       </c>
       <c r="H450" t="n">
-        <v>139768051.8114675</v>
+        <v>143324022.0039209</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>54010108.34260474</v>
+        <v>90070000.51270874</v>
       </c>
       <c r="C451" t="n">
-        <v>23377978.55876259</v>
+        <v>38059394.77179614</v>
       </c>
       <c r="D451" t="n">
-        <v>19702311.43680302</v>
+        <v>32469508.278514</v>
       </c>
       <c r="E451" t="n">
-        <v>32031188.52569592</v>
+        <v>38108420.66399537</v>
       </c>
       <c r="F451" t="n">
-        <v>41907700.57182103</v>
+        <v>37215284.66688345</v>
       </c>
       <c r="G451" t="n">
-        <v>33101127.05725722</v>
+        <v>34456564.3324651</v>
       </c>
       <c r="H451" t="n">
-        <v>143721681.9121161</v>
+        <v>147382118.0248007</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>52947859.05163024</v>
+        <v>88280883.52168481</v>
       </c>
       <c r="C452" t="n">
-        <v>23119340.70740225</v>
+        <v>37638364.23488714</v>
       </c>
       <c r="D452" t="n">
-        <v>19564659.33283959</v>
+        <v>32242669.24470461</v>
       </c>
       <c r="E452" t="n">
-        <v>31912909.2022662</v>
+        <v>37960191.70441833</v>
       </c>
       <c r="F452" t="n">
-        <v>41836358.33636916</v>
+        <v>37151940.15450604</v>
       </c>
       <c r="G452" t="n">
-        <v>33082494.29563983</v>
+        <v>34437168.92578518</v>
       </c>
       <c r="H452" t="n">
-        <v>147695171.9775108</v>
+        <v>151460810.663399</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
@@ -480,7 +480,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24028464.63151348</v>
+        <v>9756111.489749428</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -506,7 +506,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>24056520.85098809</v>
+        <v>9767514.993117144</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>24084950.05084896</v>
+        <v>9779082.3559206</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>24113756.99783322</v>
+        <v>9790815.91680751</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>24142946.50667189</v>
+        <v>9802718.047362497</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>24172523.43967967</v>
+        <v>9814791.152559174</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>24202492.70628329</v>
+        <v>9827037.671218082</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -662,7 +662,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>24232859.26248576</v>
+        <v>9839460.076470619</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>24263628.11026451</v>
+        <v>9852060.876229042</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>24294804.29690072</v>
+        <v>9864842.613662552</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>24326392.91423771</v>
+        <v>9877807.867679562</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>24358399.09786637</v>
+        <v>9890959.253416283</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>24390828.02623516</v>
+        <v>9904299.42273156</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>24423684.91968303</v>
+        <v>9917831.064708224</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>24456975.03939336</v>
+        <v>9931556.90616083</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>24490703.68626693</v>
+        <v>9945479.712150035</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>24524876.1997129</v>
+        <v>9959602.286503583</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>24559497.95635588</v>
+        <v>9973927.472343985</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>24594574.36865849</v>
+        <v>9988458.152623059</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>24630110.88345805</v>
+        <v>10003197.25066327</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>24666112.98041714</v>
+        <v>10018147.73070612</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>24702586.17038728</v>
+        <v>10033312.59846746</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>24739535.99368585</v>
+        <v>10048694.90170001</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>24776968.01828664</v>
+        <v>10064297.73076307</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>24814887.83792418</v>
+        <v>10080124.21919947</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>24853301.07011318</v>
+        <v>10096177.54431995</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>24892213.35408416</v>
+        <v>10112460.92779494</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>24931630.34863725</v>
+        <v>10128977.63625392</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>24971557.72991603</v>
+        <v>10145730.9818924</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>25012001.18910453</v>
+        <v>10162724.32308664</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>25052966.4300498</v>
+        <v>10179961.06501609</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>25094459.16681446</v>
+        <v>10197444.66029388</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>25136485.12116287</v>
+        <v>10215178.60960512</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>25179050.0199858</v>
+        <v>10233166.46235343</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>25222159.59266877</v>
+        <v>10251411.81731558</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>25265819.5684102</v>
+        <v>10269918.3233044</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>25310035.67349544</v>
+        <v>10288689.67984004</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>25354813.6285339</v>
+        <v>10307729.63782971</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>25400159.1456673</v>
+        <v>10327042.00025603</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>25446077.92575694</v>
+        <v>10346630.62287393</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>25492575.65555901</v>
+        <v>10366499.41491641</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>25539658.0048982</v>
+        <v>10386652.33980904</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>25587330.62384927</v>
+        <v>10407093.41589361</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>25635599.13993783</v>
+        <v>10427826.71716062</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>25684469.15537226</v>
+        <v>10448856.37399116</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>25733946.24431853</v>
+        <v>10470186.57390788</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>25784035.95023175</v>
+        <v>10491821.56233546</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>25834743.78325718</v>
+        <v>10513765.64337057</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>25886075.21771586</v>
+        <v>10536023.18056138</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>25938035.68968909</v>
+        <v>10558598.59769685</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>25990630.59471782</v>
+        <v>10581496.37960582</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>26043865.28563257</v>
+        <v>10604721.07296606</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>26097745.07053096</v>
+        <v>10628277.28712338</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>26152275.21091978</v>
+        <v>10652169.69492096</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>26207460.9200392</v>
+        <v>10676403.03353897</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>26263307.36138739</v>
+        <v>10700982.10534455</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>26319819.64746406</v>
+        <v>10725911.7787525</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>26377002.83875139</v>
+        <v>10751196.98909654</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>26434861.94295207</v>
+        <v>10776842.73951141</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>26493401.91450316</v>
+        <v>10802854.1018259</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>26552627.65438606</v>
+        <v>10829236.21746703</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>26612544.01025142</v>
+        <v>10855994.2983753</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>26673155.7768796</v>
+        <v>10883133.62793152</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>26734467.6969954</v>
+        <v>10910659.5618949</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>26796484.46245761</v>
+        <v>10938577.52935287</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>26859210.71584187</v>
+        <v>10966893.0336828</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2196,7 +2196,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>26922651.05243653</v>
+        <v>10995611.65352543</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>26986810.02267018</v>
+        <v>11024739.04377054</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>27051692.13498894</v>
+        <v>11054280.93655487</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>27117301.8592015</v>
+        <v>11084243.14227229</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>27183643.63030897</v>
+        <v>11114631.55059676</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>27250721.85283601</v>
+        <v>11145452.13151778</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>27318540.90567871</v>
+        <v>11176710.9363889</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>27387105.14748418</v>
+        <v>11208414.09898917</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>27456418.92257515</v>
+        <v>11240567.83659802</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>27526486.56743241</v>
+        <v>11273178.45108328</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>27597312.41774637</v>
+        <v>11306252.33000314</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>27668900.81604759</v>
+        <v>11339795.94772163</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>27741256.11992517</v>
+        <v>11373815.86653819</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>27814382.71083979</v>
+        <v>11408318.73783153</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>27888285.0035374</v>
+        <v>11443311.30321767</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>27962967.45606667</v>
+        <v>11478800.3957228</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>28038434.5804032</v>
+        <v>11514792.94097076</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>28114690.95367984</v>
+        <v>11551295.95838574</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>28191741.23002224</v>
+        <v>11588316.5624101</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>28269590.15298514</v>
+        <v>11625861.96373771</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>28348242.56858418</v>
+        <v>11663939.47056307</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>28427703.43891569</v>
+        <v>11702556.48984639</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>28507977.85635339</v>
+        <v>11741720.52859485</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>28589071.05831083</v>
+        <v>11781439.19516036</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>28670988.44255459</v>
+        <v>11821720.20055422</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>28753735.58305143</v>
+        <v>11862571.35977852</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>28837318.24633061</v>
+        <v>11904000.5931751</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>28921742.40834</v>
+        <v>11946015.92779211</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>29007014.27177176</v>
+        <v>11988625.49876824</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>29093140.28383271</v>
+        <v>12031837.55073547</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>29180127.15442986</v>
+        <v>12075660.43924019</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>29267981.87474174</v>
+        <v>12120102.63218319</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>29356711.73614222</v>
+        <v>12165172.71127895</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>29446324.34944189</v>
+        <v>12210879.37353439</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>29536827.66441048</v>
+        <v>12257231.43274767</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>29628229.98954114</v>
+        <v>12304237.82102726</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>29720540.01201535</v>
+        <v>12351907.59033164</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>29813766.81782633</v>
+        <v>12400249.91403015</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>29907919.91201599</v>
+        <v>12449274.08848552</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>30003009.23897941</v>
+        <v>12498989.53465804</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>30099045.2027893</v>
+        <v>12549405.79973246</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>30196038.68749156</v>
+        <v>12600532.55876756</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>30294001.07732156</v>
+        <v>12652379.61636917</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>30392944.27678999</v>
+        <v>12704956.90838696</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>30492880.73058654</v>
+        <v>12758274.50363572</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>30593823.44324783</v>
+        <v>12812342.60564146</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>30695785.99853704</v>
+        <v>12867171.55441295</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>30798782.57848101</v>
+        <v>12922771.82823937</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>30902827.98201116</v>
+        <v>12979154.04551456</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>31007937.64315454</v>
+        <v>13036328.96658856</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>31114127.6487213</v>
+        <v>13094307.49564697</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>31221414.75543558</v>
+        <v>13153100.68261898</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>31329816.40645734</v>
+        <v>13212719.72511458</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>31439350.74724403</v>
+        <v>13273175.9703918</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>31550036.6407011</v>
+        <v>13334480.91735465</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>31661893.68157279</v>
+        <v>13396646.21858264</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>31774942.21002558</v>
+        <v>13459683.68239246</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>31889203.32437817</v>
+        <v>13523605.27493299</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>32004698.89293487</v>
+        <v>13588423.12231421</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>32121451.56488007</v>
+        <v>13654149.51277107</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>32239484.78019498</v>
+        <v>13720796.89886321</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>32358822.7785599</v>
+        <v>13788377.89971155</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>32479490.60720796</v>
+        <v>13856905.30327276</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>32601514.12769925</v>
+        <v>13926392.06865251</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>32724920.02158783</v>
+        <v>13996851.3284588</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>32849735.79495662</v>
+        <v>14068296.39119653</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>32975989.7817993</v>
+        <v>14140740.74370418</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>33103711.14623128</v>
+        <v>14214198.05363425</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>33232929.8835163</v>
+        <v>14288682.17197834</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>33363676.8198976</v>
+        <v>14364207.13563848</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>33495983.61122905</v>
+        <v>14440787.17004608</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>33629882.74040204</v>
+        <v>14518436.69182964</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>33765407.51357169</v>
+        <v>14597170.31153303</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>33902592.05518735</v>
+        <v>14677002.83638585</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>34041471.30183782</v>
+        <v>14757949.27312723</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>34182080.99492566</v>
+        <v>14840024.83088502</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>34324457.6721888</v>
+        <v>14923244.92411199</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>34468638.65809266</v>
+        <v>15007625.17558084</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4224,7 +4224,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>34614662.05311894</v>
+        <v>15093181.41943988</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>34762566.72198245</v>
+        <v>15179929.70433137</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4276,7 +4276,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>34912392.2808109</v>
+        <v>15267886.29657455</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>35064179.08332626</v>
+        <v>15357067.68341539</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>35217968.20607121</v>
+        <v>15447490.57634535</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>35373801.43272627</v>
+        <v>15539171.91449121</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>35531721.23756877</v>
+        <v>15632128.86807873</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>35691770.76812671</v>
+        <v>15726378.84197193</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4432,7 +4432,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>35853993.82708502</v>
+        <v>15821939.47929133</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>36018434.85350388</v>
+        <v>15918828.66511307</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>36185138.90341314</v>
+        <v>16017064.53025192</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>36354151.62984797</v>
+        <v>16116665.45513136</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>36525519.26239476</v>
+        <v>16217650.07374287</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>36699288.58631855</v>
+        <v>16320037.2776983</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>36875506.92134417</v>
+        <v>16423846.22037804</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>37054222.10016728</v>
+        <v>16529096.3211782</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>37235482.44677102</v>
+        <v>16635807.2698606</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>37419336.75462676</v>
+        <v>16743999.03100871</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>37605834.2648586</v>
+        <v>16853691.84859345</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>37795024.64445084</v>
+        <v>16964906.25065247</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>37986957.96458033</v>
+        <v>17077663.05408679</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>38181684.67915414</v>
+        <v>17191983.36957933</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>38379255.60363438</v>
+        <v>17307888.60663879</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>38579721.89423079</v>
+        <v>17425400.47877397</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>38783135.02754278</v>
+        <v>17544541.00880251</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4874,7 +4874,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>38989546.78073025</v>
+        <v>17665332.53429902</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>39199009.21229272</v>
+        <v>17787797.71318749</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>39411574.64353528</v>
+        <v>17911959.52948253</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>39627295.64079751</v>
+        <v>18037841.29918543</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>39846224.99852081</v>
+        <v>18165466.67633933</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>40068415.72322726</v>
+        <v>18294859.65925022</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>40293921.01848152</v>
+        <v>18426044.59687835</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>40522794.2709043</v>
+        <v>18559046.19540692</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>40755089.03730451</v>
+        <v>18693889.52499356</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>40990859.03299335</v>
+        <v>18830600.02671104</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>41230158.12134235</v>
+        <v>18969203.51968393</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>41473040.30464244</v>
+        <v>19109726.20842761</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>41719559.71632063</v>
+        <v>19252194.69039693</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>41969770.61456474</v>
+        <v>19396635.96375125</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>42223727.37740618</v>
+        <v>19543077.43534362</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>42481484.49930543</v>
+        <v>19691546.92894153</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>42743096.58928157</v>
+        <v>19842072.69368695</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>43008618.37062597</v>
+        <v>19994683.41280407</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>43278104.6822322</v>
+        <v>20149408.21256253</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>43551610.48157618</v>
+        <v>20306276.67150533</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>43829190.84937198</v>
+        <v>20465318.82994959</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>44110900.99592818</v>
+        <v>20626565.19976958</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>44396796.26922549</v>
+        <v>20790046.77447134</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>44686932.1647315</v>
+        <v>20955795.03956803</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>44981364.33696708</v>
+        <v>21123841.9832665</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>45280148.61283316</v>
+        <v>21294220.10747435</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>45583341.00670561</v>
+        <v>21466962.43913847</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>45890997.73730076</v>
+        <v>21642102.54192539</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>46203175.24631184</v>
+        <v>21819674.52825409</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>46519930.21881335</v>
+        <v>21999713.07169281</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>46841319.60542816</v>
+        <v>22182253.41973091</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>47167400.64624732</v>
+        <v>22367331.40693752</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>47498230.89649241</v>
+        <v>22554983.468519</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -5732,7 +5732,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>47833868.25389636</v>
+        <v>22745246.6542871</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>48174370.9878142</v>
+        <v>22938158.64305057</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>48519797.77001841</v>
+        <v>23133757.75744253</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>48870207.7071679</v>
+        <v>23332082.97919692</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>49225660.37492676</v>
+        <v>23533173.9648868</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>49586215.85370994</v>
+        <v>23737071.06213822</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>49951934.76602903</v>
+        <v>23943815.32633283</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>50322878.31541208</v>
+        <v>24153448.53781379</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>50699108.32686832</v>
+        <v>24366013.21960827</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>51080687.2888694</v>
+        <v>24581552.6556812</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>51467678.39681545</v>
+        <v>24800110.90973464</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>51860145.59795728</v>
+        <v>25021732.84456745</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>52258153.63774097</v>
+        <v>25246464.1420096</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>52661768.10754453</v>
+        <v>25474351.3234467</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>53071055.49377393</v>
+        <v>25705441.77094904</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>53486083.22828634</v>
+        <v>25939783.74902083</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>53906919.74010793</v>
+        <v>26177426.42698428</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>54333634.50841556</v>
+        <v>26418419.90201446</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>54766298.11674788</v>
+        <v>26662815.2228392</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>55204982.30841748</v>
+        <v>26910664.41412038</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>55649760.0430899</v>
+        <v>27162020.50153065</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>56100705.55450134</v>
+        <v>27416937.53754197</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>56557894.40928335</v>
+        <v>27675470.62793937</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>57021403.56686582</v>
+        <v>27937675.95907666</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>57491311.44042923</v>
+        <v>28203610.82588694</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>57967697.95887798</v>
+        <v>28473333.66066355</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>58450644.62980735</v>
+        <v>28746904.0626247</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>58940234.60343747</v>
+        <v>29024382.82827651</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>59436552.73748766</v>
+        <v>29305831.98258653</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>59939685.66296577</v>
+        <v>29591314.81098149</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>60449721.85084805</v>
+        <v>29880895.89218163</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>60966751.67962395</v>
+        <v>30174641.13188243</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>61490867.5036827</v>
+        <v>30472617.79729595</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6590,7 +6590,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>62022163.72251716</v>
+        <v>30774894.55256098</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>62560736.85072168</v>
+        <v>31081541.49503212</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>63106685.5887602</v>
+        <v>31392630.19245595</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6668,7 +6668,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>63660110.89448104</v>
+        <v>31708233.72104185</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>64221116.05535391</v>
+        <v>32028426.70443346</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>64789806.76140548</v>
+        <v>32353285.35358654</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>65366291.17882803</v>
+        <v>32682887.50755639</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>65950680.0242352</v>
+        <v>33017312.67519713</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>66543086.6395382</v>
+        <v>33356642.07777412</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6824,7 +6824,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>67143627.06741379</v>
+        <v>33700958.69248754</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>67752420.127335</v>
+        <v>34050347.29690544</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>68369587.4921318</v>
+        <v>34404894.51430041</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>68995253.76504889</v>
+        <v>34764688.85988358</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>69629546.55726415</v>
+        <v>35129820.78792636</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>70272596.56582856</v>
+        <v>35500382.73975836</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>70924537.65198629</v>
+        <v>35876469.19262721</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>71585506.91982888</v>
+        <v>36258176.70940299</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>72255644.79523559</v>
+        <v>36645603.98910773</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>72935095.10504571</v>
+        <v>37038851.91824616</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>73624005.15640628</v>
+        <v>37438023.62291134</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>74322525.81623279</v>
+        <v>37843224.52163552</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>75030811.59071475</v>
+        <v>38254562.37895165</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>75749020.70479417</v>
+        <v>38672147.35962817</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>76477315.18153755</v>
+        <v>39096092.08353505</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>77215860.92131548</v>
+        <v>39526511.68109415</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>77964827.78069918</v>
+        <v>39963523.84926347</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>78724389.65097284</v>
+        <v>40407248.90799882</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>79494724.53615703</v>
+        <v>40857809.85713132</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>80276014.63042617</v>
+        <v>41315332.43359582</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>81068446.39479843</v>
+        <v>41779945.16893543</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>81872210.63296443</v>
+        <v>42251779.44700654</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>82687502.56611505</v>
+        <v>42730969.56179846</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>83514521.90661483</v>
+        <v>43217652.7752775</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>84353472.93036196</v>
+        <v>43711969.37515786</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>85204564.54766159</v>
+        <v>44214062.73249478</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>86068010.37243043</v>
+        <v>44724079.35898881</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7526,7 +7526,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>86944028.78953794</v>
+        <v>45242168.96388085</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>87832843.02007952</v>
+        <v>45768484.5103123</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>88734681.18436332</v>
+        <v>46303182.27101388</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7604,7 +7604,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>89649776.36237961</v>
+        <v>46846421.88318072</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>90578366.65151231</v>
+        <v>47398366.40238117</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>91520695.22123472</v>
+        <v>47959182.35533875</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>92477010.36452025</v>
+        <v>48529039.79141714</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>93447565.54568823</v>
+        <v>49108112.33262935</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>94432619.44438401</v>
+        <v>49696577.22198176</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>95432435.99538726</v>
+        <v>50294615.36995563</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>96447284.42392053</v>
+        <v>50902411.39891647</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>97477439.27612172</v>
+        <v>51520153.68523412</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>98523180.44432585</v>
+        <v>52148034.39888393</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>99584793.18678963</v>
+        <v>52786249.54029126</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>100662568.1414765</v>
+        <v>53434998.97416853</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>101756801.3335076</v>
+        <v>54094486.46008641</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>102867794.1758661</v>
+        <v>54764919.67950796</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>103995853.4629351</v>
+        <v>55446510.25900538</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>105141291.3564285</v>
+        <v>56139473.78936784</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>106304425.3632652</v>
+        <v>56844029.840299</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>107485578.3049257</v>
+        <v>57560401.97039207</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>108685078.2778122</v>
+        <v>58288817.73206149</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>109903258.604129</v>
+        <v>59029508.67109811</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>111140457.7727817</v>
+        <v>59782710.32050814</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>112397019.3697918</v>
+        <v>60548662.1882857</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>113673291.9977058</v>
+        <v>61327607.73875846</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8202,7 +8202,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>114969629.1834763</v>
+        <v>62119794.36714153</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>116286389.2742824</v>
+        <v>62925473.36692365</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8254,7 +8254,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>117623935.3207526</v>
+        <v>63744899.88970444</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>118982634.9470477</v>
+        <v>64578332.89709485</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>119899424.6543854</v>
+        <v>65276355.49396768</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>120831811.2490246</v>
+        <v>65986539.69569942</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>121780081.6140879</v>
+        <v>66709114.57605489</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>122744525.7390878</v>
+        <v>67444312.20133808</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>123725436.5675488</v>
+        <v>68192367.54839109</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>124723109.8327654</v>
+        <v>68953518.41384211</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>125737843.8813135</v>
+        <v>69728005.31426442</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>126769939.4839389</v>
+        <v>70516071.37691242</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>127819699.6334551</v>
+        <v>71317962.22070003</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>128887429.3292989</v>
+        <v>72133925.82709911</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>129973435.3484041</v>
+        <v>72964212.400638</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>131078026.0020693</v>
+        <v>73809074.21868962</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>132201510.8785172</v>
+        <v>74668765.47025132</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>133344200.5708641</v>
+        <v>75543542.08342943</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>134506406.3902399</v>
+        <v>76433661.54135512</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>135688440.0638305</v>
+        <v>77339382.68627734</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>136890613.4176377</v>
+        <v>78260965.51159352</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>138113238.043791</v>
+        <v>79198670.94160119</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>139356624.9522752</v>
+        <v>80152760.59877808</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>140621084.2069804</v>
+        <v>81123496.55841869</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>141906924.5460185</v>
+        <v>82111141.09048834</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>143214452.986296</v>
+        <v>83115956.38858035</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>144543974.4123829</v>
+        <v>84138204.28589885</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>145895791.1497603</v>
+        <v>85178145.95822079</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>147270202.5225907</v>
+        <v>86236041.61382928</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>148667504.3962058</v>
+        <v>87312150.17045145</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>150087988.704566</v>
+        <v>88406728.91927181</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>151531942.9630088</v>
+        <v>89520033.17614186</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>152999649.7666666</v>
+        <v>90652315.9201491</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>154491386.2750012</v>
+        <v>91803827.4197598</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>156007423.6829706</v>
+        <v>92974814.84680007</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>157548026.6794153</v>
+        <v>94165521.87859474</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>159113452.8933249</v>
+        <v>95376188.28863515</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>160703952.3287191</v>
+        <v>96607049.52620946</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>162319766.7889542</v>
+        <v>97858336.28548211</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>163961129.2913439</v>
+        <v>99130274.0645742</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>165628263.4730573</v>
+        <v>100423082.7152523</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>167321382.9893429</v>
+        <v>101736975.9839024</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>169040690.9051967</v>
+        <v>103072161.0445232</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>170786379.0816769</v>
+        <v>104428838.0245382</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>172558627.5581426</v>
+        <v>105807199.5242908</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>174357603.9317683</v>
+        <v>107207430.131149</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>176183462.7357641</v>
+        <v>108629705.92921</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>178036344.8177968</v>
+        <v>110074194.0056545</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>179916376.720183</v>
+        <v>111541051.9548666</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>181823670.0634864</v>
+        <v>113030427.381487</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>183758320.9352134</v>
+        <v>114542457.4036326</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>185720409.2853615</v>
+        <v>116077268.1575604</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>187709998.3306223</v>
+        <v>117634974.3051146</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>189727133.9690952</v>
+        <v>119215678.5453372</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>191771844.2073959</v>
+        <v>120819471.1316695</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>193844138.6020952</v>
+        <v>122446429.3962106</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>195944007.7174316</v>
+        <v>124096617.2825355</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>198071422.6012765</v>
+        <v>125770084.888605</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>200226334.2813295</v>
+        <v>127466868.0213228</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>199565699.5724526</v>
+        <v>127115645.3330618</v>
       </c>
       <c r="C358" t="n">
-        <v>2776074.969043881</v>
+        <v>2120495.132681775</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>198898441.3208344</v>
+        <v>126760281.626218</v>
       </c>
       <c r="C359" t="n">
-        <v>5585373.474988149</v>
+        <v>4269126.018944059</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>198224457.6799003</v>
+        <v>126400702.6205219</v>
       </c>
       <c r="C360" t="n">
-        <v>8427887.409535415</v>
+        <v>6445958.875186722</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>197543644.4429151</v>
+        <v>126036832.0690583</v>
       </c>
       <c r="C361" t="n">
-        <v>11303589.69286929</v>
+        <v>8651045.628523767</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>196855894.9978431</v>
+        <v>125668591.7078803</v>
       </c>
       <c r="C362" t="n">
-        <v>14212433.9516787</v>
+        <v>10884423.59630216</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>196161100.2808544</v>
+        <v>125295901.2043836</v>
       </c>
       <c r="C363" t="n">
-        <v>17154354.22955885</v>
+        <v>13146115.18853194</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>195459148.728505</v>
+        <v>124918678.1044921</v>
       </c>
       <c r="C364" t="n">
-        <v>20129264.73152061</v>
+        <v>15436127.63475353</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>194749926.2286516</v>
+        <v>124536837.778729</v>
       </c>
       <c r="C365" t="n">
-        <v>23137059.60424541</v>
+        <v>17754452.73681116</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>194033316.070175</v>
+        <v>124150293.3672638</v>
       </c>
       <c r="C366" t="n">
-        <v>26177612.75362471</v>
+        <v>20101066.64894167</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>193309198.8916276</v>
+        <v>123758955.7240503</v>
       </c>
       <c r="C367" t="n">
-        <v>29250777.70101169</v>
+        <v>22475929.68651678</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>192577452.6289448</v>
+        <v>123362733.3601944</v>
       </c>
       <c r="C368" t="n">
-        <v>32356387.47947815</v>
+        <v>24878986.1646886</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>191837952.4623979</v>
+        <v>122961532.3867186</v>
       </c>
       <c r="C369" t="n">
-        <v>35494254.57123748</v>
+        <v>27310164.26809981</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>191090570.7630089</v>
+        <v>122555256.4569192</v>
       </c>
       <c r="C370" t="n">
-        <v>38664170.88723285</v>
+        <v>29769375.9527091</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>190335177.0386818</v>
+        <v>122143806.708545</v>
       </c>
       <c r="C371" t="n">
-        <v>41865907.78972799</v>
+        <v>32256516.88067047</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>189571637.8803636</v>
+        <v>121727081.7060594</v>
       </c>
       <c r="C372" t="n">
-        <v>45099216.15855844</v>
+        <v>34771466.38907798</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>188799816.908586</v>
+        <v>121304977.3832885</v>
       </c>
       <c r="C373" t="n">
-        <v>45098955.83928412</v>
+        <v>34771266.53862128</v>
       </c>
       <c r="D373" t="n">
-        <v>3388871.049848082</v>
+        <v>2718536.738252207</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>188019574.7208037</v>
+        <v>120877386.9867958</v>
       </c>
       <c r="C374" t="n">
-        <v>45098654.63043553</v>
+        <v>34771035.28460226</v>
       </c>
       <c r="D374" t="n">
-        <v>6809833.613546507</v>
+        <v>5466526.968423937</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>187230768.8399951</v>
+        <v>120444201.020366</v>
       </c>
       <c r="C375" t="n">
-        <v>45098306.55987818</v>
+        <v>34770768.0383164</v>
       </c>
       <c r="D375" t="n">
-        <v>10262569.39338635</v>
+        <v>8243794.407195001</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>186433253.6650589</v>
+        <v>120005307.1910304</v>
       </c>
       <c r="C376" t="n">
-        <v>45097904.85749839</v>
+        <v>34770459.59760308</v>
       </c>
       <c r="D376" t="n">
-        <v>13746740.42391416</v>
+        <v>11050146.21432034</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>185626880.4236027</v>
+        <v>119560590.3571097</v>
       </c>
       <c r="C377" t="n">
-        <v>45097441.86020856</v>
+        <v>34770104.07376886</v>
       </c>
       <c r="D377" t="n">
-        <v>17261989.4721028</v>
+        <v>13885373.22589498</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>184811497.1277886</v>
+        <v>119109932.4788037</v>
       </c>
       <c r="C378" t="n">
-        <v>45096908.90736943</v>
+        <v>34769694.81113171</v>
       </c>
       <c r="D378" t="n">
-        <v>20807940.49224333</v>
+        <v>16749250.23349152</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>183986948.533977</v>
+        <v>118653212.5719101</v>
       </c>
       <c r="C379" t="n">
-        <v>45096296.22590635</v>
+        <v>34769224.29862911</v>
       </c>
       <c r="D379" t="n">
-        <v>24384199.13536312</v>
+        <v>19641536.30940586</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>183153076.1069808</v>
+        <v>118190306.6653102</v>
       </c>
       <c r="C380" t="n">
-        <v>45095592.80437565</v>
+        <v>34768684.07291604</v>
       </c>
       <c r="D380" t="n">
-        <v>27990353.3127334</v>
+        <v>22561975.1780561</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>182309717.989826</v>
+        <v>117721087.7629149</v>
       </c>
       <c r="C381" t="n">
-        <v>45094786.25522123</v>
+        <v>34768064.6123665</v>
       </c>
       <c r="D381" t="n">
-        <v>31625973.81277846</v>
+        <v>25510295.63338011</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>181456708.9799921</v>
+        <v>117245425.8108276</v>
       </c>
       <c r="C382" t="n">
-        <v>45093862.6644503</v>
+        <v>34767355.2213835</v>
       </c>
       <c r="D382" t="n">
-        <v>35290614.97043681</v>
+        <v>28486212.00186782</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>180593880.513192</v>
+        <v>116763187.6705364</v>
       </c>
       <c r="C383" t="n">
-        <v>45092806.4279536</v>
+        <v>34766543.90441952</v>
       </c>
       <c r="D383" t="n">
-        <v>35290548.71772115</v>
+        <v>28486158.64943231</v>
       </c>
       <c r="E383" t="n">
-        <v>3833183.880060812</v>
+        <v>3356997.075403923</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>179721060.6558356</v>
+        <v>116274237.0990138</v>
       </c>
       <c r="C384" t="n">
-        <v>45091600.0736981</v>
+        <v>34765617.22911116</v>
       </c>
       <c r="D384" t="n">
-        <v>35290469.73405181</v>
+        <v>28486095.04296857</v>
       </c>
       <c r="E384" t="n">
-        <v>7695403.248201334</v>
+        <v>6744166.996572085</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>178838074.1074066</v>
+        <v>115778434.736661</v>
       </c>
       <c r="C385" t="n">
-        <v>45090224.06903271</v>
+        <v>34764560.17794127</v>
       </c>
       <c r="D385" t="n">
-        <v>35290375.73055182</v>
+        <v>28486019.33852907</v>
       </c>
       <c r="E385" t="n">
-        <v>11586149.20073493</v>
+        <v>10161147.59379066</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>177944742.2140708</v>
+        <v>115275638.1041006</v>
       </c>
       <c r="C386" t="n">
-        <v>45088656.61236928</v>
+        <v>34763355.98785824</v>
       </c>
       <c r="D386" t="n">
-        <v>35290264.03821643</v>
+        <v>28485929.38585627</v>
       </c>
       <c r="E386" t="n">
-        <v>15504899.48672037</v>
+        <v>13607563.43184853</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>177040882.9949169</v>
+        <v>114765701.6088791</v>
       </c>
       <c r="C387" t="n">
-        <v>45086873.40853416</v>
+        <v>34761985.97730759</v>
       </c>
       <c r="D387" t="n">
-        <v>35290131.55072476</v>
+        <v>28485822.68228664</v>
       </c>
       <c r="E387" t="n">
-        <v>19451119.51125522</v>
+        <v>17083026.61928487</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>176126311.1823207</v>
+        <v>114248476.5632037</v>
       </c>
       <c r="C388" t="n">
-        <v>45084847.42713097</v>
+        <v>34760429.36016535</v>
       </c>
       <c r="D388" t="n">
-        <v>35289974.65971259</v>
+        <v>28485696.32057565</v>
       </c>
       <c r="E388" t="n">
-        <v>23424263.38884629</v>
+        <v>20587137.6676071</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>175200838.2780017</v>
+        <v>113723811.213899</v>
       </c>
       <c r="C389" t="n">
-        <v>45082548.64331444</v>
+        <v>34758663.04610836</v>
       </c>
       <c r="D389" t="n">
-        <v>35289789.1816929</v>
+        <v>28485546.92998797</v>
       </c>
       <c r="E389" t="n">
-        <v>27423775.04460582</v>
+        <v>24119486.39893585</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>174264272.6264234</v>
+        <v>113191550.7858225</v>
       </c>
       <c r="C390" t="n">
-        <v>45079943.76044922</v>
+        <v>34756661.42701329</v>
       </c>
       <c r="D390" t="n">
-        <v>35289570.27575243</v>
+        <v>28485370.60994923</v>
       </c>
       <c r="E390" t="n">
-        <v>31449089.36076253</v>
+        <v>27679652.90029358</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>173316419.5072641</v>
+        <v>112651537.5400351</v>
       </c>
       <c r="C391" t="n">
-        <v>45076995.91421723</v>
+        <v>34754396.14904517</v>
       </c>
       <c r="D391" t="n">
-        <v>35289312.35109447</v>
+        <v>28485162.85550909</v>
       </c>
       <c r="E391" t="n">
-        <v>35499633.36571107</v>
+        <v>31267208.5225048</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>172357081.2487524</v>
+        <v>112103610.8480688</v>
       </c>
       <c r="C392" t="n">
-        <v>45073664.35784574</v>
+        <v>34751835.87017944</v>
       </c>
       <c r="D392" t="n">
-        <v>35289008.96344174</v>
+        <v>28484918.47382017</v>
       </c>
       <c r="E392" t="n">
-        <v>39574827.46255907</v>
+        <v>34881716.92142747</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>171386057.3637275</v>
+        <v>111547607.283683</v>
       </c>
       <c r="C393" t="n">
-        <v>45069904.12825371</v>
+        <v>34748946.00299793</v>
       </c>
       <c r="D393" t="n">
-        <v>35288652.69925945</v>
+        <v>28484631.49079319</v>
       </c>
       <c r="E393" t="n">
-        <v>39574778.4873149</v>
+        <v>34881673.86303289</v>
       </c>
       <c r="F393" t="n">
-        <v>3680984.635279624</v>
+        <v>2987728.188194111</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>170403144.7103384</v>
+        <v>110983360.7335348</v>
       </c>
       <c r="C394" t="n">
-        <v>45065665.6930605</v>
+        <v>34745688.44271215</v>
       </c>
       <c r="D394" t="n">
-        <v>35288235.0467089</v>
+        <v>28484295.04704924</v>
       </c>
       <c r="E394" t="n">
-        <v>39574719.17218005</v>
+        <v>34881621.71230095</v>
       </c>
       <c r="F394" t="n">
-        <v>7383579.641669015</v>
+        <v>5996848.886204481</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>169408137.6793407</v>
+        <v>110410702.528224</v>
       </c>
       <c r="C395" t="n">
-        <v>45060894.5785675</v>
+        <v>34742021.28049479</v>
       </c>
       <c r="D395" t="n">
-        <v>35287746.25219777</v>
+        <v>28483901.28225363</v>
       </c>
       <c r="E395" t="n">
-        <v>39574647.47059441</v>
+        <v>34881558.66923601</v>
       </c>
       <c r="F395" t="n">
-        <v>11107262.76132469</v>
+        <v>9026992.02074885</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>168400828.4099853</v>
+        <v>109829461.5951944</v>
       </c>
       <c r="C396" t="n">
-        <v>45055530.9790113</v>
+        <v>34737898.50234568</v>
       </c>
       <c r="D396" t="n">
-        <v>35287175.16135573</v>
+        <v>28483441.20688612</v>
       </c>
       <c r="E396" t="n">
-        <v>39574560.96066988</v>
+        <v>34881482.60365737</v>
       </c>
       <c r="F396" t="n">
-        <v>14851510.63517252</v>
+        <v>12077785.19528145</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>167381007.0365152</v>
+        <v>109239464.6349906</v>
       </c>
       <c r="C397" t="n">
-        <v>45049509.34759746</v>
+        <v>34733269.6738798</v>
       </c>
       <c r="D397" t="n">
-        <v>35286509.04323637</v>
+        <v>28482904.56047888</v>
       </c>
       <c r="E397" t="n">
-        <v>39574456.78251867</v>
+        <v>34881391.00005063</v>
       </c>
       <c r="F397" t="n">
-        <v>18615800.08921095</v>
+        <v>15148854.72769765</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>166348461.9672951</v>
+        <v>108640536.3223711</v>
       </c>
       <c r="C398" t="n">
-        <v>45042757.97005644</v>
+        <v>34728079.61160457</v>
       </c>
       <c r="D398" t="n">
-        <v>35285733.39652826</v>
+        <v>28482279.65533993</v>
       </c>
       <c r="E398" t="n">
-        <v>39574331.56632507</v>
+        <v>34881280.8942709</v>
       </c>
       <c r="F398" t="n">
-        <v>22399609.44388654</v>
+        <v>18239826.71363767</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>165302980.198589</v>
+        <v>108032499.5337726</v>
       </c>
       <c r="C399" t="n">
-        <v>45035198.52171903</v>
+        <v>34722268.04145002</v>
       </c>
       <c r="D399" t="n">
-        <v>35284831.73655458</v>
+        <v>28481553.2047759</v>
       </c>
       <c r="E399" t="n">
-        <v>39574181.35001761</v>
+        <v>34881148.8010911</v>
       </c>
       <c r="F399" t="n">
-        <v>26202419.84307779</v>
+        <v>21350328.11277054</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>164244347.6649816</v>
+        <v>107415175.6026019</v>
       </c>
       <c r="C400" t="n">
-        <v>45026745.60938631</v>
+        <v>34715769.24553012</v>
       </c>
       <c r="D400" t="n">
-        <v>35283785.36185107</v>
+        <v>28480710.1348367</v>
       </c>
       <c r="E400" t="n">
-        <v>39574001.4852966</v>
+        <v>34880990.63149901</v>
       </c>
       <c r="F400" t="n">
-        <v>30023716.59903041</v>
+        <v>24479987.85526074</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>163172349.6283881</v>
+        <v>106788384.603797</v>
       </c>
       <c r="C401" t="n">
-        <v>45017306.29956946</v>
+        <v>34708511.69834414</v>
       </c>
       <c r="D401" t="n">
-        <v>35282573.09914172</v>
+        <v>28479733.37862802</v>
       </c>
       <c r="E401" t="n">
-        <v>39573786.53066835</v>
+        <v>34880801.59855505</v>
       </c>
       <c r="F401" t="n">
-        <v>33862990.54940688</v>
+        <v>27628437.96545145</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>162086771.1075439</v>
+        <v>106151945.6690543</v>
       </c>
       <c r="C402" t="n">
-        <v>45006779.63499617</v>
+        <v>34700417.69387536</v>
       </c>
       <c r="D402" t="n">
-        <v>35281171.02558026</v>
+        <v>28478603.65227721</v>
       </c>
       <c r="E402" t="n">
-        <v>39573530.13003258</v>
+        <v>34880576.11053022</v>
       </c>
       <c r="F402" t="n">
-        <v>37719739.42240746</v>
+        <v>30795314.6996068</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>160987397.3497706</v>
+        <v>105505677.3340503</v>
       </c>
       <c r="C403" t="n">
-        <v>44995056.14162159</v>
+        <v>34691402.96530711</v>
       </c>
       <c r="D403" t="n">
-        <v>35279552.16719864</v>
+        <v>28477299.21169612</v>
       </c>
       <c r="E403" t="n">
-        <v>39573224.87526562</v>
+        <v>34880307.64995259</v>
       </c>
       <c r="F403" t="n">
-        <v>37719706.32121953</v>
+        <v>30795287.738451</v>
       </c>
       <c r="G403" t="n">
-        <v>3395037.964788939</v>
+        <v>2507576.64739339</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>159874014.346717</v>
+        <v>104849397.9189136</v>
       </c>
       <c r="C404" t="n">
-        <v>44982017.32874182</v>
+        <v>34681376.29935388</v>
       </c>
       <c r="D404" t="n">
-        <v>35277686.17260079</v>
+        <v>28475795.58936337</v>
       </c>
       <c r="E404" t="n">
-        <v>39572862.15114059</v>
+        <v>34879988.63710054</v>
       </c>
       <c r="F404" t="n">
-        <v>37719665.68693518</v>
+        <v>30795254.64061551</v>
       </c>
       <c r="G404" t="n">
-        <v>6805160.348600408</v>
+        <v>5029106.542476802</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>158746409.3956332</v>
+        <v>104182925.9430993</v>
       </c>
       <c r="C405" t="n">
-        <v>44967535.18518396</v>
+        <v>34670239.14749537</v>
       </c>
       <c r="D405" t="n">
-        <v>35275538.96106747</v>
+        <v>28474065.31045053</v>
       </c>
       <c r="E405" t="n">
-        <v>39572431.96082976</v>
+        <v>34879610.27639676</v>
       </c>
       <c r="F405" t="n">
-        <v>37719615.91010697</v>
+        <v>30795214.09477874</v>
       </c>
       <c r="G405" t="n">
-        <v>10229960.39974076</v>
+        <v>7564319.777174477</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>157604371.7075869</v>
+        <v>103506080.5757051</v>
       </c>
       <c r="C406" t="n">
-        <v>44951471.67493635</v>
+        <v>34657885.2367019</v>
       </c>
       <c r="D406" t="n">
-        <v>35273072.34439421</v>
+        <v>28472077.58774309</v>
       </c>
       <c r="E406" t="n">
-        <v>39571922.73014559</v>
+        <v>34879162.38407826</v>
       </c>
       <c r="F406" t="n">
-        <v>37719555.0619954</v>
+        <v>30795164.52942156</v>
       </c>
       <c r="G406" t="n">
-        <v>13669042.27098212</v>
+        <v>10112953.61890501</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>156447693.0638415</v>
+        <v>102818682.1221328</v>
       </c>
       <c r="C407" t="n">
-        <v>44933678.23598325</v>
+        <v>34644200.18254877</v>
       </c>
       <c r="D407" t="n">
-        <v>35270243.62197646</v>
+        <v>28469797.99496134</v>
       </c>
       <c r="E407" t="n">
-        <v>39571321.08859845</v>
+        <v>34878633.19544885</v>
       </c>
       <c r="F407" t="n">
-        <v>37719480.83669303</v>
+        <v>30795104.06565264</v>
       </c>
       <c r="G407" t="n">
-        <v>17122022.25058113</v>
+        <v>12674753.45617989</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>155276168.5214095</v>
+        <v>102120552.5478458</v>
       </c>
       <c r="C408" t="n">
-        <v>44913995.28651492</v>
+        <v>34629061.10793123</v>
       </c>
       <c r="D408" t="n">
-        <v>35267005.14888178</v>
+        <v>28467188.11826868</v>
       </c>
       <c r="E408" t="n">
-        <v>39570611.62528582</v>
+        <v>34878009.14996392</v>
       </c>
       <c r="F408" t="n">
-        <v>37719390.48390992</v>
+        <v>30795030.46241949</v>
       </c>
       <c r="G408" t="n">
-        <v>20588529.98450087</v>
+        <v>15249473.74301258</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>154089597.1685558</v>
+        <v>101411516.0397964</v>
       </c>
       <c r="C409" t="n">
-        <v>44892251.74309487</v>
+        <v>34612336.27090878</v>
       </c>
       <c r="D409" t="n">
-        <v>35263303.87691461</v>
+        <v>28464205.18596876</v>
       </c>
       <c r="E409" t="n">
-        <v>39569776.61758024</v>
+        <v>34877274.65235565</v>
       </c>
       <c r="F409" t="n">
-        <v>37719280.73114277</v>
+        <v>30794941.05306349</v>
       </c>
       <c r="G409" t="n">
-        <v>24068209.6859929</v>
+        <v>17836878.93928337</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>152887782.9307611</v>
+        <v>100691399.6059053</v>
       </c>
       <c r="C410" t="n">
-        <v>44868264.55577281</v>
+        <v>34593884.70552212</v>
       </c>
       <c r="D410" t="n">
-        <v>35259080.86898308</v>
+        <v>28460801.67663779</v>
       </c>
       <c r="E410" t="n">
-        <v>39568795.73055944</v>
+        <v>34876411.80798567</v>
       </c>
       <c r="F410" t="n">
-        <v>37719147.69381879</v>
+        <v>30794832.67206933</v>
       </c>
       <c r="G410" t="n">
-        <v>27560721.32854138</v>
+        <v>20436744.44406987</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>151670535.4273598</v>
+        <v>99960033.71275677</v>
       </c>
       <c r="C411" t="n">
-        <v>44841838.26553418</v>
+        <v>34573555.87973639</v>
       </c>
       <c r="D411" t="n">
-        <v>35254270.7874232</v>
+        <v>28456924.90621789</v>
       </c>
       <c r="E411" t="n">
-        <v>39567645.68512301</v>
+        <v>34875400.13061195</v>
       </c>
       <c r="F411" t="n">
-        <v>37718986.77186822</v>
+        <v>30794701.57074784</v>
       </c>
       <c r="G411" t="n">
-        <v>31065741.81803524</v>
+        <v>23048857.51883147</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>150437670.8787492</v>
+        <v>99217252.96144278</v>
       </c>
       <c r="C412" t="n">
-        <v>44812764.58986352</v>
+        <v>34551189.37496376</v>
       </c>
       <c r="D412" t="n">
-        <v>35248801.35732382</v>
+        <v>28452516.59490941</v>
       </c>
       <c r="E412" t="n">
-        <v>39566299.89277279</v>
+        <v>34874216.22078584</v>
       </c>
       <c r="F412" t="n">
-        <v>37718792.53103824</v>
+        <v>30794543.32047563</v>
       </c>
       <c r="G412" t="n">
-        <v>34582966.13985649</v>
+        <v>25673018.19718169</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>149189013.063717</v>
+        <v>98462896.80123053</v>
       </c>
       <c r="C413" t="n">
-        <v>44780822.04256895</v>
+        <v>34526614.59190416</v>
       </c>
       <c r="D413" t="n">
-        <v>35242592.80632541</v>
+        <v>28447512.41504767</v>
       </c>
       <c r="E413" t="n">
-        <v>39564728.0551018</v>
+        <v>34872833.41315445</v>
       </c>
       <c r="F413" t="n">
-        <v>37718558.56711723</v>
+        <v>30794352.70199768</v>
       </c>
       <c r="G413" t="n">
-        <v>34582942.92130946</v>
+        <v>25673000.99624538</v>
       </c>
       <c r="H413" t="n">
-        <v>3556573.36864695</v>
+        <v>2950088.318361373</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>147924394.3260584</v>
+        <v>97696810.2804566</v>
       </c>
       <c r="C414" t="n">
-        <v>44745775.59435765</v>
+        <v>34499650.48770802</v>
       </c>
       <c r="D414" t="n">
-        <v>35235557.28283843</v>
+        <v>28441841.5215301</v>
       </c>
       <c r="E414" t="n">
-        <v>39562895.72614675</v>
+        <v>34871221.39103944</v>
       </c>
       <c r="F414" t="n">
-        <v>37718277.35109474</v>
+        <v>30794123.57918176</v>
       </c>
       <c r="G414" t="n">
-        <v>34582914.10854945</v>
+        <v>25672979.65046859</v>
       </c>
       <c r="H414" t="n">
-        <v>7124883.026708464</v>
+        <v>5913263.467667278</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>146643656.6292594</v>
+        <v>96918844.83375768</v>
       </c>
       <c r="C415" t="n">
-        <v>44707376.38096233</v>
+        <v>34470105.34970596</v>
       </c>
       <c r="D415" t="n">
-        <v>35227598.25513975</v>
+        <v>28435426.06677422</v>
       </c>
       <c r="E415" t="n">
-        <v>39560763.835914</v>
+        <v>34869345.76680058</v>
       </c>
       <c r="F415" t="n">
-        <v>37717940.05314068</v>
+        <v>30793848.7554975</v>
       </c>
       <c r="G415" t="n">
-        <v>34582878.4349992</v>
+        <v>25672953.22129937</v>
       </c>
       <c r="H415" t="n">
-        <v>10704684.03383379</v>
+        <v>8889351.490364455</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>145346652.657594</v>
+        <v>96128859.1044395</v>
       </c>
       <c r="C416" t="n">
-        <v>44665361.46588979</v>
+        <v>34437776.61115933</v>
       </c>
       <c r="D416" t="n">
-        <v>35218609.89435817</v>
+        <v>28428180.70263208</v>
       </c>
       <c r="E416" t="n">
-        <v>39558288.17359748</v>
+        <v>34867167.62667416</v>
       </c>
       <c r="F416" t="n">
-        <v>37717536.343152</v>
+        <v>30793519.8113827</v>
       </c>
       <c r="G416" t="n">
-        <v>34582834.3674129</v>
+        <v>25672920.57255058</v>
       </c>
       <c r="H416" t="n">
-        <v>14295754.2181423</v>
+        <v>11878196.78714356</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>144033246.9615428</v>
+        <v>95326719.80046046</v>
       </c>
       <c r="C417" t="n">
-        <v>44619453.66508472</v>
+        <v>34402450.7146591</v>
       </c>
       <c r="D417" t="n">
-        <v>35208476.44494778</v>
+        <v>28420012.07216171</v>
       </c>
       <c r="E417" t="n">
-        <v>39555418.82927093</v>
+        <v>34864643.03900979</v>
       </c>
       <c r="F417" t="n">
-        <v>37717054.16548786</v>
+        <v>30793126.92055522</v>
       </c>
       <c r="G417" t="n">
-        <v>34582780.05445403</v>
+        <v>25672880.3322827</v>
       </c>
       <c r="H417" t="n">
-        <v>17897895.18545807</v>
+        <v>14879663.04146825</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>142703317.1449774</v>
+        <v>94512302.58216742</v>
       </c>
       <c r="C418" t="n">
-        <v>44569361.44096974</v>
+        <v>34363903.02893096</v>
       </c>
       <c r="D418" t="n">
-        <v>35197071.58686895</v>
+        <v>28410818.29465716</v>
       </c>
       <c r="E418" t="n">
-        <v>39552099.59316418</v>
+        <v>34861722.52511606</v>
       </c>
       <c r="F418" t="n">
-        <v>37716479.48540261</v>
+        <v>30792658.64323735</v>
       </c>
       <c r="G418" t="n">
-        <v>34582713.26640837</v>
+        <v>25672830.84811411</v>
       </c>
       <c r="H418" t="n">
-        <v>21510933.28182126</v>
+        <v>17893634.11043208</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>141356755.091071</v>
+        <v>93685492.97957161</v>
       </c>
       <c r="C419" t="n">
-        <v>44514778.8734275</v>
+        <v>34321897.82488663</v>
       </c>
       <c r="D419" t="n">
-        <v>35184257.79434422</v>
+        <v>28400488.44786113</v>
       </c>
       <c r="E419" t="n">
-        <v>39548267.31202711</v>
+        <v>34858350.49227281</v>
       </c>
       <c r="F419" t="n">
-        <v>37715796.0045903</v>
+        <v>30792101.69418155</v>
       </c>
       <c r="G419" t="n">
-        <v>34582631.32472504</v>
+        <v>25672770.13498935</v>
       </c>
       <c r="H419" t="n">
-        <v>25134720.504641</v>
+        <v>20920014.87785416</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>139993468.2234067</v>
+        <v>92846187.33659048</v>
       </c>
       <c r="C420" t="n">
-        <v>44455385.71532422</v>
+        <v>34276188.31678888</v>
       </c>
       <c r="D420" t="n">
-        <v>35169885.69672494</v>
+        <v>28388902.05182493</v>
       </c>
       <c r="E420" t="n">
-        <v>39543851.20255014</v>
+        <v>34854464.62887637</v>
       </c>
       <c r="F420" t="n">
-        <v>37714984.84318526</v>
+        <v>30791440.68332948</v>
       </c>
       <c r="G420" t="n">
-        <v>34582531.01992924</v>
+        <v>25672695.81432509</v>
       </c>
       <c r="H420" t="n">
-        <v>28769135.35769155</v>
+        <v>23958732.06535883</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>138613380.7982504</v>
+        <v>91994293.77931494</v>
       </c>
       <c r="C421" t="n">
-        <v>44390847.54013018</v>
+        <v>34226516.77436579</v>
       </c>
       <c r="D421" t="n">
-        <v>35153793.44768839</v>
+        <v>28375928.55943146</v>
       </c>
       <c r="E421" t="n">
-        <v>39538772.12235022</v>
+        <v>34849995.26216036</v>
       </c>
       <c r="F421" t="n">
-        <v>37714024.185522</v>
+        <v>30790657.82690226</v>
       </c>
       <c r="G421" t="n">
-        <v>34582408.51629334</v>
+        <v>25672605.04333741</v>
       </c>
       <c r="H421" t="n">
-        <v>32414083.64498348</v>
+        <v>27009734.99701136</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>137216435.2234449</v>
+        <v>91129733.20498954</v>
       </c>
       <c r="C422" t="n">
-        <v>44320815.98906398</v>
+        <v>34172614.71161114</v>
       </c>
       <c r="D422" t="n">
-        <v>35135806.10967252</v>
+        <v>28361426.8591532</v>
       </c>
       <c r="E422" t="n">
-        <v>39532941.79964926</v>
+        <v>34844864.67947809</v>
       </c>
       <c r="F422" t="n">
-        <v>37712888.88695437</v>
+        <v>30789732.62671685</v>
       </c>
       <c r="G422" t="n">
-        <v>34582259.24148822</v>
+        <v>25672494.4332312</v>
       </c>
       <c r="H422" t="n">
-        <v>36069499.19835045</v>
+        <v>30072996.31289089</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>135802593.3988736</v>
+        <v>90252440.28801784</v>
       </c>
       <c r="C423" t="n">
-        <v>44244929.12496579</v>
+        <v>34114203.15783982</v>
       </c>
       <c r="D423" t="n">
-        <v>35115735.06114079</v>
+        <v>28345244.79617046</v>
       </c>
       <c r="E423" t="n">
-        <v>39526262.02346934</v>
+        <v>34838986.41474704</v>
       </c>
       <c r="F423" t="n">
-        <v>37711550.03907361</v>
+        <v>30788641.51555536</v>
       </c>
       <c r="G423" t="n">
-        <v>34582077.75926685</v>
+        <v>25672359.95480674</v>
       </c>
       <c r="H423" t="n">
-        <v>39735344.53340161</v>
+        <v>33148512.6267894</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>134371838.0729325</v>
+        <v>89362364.49893655</v>
       </c>
       <c r="C424" t="n">
-        <v>44162811.89978716</v>
+        <v>34050993.01632237</v>
       </c>
       <c r="D424" t="n">
-        <v>35093377.43493893</v>
+        <v>28327218.71851546</v>
       </c>
       <c r="E424" t="n">
-        <v>39518623.79694632</v>
+        <v>34832264.50234033</v>
       </c>
       <c r="F424" t="n">
-        <v>37709974.49075552</v>
+        <v>30787357.4664875</v>
       </c>
       <c r="G424" t="n">
-        <v>34581857.62305848</v>
+        <v>25672196.8299094</v>
       </c>
       <c r="H424" t="n">
-        <v>43411611.4282665</v>
+        <v>36236305.12300602</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>132924174.2089495</v>
+        <v>88459471.13193341</v>
       </c>
       <c r="C425" t="n">
-        <v>44074076.74216317</v>
+        <v>33982685.51549991</v>
       </c>
       <c r="D425" t="n">
-        <v>35068515.59664883</v>
+        <v>28307173.05542882</v>
       </c>
       <c r="E425" t="n">
-        <v>39509906.4572201</v>
+        <v>34824592.7014644</v>
       </c>
       <c r="F425" t="n">
-        <v>37708124.32261696</v>
+        <v>30785849.56416842</v>
       </c>
       <c r="G425" t="n">
-        <v>34581591.2081783</v>
+        <v>25671999.40701989</v>
       </c>
       <c r="H425" t="n">
-        <v>47098321.41934584</v>
+        <v>39336420.08699295</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>131459630.3550047</v>
+        <v>87543742.33612913</v>
       </c>
       <c r="C426" t="n">
-        <v>43978324.27100442</v>
+        <v>33908972.75737446</v>
       </c>
       <c r="D426" t="n">
-        <v>35040916.67244902</v>
+        <v>28284919.93560226</v>
       </c>
       <c r="E426" t="n">
-        <v>39499976.76629238</v>
+        <v>34815853.69488417</v>
       </c>
       <c r="F426" t="n">
-        <v>37705956.27267841</v>
+        <v>30784082.53631023</v>
       </c>
       <c r="G426" t="n">
-        <v>34581269.52018618</v>
+        <v>25671761.01915469</v>
       </c>
       <c r="H426" t="n">
-        <v>50795526.2080308</v>
+        <v>42448929.36436404</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>129978260.0101316</v>
+        <v>86615178.14549835</v>
       </c>
       <c r="C427" t="n">
-        <v>43875144.14040786</v>
+        <v>33829538.36717843</v>
       </c>
       <c r="D427" t="n">
-        <v>35010332.13654207</v>
+        <v>28260258.85342798</v>
       </c>
       <c r="E427" t="n">
-        <v>39488687.97824825</v>
+        <v>34805918.26674232</v>
       </c>
       <c r="F427" t="n">
-        <v>37703421.11132068</v>
+        <v>30782016.24376279</v>
       </c>
       <c r="G427" t="n">
-        <v>34580881.97676427</v>
+        <v>25671473.82212529</v>
       </c>
       <c r="H427" t="n">
-        <v>54503307.97211143</v>
+        <v>45573930.74253985</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>128480142.9794395</v>
+        <v>85673797.50197867</v>
       </c>
       <c r="C428" t="n">
-        <v>43764116.02043492</v>
+        <v>33744058.2478497</v>
       </c>
       <c r="D428" t="n">
-        <v>34976497.46869309</v>
+        <v>28232976.39176595</v>
       </c>
       <c r="E428" t="n">
-        <v>39475878.88930815</v>
+        <v>34794644.46516282</v>
       </c>
       <c r="F428" t="n">
-        <v>37700462.96399876</v>
+        <v>30779605.12794436</v>
       </c>
       <c r="G428" t="n">
-        <v>34580416.16033131</v>
+        <v>25671128.61109163</v>
       </c>
       <c r="H428" t="n">
-        <v>58221779.57533178</v>
+        <v>48711548.24904457</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>126965386.7102775</v>
+        <v>84719639.26601146</v>
       </c>
       <c r="C429" t="n">
-        <v>43644810.71744159</v>
+        <v>33652201.44217352</v>
       </c>
       <c r="D429" t="n">
-        <v>34939131.89282522</v>
+        <v>28202846.01006572</v>
       </c>
       <c r="E429" t="n">
-        <v>39461372.87830473</v>
+        <v>34781876.75632272</v>
       </c>
       <c r="F429" t="n">
-        <v>37697018.58064014</v>
+        <v>30776797.61474184</v>
       </c>
       <c r="G429" t="n">
-        <v>34579857.53847685</v>
+        <v>25670714.61324464</v>
       </c>
       <c r="H429" t="n">
-        <v>61951084.66827313</v>
+        <v>51861932.36020374</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>125434127.6011803</v>
+        <v>83752763.20847724</v>
       </c>
       <c r="C430" t="n">
-        <v>43516791.4366708</v>
+        <v>33553631.10470205</v>
       </c>
       <c r="D430" t="n">
-        <v>34897938.20792213</v>
+        <v>28169627.90692627</v>
       </c>
       <c r="E430" t="n">
-        <v>39444976.94635311</v>
+        <v>34767445.17771114</v>
       </c>
       <c r="F430" t="n">
-        <v>37693016.55121814</v>
+        <v>30773535.47445808</v>
       </c>
       <c r="G430" t="n">
-        <v>34579189.14918777</v>
+        <v>25670219.25437111</v>
       </c>
       <c r="H430" t="n">
-        <v>65691397.67347541</v>
+        <v>55025260.11372508</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>123886532.2749968</v>
+        <v>82773250.97773856</v>
       </c>
       <c r="C431" t="n">
-        <v>43379615.18873308</v>
+        <v>33448005.58472667</v>
       </c>
       <c r="D431" t="n">
-        <v>34852602.72267852</v>
+        <v>28133068.96633263</v>
       </c>
       <c r="E431" t="n">
-        <v>39426480.76568922</v>
+        <v>34751164.4993577</v>
       </c>
       <c r="F431" t="n">
-        <v>37688376.46765616</v>
+        <v>30769753.13792771</v>
       </c>
       <c r="G431" t="n">
-        <v>34578391.24775978</v>
+        <v>25669627.89699404</v>
       </c>
       <c r="H431" t="n">
-        <v>69442923.64741898</v>
+        <v>58201735.11836728</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>122322798.8073091</v>
+        <v>81781207.03528537</v>
       </c>
       <c r="C432" t="n">
-        <v>43232834.3404132</v>
+        <v>33334979.62066266</v>
       </c>
       <c r="D432" t="n">
-        <v>34802795.30540344</v>
+        <v>28092902.7968606</v>
       </c>
       <c r="E432" t="n">
-        <v>39405655.74887532</v>
+        <v>34732833.40289247</v>
       </c>
       <c r="F432" t="n">
-        <v>37683008.03299463</v>
+        <v>30765376.96955389</v>
       </c>
       <c r="G432" t="n">
-        <v>34577440.91224574</v>
+        <v>25668923.54775103</v>
       </c>
       <c r="H432" t="n">
-        <v>73205898.01170321</v>
+        <v>61391587.45362292</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>120743157.9010044</v>
+        <v>80776759.55329837</v>
       </c>
       <c r="C433" t="n">
-        <v>43075998.30895306</v>
+        <v>33214205.64521296</v>
       </c>
       <c r="D433" t="n">
-        <v>34748169.56060176</v>
+        <v>28048849.87307841</v>
       </c>
       <c r="E433" t="n">
-        <v>39382254.15079336</v>
+        <v>34712233.68937668</v>
       </c>
       <c r="F433" t="n">
-        <v>37676810.11963965</v>
+        <v>30760324.4987434</v>
       </c>
       <c r="G433" t="n">
-        <v>34576311.60429903</v>
+        <v>25668086.53167812</v>
       </c>
       <c r="H433" t="n">
-        <v>76980586.14548051</v>
+        <v>64595073.45207164</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>119147873.9976839</v>
+        <v>79760061.26730901</v>
       </c>
       <c r="C434" t="n">
-        <v>42908655.39758466</v>
+        <v>33085335.19961585</v>
       </c>
       <c r="D434" t="n">
-        <v>34688363.14342338</v>
+        <v>28000617.78818497</v>
       </c>
       <c r="E434" t="n">
-        <v>39356008.21704823</v>
+        <v>34689129.52790327</v>
       </c>
       <c r="F434" t="n">
-        <v>37669669.77951425</v>
+        <v>30754503.61203342</v>
       </c>
       <c r="G434" t="n">
-        <v>34574972.68233389</v>
+        <v>25667094.13111255</v>
       </c>
       <c r="H434" t="n">
-        <v>80767282.8309204</v>
+        <v>67812475.35678405</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>117537246.3164659</v>
+        <v>78731290.27703969</v>
       </c>
       <c r="C435" t="n">
-        <v>42730354.7686276</v>
+        <v>32948020.45415678</v>
       </c>
       <c r="D435" t="n">
-        <v>34622998.22276554</v>
+        <v>27947901.62659949</v>
       </c>
       <c r="E435" t="n">
-        <v>39326629.39355781</v>
+        <v>34663266.75798533</v>
       </c>
       <c r="F435" t="n">
-        <v>37661461.21004959</v>
+        <v>30747811.70911516</v>
       </c>
       <c r="G435" t="n">
-        <v>34573388.86405392</v>
+        <v>25665920.18702435</v>
       </c>
       <c r="H435" t="n">
-        <v>84566311.54322407</v>
+        <v>71044100.8459062</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>115911609.8106861</v>
+        <v>77690650.7884651</v>
       </c>
       <c r="C436" t="n">
-        <v>42540648.5489402</v>
+        <v>32801915.83094634</v>
       </c>
       <c r="D436" t="n">
-        <v>34551682.10322832</v>
+        <v>27890384.46474631</v>
       </c>
       <c r="E436" t="n">
-        <v>39293807.6131923</v>
+        <v>34634372.2597091</v>
       </c>
       <c r="F436" t="n">
-        <v>37652044.68118165</v>
+        <v>30740134.82696055</v>
       </c>
       <c r="G436" t="n">
-        <v>34571519.63560729</v>
+        <v>25664534.66073891</v>
       </c>
       <c r="H436" t="n">
-        <v>88378023.5764524</v>
+        <v>74290282.41630304</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>114271336.0330185</v>
+        <v>76638373.7901424</v>
       </c>
       <c r="C437" t="n">
-        <v>42339094.0609308</v>
+        <v>32646679.72374582</v>
       </c>
       <c r="D437" t="n">
-        <v>34474008.01534934</v>
+        <v>27827738.00765531</v>
       </c>
       <c r="E437" t="n">
-        <v>39257210.67631386</v>
+        <v>34602153.40650035</v>
       </c>
       <c r="F437" t="n">
-        <v>37641265.42985278</v>
+        <v>30731346.73734731</v>
       </c>
       <c r="G437" t="n">
-        <v>34569318.60492019</v>
+        <v>25662903.15423058</v>
       </c>
       <c r="H437" t="n">
-        <v>92202796.99622332</v>
+        <v>77551376.61793083</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>112616833.899626</v>
+        <v>75574717.65691935</v>
       </c>
       <c r="C438" t="n">
-        <v>42125256.17071455</v>
+        <v>32481976.30837025</v>
       </c>
       <c r="D438" t="n">
-        <v>34389556.08257325</v>
+        <v>27759623.36821578</v>
       </c>
       <c r="E438" t="n">
-        <v>39216483.74292994</v>
+        <v>34566297.61611551</v>
       </c>
       <c r="F438" t="n">
-        <v>37628952.52995035</v>
+        <v>30721308.02424689</v>
       </c>
       <c r="G438" t="n">
-        <v>34566732.79715145</v>
+        <v>25660986.38745652</v>
       </c>
       <c r="H438" t="n">
-        <v>96041035.41013646</v>
+        <v>80827763.13040927</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>110948550.3441244</v>
+        <v>74499968.67424826</v>
       </c>
       <c r="C439" t="n">
-        <v>41898709.74335705</v>
+        <v>32307477.43592896</v>
       </c>
       <c r="D439" t="n">
-        <v>34297894.47223969</v>
+        <v>27685691.99497763</v>
       </c>
       <c r="E439" t="n">
-        <v>39171248.95488065</v>
+        <v>34526472.01609422</v>
       </c>
       <c r="F439" t="n">
-        <v>37614917.74713328</v>
+        <v>30709865.14877897</v>
       </c>
       <c r="G439" t="n">
-        <v>34563701.89070991</v>
+        <v>25658739.63156979</v>
       </c>
       <c r="H439" t="n">
-        <v>99893166.54665276</v>
+        <v>84119843.67312376</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>109266970.8523912</v>
+        <v>73414441.47651106</v>
       </c>
       <c r="C440" t="n">
-        <v>41659042.19349775</v>
+        <v>32122864.59989149</v>
       </c>
       <c r="D440" t="n">
-        <v>34198580.73650012</v>
+        <v>27605586.75328577</v>
       </c>
       <c r="E440" t="n">
-        <v>39121105.2070023</v>
+        <v>34482323.24037154</v>
       </c>
       <c r="F440" t="n">
-        <v>37598954.38958733</v>
+        <v>30696849.51073445</v>
       </c>
       <c r="G440" t="n">
-        <v>34560157.39289168</v>
+        <v>25656112.09730666</v>
       </c>
       <c r="H440" t="n">
-        <v>103759640.6330566</v>
+        <v>87428040.74007624</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>107572619.8695867</v>
+        <v>72318479.39299691</v>
       </c>
       <c r="C441" t="n">
-        <v>41405856.11801448</v>
+        <v>31927830.96670537</v>
       </c>
       <c r="D441" t="n">
-        <v>34091163.34749942</v>
+        <v>27518943.16326364</v>
       </c>
       <c r="E441" t="n">
-        <v>39065628.0865133</v>
+        <v>34433477.3740195</v>
       </c>
       <c r="F441" t="n">
-        <v>37580836.16739161</v>
+        <v>30682076.5170094</v>
       </c>
       <c r="G441" t="n">
-        <v>34556021.75493572</v>
+        <v>25653046.27839281</v>
       </c>
       <c r="H441" t="n">
-        <v>107640928.5631159</v>
+        <v>90752796.15066728</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>105866061.0711683</v>
+        <v>71212454.69547296</v>
       </c>
       <c r="C442" t="n">
-        <v>41138771.99579448</v>
+        <v>31722083.45845975</v>
       </c>
       <c r="D442" t="n">
-        <v>33975183.42938854</v>
+        <v>27425390.7967347</v>
       </c>
       <c r="E442" t="n">
-        <v>39004369.99992818</v>
+        <v>34379540.06314199</v>
       </c>
       <c r="F442" t="n">
-        <v>37560316.07485101</v>
+        <v>30665344.66865738</v>
       </c>
       <c r="G442" t="n">
-        <v>34551207.42717049</v>
+        <v>25649477.25046105</v>
       </c>
       <c r="H442" t="n">
-        <v>111537519.8451061</v>
+        <v>94094569.40761341</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>104147897.4901844</v>
+        <v>70096768.74164668</v>
       </c>
       <c r="C443" t="n">
-        <v>40857430.9381417</v>
+        <v>31505344.87490153</v>
       </c>
       <c r="D443" t="n">
-        <v>33850176.68777896</v>
+        <v>27324554.83359182</v>
       </c>
       <c r="E443" t="n">
-        <v>38936860.50658767</v>
+        <v>34320096.80675866</v>
       </c>
       <c r="F443" t="n">
-        <v>37537125.31182256</v>
+        <v>30646434.67963503</v>
       </c>
       <c r="G443" t="n">
-        <v>34545615.85593691</v>
+        <v>25645331.92672404</v>
       </c>
       <c r="H443" t="n">
-        <v>115449920.3210118</v>
+        <v>97453835.85330945</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>102418771.4937144</v>
+        <v>68971852.00923857</v>
       </c>
       <c r="C444" t="n">
-        <v>40561497.47189531</v>
+        <v>31277356.04098583</v>
       </c>
       <c r="D444" t="n">
-        <v>33715675.53511991</v>
+        <v>27216057.77640683</v>
       </c>
       <c r="E444" t="n">
-        <v>38862606.87737469</v>
+        <v>34254713.44705942</v>
       </c>
       <c r="F444" t="n">
-        <v>37510972.26171061</v>
+        <v>30625108.64166034</v>
       </c>
       <c r="G444" t="n">
-        <v>34539136.42512742</v>
+        <v>25640528.27250183</v>
       </c>
       <c r="H444" t="n">
-        <v>119378649.6479814</v>
+        <v>100831084.6161527</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>100679364.6019911</v>
+        <v>67838164.01586239</v>
       </c>
       <c r="C445" t="n">
-        <v>40250662.33598344</v>
+        <v>31037877.96509787</v>
       </c>
       <c r="D445" t="n">
-        <v>33571211.40819344</v>
+        <v>27099521.3202266</v>
       </c>
       <c r="E445" t="n">
-        <v>38781094.89634095</v>
+        <v>34182936.87366926</v>
       </c>
       <c r="F445" t="n">
-        <v>37481541.54538999</v>
+        <v>30601109.25089857</v>
       </c>
       <c r="G445" t="n">
-        <v>34531645.34647796</v>
+        <v>25634974.48166588</v>
       </c>
       <c r="H445" t="n">
-        <v>123324238.5334849</v>
+        <v>104226816.3386541</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>98930397.14448673</v>
+        <v>66696193.12044815</v>
       </c>
       <c r="C446" t="n">
-        <v>39924645.27091352</v>
+        <v>30786693.99213661</v>
       </c>
       <c r="D446" t="n">
-        <v>33416317.27150078</v>
+        <v>26974568.37254745</v>
       </c>
       <c r="E446" t="n">
-        <v>38691789.9217767</v>
+        <v>34104295.95651567</v>
       </c>
       <c r="F446" t="n">
-        <v>37448493.17180144</v>
+        <v>30574159.11340365</v>
       </c>
       <c r="G446" t="n">
-        <v>34523004.50418741</v>
+        <v>25628568.11912788</v>
       </c>
       <c r="H446" t="n">
-        <v>127287225.7161498</v>
+        <v>107641540.679599</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>97172627.74806413</v>
+        <v>65546456.20253441</v>
       </c>
       <c r="C447" t="n">
-        <v>39583197.77962638</v>
+        <v>30523611.93481924</v>
       </c>
       <c r="D447" t="n">
-        <v>33250530.29777969</v>
+        <v>26840825.2164143</v>
       </c>
       <c r="E447" t="n">
-        <v>38594138.2217011</v>
+        <v>34018302.72052288</v>
       </c>
       <c r="F447" t="n">
-        <v>37411461.80730849</v>
+        <v>30543960.14734391</v>
       </c>
       <c r="G447" t="n">
-        <v>34513060.26101074</v>
+        <v>25621195.23466774</v>
       </c>
       <c r="H447" t="n">
-        <v>131268154.6849259</v>
+        <v>111075773.5830938</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>95406852.65319256</v>
+        <v>64389498.21640244</v>
       </c>
       <c r="C448" t="n">
-        <v>39226105.83723911</v>
+        <v>30248466.16586548</v>
       </c>
       <c r="D448" t="n">
-        <v>33073394.71427781</v>
+        <v>26697923.80747912</v>
       </c>
       <c r="E448" t="n">
-        <v>38487568.59682099</v>
+        <v>33924453.77365989</v>
       </c>
       <c r="F448" t="n">
-        <v>37370056.18706802</v>
+        <v>30510193.1009916</v>
       </c>
       <c r="G448" t="n">
-        <v>34501642.23466933</v>
+        <v>25612729.45465439</v>
       </c>
       <c r="H448" t="n">
-        <v>135267570.1300871</v>
+        <v>114530034.3080662</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>93633904.85518438</v>
+        <v>63225891.61771823</v>
       </c>
       <c r="C449" t="n">
-        <v>38853192.52649029</v>
+        <v>29961119.65316927</v>
       </c>
       <c r="D449" t="n">
-        <v>32884464.80074018</v>
+        <v>26545504.19370012</v>
       </c>
       <c r="E449" t="n">
-        <v>38371494.30169617</v>
+        <v>33822231.99783543</v>
       </c>
       <c r="F449" t="n">
-        <v>37323858.69260172</v>
+        <v>30472517.20622213</v>
       </c>
       <c r="G449" t="n">
-        <v>34488562.0552295</v>
+        <v>25603031.05955438</v>
       </c>
       <c r="H449" t="n">
-        <v>139286014.1206357</v>
+        <v>118004842.2126944</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>91854653.06843317</v>
+        <v>62056235.66108639</v>
       </c>
       <c r="C450" t="n">
-        <v>38464320.5752015</v>
+        <v>29661465.91967563</v>
       </c>
       <c r="D450" t="n">
-        <v>32683308.02238876</v>
+        <v>26383217.0441978</v>
       </c>
       <c r="E450" t="n">
-        <v>38245315.27216127</v>
+        <v>33711108.50976685</v>
       </c>
       <c r="F450" t="n">
-        <v>37272425.12041869</v>
+        <v>30430569.98781271</v>
       </c>
       <c r="G450" t="n">
-        <v>34473612.11599974</v>
+        <v>25591946.05653339</v>
       </c>
       <c r="H450" t="n">
-        <v>143324022.0039209</v>
+        <v>121500713.2893174</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>90070000.51270874</v>
+        <v>60881155.56769787</v>
       </c>
       <c r="C451" t="n">
-        <v>38059394.77179614</v>
+        <v>29349430.90946694</v>
       </c>
       <c r="D451" t="n">
-        <v>32469508.278514</v>
+        <v>26210726.27163728</v>
       </c>
       <c r="E451" t="n">
-        <v>38108420.66399537</v>
+        <v>33590544.89625604</v>
       </c>
       <c r="F451" t="n">
-        <v>37215284.66688345</v>
+        <v>30383967.24911439</v>
       </c>
       <c r="G451" t="n">
-        <v>34456564.3324651</v>
+        <v>25579305.25791625</v>
       </c>
       <c r="H451" t="n">
-        <v>147382118.0248007</v>
+        <v>125018156.4466853</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>88280883.52168481</v>
+        <v>59701301.56306504</v>
       </c>
       <c r="C452" t="n">
-        <v>37638364.23488714</v>
+        <v>29024974.74153634</v>
       </c>
       <c r="D452" t="n">
-        <v>32242669.24470461</v>
+        <v>26027711.73041061</v>
       </c>
       <c r="E452" t="n">
-        <v>37960191.70441833</v>
+        <v>33459995.72529906</v>
       </c>
       <c r="F452" t="n">
-        <v>37151940.15450604</v>
+        <v>30332303.25465994</v>
       </c>
       <c r="G452" t="n">
-        <v>34437168.92578518</v>
+        <v>25564923.37776176</v>
       </c>
       <c r="H452" t="n">
-        <v>151460810.663399</v>
+        <v>128557669.5379081</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
+++ b/Data/model_outputs_baseline/UFA/s_UFA_tabula_total.xlsx
@@ -532,7 +532,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>9779082.3559206</v>
+        <v>9779082.355920598</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>9790815.91680751</v>
+        <v>9790815.916807508</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>9802718.047362497</v>
+        <v>9802718.047362499</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>9814791.152559174</v>
+        <v>9814791.152559176</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>9827037.671218082</v>
+        <v>9827037.67121808</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>9852060.876229042</v>
+        <v>9852060.876229046</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>9864842.613662552</v>
+        <v>9864842.613662554</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>9890959.253416283</v>
+        <v>9890959.253416279</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>9904299.42273156</v>
+        <v>9904299.422731558</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>9945479.712150035</v>
+        <v>9945479.712150041</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>9959602.286503583</v>
+        <v>9959602.286503587</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>9988458.152623059</v>
+        <v>9988458.152623057</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>10112460.92779494</v>
+        <v>10112460.92779493</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>10128977.63625392</v>
+        <v>10128977.63625391</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>10215178.60960512</v>
+        <v>10215178.60960511</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>10269918.3233044</v>
+        <v>10269918.32330441</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>10327042.00025603</v>
+        <v>10327042.00025604</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>10346630.62287393</v>
+        <v>10346630.62287394</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>10386652.33980904</v>
+        <v>10386652.33980905</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>10427826.71716062</v>
+        <v>10427826.71716063</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>10536023.18056138</v>
+        <v>10536023.18056139</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>10652169.69492096</v>
+        <v>10652169.69492097</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>10802854.1018259</v>
+        <v>10802854.10182592</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>10829236.21746703</v>
+        <v>10829236.21746702</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>10910659.5618949</v>
+        <v>10910659.56189488</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>10938577.52935287</v>
+        <v>10938577.52935288</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>11024739.04377054</v>
+        <v>11024739.04377055</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>11054280.93655487</v>
+        <v>11054280.93655486</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>11114631.55059676</v>
+        <v>11114631.55059677</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>11145452.13151778</v>
+        <v>11145452.13151779</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>11176710.9363889</v>
+        <v>11176710.93638891</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>11208414.09898917</v>
+        <v>11208414.09898918</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>11240567.83659802</v>
+        <v>11240567.83659801</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>11306252.33000314</v>
+        <v>11306252.33000315</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>11339795.94772163</v>
+        <v>11339795.94772165</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>11478800.3957228</v>
+        <v>11478800.39572278</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>11514792.94097076</v>
+        <v>11514792.94097075</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>11588316.5624101</v>
+        <v>11588316.56241009</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>11663939.47056307</v>
+        <v>11663939.47056305</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>11741720.52859485</v>
+        <v>11741720.52859483</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>11821720.20055422</v>
+        <v>11821720.20055423</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>11904000.5931751</v>
+        <v>11904000.59317512</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>12031837.55073547</v>
+        <v>12031837.55073549</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>12165172.71127895</v>
+        <v>12165172.71127893</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>12210879.37353439</v>
+        <v>12210879.37353437</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>12257231.43274767</v>
+        <v>12257231.43274766</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>12549405.79973246</v>
+        <v>12549405.79973245</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>12600532.55876756</v>
+        <v>12600532.55876755</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3288,7 +3288,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>12652379.61636917</v>
+        <v>12652379.61636916</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>12704956.90838696</v>
+        <v>12704956.90838695</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3340,7 +3340,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>12758274.50363572</v>
+        <v>12758274.50363573</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>12867171.55441295</v>
+        <v>12867171.55441294</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>12922771.82823937</v>
+        <v>12922771.82823936</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>13036328.96658856</v>
+        <v>13036328.96658855</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>13094307.49564697</v>
+        <v>13094307.49564698</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>13212719.72511458</v>
+        <v>13212719.72511459</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>13396646.21858264</v>
+        <v>13396646.21858263</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3704,7 +3704,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>13588423.12231421</v>
+        <v>13588423.12231422</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>13788377.89971155</v>
+        <v>13788377.89971156</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>13856905.30327276</v>
+        <v>13856905.30327277</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>13926392.06865251</v>
+        <v>13926392.0686525</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3886,7 +3886,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>14068296.39119653</v>
+        <v>14068296.39119654</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>14140740.74370418</v>
+        <v>14140740.74370419</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>14214198.05363425</v>
+        <v>14214198.05363424</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>14288682.17197834</v>
+        <v>14288682.17197832</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>14440787.17004608</v>
+        <v>14440787.17004609</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>14597170.31153303</v>
+        <v>14597170.31153304</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>14677002.83638585</v>
+        <v>14677002.83638586</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>15007625.17558084</v>
+        <v>15007625.17558085</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>15179929.70433137</v>
+        <v>15179929.70433136</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>15447490.57634535</v>
+        <v>15447490.57634534</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>15539171.91449121</v>
+        <v>15539171.91449122</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>15918828.66511307</v>
+        <v>15918828.66511306</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>16017064.53025192</v>
+        <v>16017064.53025193</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>16217650.07374287</v>
+        <v>16217650.07374288</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>16320037.2776983</v>
+        <v>16320037.27769832</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4588,7 +4588,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>16423846.22037804</v>
+        <v>16423846.22037805</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>16635807.2698606</v>
+        <v>16635807.26986059</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>16853691.84859345</v>
+        <v>16853691.84859346</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>17191983.36957933</v>
+        <v>17191983.36957932</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>17307888.60663879</v>
+        <v>17307888.60663878</v>
       </c>
       <c r="C168" t="n">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>17544541.00880251</v>
+        <v>17544541.0088025</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>17787797.71318749</v>
+        <v>17787797.71318747</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>17911959.52948253</v>
+        <v>17911959.52948254</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -4978,7 +4978,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>18165466.67633933</v>
+        <v>18165466.67633934</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>18294859.65925022</v>
+        <v>18294859.65925021</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>18426044.59687835</v>
+        <v>18426044.59687834</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>18559046.19540692</v>
+        <v>18559046.19540691</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>18693889.52499356</v>
+        <v>18693889.52499355</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>18969203.51968393</v>
+        <v>18969203.51968392</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>19109726.20842761</v>
+        <v>19109726.20842762</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>19396635.96375125</v>
+        <v>19396635.96375124</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>19994683.41280407</v>
+        <v>19994683.41280405</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>20306276.67150533</v>
+        <v>20306276.67150532</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>20465318.82994959</v>
+        <v>20465318.82994958</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>20626565.19976958</v>
+        <v>20626565.1997696</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>20790046.77447134</v>
+        <v>20790046.77447133</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -5472,7 +5472,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>20955795.03956803</v>
+        <v>20955795.03956804</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>21466962.43913847</v>
+        <v>21466962.43913848</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>21642102.54192539</v>
+        <v>21642102.5419254</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>21819674.52825409</v>
+        <v>21819674.5282541</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -5628,7 +5628,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>21999713.07169281</v>
+        <v>21999713.07169282</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
@@ -5654,7 +5654,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>22182253.41973091</v>
+        <v>22182253.41973092</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
@@ -5680,7 +5680,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>22367331.40693752</v>
+        <v>22367331.40693753</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -5784,7 +5784,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>23133757.75744253</v>
+        <v>23133757.75744252</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -5836,7 +5836,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>23533173.9648868</v>
+        <v>23533173.96488683</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -5862,7 +5862,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>23737071.06213822</v>
+        <v>23737071.0621382</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>23943815.32633283</v>
+        <v>23943815.32633284</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>24153448.53781379</v>
+        <v>24153448.53781381</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -5966,7 +5966,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>24581552.6556812</v>
+        <v>24581552.65568119</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -5992,7 +5992,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>24800110.90973464</v>
+        <v>24800110.90973465</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>25021732.84456745</v>
+        <v>25021732.84456744</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>25246464.1420096</v>
+        <v>25246464.14200961</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>25705441.77094904</v>
+        <v>25705441.77094905</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>25939783.74902083</v>
+        <v>25939783.74902085</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>26418419.90201446</v>
+        <v>26418419.90201447</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -6200,7 +6200,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>26662815.2228392</v>
+        <v>26662815.22283918</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>26910664.41412038</v>
+        <v>26910664.41412037</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>27162020.50153065</v>
+        <v>27162020.50153068</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>27416937.53754197</v>
+        <v>27416937.53754196</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>27675470.62793937</v>
+        <v>27675470.62793938</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -6330,7 +6330,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>27937675.95907666</v>
+        <v>27937675.95907665</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>28473333.66066355</v>
+        <v>28473333.66066352</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>28746904.0626247</v>
+        <v>28746904.06262469</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>29024382.82827651</v>
+        <v>29024382.8282765</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>29305831.98258653</v>
+        <v>29305831.98258651</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>29591314.81098149</v>
+        <v>29591314.8109815</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -6512,7 +6512,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>29880895.89218163</v>
+        <v>29880895.89218164</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>30174641.13188243</v>
+        <v>30174641.13188244</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>30472617.79729595</v>
+        <v>30472617.79729596</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6616,7 +6616,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>31081541.49503212</v>
+        <v>31081541.49503215</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>31392630.19245595</v>
+        <v>31392630.19245597</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>32028426.70443346</v>
+        <v>32028426.70443344</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>32353285.35358654</v>
+        <v>32353285.35358655</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>32682887.50755639</v>
+        <v>32682887.50755637</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -6772,7 +6772,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>33017312.67519713</v>
+        <v>33017312.67519714</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -6798,7 +6798,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>33356642.07777412</v>
+        <v>33356642.07777413</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>34764688.85988358</v>
+        <v>34764688.8598836</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>35129820.78792636</v>
+        <v>35129820.78792638</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -6954,7 +6954,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>35500382.73975836</v>
+        <v>35500382.73975837</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>36258176.70940299</v>
+        <v>36258176.70940297</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>36645603.98910773</v>
+        <v>36645603.98910774</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>37438023.62291134</v>
+        <v>37438023.62291133</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>37843224.52163552</v>
+        <v>37843224.5216355</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -7136,7 +7136,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>38254562.37895165</v>
+        <v>38254562.37895164</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>38672147.35962817</v>
+        <v>38672147.35962816</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>39526511.68109415</v>
+        <v>39526511.68109412</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
@@ -7266,7 +7266,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>40407248.90799882</v>
+        <v>40407248.90799879</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>40857809.85713132</v>
+        <v>40857809.85713134</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>41315332.43359582</v>
+        <v>41315332.43359581</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
@@ -7344,7 +7344,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>41779945.16893543</v>
+        <v>41779945.16893546</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>42251779.44700654</v>
+        <v>42251779.44700655</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -7448,7 +7448,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>43711969.37515786</v>
+        <v>43711969.37515783</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>44214062.73249478</v>
+        <v>44214062.73249477</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>44724079.35898881</v>
+        <v>44724079.35898879</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>46303182.27101388</v>
+        <v>46303182.27101389</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
@@ -7630,7 +7630,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>47398366.40238117</v>
+        <v>47398366.40238122</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
@@ -7708,7 +7708,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>49108112.33262935</v>
+        <v>49108112.33262933</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>49696577.22198176</v>
+        <v>49696577.22198174</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>50294615.36995563</v>
+        <v>50294615.36995561</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>50902411.39891647</v>
+        <v>50902411.39891646</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>51520153.68523412</v>
+        <v>51520153.68523411</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>52148034.39888393</v>
+        <v>52148034.39888392</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>52786249.54029126</v>
+        <v>52786249.54029128</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>53434998.97416853</v>
+        <v>53434998.97416854</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -7916,7 +7916,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>54094486.46008641</v>
+        <v>54094486.4600864</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>54764919.67950796</v>
+        <v>54764919.67950793</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>55446510.25900538</v>
+        <v>55446510.25900539</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>56139473.78936784</v>
+        <v>56139473.78936785</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
@@ -8020,7 +8020,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>56844029.840299</v>
+        <v>56844029.84029899</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>57560401.97039207</v>
+        <v>57560401.9703921</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>58288817.73206149</v>
+        <v>58288817.73206148</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>59029508.67109811</v>
+        <v>59029508.67109804</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>59782710.32050814</v>
+        <v>59782710.32050815</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -8150,7 +8150,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>60548662.1882857</v>
+        <v>60548662.18828571</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>61327607.73875846</v>
+        <v>61327607.73875848</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>62925473.36692365</v>
+        <v>62925473.36692366</v>
       </c>
       <c r="C300" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>65276355.49396768</v>
+        <v>65276355.49396701</v>
       </c>
       <c r="C303" t="n">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>65986539.69569942</v>
+        <v>65986539.69569809</v>
       </c>
       <c r="C304" t="n">
         <v>0</v>
@@ -8358,7 +8358,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>66709114.57605489</v>
+        <v>66709114.57605292</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -8384,7 +8384,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>67444312.20133808</v>
+        <v>67444312.20133552</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>68192367.54839109</v>
+        <v>68192367.548388</v>
       </c>
       <c r="C307" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>68953518.41384211</v>
+        <v>68953518.41383845</v>
       </c>
       <c r="C308" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>69728005.31426442</v>
+        <v>69728005.31426026</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>70516071.37691242</v>
+        <v>70516071.37690777</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -8514,7 +8514,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>71317962.22070003</v>
+        <v>71317962.22069485</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>72133925.82709911</v>
+        <v>72133925.82709359</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>72964212.400638</v>
+        <v>72964212.40063205</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>73809074.21868962</v>
+        <v>73809074.21868324</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>74668765.47025132</v>
+        <v>74668765.47024465</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>75543542.08342943</v>
+        <v>75543542.08342245</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>76433661.54135512</v>
+        <v>76433661.54134789</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>77339382.68627734</v>
+        <v>77339382.68626989</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>78260965.51159352</v>
+        <v>78260965.51158582</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>79198670.94160119</v>
+        <v>79198670.94159332</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>80152760.59877808</v>
+        <v>80152760.59877004</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>81123496.55841869</v>
+        <v>81123496.55841063</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>82111141.09048834</v>
+        <v>82111141.09048013</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>83115956.38858035</v>
+        <v>83115956.38857216</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
@@ -8878,7 +8878,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>84138204.28589885</v>
+        <v>84138204.28589059</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>85178145.95822079</v>
+        <v>85178145.95821255</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>86236041.61382928</v>
+        <v>86236041.61382122</v>
       </c>
       <c r="C327" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>87312150.17045145</v>
+        <v>87312150.17044349</v>
       </c>
       <c r="C328" t="n">
         <v>0</v>
@@ -8982,7 +8982,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>88406728.91927181</v>
+        <v>88406728.91926402</v>
       </c>
       <c r="C329" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>89520033.17614186</v>
+        <v>89520033.17613426</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>90652315.9201491</v>
+        <v>90652315.92014173</v>
       </c>
       <c r="C331" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>91803827.4197598</v>
+        <v>91803827.41975272</v>
       </c>
       <c r="C332" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>92974814.84680007</v>
+        <v>92974814.84679341</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>94165521.87859474</v>
+        <v>94165521.87858836</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>95376188.28863515</v>
+        <v>95376188.28862908</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>96607049.52620946</v>
+        <v>96607049.52620381</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>97858336.28548211</v>
+        <v>97858336.28547707</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>99130274.0645742</v>
+        <v>99130274.06456968</v>
       </c>
       <c r="C338" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>100423082.7152523</v>
+        <v>100423082.7152483</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
@@ -9268,7 +9268,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>101736975.9839024</v>
+        <v>101736975.9838991</v>
       </c>
       <c r="C340" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>103072161.0445232</v>
+        <v>103072161.0445206</v>
       </c>
       <c r="C341" t="n">
         <v>0</v>
@@ -9320,7 +9320,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>104428838.0245382</v>
+        <v>104428838.0245363</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -9346,7 +9346,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>105807199.5242908</v>
+        <v>105807199.5242895</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>107207430.131149</v>
+        <v>107207430.1311485</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>108629705.92921</v>
+        <v>108629705.9292103</v>
       </c>
       <c r="C345" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>110074194.0056545</v>
+        <v>110074194.0056557</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>111541051.9548666</v>
+        <v>111541051.9548687</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>113030427.381487</v>
+        <v>113030427.3814902</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>114542457.4036326</v>
+        <v>114542457.4036368</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
@@ -9528,7 +9528,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>116077268.1575604</v>
+        <v>116077268.1575655</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>117634974.3051146</v>
+        <v>117634974.3051209</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -9580,7 +9580,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>119215678.5453372</v>
+        <v>119215678.5453447</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -9606,7 +9606,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>120819471.1316695</v>
+        <v>120819471.1316782</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>122446429.3962106</v>
+        <v>122446429.3962204</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>124096617.2825355</v>
+        <v>124096617.2825466</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>125770084.888605</v>
+        <v>125770084.8886175</v>
       </c>
       <c r="C356" t="n">
         <v>0</v>
@@ -9710,7 +9710,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>127466868.0213228</v>
+        <v>127466868.0213366</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>127115645.3330618</v>
+        <v>127115645.333092</v>
       </c>
       <c r="C358" t="n">
-        <v>2120495.132681775</v>
+        <v>2120495.132666372</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -9762,10 +9762,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>126760281.626218</v>
+        <v>126760281.6262653</v>
       </c>
       <c r="C359" t="n">
-        <v>4269126.018944059</v>
+        <v>4269126.01891268</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -9788,10 +9788,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>126400702.6205219</v>
+        <v>126400702.6205869</v>
       </c>
       <c r="C360" t="n">
-        <v>6445958.875186722</v>
+        <v>6445958.87513879</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>126036832.0690583</v>
+        <v>126036832.0691416</v>
       </c>
       <c r="C361" t="n">
-        <v>8651045.628523767</v>
+        <v>8651045.628458709</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>125668591.7078803</v>
+        <v>125668591.7079825</v>
       </c>
       <c r="C362" t="n">
-        <v>10884423.59630216</v>
+        <v>10884423.59621932</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -9866,10 +9866,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>125295901.2043836</v>
+        <v>125295901.2045053</v>
       </c>
       <c r="C363" t="n">
-        <v>13146115.18853194</v>
+        <v>13146115.18843071</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>124918678.1044921</v>
+        <v>124918678.104634</v>
       </c>
       <c r="C364" t="n">
-        <v>15436127.63475353</v>
+        <v>15436127.63463333</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
@@ -9918,10 +9918,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>124536837.778729</v>
+        <v>124536837.7788917</v>
       </c>
       <c r="C365" t="n">
-        <v>17754452.73681116</v>
+        <v>17754452.7366713</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -9944,10 +9944,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>124150293.3672638</v>
+        <v>124150293.367448</v>
       </c>
       <c r="C366" t="n">
-        <v>20101066.64894167</v>
+        <v>20101066.64878157</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -9970,10 +9970,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>123758955.7240503</v>
+        <v>123758955.7242566</v>
       </c>
       <c r="C367" t="n">
-        <v>22475929.68651678</v>
+        <v>22475929.68633585</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -9996,10 +9996,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>123362733.3601944</v>
+        <v>123362733.3604234</v>
       </c>
       <c r="C368" t="n">
-        <v>24878986.1646886</v>
+        <v>24878986.1644862</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -10022,10 +10022,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>122961532.3867186</v>
+        <v>122961532.386971</v>
       </c>
       <c r="C369" t="n">
-        <v>27310164.26809981</v>
+        <v>27310164.26787535</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
@@ -10048,10 +10048,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>122555256.4569192</v>
+        <v>122555256.4571956</v>
       </c>
       <c r="C370" t="n">
-        <v>29769375.9527091</v>
+        <v>29769375.95246188</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>122143806.708545</v>
+        <v>122143806.708846</v>
       </c>
       <c r="C371" t="n">
-        <v>32256516.88067047</v>
+        <v>32256516.88039989</v>
       </c>
       <c r="D371" t="n">
         <v>0</v>
@@ -10100,10 +10100,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>121727081.7060594</v>
+        <v>121727081.7063856</v>
       </c>
       <c r="C372" t="n">
-        <v>34771466.38907798</v>
+        <v>34771466.38878351</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>121304977.3832885</v>
+        <v>121304977.3836406</v>
       </c>
       <c r="C373" t="n">
-        <v>34771266.53862128</v>
+        <v>34771266.53832655</v>
       </c>
       <c r="D373" t="n">
-        <v>2718536.738252207</v>
+        <v>2718536.73822616</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -10152,13 +10152,13 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>120877386.9867958</v>
+        <v>120877386.9871743</v>
       </c>
       <c r="C374" t="n">
-        <v>34771035.28460226</v>
+        <v>34771035.28430726</v>
       </c>
       <c r="D374" t="n">
-        <v>5466526.968423937</v>
+        <v>5466526.968371317</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10178,13 +10178,13 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>120444201.020366</v>
+        <v>120444201.0207716</v>
       </c>
       <c r="C375" t="n">
-        <v>34770768.0383164</v>
+        <v>34770768.03802107</v>
       </c>
       <c r="D375" t="n">
-        <v>8243794.407195001</v>
+        <v>8243794.407115226</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -10204,13 +10204,13 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>120005307.1910304</v>
+        <v>120005307.1914638</v>
       </c>
       <c r="C376" t="n">
-        <v>34770459.59760308</v>
+        <v>34770459.59730738</v>
       </c>
       <c r="D376" t="n">
-        <v>11050146.21432034</v>
+        <v>11050146.21421274</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -10230,13 +10230,13 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>119560590.3571097</v>
+        <v>119560590.3575715</v>
       </c>
       <c r="C377" t="n">
-        <v>34770104.07376886</v>
+        <v>34770104.07347275</v>
       </c>
       <c r="D377" t="n">
-        <v>13885373.22589498</v>
+        <v>13885373.22575905</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10256,13 +10256,13 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>119109932.4788037</v>
+        <v>119109932.4792943</v>
       </c>
       <c r="C378" t="n">
-        <v>34769694.81113171</v>
+        <v>34769694.81083512</v>
       </c>
       <c r="D378" t="n">
-        <v>16749250.23349152</v>
+        <v>16749250.23332661</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>118653212.5719101</v>
+        <v>118653212.5724301</v>
       </c>
       <c r="C379" t="n">
-        <v>34769224.29862911</v>
+        <v>34769224.29833198</v>
       </c>
       <c r="D379" t="n">
-        <v>19641536.30940586</v>
+        <v>19641536.30921157</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10308,13 +10308,13 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>118190306.6653102</v>
+        <v>118190306.66586</v>
       </c>
       <c r="C380" t="n">
-        <v>34768684.07291604</v>
+        <v>34768684.07261831</v>
       </c>
       <c r="D380" t="n">
-        <v>22561975.1780561</v>
+        <v>22561975.17783191</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10334,13 +10334,13 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>117721087.7629149</v>
+        <v>117721087.7634951</v>
       </c>
       <c r="C381" t="n">
-        <v>34768064.6123665</v>
+        <v>34768064.61206807</v>
       </c>
       <c r="D381" t="n">
-        <v>25510295.63338011</v>
+        <v>25510295.63312546</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>117245425.8108276</v>
+        <v>117245425.8114388</v>
       </c>
       <c r="C382" t="n">
-        <v>34767355.2213835</v>
+        <v>34767355.2210843</v>
       </c>
       <c r="D382" t="n">
-        <v>28486212.00186782</v>
+        <v>28486212.00158232</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -10386,16 +10386,16 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>116763187.6705364</v>
+        <v>116763187.6711791</v>
       </c>
       <c r="C383" t="n">
-        <v>34766543.90441952</v>
+        <v>34766543.90411945</v>
       </c>
       <c r="D383" t="n">
-        <v>28486158.64943231</v>
+        <v>28486158.64914671</v>
       </c>
       <c r="E383" t="n">
-        <v>3356997.075403923</v>
+        <v>3356997.075369049</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -10412,16 +10412,16 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>116274237.0990138</v>
+        <v>116274237.0996883</v>
       </c>
       <c r="C384" t="n">
-        <v>34765617.22911116</v>
+        <v>34765617.2288101</v>
       </c>
       <c r="D384" t="n">
-        <v>28486095.04296857</v>
+        <v>28486095.04268285</v>
       </c>
       <c r="E384" t="n">
-        <v>6744166.996572085</v>
+        <v>6744166.99650198</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -10438,16 +10438,16 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>115778434.736661</v>
+        <v>115778434.7373678</v>
       </c>
       <c r="C385" t="n">
-        <v>34764560.17794127</v>
+        <v>34764560.1776391</v>
       </c>
       <c r="D385" t="n">
-        <v>28486019.33852907</v>
+        <v>28486019.3382432</v>
       </c>
       <c r="E385" t="n">
-        <v>10161147.59379066</v>
+        <v>10161147.59368486</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -10464,16 +10464,16 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>115275638.1041006</v>
+        <v>115275638.1048402</v>
       </c>
       <c r="C386" t="n">
-        <v>34763355.98785824</v>
+        <v>34763355.98755483</v>
       </c>
       <c r="D386" t="n">
-        <v>28485929.38585627</v>
+        <v>28485929.38557024</v>
       </c>
       <c r="E386" t="n">
-        <v>13607563.43184853</v>
+        <v>13607563.43170678</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
@@ -10490,16 +10490,16 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>114765701.6088791</v>
+        <v>114765701.6096518</v>
       </c>
       <c r="C387" t="n">
-        <v>34761985.97730759</v>
+        <v>34761985.9770028</v>
       </c>
       <c r="D387" t="n">
-        <v>28485822.68228664</v>
+        <v>28485822.68200041</v>
       </c>
       <c r="E387" t="n">
-        <v>17083026.61928487</v>
+        <v>17083026.6191069</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -10516,16 +10516,16 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>114248476.5632037</v>
+        <v>114248476.5640099</v>
       </c>
       <c r="C388" t="n">
-        <v>34760429.36016535</v>
+        <v>34760429.359859</v>
       </c>
       <c r="D388" t="n">
-        <v>28485696.32057565</v>
+        <v>28485696.32028918</v>
       </c>
       <c r="E388" t="n">
-        <v>20587137.6676071</v>
+        <v>20587137.66739261</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -10542,16 +10542,16 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>113723811.213899</v>
+        <v>113723811.214739</v>
       </c>
       <c r="C389" t="n">
-        <v>34758663.04610836</v>
+        <v>34758663.04580028</v>
       </c>
       <c r="D389" t="n">
-        <v>28485546.92998797</v>
+        <v>28485546.92970125</v>
       </c>
       <c r="E389" t="n">
-        <v>24119486.39893585</v>
+        <v>24119486.39868478</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -10568,16 +10568,16 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>113191550.7858225</v>
+        <v>113191550.7866967</v>
       </c>
       <c r="C390" t="n">
-        <v>34756661.42701329</v>
+        <v>34756661.42670328</v>
       </c>
       <c r="D390" t="n">
-        <v>28485370.60994923</v>
+        <v>28485370.6096622</v>
       </c>
       <c r="E390" t="n">
-        <v>27679652.90029358</v>
+        <v>27679652.90000577</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
@@ -10594,16 +10594,16 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>112651537.5400351</v>
+        <v>112651537.5409436</v>
       </c>
       <c r="C391" t="n">
-        <v>34754396.14904517</v>
+        <v>34754396.14873302</v>
       </c>
       <c r="D391" t="n">
-        <v>28485162.85550909</v>
+        <v>28485162.85522171</v>
       </c>
       <c r="E391" t="n">
-        <v>31267208.5225048</v>
+        <v>31267208.52218035</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>112103610.8480688</v>
+        <v>112103610.8490118</v>
       </c>
       <c r="C392" t="n">
-        <v>34751835.87017944</v>
+        <v>34751835.8698649</v>
       </c>
       <c r="D392" t="n">
-        <v>28484918.47382017</v>
+        <v>28484918.47353238</v>
       </c>
       <c r="E392" t="n">
-        <v>34881716.92142747</v>
+        <v>34881716.92106634</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -10646,19 +10646,19 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>111547607.283683</v>
+        <v>111547607.2846608</v>
       </c>
       <c r="C393" t="n">
-        <v>34748946.00299793</v>
+        <v>34748946.00268075</v>
       </c>
       <c r="D393" t="n">
-        <v>28484631.49079319</v>
+        <v>28484631.49050492</v>
       </c>
       <c r="E393" t="n">
-        <v>34881673.86303289</v>
+        <v>34881673.86267167</v>
       </c>
       <c r="F393" t="n">
-        <v>2987728.188194111</v>
+        <v>2987728.188164249</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -10672,19 +10672,19 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>110983360.7335348</v>
+        <v>110983360.7345474</v>
       </c>
       <c r="C394" t="n">
-        <v>34745688.44271215</v>
+        <v>34745688.44239204</v>
       </c>
       <c r="D394" t="n">
-        <v>28484295.04704924</v>
+        <v>28484295.04676041</v>
       </c>
       <c r="E394" t="n">
-        <v>34881621.71230095</v>
+        <v>34881621.71193963</v>
       </c>
       <c r="F394" t="n">
-        <v>5996848.886204481</v>
+        <v>5996848.886144887</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>
@@ -10698,19 +10698,19 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>110410702.528224</v>
+        <v>110410702.5292716</v>
       </c>
       <c r="C395" t="n">
-        <v>34742021.28049479</v>
+        <v>34742021.28017143</v>
       </c>
       <c r="D395" t="n">
-        <v>28483901.28225363</v>
+        <v>28483901.28196419</v>
       </c>
       <c r="E395" t="n">
-        <v>34881558.66923601</v>
+        <v>34881558.66887456</v>
       </c>
       <c r="F395" t="n">
-        <v>9026992.02074885</v>
+        <v>9026992.020659788</v>
       </c>
       <c r="G395" t="n">
         <v>0</v>
@@ -10724,19 +10724,19 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>109829461.5951944</v>
+        <v>109829461.596277</v>
       </c>
       <c r="C396" t="n">
-        <v>34737898.50234568</v>
+        <v>34737898.50201873</v>
       </c>
       <c r="D396" t="n">
-        <v>28483441.20688612</v>
+        <v>28483441.20659596</v>
       </c>
       <c r="E396" t="n">
-        <v>34881482.60365737</v>
+        <v>34881482.60329578</v>
       </c>
       <c r="F396" t="n">
-        <v>12077785.19528145</v>
+        <v>12077785.19516329</v>
       </c>
       <c r="G396" t="n">
         <v>0</v>
@@ -10750,19 +10750,19 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>109239464.6349906</v>
+        <v>109239464.6361083</v>
       </c>
       <c r="C397" t="n">
-        <v>34733269.6738798</v>
+        <v>34733269.67354891</v>
       </c>
       <c r="D397" t="n">
-        <v>28482904.56047888</v>
+        <v>28482904.56018788</v>
       </c>
       <c r="E397" t="n">
-        <v>34881391.00005063</v>
+        <v>34881390.99968888</v>
       </c>
       <c r="F397" t="n">
-        <v>15148854.72769765</v>
+        <v>15148854.72755081</v>
       </c>
       <c r="G397" t="n">
         <v>0</v>
@@ -10776,19 +10776,19 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>108640536.3223711</v>
+        <v>108640536.3235238</v>
       </c>
       <c r="C398" t="n">
-        <v>34728079.61160457</v>
+        <v>34728079.61126933</v>
       </c>
       <c r="D398" t="n">
-        <v>28482279.65533993</v>
+        <v>28482279.65504799</v>
       </c>
       <c r="E398" t="n">
-        <v>34881280.8942709</v>
+        <v>34881280.89390893</v>
       </c>
       <c r="F398" t="n">
-        <v>18239826.71363767</v>
+        <v>18239826.71346271</v>
       </c>
       <c r="G398" t="n">
         <v>0</v>
@@ -10802,19 +10802,19 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>108032499.5337726</v>
+        <v>108032499.5349602</v>
       </c>
       <c r="C399" t="n">
-        <v>34722268.04145002</v>
+        <v>34722268.04111002</v>
       </c>
       <c r="D399" t="n">
-        <v>28481553.2047759</v>
+        <v>28481553.20448289</v>
       </c>
       <c r="E399" t="n">
-        <v>34881148.8010911</v>
+        <v>34881148.80072889</v>
       </c>
       <c r="F399" t="n">
-        <v>21350328.11277054</v>
+        <v>21350328.11256806</v>
       </c>
       <c r="G399" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>107415175.6026019</v>
+        <v>107415175.6038243</v>
       </c>
       <c r="C400" t="n">
-        <v>34715769.24553012</v>
+        <v>34715769.24518486</v>
       </c>
       <c r="D400" t="n">
-        <v>28480710.1348367</v>
+        <v>28480710.13454246</v>
       </c>
       <c r="E400" t="n">
-        <v>34880990.63149901</v>
+        <v>34880990.63113654</v>
       </c>
       <c r="F400" t="n">
-        <v>24479987.85526074</v>
+        <v>24479987.85503145</v>
       </c>
       <c r="G400" t="n">
         <v>0</v>
@@ -10854,19 +10854,19 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>106788384.603797</v>
+        <v>106788384.605054</v>
       </c>
       <c r="C401" t="n">
-        <v>34708511.69834414</v>
+        <v>34708511.69799314</v>
       </c>
       <c r="D401" t="n">
-        <v>28479733.37862802</v>
+        <v>28479733.37833238</v>
       </c>
       <c r="E401" t="n">
-        <v>34880801.59855505</v>
+        <v>34880801.59819224</v>
       </c>
       <c r="F401" t="n">
-        <v>27628437.96545145</v>
+        <v>27628437.96519616</v>
       </c>
       <c r="G401" t="n">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>106151945.6690543</v>
+        <v>106151945.6703457</v>
       </c>
       <c r="C402" t="n">
-        <v>34700417.69387536</v>
+        <v>34700417.69351807</v>
       </c>
       <c r="D402" t="n">
-        <v>28478603.65227721</v>
+        <v>28478603.65197999</v>
       </c>
       <c r="E402" t="n">
-        <v>34880576.11053022</v>
+        <v>34880576.11016703</v>
       </c>
       <c r="F402" t="n">
-        <v>30795314.6996068</v>
+        <v>30795314.69932651</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
@@ -10906,22 +10906,22 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>105505677.3340503</v>
+        <v>105505677.3353757</v>
       </c>
       <c r="C403" t="n">
-        <v>34691402.96530711</v>
+        <v>34691402.96494296</v>
       </c>
       <c r="D403" t="n">
-        <v>28477299.21169612</v>
+        <v>28477299.2113971</v>
       </c>
       <c r="E403" t="n">
-        <v>34880307.64995259</v>
+        <v>34880307.64958896</v>
       </c>
       <c r="F403" t="n">
-        <v>30795287.738451</v>
+        <v>30795287.73817065</v>
       </c>
       <c r="G403" t="n">
-        <v>2507576.64739339</v>
+        <v>2507576.647374517</v>
       </c>
       <c r="H403" t="n">
         <v>0</v>
@@ -10932,22 +10932,22 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>104849397.9189136</v>
+        <v>104849397.9202727</v>
       </c>
       <c r="C404" t="n">
-        <v>34681376.29935388</v>
+        <v>34681376.29898224</v>
       </c>
       <c r="D404" t="n">
-        <v>28475795.58936337</v>
+        <v>28475795.58906233</v>
       </c>
       <c r="E404" t="n">
-        <v>34879988.63710054</v>
+        <v>34879988.63673639</v>
       </c>
       <c r="F404" t="n">
-        <v>30795254.64061551</v>
+        <v>30795254.64033512</v>
       </c>
       <c r="G404" t="n">
-        <v>5029106.542476802</v>
+        <v>5029106.542440041</v>
       </c>
       <c r="H404" t="n">
         <v>0</v>
@@ -10958,22 +10958,22 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>104182925.9430993</v>
+        <v>104182925.9444918</v>
       </c>
       <c r="C405" t="n">
-        <v>34670239.14749537</v>
+        <v>34670239.14711558</v>
       </c>
       <c r="D405" t="n">
-        <v>28474065.31045053</v>
+        <v>28474065.3101472</v>
       </c>
       <c r="E405" t="n">
-        <v>34879610.27639676</v>
+        <v>34879610.27603199</v>
       </c>
       <c r="F405" t="n">
-        <v>30795214.09477874</v>
+        <v>30795214.09449827</v>
       </c>
       <c r="G405" t="n">
-        <v>7564319.777174477</v>
+        <v>7564319.777120806</v>
       </c>
       <c r="H405" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>103506080.5757051</v>
+        <v>103506080.5771305</v>
       </c>
       <c r="C406" t="n">
-        <v>34657885.2367019</v>
+        <v>34657885.23631328</v>
       </c>
       <c r="D406" t="n">
-        <v>28472077.58774309</v>
+        <v>28472077.58743718</v>
       </c>
       <c r="E406" t="n">
-        <v>34879162.38407826</v>
+        <v>34879162.38371278</v>
       </c>
       <c r="F406" t="n">
-        <v>30795164.52942156</v>
+        <v>30795164.52914102</v>
       </c>
       <c r="G406" t="n">
-        <v>10112953.61890501</v>
+        <v>10112953.61883558</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -11010,22 +11010,22 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>102818682.1221328</v>
+        <v>102818682.1235906</v>
       </c>
       <c r="C407" t="n">
-        <v>34644200.18254877</v>
+        <v>34644200.18215054</v>
       </c>
       <c r="D407" t="n">
-        <v>28469797.99496134</v>
+        <v>28469797.99465253</v>
       </c>
       <c r="E407" t="n">
-        <v>34878633.19544885</v>
+        <v>34878633.19508256</v>
       </c>
       <c r="F407" t="n">
-        <v>30795104.06565264</v>
+        <v>30795104.065372</v>
       </c>
       <c r="G407" t="n">
-        <v>12674753.45617989</v>
+        <v>12674753.45609601</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>102120552.5478458</v>
+        <v>102120552.5493354</v>
       </c>
       <c r="C408" t="n">
-        <v>34629061.10793123</v>
+        <v>34629061.1075226</v>
       </c>
       <c r="D408" t="n">
-        <v>28467188.11826868</v>
+        <v>28467188.11795663</v>
       </c>
       <c r="E408" t="n">
-        <v>34878009.14996392</v>
+        <v>34878009.14959667</v>
       </c>
       <c r="F408" t="n">
-        <v>30795030.46241949</v>
+        <v>30795030.46213873</v>
       </c>
       <c r="G408" t="n">
-        <v>15249473.74301258</v>
+        <v>15249473.74291555</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>101411516.0397964</v>
+        <v>101411516.0413173</v>
       </c>
       <c r="C409" t="n">
-        <v>34612336.27090878</v>
+        <v>34612336.2704889</v>
       </c>
       <c r="D409" t="n">
-        <v>28464205.18596876</v>
+        <v>28464205.18565307</v>
       </c>
       <c r="E409" t="n">
-        <v>34877274.65235565</v>
+        <v>34877274.65198731</v>
       </c>
       <c r="F409" t="n">
-        <v>30794941.05306349</v>
+        <v>30794941.0527826</v>
       </c>
       <c r="G409" t="n">
-        <v>17836878.93928337</v>
+        <v>17836878.93917467</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
@@ -11088,22 +11088,22 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>100691399.6059053</v>
+        <v>100691399.6074567</v>
       </c>
       <c r="C410" t="n">
-        <v>34593884.70552212</v>
+        <v>34593884.7050901</v>
       </c>
       <c r="D410" t="n">
-        <v>28460801.67663779</v>
+        <v>28460801.67631805</v>
       </c>
       <c r="E410" t="n">
-        <v>34876411.80798567</v>
+        <v>34876411.80761607</v>
       </c>
       <c r="F410" t="n">
-        <v>30794832.67206933</v>
+        <v>30794832.67178827</v>
       </c>
       <c r="G410" t="n">
-        <v>20436744.44406987</v>
+        <v>20436744.44395111</v>
       </c>
       <c r="H410" t="n">
         <v>0</v>
@@ -11114,22 +11114,22 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>99960033.71275677</v>
+        <v>99960033.71433799</v>
       </c>
       <c r="C411" t="n">
-        <v>34573555.87973639</v>
+        <v>34573555.87929129</v>
       </c>
       <c r="D411" t="n">
-        <v>28456924.90621789</v>
+        <v>28456924.90589362</v>
       </c>
       <c r="E411" t="n">
-        <v>34875400.13061195</v>
+        <v>34875400.13024089</v>
       </c>
       <c r="F411" t="n">
-        <v>30794701.57074784</v>
+        <v>30794701.57046659</v>
       </c>
       <c r="G411" t="n">
-        <v>23048857.51883147</v>
+        <v>23048857.51870434</v>
       </c>
       <c r="H411" t="n">
         <v>0</v>
@@ -11140,22 +11140,22 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>99217252.96144278</v>
+        <v>99217252.96305305</v>
       </c>
       <c r="C412" t="n">
-        <v>34551189.37496376</v>
+        <v>34551189.3745046</v>
       </c>
       <c r="D412" t="n">
-        <v>28452516.59490941</v>
+        <v>28452516.59458009</v>
       </c>
       <c r="E412" t="n">
-        <v>34874216.22078584</v>
+        <v>34874216.22041313</v>
       </c>
       <c r="F412" t="n">
-        <v>30794543.32047563</v>
+        <v>30794543.32019415</v>
       </c>
       <c r="G412" t="n">
-        <v>25673018.19718169</v>
+        <v>25673018.19704811</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
@@ -11166,25 +11166,25 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>98462896.80123053</v>
+        <v>98462896.80286899</v>
       </c>
       <c r="C413" t="n">
-        <v>34526614.59190416</v>
+        <v>34526614.59142987</v>
       </c>
       <c r="D413" t="n">
-        <v>28447512.41504767</v>
+        <v>28447512.41471276</v>
       </c>
       <c r="E413" t="n">
-        <v>34872833.41315445</v>
+        <v>34872833.41277982</v>
       </c>
       <c r="F413" t="n">
-        <v>30794352.70199768</v>
+        <v>30794352.70171593</v>
       </c>
       <c r="G413" t="n">
-        <v>25673000.99624538</v>
+        <v>25673000.99611177</v>
       </c>
       <c r="H413" t="n">
-        <v>2950088.318361373</v>
+        <v>2950088.318356461</v>
       </c>
     </row>
     <row r="414">
@@ -11192,25 +11192,25 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>97696810.2804566</v>
+        <v>97696810.28212243</v>
       </c>
       <c r="C414" t="n">
-        <v>34499650.48770802</v>
+        <v>34499650.48721755</v>
       </c>
       <c r="D414" t="n">
-        <v>28441841.5215301</v>
+        <v>28441841.52118899</v>
       </c>
       <c r="E414" t="n">
-        <v>34871221.39103944</v>
+        <v>34871221.39066264</v>
       </c>
       <c r="F414" t="n">
-        <v>30794123.57918176</v>
+        <v>30794123.57889968</v>
       </c>
       <c r="G414" t="n">
-        <v>25672979.65046859</v>
+        <v>25672979.65033495</v>
       </c>
       <c r="H414" t="n">
-        <v>5913263.467667278</v>
+        <v>5913263.467659794</v>
       </c>
     </row>
     <row r="415">
@@ -11218,25 +11218,25 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>96918844.83375768</v>
+        <v>96918844.83544987</v>
       </c>
       <c r="C415" t="n">
-        <v>34470105.34970596</v>
+        <v>34470105.34919818</v>
       </c>
       <c r="D415" t="n">
-        <v>28435426.06677422</v>
+        <v>28435426.06642625</v>
       </c>
       <c r="E415" t="n">
-        <v>34869345.76680058</v>
+        <v>34869345.7664213</v>
       </c>
       <c r="F415" t="n">
-        <v>30793848.7554975</v>
+        <v>30793848.75521505</v>
       </c>
       <c r="G415" t="n">
-        <v>25672953.22129937</v>
+        <v>25672953.22116571</v>
       </c>
       <c r="H415" t="n">
-        <v>8889351.490364455</v>
+        <v>8889351.490356874</v>
       </c>
     </row>
     <row r="416">
@@ -11244,25 +11244,25 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>96128859.1044395</v>
+        <v>96128859.10615712</v>
       </c>
       <c r="C416" t="n">
-        <v>34437776.61115933</v>
+        <v>34437776.61063305</v>
       </c>
       <c r="D416" t="n">
-        <v>28428180.70263208</v>
+        <v>28428180.70227652</v>
       </c>
       <c r="E416" t="n">
-        <v>34867167.62667416</v>
+        <v>34867167.62629208</v>
       </c>
       <c r="F416" t="n">
-        <v>30793519.8113827</v>
+        <v>30793519.8110998</v>
       </c>
       <c r="G416" t="n">
-        <v>25672920.57255058</v>
+        <v>25672920.57241688</v>
       </c>
       <c r="H416" t="n">
-        <v>11878196.78714356</v>
+        <v>11878196.7871386</v>
       </c>
     </row>
     <row r="417">
@@ -11270,25 +11270,25 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>95326719.80046046</v>
+        <v>95326719.80220243</v>
       </c>
       <c r="C417" t="n">
-        <v>34402450.7146591</v>
+        <v>34402450.71411309</v>
       </c>
       <c r="D417" t="n">
-        <v>28420012.07216171</v>
+        <v>28420012.07179783</v>
       </c>
       <c r="E417" t="n">
-        <v>34864643.03900979</v>
+        <v>34864643.0386245</v>
       </c>
       <c r="F417" t="n">
-        <v>30793126.92055522</v>
+        <v>30793126.92027181</v>
       </c>
       <c r="G417" t="n">
-        <v>25672880.3322827</v>
+        <v>25672880.33214895</v>
       </c>
       <c r="H417" t="n">
-        <v>14879663.04146825</v>
+        <v>14879663.0414689</v>
       </c>
     </row>
     <row r="418">
@@ -11296,25 +11296,25 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>94512302.58216742</v>
+        <v>94512302.58393268</v>
       </c>
       <c r="C418" t="n">
-        <v>34363903.02893096</v>
+        <v>34363903.02836395</v>
       </c>
       <c r="D418" t="n">
-        <v>28410818.29465716</v>
+        <v>28410818.29428409</v>
       </c>
       <c r="E418" t="n">
-        <v>34861722.52511606</v>
+        <v>34861722.52472715</v>
       </c>
       <c r="F418" t="n">
-        <v>30792658.64323735</v>
+        <v>30792658.64295334</v>
       </c>
       <c r="G418" t="n">
-        <v>25672830.84811411</v>
+        <v>25672830.84798031</v>
       </c>
       <c r="H418" t="n">
-        <v>17893634.11043208</v>
+        <v>17893634.11044133</v>
       </c>
     </row>
     <row r="419">
@@ -11322,25 +11322,25 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>93685492.97957161</v>
+        <v>93685492.98135906</v>
       </c>
       <c r="C419" t="n">
-        <v>34321897.82488663</v>
+        <v>34321897.82429732</v>
       </c>
       <c r="D419" t="n">
-        <v>28400488.44786113</v>
+        <v>28400488.447478</v>
       </c>
       <c r="E419" t="n">
-        <v>34858350.49227281</v>
+        <v>34858350.49187981</v>
       </c>
       <c r="F419" t="n">
-        <v>30792101.69418155</v>
+        <v>30792101.69389683</v>
       </c>
       <c r="G419" t="n">
-        <v>25672770.13498935</v>
+        <v>25672770.13485549</v>
       </c>
       <c r="H419" t="n">
-        <v>20920014.87785416</v>
+        <v>20920014.87787524</v>
       </c>
     </row>
     <row r="420">
@@ -11348,25 +11348,25 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>92846187.33659048</v>
+        <v>92846187.33839886</v>
       </c>
       <c r="C420" t="n">
-        <v>34276188.31678888</v>
+        <v>34276188.31617592</v>
       </c>
       <c r="D420" t="n">
-        <v>28388902.05182493</v>
+        <v>28388902.05143079</v>
       </c>
       <c r="E420" t="n">
-        <v>34854464.62887637</v>
+        <v>34854464.62847877</v>
       </c>
       <c r="F420" t="n">
-        <v>30791440.68332948</v>
+        <v>30791440.68304393</v>
       </c>
       <c r="G420" t="n">
-        <v>25672695.81432509</v>
+        <v>25672695.81419114</v>
       </c>
       <c r="H420" t="n">
-        <v>23958732.06535883</v>
+        <v>23958732.0653952</v>
       </c>
     </row>
     <row r="421">
@@ -11374,25 +11374,25 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>91994293.77931494</v>
+        <v>91994293.78114311</v>
       </c>
       <c r="C421" t="n">
-        <v>34226516.77436579</v>
+        <v>34226516.77372781</v>
       </c>
       <c r="D421" t="n">
-        <v>28375928.55943146</v>
+        <v>28375928.55902527</v>
       </c>
       <c r="E421" t="n">
-        <v>34849995.26216036</v>
+        <v>34849995.26175758</v>
       </c>
       <c r="F421" t="n">
-        <v>30790657.82690226</v>
+        <v>30790657.82661576</v>
       </c>
       <c r="G421" t="n">
-        <v>25672605.04333741</v>
+        <v>25672605.04320337</v>
       </c>
       <c r="H421" t="n">
-        <v>27009734.99701136</v>
+        <v>27009734.99706654</v>
       </c>
     </row>
     <row r="422">
@@ -11400,25 +11400,25 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>91129733.20498954</v>
+        <v>91129733.20683628</v>
       </c>
       <c r="C422" t="n">
-        <v>34172614.71161114</v>
+        <v>34172614.71094673</v>
       </c>
       <c r="D422" t="n">
-        <v>28361426.8591532</v>
+        <v>28361426.85873389</v>
       </c>
       <c r="E422" t="n">
-        <v>34844864.67947809</v>
+        <v>34844864.67906949</v>
       </c>
       <c r="F422" t="n">
-        <v>30789732.62671685</v>
+        <v>30789732.62642926</v>
       </c>
       <c r="G422" t="n">
-        <v>25672494.4332312</v>
+        <v>25672494.43309705</v>
       </c>
       <c r="H422" t="n">
-        <v>30072996.31289089</v>
+        <v>30072996.31296855</v>
       </c>
     </row>
     <row r="423">
@@ -11426,25 +11426,25 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>90252440.28801784</v>
+        <v>90252440.28988181</v>
       </c>
       <c r="C423" t="n">
-        <v>34114203.15783982</v>
+        <v>34114203.15714756</v>
       </c>
       <c r="D423" t="n">
-        <v>28345244.79617046</v>
+        <v>28345244.79573686</v>
       </c>
       <c r="E423" t="n">
-        <v>34838986.41474704</v>
+        <v>34838986.41433193</v>
       </c>
       <c r="F423" t="n">
-        <v>30788641.51555536</v>
+        <v>30788641.5152665</v>
       </c>
       <c r="G423" t="n">
-        <v>25672359.95480674</v>
+        <v>25672359.95467244</v>
       </c>
       <c r="H423" t="n">
-        <v>33148512.6267894</v>
+        <v>33148512.62689353</v>
       </c>
     </row>
     <row r="424">
@@ -11452,25 +11452,25 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>89362364.49893655</v>
+        <v>89362364.50081639</v>
       </c>
       <c r="C424" t="n">
-        <v>34050993.01632237</v>
+        <v>34050993.0156008</v>
       </c>
       <c r="D424" t="n">
-        <v>28327218.71851546</v>
+        <v>28327218.71806636</v>
       </c>
       <c r="E424" t="n">
-        <v>34832264.50234033</v>
+        <v>34832264.50191796</v>
       </c>
       <c r="F424" t="n">
-        <v>30787357.4664875</v>
+        <v>30787357.46619717</v>
       </c>
       <c r="G424" t="n">
-        <v>25672196.8299094</v>
+        <v>25672196.82977495</v>
       </c>
       <c r="H424" t="n">
-        <v>36236305.12300602</v>
+        <v>36236305.12314074</v>
       </c>
     </row>
     <row r="425">
@@ -11478,25 +11478,25 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>88459471.13193341</v>
+        <v>88459471.13382782</v>
       </c>
       <c r="C425" t="n">
-        <v>33982685.51549991</v>
+        <v>33982685.51474756</v>
       </c>
       <c r="D425" t="n">
-        <v>28307173.05542882</v>
+        <v>28307173.05496291</v>
       </c>
       <c r="E425" t="n">
-        <v>34824592.7014644</v>
+        <v>34824592.70103391</v>
       </c>
       <c r="F425" t="n">
-        <v>30785849.56416842</v>
+        <v>30785849.5638764</v>
       </c>
       <c r="G425" t="n">
-        <v>25671999.40701989</v>
+        <v>25671999.40688525</v>
       </c>
       <c r="H425" t="n">
-        <v>39336420.08699295</v>
+        <v>39336420.08716249</v>
       </c>
     </row>
     <row r="426">
@@ -11504,25 +11504,25 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>87543742.33612913</v>
+        <v>87543742.33803675</v>
       </c>
       <c r="C426" t="n">
-        <v>33908972.75737446</v>
+        <v>33908972.75658985</v>
       </c>
       <c r="D426" t="n">
-        <v>28284919.93560226</v>
+        <v>28284919.93511817</v>
       </c>
       <c r="E426" t="n">
-        <v>34815853.69488417</v>
+        <v>34815853.69444466</v>
       </c>
       <c r="F426" t="n">
-        <v>30784082.53631023</v>
+        <v>30784082.53601629</v>
       </c>
       <c r="G426" t="n">
-        <v>25671761.01915469</v>
+        <v>25671761.01901982</v>
       </c>
       <c r="H426" t="n">
-        <v>42448929.36436404</v>
+        <v>42448929.36457281</v>
       </c>
     </row>
     <row r="427">
@@ -11530,25 +11530,25 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>86615178.14549835</v>
+        <v>86615178.14741774</v>
       </c>
       <c r="C427" t="n">
-        <v>33829538.36717843</v>
+        <v>33829538.36636009</v>
       </c>
       <c r="D427" t="n">
-        <v>28260258.85342798</v>
+        <v>28260258.85292432</v>
       </c>
       <c r="E427" t="n">
-        <v>34805918.26674232</v>
+        <v>34805918.26629281</v>
       </c>
       <c r="F427" t="n">
-        <v>30782016.24376279</v>
+        <v>30782016.24346664</v>
       </c>
       <c r="G427" t="n">
-        <v>25671473.82212529</v>
+        <v>25671473.82199016</v>
       </c>
       <c r="H427" t="n">
-        <v>45573930.74253985</v>
+        <v>45573930.7427925</v>
       </c>
     </row>
     <row r="428">
@@ -11556,25 +11556,25 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>85673797.50197867</v>
+        <v>85673797.50390844</v>
       </c>
       <c r="C428" t="n">
-        <v>33744058.2478497</v>
+        <v>33744058.24699616</v>
       </c>
       <c r="D428" t="n">
-        <v>28232976.39176595</v>
+        <v>28232976.3912412</v>
       </c>
       <c r="E428" t="n">
-        <v>34794644.46516282</v>
+        <v>34794644.46470223</v>
       </c>
       <c r="F428" t="n">
-        <v>30779605.12794436</v>
+        <v>30779605.12764569</v>
       </c>
       <c r="G428" t="n">
-        <v>25671128.61109163</v>
+        <v>25671128.61095618</v>
       </c>
       <c r="H428" t="n">
-        <v>48711548.24904457</v>
+        <v>48711548.24934591</v>
       </c>
     </row>
     <row r="429">
@@ -11582,25 +11582,25 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>84719639.26601146</v>
+        <v>84719639.26795013</v>
       </c>
       <c r="C429" t="n">
-        <v>33652201.44217352</v>
+        <v>33652201.44128333</v>
       </c>
       <c r="D429" t="n">
-        <v>28202846.01006572</v>
+        <v>28202846.00951832</v>
       </c>
       <c r="E429" t="n">
-        <v>34781876.75632272</v>
+        <v>34781876.75584991</v>
       </c>
       <c r="F429" t="n">
-        <v>30776797.61474184</v>
+        <v>30776797.6144403</v>
       </c>
       <c r="G429" t="n">
-        <v>25670714.61324464</v>
+        <v>25670714.61310881</v>
       </c>
       <c r="H429" t="n">
-        <v>51861932.36020374</v>
+        <v>51861932.3605586</v>
       </c>
     </row>
     <row r="430">
@@ -11608,25 +11608,25 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>83752763.20847724</v>
+        <v>83752763.21042337</v>
       </c>
       <c r="C430" t="n">
-        <v>33553631.10470205</v>
+        <v>33553631.10377375</v>
       </c>
       <c r="D430" t="n">
-        <v>28169627.90692627</v>
+        <v>28169627.9063546</v>
       </c>
       <c r="E430" t="n">
-        <v>34767445.17771114</v>
+        <v>34767445.17722484</v>
       </c>
       <c r="F430" t="n">
-        <v>30773535.47445808</v>
+        <v>30773535.4741533</v>
       </c>
       <c r="G430" t="n">
-        <v>25670219.25437111</v>
+        <v>25670219.25423485</v>
       </c>
       <c r="H430" t="n">
-        <v>55025260.11372508</v>
+        <v>55025260.11413871</v>
       </c>
     </row>
     <row r="431">
@@ -11634,25 +11634,25 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>82773250.97773856</v>
+        <v>82773250.97969072</v>
       </c>
       <c r="C431" t="n">
-        <v>33448005.58472667</v>
+        <v>33448005.58375888</v>
       </c>
       <c r="D431" t="n">
-        <v>28133068.96633263</v>
+        <v>28133068.965735</v>
       </c>
       <c r="E431" t="n">
-        <v>34751164.4993577</v>
+        <v>34751164.49885659</v>
       </c>
       <c r="F431" t="n">
-        <v>30769753.13792771</v>
+        <v>30769753.13761923</v>
       </c>
       <c r="G431" t="n">
-        <v>25669627.89699404</v>
+        <v>25669627.89685727</v>
       </c>
       <c r="H431" t="n">
-        <v>58201735.11836728</v>
+        <v>58201735.1188448</v>
       </c>
     </row>
     <row r="432">
@@ -11660,25 +11660,25 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>81781207.03528537</v>
+        <v>81781207.03724203</v>
       </c>
       <c r="C432" t="n">
-        <v>33334979.62066266</v>
+        <v>33334979.61965401</v>
       </c>
       <c r="D432" t="n">
-        <v>28092902.7968606</v>
+        <v>28092902.79623529</v>
       </c>
       <c r="E432" t="n">
-        <v>34732833.40289247</v>
+        <v>34732833.40237512</v>
       </c>
       <c r="F432" t="n">
-        <v>30765376.96955389</v>
+        <v>30765376.96924125</v>
       </c>
       <c r="G432" t="n">
-        <v>25668923.54775103</v>
+        <v>25668923.54761368</v>
       </c>
       <c r="H432" t="n">
-        <v>61391587.45362292</v>
+        <v>61391587.45416961</v>
       </c>
     </row>
     <row r="433">
@@ -11686,25 +11686,25 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>80776759.55329837</v>
+        <v>80776759.5552581</v>
       </c>
       <c r="C433" t="n">
-        <v>33214205.64521296</v>
+        <v>33214205.64416211</v>
       </c>
       <c r="D433" t="n">
-        <v>28048849.87307841</v>
+        <v>28048849.87242364</v>
       </c>
       <c r="E433" t="n">
-        <v>34712233.68937668</v>
+        <v>34712233.68884154</v>
       </c>
       <c r="F433" t="n">
-        <v>30760324.4987434</v>
+        <v>30760324.49842606</v>
       </c>
       <c r="G433" t="n">
-        <v>25668086.53167812</v>
+        <v>25668086.53154008</v>
       </c>
       <c r="H433" t="n">
-        <v>64595073.45207164</v>
+        <v>64595073.45269307</v>
       </c>
     </row>
     <row r="434">
@@ -11712,25 +11712,25 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>79760061.26730901</v>
+        <v>79760061.26927033</v>
       </c>
       <c r="C434" t="n">
-        <v>33085335.19961585</v>
+        <v>33085335.19852155</v>
       </c>
       <c r="D434" t="n">
-        <v>28000617.78818497</v>
+        <v>28000617.78749891</v>
       </c>
       <c r="E434" t="n">
-        <v>34689129.52790327</v>
+        <v>34689129.52734871</v>
       </c>
       <c r="F434" t="n">
-        <v>30754503.61203342</v>
+        <v>30754503.61171081</v>
       </c>
       <c r="G434" t="n">
-        <v>25667094.13111255</v>
+        <v>25667094.13097372</v>
       </c>
       <c r="H434" t="n">
-        <v>67812475.35678405</v>
+        <v>67812475.35748595</v>
       </c>
     </row>
     <row r="435">
@@ -11738,25 +11738,25 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>78731290.27703969</v>
+        <v>78731290.27900115</v>
       </c>
       <c r="C435" t="n">
-        <v>32948020.45415678</v>
+        <v>32948020.45301782</v>
       </c>
       <c r="D435" t="n">
-        <v>27947901.62659949</v>
+        <v>27947901.62588028</v>
       </c>
       <c r="E435" t="n">
-        <v>34663266.75798533</v>
+        <v>34663266.75740965</v>
       </c>
       <c r="F435" t="n">
-        <v>30747811.70911516</v>
+        <v>30747811.70878663</v>
       </c>
       <c r="G435" t="n">
-        <v>25665920.18702435</v>
+        <v>25665920.18688459</v>
       </c>
       <c r="H435" t="n">
-        <v>71044100.8459062</v>
+        <v>71044100.84669426</v>
       </c>
     </row>
     <row r="436">
@@ -11764,25 +11764,25 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>77690650.7884651</v>
+        <v>77690650.79042523</v>
       </c>
       <c r="C436" t="n">
-        <v>32801915.83094634</v>
+        <v>32801915.82976162</v>
       </c>
       <c r="D436" t="n">
-        <v>27890384.46474631</v>
+        <v>27890384.46399207</v>
       </c>
       <c r="E436" t="n">
-        <v>34634372.2597091</v>
+        <v>34634372.25911047</v>
       </c>
       <c r="F436" t="n">
-        <v>30740134.82696055</v>
+        <v>30740134.82662539</v>
       </c>
       <c r="G436" t="n">
-        <v>25664534.66073891</v>
+        <v>25664534.66059809</v>
       </c>
       <c r="H436" t="n">
-        <v>74290282.41630304</v>
+        <v>74290282.41718294</v>
       </c>
     </row>
     <row r="437">
@@ -11790,25 +11790,25 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>76638373.7901424</v>
+        <v>76638373.79209977</v>
       </c>
       <c r="C437" t="n">
-        <v>32646679.72374582</v>
+        <v>32646679.72251432</v>
       </c>
       <c r="D437" t="n">
-        <v>27827738.00765531</v>
+        <v>27827738.00686415</v>
       </c>
       <c r="E437" t="n">
-        <v>34602153.40650035</v>
+        <v>34602153.40587682</v>
       </c>
       <c r="F437" t="n">
-        <v>30731346.73734731</v>
+        <v>30731346.73700476</v>
       </c>
       <c r="G437" t="n">
-        <v>25662903.15423058</v>
+        <v>25662903.15408853</v>
       </c>
       <c r="H437" t="n">
-        <v>77551376.61793083</v>
+        <v>77551376.61890861</v>
       </c>
     </row>
     <row r="438">
@@ -11816,25 +11816,25 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>75574717.65691935</v>
+        <v>75574717.65887251</v>
       </c>
       <c r="C438" t="n">
-        <v>32481976.30837025</v>
+        <v>32481976.30709103</v>
       </c>
       <c r="D438" t="n">
-        <v>27759623.36821578</v>
+        <v>27759623.36738578</v>
       </c>
       <c r="E438" t="n">
-        <v>34566297.61611551</v>
+        <v>34566297.61546509</v>
       </c>
       <c r="F438" t="n">
-        <v>30721308.02424689</v>
+        <v>30721308.0238961</v>
       </c>
       <c r="G438" t="n">
-        <v>25660986.38745652</v>
+        <v>25660986.38731308</v>
       </c>
       <c r="H438" t="n">
-        <v>80827763.13040927</v>
+        <v>80827763.1314908</v>
       </c>
     </row>
     <row r="439">
@@ -11842,25 +11842,25 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>74499968.67424826</v>
+        <v>74499968.67619585</v>
       </c>
       <c r="C439" t="n">
-        <v>32307477.43592896</v>
+        <v>32307477.4346012</v>
       </c>
       <c r="D439" t="n">
-        <v>27685691.99497763</v>
+        <v>27685691.99410688</v>
       </c>
       <c r="E439" t="n">
-        <v>34526472.01609422</v>
+        <v>34526472.01541479</v>
       </c>
       <c r="F439" t="n">
-        <v>30709865.14877897</v>
+        <v>30709865.14841904</v>
       </c>
       <c r="G439" t="n">
-        <v>25658739.63156979</v>
+        <v>25658739.63142473</v>
       </c>
       <c r="H439" t="n">
-        <v>84119843.67312376</v>
+        <v>84119843.67431502</v>
       </c>
     </row>
     <row r="440">
@@ -11868,25 +11868,25 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>73414441.47651106</v>
+        <v>73414441.47845161</v>
       </c>
       <c r="C440" t="n">
-        <v>32122864.59989149</v>
+        <v>32122864.59851449</v>
       </c>
       <c r="D440" t="n">
-        <v>27605586.75328577</v>
+        <v>27605586.75237237</v>
       </c>
       <c r="E440" t="n">
-        <v>34482323.24037154</v>
+        <v>34482323.2396609</v>
       </c>
       <c r="F440" t="n">
-        <v>30696849.51073445</v>
+        <v>30696849.51036439</v>
       </c>
       <c r="G440" t="n">
-        <v>25656112.09730666</v>
+        <v>25656112.09715976</v>
       </c>
       <c r="H440" t="n">
-        <v>87428040.74007624</v>
+        <v>87428040.74138327</v>
       </c>
     </row>
     <row r="441">
@@ -11894,25 +11894,25 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>72318479.39299691</v>
+        <v>72318479.39492914</v>
       </c>
       <c r="C441" t="n">
-        <v>31927830.96670537</v>
+        <v>31927830.96527855</v>
       </c>
       <c r="D441" t="n">
-        <v>27518943.16326364</v>
+        <v>27518943.16230572</v>
       </c>
       <c r="E441" t="n">
-        <v>34433477.3740195</v>
+        <v>34433477.37327538</v>
       </c>
       <c r="F441" t="n">
-        <v>30682076.5170094</v>
+        <v>30682076.51662816</v>
       </c>
       <c r="G441" t="n">
-        <v>25653046.27839281</v>
+        <v>25653046.27824382</v>
       </c>
       <c r="H441" t="n">
-        <v>90752796.15066728</v>
+        <v>90752796.15209615</v>
       </c>
     </row>
     <row r="442">
@@ -11920,25 +11920,25 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>71212454.69547296</v>
+        <v>71212454.6973955</v>
       </c>
       <c r="C442" t="n">
-        <v>31722083.45845975</v>
+        <v>31722083.45698268</v>
       </c>
       <c r="D442" t="n">
-        <v>27425390.7967347</v>
+        <v>27425390.79573044</v>
       </c>
       <c r="E442" t="n">
-        <v>34379540.06314199</v>
+        <v>34379540.06236205</v>
       </c>
       <c r="F442" t="n">
-        <v>30665344.66865738</v>
+        <v>30665344.66826382</v>
       </c>
       <c r="G442" t="n">
-        <v>25649477.25046105</v>
+        <v>25649477.25030968</v>
       </c>
       <c r="H442" t="n">
-        <v>94094569.40761341</v>
+        <v>94094569.40917014</v>
       </c>
     </row>
     <row r="443">
@@ -11946,25 +11946,25 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>70096768.74164668</v>
+        <v>70096768.74355824</v>
       </c>
       <c r="C443" t="n">
-        <v>31505344.87490153</v>
+        <v>31505344.87337392</v>
       </c>
       <c r="D443" t="n">
-        <v>27324554.83359182</v>
+        <v>27324554.83253944</v>
       </c>
       <c r="E443" t="n">
-        <v>34320096.80675866</v>
+        <v>34320096.80594046</v>
       </c>
       <c r="F443" t="n">
-        <v>30646434.67963503</v>
+        <v>30646434.67922789</v>
       </c>
       <c r="G443" t="n">
-        <v>25645331.92672404</v>
+        <v>25645331.92656997</v>
       </c>
       <c r="H443" t="n">
-        <v>97453835.85330945</v>
+        <v>97453835.85499993</v>
       </c>
     </row>
     <row r="444">
@@ -11972,25 +11972,25 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>68971852.00923857</v>
+        <v>68971852.01113784</v>
       </c>
       <c r="C444" t="n">
-        <v>31277356.04098583</v>
+        <v>31277356.03940756</v>
       </c>
       <c r="D444" t="n">
-        <v>27216057.77640683</v>
+        <v>27216057.77530462</v>
       </c>
       <c r="E444" t="n">
-        <v>34254713.44705942</v>
+        <v>34254713.44620048</v>
       </c>
       <c r="F444" t="n">
-        <v>30625108.64166034</v>
+        <v>30625108.64123835</v>
       </c>
       <c r="G444" t="n">
-        <v>25640528.27250183</v>
+        <v>25640528.27234471</v>
       </c>
       <c r="H444" t="n">
-        <v>100831084.6161527</v>
+        <v>100831084.6179829</v>
       </c>
     </row>
     <row r="445">
@@ -11998,25 +11998,25 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>67838164.01586239</v>
+        <v>67838164.01774824</v>
       </c>
       <c r="C445" t="n">
-        <v>31037877.96509787</v>
+        <v>31037877.96346896</v>
       </c>
       <c r="D445" t="n">
-        <v>27099521.3202266</v>
+        <v>27099521.31907294</v>
       </c>
       <c r="E445" t="n">
-        <v>34182936.87366926</v>
+        <v>34182936.87276708</v>
       </c>
       <c r="F445" t="n">
-        <v>30601109.25089857</v>
+        <v>30601109.25046033</v>
       </c>
       <c r="G445" t="n">
-        <v>25634974.48166588</v>
+        <v>25634974.48150532</v>
       </c>
       <c r="H445" t="n">
-        <v>104226816.3386541</v>
+        <v>104226816.3406297</v>
       </c>
     </row>
     <row r="446">
@@ -12024,25 +12024,25 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>66696193.12044815</v>
+        <v>66696193.12231937</v>
       </c>
       <c r="C446" t="n">
-        <v>30786693.99213661</v>
+        <v>30786693.99045728</v>
       </c>
       <c r="D446" t="n">
-        <v>26974568.37254745</v>
+        <v>26974568.37134079</v>
       </c>
       <c r="E446" t="n">
-        <v>34104295.95651567</v>
+        <v>34104295.95556769</v>
       </c>
       <c r="F446" t="n">
-        <v>30574159.11340365</v>
+        <v>30574159.11294769</v>
       </c>
       <c r="G446" t="n">
-        <v>25628568.11912788</v>
+        <v>25628568.11896346</v>
       </c>
       <c r="H446" t="n">
-        <v>107641540.679599</v>
+        <v>107641540.6817259</v>
       </c>
     </row>
     <row r="447">
@@ -12050,25 +12050,25 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>65546456.20253441</v>
+        <v>65546456.20438986</v>
       </c>
       <c r="C447" t="n">
-        <v>30523611.93481924</v>
+        <v>30523611.93308986</v>
       </c>
       <c r="D447" t="n">
-        <v>26840825.2164143</v>
+        <v>26840825.21515324</v>
       </c>
       <c r="E447" t="n">
-        <v>34018302.72052288</v>
+        <v>34018302.71952653</v>
       </c>
       <c r="F447" t="n">
-        <v>30543960.14734391</v>
+        <v>30543960.14686868</v>
       </c>
       <c r="G447" t="n">
-        <v>25621195.23466774</v>
+        <v>25621195.23449899</v>
       </c>
       <c r="H447" t="n">
-        <v>111075773.5830938</v>
+        <v>111075773.5853774</v>
       </c>
     </row>
     <row r="448">
@@ -12076,25 +12076,25 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>64389498.21640244</v>
+        <v>64389498.21824102</v>
       </c>
       <c r="C448" t="n">
-        <v>30248466.16586548</v>
+        <v>30248466.16408662</v>
       </c>
       <c r="D448" t="n">
-        <v>26697923.80747912</v>
+        <v>26697923.80616236</v>
       </c>
       <c r="E448" t="n">
-        <v>33924453.77365989</v>
+        <v>33924453.77261259</v>
       </c>
       <c r="F448" t="n">
-        <v>30510193.1009916</v>
+        <v>30510193.10049545</v>
       </c>
       <c r="G448" t="n">
-        <v>25612729.45465439</v>
+        <v>25612729.45448078</v>
       </c>
       <c r="H448" t="n">
-        <v>114530034.3080662</v>
+        <v>114530034.3105119</v>
       </c>
     </row>
     <row r="449">
@@ -12102,25 +12102,25 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>63225891.61771823</v>
+        <v>63225891.6195389</v>
       </c>
       <c r="C449" t="n">
-        <v>29961119.65316927</v>
+        <v>29961119.65134171</v>
       </c>
       <c r="D449" t="n">
-        <v>26545504.19370012</v>
+        <v>26545504.1923265</v>
       </c>
       <c r="E449" t="n">
-        <v>33822231.99783543</v>
+        <v>33822231.9967346</v>
       </c>
       <c r="F449" t="n">
-        <v>30472517.20622213</v>
+        <v>30472517.20570336</v>
       </c>
       <c r="G449" t="n">
-        <v>25603031.05955438</v>
+        <v>25603031.05937537</v>
       </c>
       <c r="H449" t="n">
-        <v>118004842.2126944</v>
+        <v>118004842.2153074</v>
       </c>
     </row>
     <row r="450">
@@ -12128,25 +12128,25 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>62056235.66108639</v>
+        <v>62056235.6628881</v>
       </c>
       <c r="C450" t="n">
-        <v>29661465.91967563</v>
+        <v>29661465.91780031</v>
       </c>
       <c r="D450" t="n">
-        <v>26383217.0441978</v>
+        <v>26383217.04276633</v>
       </c>
       <c r="E450" t="n">
-        <v>33711108.50976685</v>
+        <v>33711108.50860997</v>
       </c>
       <c r="F450" t="n">
-        <v>30430569.98781271</v>
+        <v>30430569.98726953</v>
       </c>
       <c r="G450" t="n">
-        <v>25591946.05653339</v>
+        <v>25591946.05634836</v>
       </c>
       <c r="H450" t="n">
-        <v>121500713.2893174</v>
+        <v>121500713.2921025</v>
       </c>
     </row>
     <row r="451">
@@ -12154,25 +12154,25 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>60881155.56769787</v>
+        <v>60881155.56947976</v>
       </c>
       <c r="C451" t="n">
-        <v>29349430.90946694</v>
+        <v>29349430.907545</v>
       </c>
       <c r="D451" t="n">
-        <v>26210726.27163728</v>
+        <v>26210726.27014714</v>
       </c>
       <c r="E451" t="n">
-        <v>33590544.89625604</v>
+        <v>33590544.89504062</v>
       </c>
       <c r="F451" t="n">
-        <v>30383967.24911439</v>
+        <v>30383967.24854494</v>
       </c>
       <c r="G451" t="n">
-        <v>25579305.25791625</v>
+        <v>25579305.25772455</v>
       </c>
       <c r="H451" t="n">
-        <v>125018156.4466853</v>
+        <v>125018156.4496471</v>
       </c>
     </row>
     <row r="452">
@@ -12180,25 +12180,25 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>59701301.56306504</v>
+        <v>59701301.56482614</v>
       </c>
       <c r="C452" t="n">
-        <v>29024974.74153634</v>
+        <v>29024974.73956912</v>
       </c>
       <c r="D452" t="n">
-        <v>26027711.73041061</v>
+        <v>26027711.72886119</v>
       </c>
       <c r="E452" t="n">
-        <v>33459995.72529906</v>
+        <v>33459995.72402268</v>
       </c>
       <c r="F452" t="n">
-        <v>30332303.25465994</v>
+        <v>30332303.25406234</v>
       </c>
       <c r="G452" t="n">
-        <v>25564923.37776176</v>
+        <v>25564923.37756267</v>
       </c>
       <c r="H452" t="n">
-        <v>128557669.5379081</v>
+        <v>128557669.5410512</v>
       </c>
     </row>
   </sheetData>
